--- a/on_trucks/Processed_Stand_Alone/60_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/60_11R22.xlsx
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>105</v>
       </c>
       <c r="E2">
-        <v>0.0009021452709374127</v>
+        <v>0.0008811094389498533</v>
       </c>
       <c r="F2">
         <v>0.5233027866330675</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>60</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>106</v>
       </c>
       <c r="E4">
-        <v>0.001457729685666514</v>
+        <v>0.00145005778202023</v>
       </c>
       <c r="F4">
         <v>0.522159434952752</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H4">
         <v>60</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>106</v>
       </c>
       <c r="E5">
-        <v>0.00184051265537008</v>
+        <v>0.001811627857055639</v>
       </c>
       <c r="F5">
         <v>0.5275693895061894</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5">
         <v>60</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>103</v>
       </c>
       <c r="E6">
-        <v>0.001564881344447041</v>
+        <v>0.001517425660188766</v>
       </c>
       <c r="F6">
         <v>0.504779487860931</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>60</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>113</v>
       </c>
       <c r="E2">
-        <v>0.0009021452709374127</v>
+        <v>0.0008811094389498533</v>
       </c>
       <c r="F2">
         <v>0.7054513971958609</v>
       </c>
       <c r="G2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H2">
         <v>60</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>114</v>
       </c>
       <c r="E4">
-        <v>0.001457729685666514</v>
+        <v>0.00145005778202023</v>
       </c>
       <c r="F4">
         <v>0.704730782057396</v>
       </c>
       <c r="G4">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H4">
         <v>60</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>114</v>
       </c>
       <c r="E5">
-        <v>0.00184051265537008</v>
+        <v>0.001811627857055639</v>
       </c>
       <c r="F5">
         <v>0.7019261986816629</v>
       </c>
       <c r="G5">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H5">
         <v>60</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>112</v>
       </c>
       <c r="E6">
-        <v>0.001564881344447041</v>
+        <v>0.001517425660188766</v>
       </c>
       <c r="F6">
         <v>0.7205051936266745</v>
       </c>
       <c r="G6">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H6">
         <v>60</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>131</v>
       </c>
       <c r="E2">
-        <v>0.0009021452709374127</v>
+        <v>0.0008811094389498533</v>
       </c>
       <c r="F2">
         <v>0.8037849166647205</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H2">
         <v>60</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>130</v>
       </c>
       <c r="E4">
-        <v>0.001457729685666514</v>
+        <v>0.00145005778202023</v>
       </c>
       <c r="F4">
         <v>0.8019911113335224</v>
       </c>
       <c r="G4">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H4">
         <v>60</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>134</v>
       </c>
       <c r="E5">
-        <v>0.00184051265537008</v>
+        <v>0.001811627857055639</v>
       </c>
       <c r="F5">
         <v>0.80285893826605</v>
       </c>
       <c r="G5">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H5">
         <v>60</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>130</v>
       </c>
       <c r="E6">
-        <v>0.001564881344447041</v>
+        <v>0.001517425660188766</v>
       </c>
       <c r="F6">
         <v>0.8014440915249155</v>
       </c>
       <c r="G6">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H6">
         <v>60</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>155</v>
       </c>
       <c r="E2">
-        <v>0.0009021452709374127</v>
+        <v>0.0008811094389498533</v>
       </c>
       <c r="F2">
         <v>0.9129766909147694</v>
       </c>
       <c r="G2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H2">
         <v>60</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D4">
         <v>154</v>
       </c>
       <c r="E4">
-        <v>0.001457729685666514</v>
+        <v>0.00145005778202023</v>
       </c>
       <c r="F4">
         <v>0.9007125231010288</v>
       </c>
       <c r="G4">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H4">
         <v>60</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D5">
         <v>154</v>
       </c>
       <c r="E5">
-        <v>0.00184051265537008</v>
+        <v>0.001811627857055639</v>
       </c>
       <c r="F5">
         <v>0.900228942302676</v>
       </c>
       <c r="G5">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H5">
         <v>60</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D6">
         <v>151</v>
       </c>
       <c r="E6">
-        <v>0.001564881344447041</v>
+        <v>0.001517425660188766</v>
       </c>
       <c r="F6">
         <v>0.9004874650644946</v>
       </c>
       <c r="G6">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H6">
         <v>60</v>

--- a/on_trucks/Processed_Stand_Alone/60_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/60_11R22.xlsx
@@ -1994,604 +1994,604 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>4.237815496765271E-06</v>
+        <v>3.501797420626913E-06</v>
       </c>
       <c r="C2">
-        <v>3.720358709370707E-06</v>
+        <v>2.984268097210071E-06</v>
       </c>
       <c r="D2">
-        <v>7.365088820583754E-07</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>1.380527766369841E-07</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>2.681620734674742E-08</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1.256255069397169E-06</v>
+        <v>5.19819044284421E-07</v>
       </c>
       <c r="H2">
-        <v>3.546595213603649E-06</v>
+        <v>2.810480243635546E-06</v>
       </c>
       <c r="I2">
-        <v>1.106865273036359E-05</v>
+        <v>1.033359218686143E-05</v>
       </c>
       <c r="J2">
-        <v>1.672295659262269E-05</v>
+        <v>1.598868865774199E-05</v>
       </c>
       <c r="K2">
-        <v>2.433342140722899E-05</v>
+        <v>2.360022029156641E-05</v>
       </c>
       <c r="L2">
-        <v>2.260483944933788E-05</v>
+        <v>2.187139602463141E-05</v>
       </c>
       <c r="M2">
-        <v>2.729936533497752E-05</v>
+        <v>2.65665799792007E-05</v>
       </c>
       <c r="N2">
-        <v>2.662553135139236E-05</v>
+        <v>2.589265153896131E-05</v>
       </c>
       <c r="O2">
-        <v>3.243649520983517E-05</v>
+        <v>3.170442996629985E-05</v>
       </c>
       <c r="P2">
-        <v>2.481590239547558E-05</v>
+        <v>2.408276891300008E-05</v>
       </c>
       <c r="Q2">
-        <v>2.563056737563005E-05</v>
+        <v>2.489754809120662E-05</v>
       </c>
       <c r="R2">
-        <v>1.905442453582728E-05</v>
+        <v>1.832048342130102E-05</v>
       </c>
       <c r="S2">
-        <v>8.346185796683874E-06</v>
+        <v>7.610743623397427E-06</v>
       </c>
       <c r="T2">
-        <v>3.189479422303119E-06</v>
+        <v>2.453314392581961E-06</v>
       </c>
       <c r="U2">
-        <v>1.284614068706333E-07</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>1.074618373821905E-06</v>
+        <v>3.381568872528236E-07</v>
       </c>
       <c r="W2">
-        <v>2.271238544671802E-06</v>
+        <v>1.534944797843478E-06</v>
       </c>
       <c r="X2">
-        <v>6.395944444192464E-06</v>
+        <v>5.660228890106619E-06</v>
       </c>
       <c r="Y2">
-        <v>8.142184801653414E-06</v>
+        <v>7.406714031929389E-06</v>
       </c>
       <c r="Z2">
-        <v>1.170464721487053E-05</v>
+        <v>1.096967582375988E-05</v>
       </c>
       <c r="AA2">
-        <v>1.791221956365181E-05</v>
+        <v>1.71781183371948E-05</v>
       </c>
       <c r="AB2">
-        <v>2.84659413065593E-05</v>
+        <v>2.773331947898953E-05</v>
       </c>
       <c r="AC2">
-        <v>2.38255754196003E-05</v>
+        <v>2.309230311513747E-05</v>
       </c>
       <c r="AD2">
-        <v>1.669775859323652E-05</v>
+        <v>1.596348712615238E-05</v>
       </c>
       <c r="AE2">
-        <v>1.181590471216026E-05</v>
+        <v>1.108094891689548E-05</v>
       </c>
       <c r="AF2">
-        <v>9.094246778460837E-06</v>
+        <v>8.358909466815712E-06</v>
       </c>
       <c r="AG2">
-        <v>5.992276154025971E-06</v>
+        <v>5.256504014554058E-06</v>
       </c>
       <c r="AH2">
-        <v>2.079873549333523E-06</v>
+        <v>1.343552977355925E-06</v>
       </c>
       <c r="AI2">
-        <v>3.129217923771112E-08</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>4.021860902026004E-07</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>3.306412919454577E-06</v>
+        <v>2.570264281229213E-06</v>
       </c>
       <c r="AL2">
-        <v>6.828867833646293E-06</v>
+        <v>6.09321296586583E-06</v>
       </c>
       <c r="AM2">
-        <v>7.975486805714236E-06</v>
+        <v>7.239992668609897E-06</v>
       </c>
       <c r="AN2">
-        <v>5.84939285750666E-06</v>
+        <v>5.113600688949745E-06</v>
       </c>
       <c r="AO2">
-        <v>7.884127807939775E-06</v>
+        <v>7.148620864320072E-06</v>
       </c>
       <c r="AP2">
-        <v>1.369039966649688E-05</v>
+        <v>1.295570663405806E-05</v>
       </c>
       <c r="AQ2">
-        <v>1.766455356968504E-05</v>
+        <v>1.693041762592122E-05</v>
       </c>
       <c r="AR2">
-        <v>1.504269163355455E-05</v>
+        <v>1.430818816260693E-05</v>
       </c>
       <c r="AS2">
-        <v>1.593639861178353E-05</v>
+        <v>1.520202041883179E-05</v>
       </c>
       <c r="AT2">
-        <v>9.112844778007782E-06</v>
+        <v>8.377510073391771E-06</v>
       </c>
       <c r="AU2">
-        <v>7.3470248210238E-06</v>
+        <v>6.611442587418202E-06</v>
       </c>
       <c r="AV2">
-        <v>8.725305787448374E-06</v>
+        <v>7.989916758418154E-06</v>
       </c>
       <c r="AW2">
-        <v>6.576894339784459E-06</v>
+        <v>5.841204150880746E-06</v>
       </c>
       <c r="AX2">
-        <v>5.313029170572674E-06</v>
+        <v>4.577161815663406E-06</v>
       </c>
       <c r="AY2">
-        <v>1.444649264807818E-06</v>
+        <v>7.082396484037547E-07</v>
       </c>
       <c r="AZ2">
-        <v>1.950475252485713E-06</v>
+        <v>1.214136541722478E-06</v>
       </c>
       <c r="BA2">
-        <v>5.995851453938875E-08</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>7.932468206762186E-07</v>
+        <v>5.6745892024736E-08</v>
       </c>
       <c r="BC2">
-        <v>2.126925348187324E-06</v>
+        <v>1.390611371833579E-06</v>
       </c>
       <c r="BD2">
-        <v>4.237815496765271E-06</v>
+        <v>3.501797420626913E-06</v>
       </c>
       <c r="BE2">
-        <v>4.78895428333933E-06</v>
+        <v>4.053013464696235E-06</v>
       </c>
       <c r="BF2">
-        <v>8.707106787891707E-06</v>
+        <v>7.971715207763368E-06</v>
       </c>
       <c r="BG2">
-        <v>1.307447268150108E-05</v>
+        <v>1.233969330969134E-05</v>
       </c>
       <c r="BH2">
-        <v>1.378780566412403E-05</v>
+        <v>1.305312628585651E-05</v>
       </c>
       <c r="BI2">
-        <v>1.578264861552893E-05</v>
+        <v>1.50482488702207E-05</v>
       </c>
       <c r="BJ2">
-        <v>1.489332763719312E-05</v>
+        <v>1.415880322870939E-05</v>
       </c>
       <c r="BK2">
-        <v>1.009893575398625E-05</v>
+        <v>9.36373927756386E-06</v>
       </c>
       <c r="BL2">
-        <v>3.354369918286327E-06</v>
+        <v>2.618228002573877E-06</v>
       </c>
       <c r="BM2">
-        <v>1.941875952695195E-06</v>
+        <v>1.2055360364999E-06</v>
       </c>
       <c r="BN2">
-        <v>2.353272342673429E-07</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>3.849429906226486E-08</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>1.905428653583064E-06</v>
+        <v>1.169083628280758E-06</v>
       </c>
       <c r="BQ2">
-        <v>6.007375653658141E-06</v>
+        <v>5.271605630802858E-06</v>
       </c>
       <c r="BR2">
-        <v>9.409026270792693E-06</v>
+        <v>8.673733084285792E-06</v>
       </c>
       <c r="BS2">
-        <v>1.369039966649688E-05</v>
+        <v>1.295570663405806E-05</v>
       </c>
       <c r="BT2">
-        <v>1.821418655629578E-05</v>
+        <v>1.74801276589473E-05</v>
       </c>
       <c r="BU2">
-        <v>2.338266443038978E-05</v>
+        <v>2.264933003958049E-05</v>
       </c>
       <c r="BV2">
-        <v>2.46545493994062E-05</v>
+        <v>2.392139329880141E-05</v>
       </c>
       <c r="BW2">
-        <v>2.481590239547558E-05</v>
+        <v>2.408276891300008E-05</v>
       </c>
       <c r="BX2">
-        <v>2.530312238360673E-05</v>
+        <v>2.457005719862152E-05</v>
       </c>
       <c r="BY2">
-        <v>2.514018938757583E-05</v>
+        <v>2.440710136298021E-05</v>
       </c>
       <c r="BZ2">
-        <v>2.46545493994062E-05</v>
+        <v>2.392139329880141E-05</v>
       </c>
       <c r="CA2">
-        <v>1.593639861178353E-05</v>
+        <v>1.520202041883179E-05</v>
       </c>
       <c r="CB2">
-        <v>1.096097873298657E-05</v>
+        <v>1.022590309596614E-05</v>
       </c>
       <c r="CC2">
-        <v>5.693514461303914E-06</v>
+        <v>4.9577004420358E-06</v>
       </c>
       <c r="CD2">
-        <v>1.950475252485713E-06</v>
+        <v>1.214136541722478E-06</v>
       </c>
       <c r="CE2">
-        <v>9.189377376143421E-07</v>
+        <v>1.82454428055648E-07</v>
       </c>
       <c r="CF2">
-        <v>1.403526365809587E-07</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>2.353272342673429E-07</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>2.786490232120083E-06</v>
+        <v>2.050268712207687E-06</v>
       </c>
       <c r="CI2">
-        <v>5.224411872731424E-06</v>
+        <v>4.488532095632619E-06</v>
       </c>
       <c r="CJ2">
-        <v>9.690744763929929E-06</v>
+        <v>8.955491068138759E-06</v>
       </c>
       <c r="CK2">
-        <v>1.020229975146826E-05</v>
+        <v>9.467117764397273E-06</v>
       </c>
       <c r="CL2">
-        <v>1.083353223609121E-05</v>
+        <v>1.009843873388443E-05</v>
       </c>
       <c r="CM2">
-        <v>1.919630753237096E-05</v>
+        <v>1.846238630670973E-05</v>
       </c>
       <c r="CN2">
-        <v>0.10029365755681</v>
+        <v>0.1003069799021795</v>
       </c>
       <c r="CO2">
-        <v>0.0001688700258862646</v>
+        <v>0.0001681570856128943</v>
       </c>
       <c r="CP2">
-        <v>0.2214994946041916</v>
+        <v>0.2215298073331264</v>
       </c>
       <c r="CQ2">
-        <v>0.002483441239502467</v>
+        <v>0.002483052751034938</v>
       </c>
       <c r="CR2">
-        <v>0.01295983668429366</v>
+        <v>0.01296091675527281</v>
       </c>
       <c r="CS2">
-        <v>0.001828285955462288</v>
+        <v>0.001827805628682003</v>
       </c>
       <c r="CT2">
-        <v>0.0007984239305501023</v>
+        <v>0.000797799239841075</v>
       </c>
       <c r="CU2">
-        <v>0.00199012335151987</v>
+        <v>0.00198966571077106</v>
       </c>
       <c r="CV2">
-        <v>0.03211299221771582</v>
+        <v>0.03211675713842602</v>
       </c>
       <c r="CW2">
-        <v>0.01119952972717538</v>
+        <v>0.01120036304196586</v>
       </c>
       <c r="CX2">
-        <v>0.07232629823810503</v>
+        <v>0.07233570017688597</v>
       </c>
       <c r="CY2">
-        <v>0.001261929669258934</v>
+        <v>0.001261369951825758</v>
       </c>
       <c r="CZ2">
-        <v>0.01365590666733714</v>
+        <v>0.01365708431196693</v>
       </c>
       <c r="DA2">
-        <v>0.006087760251699943</v>
+        <v>0.006087877009217266</v>
       </c>
       <c r="DB2">
-        <v>0.04371489493508924</v>
+        <v>0.04372028618652787</v>
       </c>
       <c r="DC2">
-        <v>0.03963626903444605</v>
+        <v>0.03964108855254115</v>
       </c>
       <c r="DD2">
-        <v>0.01137185722297742</v>
+        <v>0.01137271469427986</v>
       </c>
       <c r="DE2">
-        <v>0.005894406856410102</v>
+        <v>0.005894496510048358</v>
       </c>
       <c r="DF2">
-        <v>0.032626647205203</v>
+        <v>0.03263048412900703</v>
       </c>
       <c r="DG2">
-        <v>0.003700199409861795</v>
+        <v>0.003699981484038147</v>
       </c>
       <c r="DH2">
-        <v>0.01258221269349272</v>
+        <v>0.01258323982992182</v>
       </c>
       <c r="DI2">
-        <v>0.05100276875755398</v>
+        <v>0.05100918160807262</v>
       </c>
       <c r="DJ2">
-        <v>0.02533424938284846</v>
+        <v>0.02533706407340753</v>
       </c>
       <c r="DK2">
-        <v>0.003660834910820728</v>
+        <v>0.003660611466963016</v>
       </c>
       <c r="DL2">
-        <v>0.001373791666533935</v>
+        <v>0.00137324762968419</v>
       </c>
       <c r="DM2">
-        <v>0.0005464743866876848</v>
+        <v>0.0005458143782126687</v>
       </c>
       <c r="DN2">
-        <v>0.004546997889233476</v>
+        <v>0.004546898665869358</v>
       </c>
       <c r="DO2">
-        <v>0.003295508319720217</v>
+        <v>0.003295233665136515</v>
       </c>
       <c r="DP2">
-        <v>3.849429906226486E-08</v>
+        <v>0</v>
       </c>
       <c r="DQ2">
-        <v>0.003853718206122021</v>
+        <v>0.003853521800245732</v>
       </c>
       <c r="DR2">
-        <v>0.00462388938736037</v>
+        <v>0.004623800942487437</v>
       </c>
       <c r="DS2">
-        <v>0.001636607060131656</v>
+        <v>0.001636099864200244</v>
       </c>
       <c r="DT2">
-        <v>0.0007711589812142863</v>
+        <v>0.0007705304685610492</v>
       </c>
       <c r="DU2">
-        <v>0.00280667233162844</v>
+        <v>0.002806329153026914</v>
       </c>
       <c r="DV2">
-        <v>0.001135057472349587</v>
+        <v>0.00113447997023424</v>
       </c>
       <c r="DW2">
-        <v>0.002902000629306208</v>
+        <v>0.002901670813628297</v>
       </c>
       <c r="DX2">
-        <v>0.01824616455551679</v>
+        <v>0.018247985653004</v>
       </c>
       <c r="DY2">
-        <v>0.001453300564597069</v>
+        <v>0.001452767673140218</v>
       </c>
       <c r="DZ2">
-        <v>0.0003583072612715046</v>
+        <v>0.0003576208759180057</v>
       </c>
       <c r="EA2">
-        <v>0.0338092031763955</v>
+        <v>0.03381320586844987</v>
       </c>
       <c r="EB2">
-        <v>0.01331379417567113</v>
+        <v>0.01331492386367938</v>
       </c>
       <c r="EC2">
-        <v>0.001264235669202759</v>
+        <v>0.001263676275019887</v>
       </c>
       <c r="ED2">
-        <v>0.001800646756135589</v>
+        <v>0.001800162554949504</v>
       </c>
       <c r="EE2">
-        <v>0.002382327741965628</v>
+        <v>0.002381925079617132</v>
       </c>
       <c r="EF2">
-        <v>0.004395558392922596</v>
+        <v>0.004395437941083086</v>
       </c>
       <c r="EG2">
-        <v>0.01219293470297567</v>
+        <v>0.01219390727122115</v>
       </c>
       <c r="EH2">
-        <v>0.0006870941832621355</v>
+        <v>0.0006864538865793802</v>
       </c>
       <c r="EI2">
-        <v>0.008876127783774295</v>
+        <v>0.008876635408885497</v>
       </c>
       <c r="EJ2">
-        <v>0.003050665525684677</v>
+        <v>0.003050356549544479</v>
       </c>
       <c r="EK2">
-        <v>0.004053618701252372</v>
+        <v>0.004053450317014066</v>
       </c>
       <c r="EL2">
-        <v>0.009390769771237428</v>
+        <v>0.009391349537798075</v>
       </c>
       <c r="EM2">
-        <v>0.005269290871638155</v>
+        <v>0.0052692928978105</v>
       </c>
       <c r="EN2">
-        <v>0.0005780117259194239</v>
+        <v>0.0005773561382833973</v>
       </c>
       <c r="EO2">
-        <v>0.0002281248444427957</v>
+        <v>0.0002274202103873427</v>
       </c>
       <c r="EP2">
-        <v>0.0006661573237721649</v>
+        <v>0.0006655140922037469</v>
       </c>
       <c r="EQ2">
-        <v>0.009228590775188167</v>
+        <v>0.00922914780783256</v>
       </c>
       <c r="ER2">
-        <v>0.0007243142823554403</v>
+        <v>0.0007236792031091991</v>
       </c>
       <c r="ES2">
-        <v>0.0005010522277941853</v>
+        <v>0.0005003858521348755</v>
       </c>
       <c r="ET2">
-        <v>0.004543039889329894</v>
+        <v>0.004542940111141536</v>
       </c>
       <c r="EU2">
-        <v>0.02008716751066928</v>
+        <v>0.02008924667614327</v>
       </c>
       <c r="EV2">
-        <v>0.0001786236156486637</v>
+        <v>0.0001779120426133344</v>
       </c>
       <c r="EW2">
-        <v>0.005325963570257588</v>
+        <v>0.005325973540691618</v>
       </c>
       <c r="EX2">
-        <v>0.0004968417878967531</v>
+        <v>0.0004961748220266862</v>
       </c>
       <c r="EY2">
-        <v>0.000273820413329635</v>
+        <v>0.0002731221847845232</v>
       </c>
       <c r="EZ2">
-        <v>0.01299679618339331</v>
+        <v>0.01299788143527861</v>
       </c>
       <c r="FA2">
-        <v>0.0112717487254161</v>
+        <v>0.01127259216371639</v>
       </c>
       <c r="FB2">
-        <v>0.0001464781364317392</v>
+        <v>0.000145762057309615</v>
       </c>
       <c r="FC2">
-        <v>0.002650772435426219</v>
+        <v>0.002650407403099668</v>
       </c>
       <c r="FD2">
-        <v>0.004885605380984874</v>
+        <v>0.004885553622918658</v>
       </c>
       <c r="FE2">
-        <v>0.006497394641721101</v>
+        <v>0.006497568820940032</v>
       </c>
       <c r="FF2">
-        <v>0.003361373618115715</v>
+        <v>0.003361108196393322</v>
       </c>
       <c r="FG2">
-        <v>9.287446773754414E-05</v>
+        <v>9.215087456400287E-05</v>
       </c>
       <c r="FH2">
-        <v>0.003056384325545365</v>
+        <v>0.003056076151054704</v>
       </c>
       <c r="FI2">
-        <v>0.0009360772771968166</v>
+        <v>0.0009354718824492343</v>
       </c>
       <c r="FJ2">
-        <v>0.0004766651683882629</v>
+        <v>0.0004759953742014016</v>
       </c>
       <c r="FK2">
-        <v>2.446322240406699E-05</v>
+        <v>2.373003948363969E-05</v>
       </c>
       <c r="FL2">
-        <v>0.007088187827329163</v>
+        <v>0.007088444822715002</v>
       </c>
       <c r="FM2">
-        <v>0.0005850529857478961</v>
+        <v>0.0005843983851411099</v>
       </c>
       <c r="FN2">
-        <v>0.004403757292722868</v>
+        <v>0.004403637990188175</v>
       </c>
       <c r="FO2">
-        <v>0.003448092716003206</v>
+        <v>0.003447839450384607</v>
       </c>
       <c r="FP2">
-        <v>0.001287411968638176</v>
+        <v>0.001286855823261026</v>
       </c>
       <c r="FQ2">
-        <v>1.523690762882338E-06</v>
+        <v>7.872922263520054E-07</v>
       </c>
       <c r="FR2">
-        <v>0.0006711908836495457</v>
+        <v>0.0006705483576751411</v>
       </c>
       <c r="FS2">
-        <v>0.0001883747954111214</v>
+        <v>0.0001876645892760043</v>
       </c>
       <c r="FT2">
-        <v>0.0001220674670263921</v>
+        <v>0.0001213479660671156</v>
       </c>
       <c r="FU2">
-        <v>0.002940911928358314</v>
+        <v>0.00294058756718583</v>
       </c>
       <c r="FV2">
-        <v>0.002752264232953841</v>
+        <v>0.002751913427537567</v>
       </c>
       <c r="FW2">
-        <v>9.709943763462235E-06</v>
+        <v>8.974692758947113E-06</v>
       </c>
       <c r="FX2">
-        <v>0.0008131588501911543</v>
+        <v>0.0008125362249926882</v>
       </c>
       <c r="FY2">
-        <v>5.889538856528688E-05</v>
+        <v>5.816703227470113E-05</v>
       </c>
       <c r="FZ2">
-        <v>0.0002080084149328393</v>
+        <v>0.0002073009609979014</v>
       </c>
       <c r="GA2">
-        <v>2.198520446443241E-07</v>
+        <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.0002005019451156996</v>
+        <v>0.0001997934389393473</v>
       </c>
       <c r="GC2">
-        <v>0.002535136838243144</v>
+        <v>0.002534755596357732</v>
       </c>
       <c r="GD2">
-        <v>0.00349972151474551</v>
+        <v>0.003499475486345142</v>
       </c>
       <c r="GE2">
-        <v>0.0009608659065929565</v>
+        <v>0.0009602639866641763</v>
       </c>
       <c r="GF2">
-        <v>2.786490232120083E-06</v>
+        <v>2.050268712207687E-06</v>
       </c>
       <c r="GG2">
-        <v>4.818138682628387E-05</v>
+        <v>4.745152866909253E-05</v>
       </c>
       <c r="GH2">
-        <v>9.590012766383797E-06</v>
+        <v>8.85474495018954E-06</v>
       </c>
       <c r="GI2">
-        <v>0.005150311474536536</v>
+        <v>0.005150296822423062</v>
       </c>
       <c r="GJ2">
-        <v>0.007363962820611184</v>
+        <v>0.007364258473565237</v>
       </c>
       <c r="GK2">
-        <v>3.166691322858246E-05</v>
+        <v>3.093474010663663E-05</v>
       </c>
       <c r="GL2">
-        <v>0.001652394759747062</v>
+        <v>0.00165188977690273</v>
       </c>
       <c r="GM2">
-        <v>0.0004420365892318278</v>
+        <v>0.0004413619408823574</v>
       </c>
       <c r="GN2">
-        <v>0.000128972906858173</v>
+        <v>0.0001282543738891707</v>
       </c>
       <c r="GO2">
-        <v>0.0004071543100815727</v>
+        <v>0.0004064747720063529</v>
       </c>
       <c r="GP2">
-        <v>0.0009339048172497386</v>
+        <v>0.0009332991179712139</v>
       </c>
       <c r="GQ2">
-        <v>0.001899718353722169</v>
+        <v>0.001899248040187738</v>
       </c>
       <c r="GR2">
-        <v>0.002176374646982721</v>
+        <v>0.002175943114555312</v>
       </c>
       <c r="GS2">
-        <v>0.001601361760990244</v>
+        <v>0.001600849624445691</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,604 +2767,604 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>2.777890801354233E-05</v>
+        <v>2.682175186687399E-05</v>
       </c>
       <c r="C3">
-        <v>1.21547710059255E-07</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>8.027978003913672E-07</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>3.6926880018002E-05</v>
+        <v>3.597139950988638E-05</v>
       </c>
       <c r="F3">
-        <v>2.944308501435362E-05</v>
+        <v>2.84862336958089E-05</v>
       </c>
       <c r="G3">
-        <v>3.256867001587735E-07</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1.48704430072494E-05</v>
+        <v>1.391092241066686E-05</v>
       </c>
       <c r="I3">
-        <v>5.632864502746043E-05</v>
+        <v>5.537671835022939E-05</v>
       </c>
       <c r="J3">
-        <v>1.287012200627423E-05</v>
+        <v>1.191023500990545E-05</v>
       </c>
       <c r="K3">
-        <v>1.227978900598645E-06</v>
+        <v>2.659594071239807E-07</v>
       </c>
       <c r="L3">
-        <v>1.609453800784615E-05</v>
+        <v>1.513524162934979E-05</v>
       </c>
       <c r="M3">
-        <v>1.018552850496549E-05</v>
+        <v>9.225149770278418E-06</v>
       </c>
       <c r="N3">
-        <v>6.128415002987626E-07</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>9.62068200469012E-07</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>9.154794004462997E-07</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.263777800616097E-05</v>
+        <v>1.167784845122686E-05</v>
       </c>
       <c r="R3">
-        <v>2.754730501342942E-06</v>
+        <v>1.792990663713463E-06</v>
       </c>
       <c r="S3">
-        <v>9.376240004570954E-08</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>9.450009004606918E-06</v>
+        <v>8.489495544449497E-06</v>
       </c>
       <c r="U3">
-        <v>2.970459701448111E-05</v>
+        <v>2.874779359721869E-05</v>
       </c>
       <c r="V3">
-        <v>1.108004100540156E-05</v>
+        <v>1.011982611901124E-05</v>
       </c>
       <c r="W3">
-        <v>1.6551665008069E-05</v>
+        <v>1.559245236175117E-05</v>
       </c>
       <c r="X3">
-        <v>6.810745403320265E-07</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>4.692794802287756E-05</v>
+        <v>4.597429941533063E-05</v>
       </c>
       <c r="Z3">
-        <v>8.683603504233292E-06</v>
+        <v>7.722949661201631E-06</v>
       </c>
       <c r="AA3">
-        <v>1.862805600908125E-08</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>2.57694240125627E-08</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>7.949603003875463E-06</v>
+        <v>6.98881471360943E-06</v>
       </c>
       <c r="AD3">
-        <v>2.265077801104234E-07</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>5.17548470252307E-05</v>
+        <v>5.080208256315935E-05</v>
       </c>
       <c r="AF3">
-        <v>2.445569401192225E-05</v>
+        <v>2.349792915050299E-05</v>
       </c>
       <c r="AG3">
-        <v>1.333599200650135E-06</v>
+        <v>3.715990536980261E-07</v>
       </c>
       <c r="AH3">
-        <v>2.417672101178625E-05</v>
+        <v>2.32189050507447E-05</v>
       </c>
       <c r="AI3">
-        <v>8.704425004243442E-05</v>
+        <v>8.609794955775274E-05</v>
       </c>
       <c r="AJ3">
-        <v>4.602161002243571E-05</v>
+        <v>4.506779540050937E-05</v>
       </c>
       <c r="AK3">
-        <v>3.009179201466986E-06</v>
+        <v>2.047485971331651E-06</v>
       </c>
       <c r="AL3">
-        <v>3.937258201919429E-05</v>
+        <v>3.841754949152283E-05</v>
       </c>
       <c r="AM3">
-        <v>4.563862002224901E-05</v>
+        <v>4.468473524785507E-05</v>
       </c>
       <c r="AN3">
-        <v>3.362466301639216E-06</v>
+        <v>2.400837783276602E-06</v>
       </c>
       <c r="AO3">
-        <v>1.129766100550765E-05</v>
+        <v>1.033748598068029E-05</v>
       </c>
       <c r="AP3">
-        <v>5.216264602542949E-05</v>
+        <v>5.120995626010254E-05</v>
       </c>
       <c r="AQ3">
-        <v>1.327923900647368E-05</v>
+        <v>1.2319426948268E-05</v>
       </c>
       <c r="AR3">
-        <v>3.193474401556831E-06</v>
+        <v>2.231814928864369E-06</v>
       </c>
       <c r="AS3">
-        <v>7.973547003887135E-06</v>
+        <v>7.012763099455417E-06</v>
       </c>
       <c r="AT3">
-        <v>1.609453800784615E-05</v>
+        <v>1.513524162934979E-05</v>
       </c>
       <c r="AU3">
-        <v>9.04573150440983E-06</v>
+        <v>8.085143992542915E-06</v>
       </c>
       <c r="AV3">
-        <v>2.104460501025933E-05</v>
+        <v>2.008621533798197E-05</v>
       </c>
       <c r="AW3">
-        <v>1.526295900744075E-06</v>
+        <v>5.643310501417478E-07</v>
       </c>
       <c r="AX3">
-        <v>1.236772600602931E-05</v>
+        <v>1.140774698553689E-05</v>
       </c>
       <c r="AY3">
-        <v>7.401118003608074E-06</v>
+        <v>6.440229247073497E-06</v>
       </c>
       <c r="AZ3">
-        <v>3.843748701873843E-05</v>
+        <v>3.748228320925363E-05</v>
       </c>
       <c r="BA3">
-        <v>3.286800301602328E-05</v>
+        <v>3.191177904140143E-05</v>
       </c>
       <c r="BB3">
-        <v>4.147664702022002E-05</v>
+        <v>4.052199989517457E-05</v>
       </c>
       <c r="BC3">
-        <v>3.967490201934167E-05</v>
+        <v>3.871992486777403E-05</v>
       </c>
       <c r="BD3">
-        <v>5.149064002510189E-05</v>
+        <v>5.053782716810377E-05</v>
       </c>
       <c r="BE3">
-        <v>7.599197003704639E-05</v>
+        <v>7.50436451007744E-05</v>
       </c>
       <c r="BF3">
-        <v>3.517760301714922E-05</v>
+        <v>3.422180209310092E-05</v>
       </c>
       <c r="BG3">
-        <v>1.108004100540156E-05</v>
+        <v>1.011982611901124E-05</v>
       </c>
       <c r="BH3">
-        <v>1.043073700508502E-05</v>
+        <v>9.470403185360097E-06</v>
       </c>
       <c r="BI3">
-        <v>1.56144270076121E-06</v>
+        <v>5.994842880156097E-07</v>
       </c>
       <c r="BJ3">
-        <v>6.231640003037948E-08</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>1.830134100892198E-06</v>
+        <v>8.682249044831394E-07</v>
       </c>
       <c r="BL3">
-        <v>2.108355001027831E-05</v>
+        <v>2.012516747157586E-05</v>
       </c>
       <c r="BM3">
-        <v>1.808153700881482E-05</v>
+        <v>1.712260458990738E-05</v>
       </c>
       <c r="BN3">
-        <v>7.814597003809646E-06</v>
+        <v>6.853783984427865E-06</v>
       </c>
       <c r="BO3">
-        <v>1.760360600858182E-05</v>
+        <v>1.664458604681689E-05</v>
       </c>
       <c r="BP3">
-        <v>1.530996800746367E-05</v>
+        <v>1.435052791889262E-05</v>
       </c>
       <c r="BQ3">
-        <v>1.542084800751772E-05</v>
+        <v>1.446142822889108E-05</v>
       </c>
       <c r="BR3">
-        <v>3.489296801701046E-05</v>
+        <v>3.393711495622852E-05</v>
       </c>
       <c r="BS3">
-        <v>3.10811800151522E-06</v>
+        <v>2.146442894048781E-06</v>
       </c>
       <c r="BT3">
-        <v>3.901169301901835E-06</v>
+        <v>2.939639458033992E-06</v>
       </c>
       <c r="BU3">
-        <v>5.257205302562908E-05</v>
+        <v>5.161943825158467E-05</v>
       </c>
       <c r="BV3">
-        <v>9.216685004493171E-06</v>
+        <v>8.256128806263346E-06</v>
       </c>
       <c r="BW3">
-        <v>2.480238201209126E-06</v>
+        <v>1.518448084689386E-06</v>
       </c>
       <c r="BX3">
-        <v>1.955373800953253E-05</v>
+        <v>1.859507525440991E-05</v>
       </c>
       <c r="BY3">
-        <v>1.359028000662532E-05</v>
+        <v>1.263052492195334E-05</v>
       </c>
       <c r="BZ3">
-        <v>4.713350402297776E-08</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>1.844418700899161E-05</v>
+        <v>1.748532101686392E-05</v>
       </c>
       <c r="CB3">
-        <v>2.26888320110609E-08</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>4.093192201995447E-05</v>
+        <v>3.997717511736153E-05</v>
       </c>
       <c r="CD3">
-        <v>8.02955900391444E-06</v>
+        <v>7.068785359228446E-06</v>
       </c>
       <c r="CE3">
-        <v>1.047104400510468E-06</v>
+        <v>8.505177616423959E-08</v>
       </c>
       <c r="CF3">
-        <v>4.202497402048734E-05</v>
+        <v>4.107042733276949E-05</v>
       </c>
       <c r="CG3">
-        <v>4.577249002231427E-05</v>
+        <v>4.481862976895439E-05</v>
       </c>
       <c r="CH3">
-        <v>2.001928800975948E-05</v>
+        <v>1.906071052966047E-05</v>
       </c>
       <c r="CI3">
-        <v>2.001928800975948E-05</v>
+        <v>1.906071052966047E-05</v>
       </c>
       <c r="CJ3">
-        <v>2.640969001287483E-05</v>
+        <v>2.545228306586868E-05</v>
       </c>
       <c r="CK3">
-        <v>5.395518402630336E-05</v>
+        <v>5.300282260104784E-05</v>
       </c>
       <c r="CL3">
-        <v>1.291471100629597E-06</v>
+        <v>3.294632370525891E-07</v>
       </c>
       <c r="CM3">
-        <v>3.779134201842343E-05</v>
+        <v>3.683601985423962E-05</v>
       </c>
       <c r="CN3">
-        <v>0.05967820802909336</v>
+        <v>0.05968817707152634</v>
       </c>
       <c r="CO3">
-        <v>0.006858334403343465</v>
+        <v>0.006858628403422341</v>
       </c>
       <c r="CP3">
-        <v>0.2026258300987809</v>
+        <v>0.202661982927789</v>
       </c>
       <c r="CQ3">
-        <v>0.004829713602354504</v>
+        <v>0.004829636018958776</v>
       </c>
       <c r="CR3">
-        <v>0.0042022220020486</v>
+        <v>0.004202029480706356</v>
       </c>
       <c r="CS3">
-        <v>0.0008157106303976621</v>
+        <v>0.0008148978000939561</v>
       </c>
       <c r="CT3">
-        <v>0.0005776683702816155</v>
+        <v>0.0005768119376594904</v>
       </c>
       <c r="CU3">
-        <v>0.0008724078004253023</v>
+        <v>0.0008716053553702483</v>
       </c>
       <c r="CV3">
-        <v>0.03137936401529756</v>
+        <v>0.03138414954448805</v>
       </c>
       <c r="CW3">
-        <v>0.0003606107001757992</v>
+        <v>0.0003597145089929771</v>
       </c>
       <c r="CX3">
-        <v>0.07050119003436961</v>
+        <v>0.07051314152776489</v>
       </c>
       <c r="CY3">
-        <v>0.0178765770087149</v>
+        <v>0.0178788892257367</v>
       </c>
       <c r="CZ3">
-        <v>0.004353930002122558</v>
+        <v>0.004353765269209657</v>
       </c>
       <c r="DA3">
-        <v>0.005734908002795791</v>
+        <v>0.005734996224305713</v>
       </c>
       <c r="DB3">
-        <v>0.01593292000776736</v>
+        <v>0.01593487620417579</v>
       </c>
       <c r="DC3">
-        <v>0.05362953002614461</v>
+        <v>0.0536383911292387</v>
       </c>
       <c r="DD3">
-        <v>0.0002555870501245997</v>
+        <v>0.0002546716217078981</v>
       </c>
       <c r="DE3">
-        <v>0.02232113301088164</v>
+        <v>0.02232425933942273</v>
       </c>
       <c r="DF3">
-        <v>0.02628807701281554</v>
+        <v>0.02629192996844981</v>
       </c>
       <c r="DG3">
-        <v>0.002958369701442217</v>
+        <v>0.002957949343059395</v>
       </c>
       <c r="DH3">
-        <v>0.04322831002107397</v>
+        <v>0.04323526592755974</v>
       </c>
       <c r="DI3">
-        <v>0.01958456000954755</v>
+        <v>0.01958718507865965</v>
       </c>
       <c r="DJ3">
-        <v>0.0775434000378027</v>
+        <v>0.07755664145628437</v>
       </c>
       <c r="DK3">
-        <v>0.001839380700896705</v>
+        <v>0.001838755376745681</v>
       </c>
       <c r="DL3">
-        <v>0.01351741050658979</v>
+        <v>0.01351892425292922</v>
       </c>
       <c r="DM3">
-        <v>0.0004997863402436478</v>
+        <v>0.0004989156419315936</v>
       </c>
       <c r="DN3">
-        <v>0.0004839151202359105</v>
+        <v>0.0004830415147846444</v>
       </c>
       <c r="DO3">
-        <v>0.008764833004272891</v>
+        <v>0.008765476218642635</v>
       </c>
       <c r="DP3">
-        <v>0.0003408528001661671</v>
+        <v>0.0003399529899190365</v>
       </c>
       <c r="DQ3">
-        <v>0.0005507936602685141</v>
+        <v>0.0005499323049924751</v>
       </c>
       <c r="DR3">
-        <v>0.003992205501946216</v>
+        <v>0.003991974511777864</v>
       </c>
       <c r="DS3">
-        <v>0.003247752601583292</v>
+        <v>0.003247385249609293</v>
       </c>
       <c r="DT3">
-        <v>0.0002232176801088195</v>
+        <v>0.0002222963225786161</v>
       </c>
       <c r="DU3">
-        <v>0.001149677100560472</v>
+        <v>0.001148925443060142</v>
       </c>
       <c r="DV3">
-        <v>0.0009138276004454945</v>
+        <v>0.0009130327422756788</v>
       </c>
       <c r="DW3">
-        <v>0.005526899002694385</v>
+        <v>0.005526949123092966</v>
       </c>
       <c r="DX3">
-        <v>0.02158477901052266</v>
+        <v>0.02158777046073762</v>
       </c>
       <c r="DY3">
-        <v>0.009814898504784801</v>
+        <v>0.009815734060171187</v>
       </c>
       <c r="DZ3">
-        <v>0.008173989003984852</v>
+        <v>0.008174523993167085</v>
       </c>
       <c r="EA3">
-        <v>0.01566625400763736</v>
+        <v>0.01566816135870278</v>
       </c>
       <c r="EB3">
-        <v>0.02615524001275078</v>
+        <v>0.02615906863656611</v>
       </c>
       <c r="EC3">
-        <v>0.0004527002202206931</v>
+        <v>0.0004518208971207657</v>
       </c>
       <c r="ED3">
-        <v>0.004391340002140795</v>
+        <v>0.004391182121636084</v>
       </c>
       <c r="EE3">
-        <v>0.003432468301673341</v>
+        <v>0.00343213478416541</v>
       </c>
       <c r="EF3">
-        <v>0.0007950799003876045</v>
+        <v>0.0007942632911428874</v>
       </c>
       <c r="EG3">
-        <v>0.01130817900551278</v>
+        <v>0.01130928808582642</v>
       </c>
       <c r="EH3">
-        <v>0.0003260293201589406</v>
+        <v>0.0003251267946876517</v>
       </c>
       <c r="EI3">
-        <v>0.00746625800363983</v>
+        <v>0.00746666335738499</v>
       </c>
       <c r="EJ3">
-        <v>0.001758996200857518</v>
+        <v>0.001758356152637897</v>
       </c>
       <c r="EK3">
-        <v>0.001480343600721673</v>
+        <v>0.001479652511567584</v>
       </c>
       <c r="EL3">
-        <v>0.004400717002145367</v>
+        <v>0.004400560839230382</v>
       </c>
       <c r="EM3">
-        <v>0.008969934004372879</v>
+        <v>0.008970614787194166</v>
       </c>
       <c r="EN3">
-        <v>5.690330402774059E-05</v>
+        <v>5.595148261108261E-05</v>
       </c>
       <c r="EO3">
-        <v>0.000805482700392676</v>
+        <v>0.0008046679966339766</v>
       </c>
       <c r="EP3">
-        <v>0.0002593543001264362</v>
+        <v>0.0002584395617587791</v>
       </c>
       <c r="EQ3">
-        <v>0.01036897200505492</v>
+        <v>0.01036990905035815</v>
       </c>
       <c r="ER3">
-        <v>0.002894103301410887</v>
+        <v>0.002893671171319812</v>
       </c>
       <c r="ES3">
-        <v>0.001507677400734999</v>
+        <v>0.001506991318326565</v>
       </c>
       <c r="ET3">
-        <v>0.00162099270079024</v>
+        <v>0.001620327374401315</v>
       </c>
       <c r="EU3">
-        <v>0.02421628701180554</v>
+        <v>0.0242197604766415</v>
       </c>
       <c r="EV3">
-        <v>0.0007887118003845001</v>
+        <v>0.0007878940246917585</v>
       </c>
       <c r="EW3">
-        <v>0.007025666503425039</v>
+        <v>0.007025991153807378</v>
       </c>
       <c r="EX3">
-        <v>0.0001480686900721841</v>
+        <v>0.0001471335674643392</v>
       </c>
       <c r="EY3">
-        <v>0.003084304701503611</v>
+        <v>0.003083907410696983</v>
       </c>
       <c r="EZ3">
-        <v>0.00449504240219135</v>
+        <v>0.004494903516906503</v>
       </c>
       <c r="FA3">
-        <v>0.01849067600901428</v>
+        <v>0.01849310071085343</v>
       </c>
       <c r="FB3">
-        <v>2.360295501150653E-07</v>
+        <v>0</v>
       </c>
       <c r="FC3">
-        <v>0.00120009240058505</v>
+        <v>0.001199349977680139</v>
       </c>
       <c r="FD3">
-        <v>0.009250719004509762</v>
+        <v>0.00925145121885828</v>
       </c>
       <c r="FE3">
-        <v>0.003667205601787777</v>
+        <v>0.003666915081227107</v>
       </c>
       <c r="FF3">
-        <v>0.007164575603492759</v>
+        <v>0.007164925697923601</v>
       </c>
       <c r="FG3">
-        <v>1.266796300617568E-05</v>
+        <v>1.170803898024295E-05</v>
       </c>
       <c r="FH3">
-        <v>0.001572390900766547</v>
+        <v>0.001571716671961894</v>
       </c>
       <c r="FI3">
-        <v>0.002583357301259397</v>
+        <v>0.002582868251669913</v>
       </c>
       <c r="FJ3">
-        <v>0.001001338400488156</v>
+        <v>0.00100055957171483</v>
       </c>
       <c r="FK3">
-        <v>0.00116700610056892</v>
+        <v>0.001166257617230085</v>
       </c>
       <c r="FL3">
-        <v>0.004204605702049761</v>
+        <v>0.004204413617331025</v>
       </c>
       <c r="FM3">
-        <v>0.003770704801838234</v>
+        <v>0.003770433239277184</v>
       </c>
       <c r="FN3">
-        <v>0.003276834501597469</v>
+        <v>0.003276472476569468</v>
       </c>
       <c r="FO3">
-        <v>0.005405601002635252</v>
+        <v>0.00540562890481922</v>
       </c>
       <c r="FP3">
-        <v>0.002148615201047459</v>
+        <v>0.002148046519532642</v>
       </c>
       <c r="FQ3">
-        <v>6.325958403083929E-05</v>
+        <v>6.230892689713056E-05</v>
       </c>
       <c r="FR3">
-        <v>3.539604601725571E-05</v>
+        <v>3.444028510551969E-05</v>
       </c>
       <c r="FS3">
-        <v>6.978681603402135E-05</v>
+        <v>6.883735449662421E-05</v>
       </c>
       <c r="FT3">
-        <v>8.882142004330078E-05</v>
+        <v>8.787544508372638E-05</v>
       </c>
       <c r="FU3">
-        <v>0.00212677380103681</v>
+        <v>0.00212620111882196</v>
       </c>
       <c r="FV3">
-        <v>0.002946074101436223</v>
+        <v>0.002945651490862271</v>
       </c>
       <c r="FW3">
-        <v>1.327923900647368E-05</v>
+        <v>1.2319426948268E-05</v>
       </c>
       <c r="FX3">
-        <v>0.0004283604502088274</v>
+        <v>0.0004274766687811989</v>
       </c>
       <c r="FY3">
-        <v>4.954056602415122E-05</v>
+        <v>4.858739597113467E-05</v>
       </c>
       <c r="FZ3">
-        <v>0.0009953498004852369</v>
+        <v>0.0009945698747770883</v>
       </c>
       <c r="GA3">
-        <v>7.532765403672252E-05</v>
+        <v>7.437920741736047E-05</v>
       </c>
       <c r="GB3">
-        <v>5.257205302562908E-05</v>
+        <v>5.161943825158467E-05</v>
       </c>
       <c r="GC3">
-        <v>0.0008205652004000287</v>
+        <v>0.000819753259310309</v>
       </c>
       <c r="GD3">
-        <v>0.003183590701552013</v>
+        <v>0.003183211597011078</v>
       </c>
       <c r="GE3">
-        <v>0.0008165187303980561</v>
+        <v>0.0008157060481144264</v>
       </c>
       <c r="GF3">
-        <v>1.045816100509839E-05</v>
+        <v>9.497832208641103E-06</v>
       </c>
       <c r="GG3">
-        <v>0.0001611858900785787</v>
+        <v>0.0001602531701547412</v>
       </c>
       <c r="GH3">
-        <v>0.0002009794800979783</v>
+        <v>0.0002000540491856894</v>
       </c>
       <c r="GI3">
-        <v>0.002808013201368917</v>
+        <v>0.002807565302111675</v>
       </c>
       <c r="GJ3">
-        <v>0.009303302004535396</v>
+        <v>0.009304043850538013</v>
       </c>
       <c r="GK3">
-        <v>1.092054900532381E-05</v>
+        <v>9.96030490470502E-06</v>
       </c>
       <c r="GL3">
-        <v>0.00331092700161409</v>
+        <v>0.003310571221326164</v>
       </c>
       <c r="GM3">
-        <v>0.0004468810802178563</v>
+        <v>0.0004460006912231788</v>
       </c>
       <c r="GN3">
-        <v>0.0003014825001469739</v>
+        <v>0.0003005754784225331</v>
       </c>
       <c r="GO3">
-        <v>0.001276732800622412</v>
+        <v>0.00127600441597745</v>
       </c>
       <c r="GP3">
-        <v>0.0005695388002776524</v>
+        <v>0.0005686808785581722</v>
       </c>
       <c r="GQ3">
-        <v>0.002416073001177845</v>
+        <v>0.002415553310040448</v>
       </c>
       <c r="GR3">
-        <v>0.00254282980123964</v>
+        <v>0.002542333328207949</v>
       </c>
       <c r="GS3">
-        <v>0.001322620900644783</v>
+        <v>0.001321900921345778</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,604 +3540,604 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>2.958231014658083E-05</v>
+        <v>2.093229054872003E-05</v>
       </c>
       <c r="C4">
-        <v>4.065222520143244E-08</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>4.024835019943124E-06</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>3.85933131912305E-05</v>
+        <v>2.995627517517321E-05</v>
       </c>
       <c r="F4">
-        <v>2.392521711854985E-10</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>1.255432906220691E-05</v>
+        <v>3.879778329654427E-06</v>
       </c>
       <c r="H4">
-        <v>2.051990910167649E-05</v>
+        <v>1.185683387616606E-05</v>
       </c>
       <c r="I4">
-        <v>6.776658033578452E-06</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>3.263351016169958E-06</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>2.656401713162514E-05</v>
+        <v>1.79096492700376E-05</v>
       </c>
       <c r="L4">
-        <v>3.85933131912305E-05</v>
+        <v>2.995627517517321E-05</v>
       </c>
       <c r="M4">
-        <v>2.110671210458411E-07</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>2.600867012887339E-06</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>2.410614611944635E-05</v>
+        <v>1.544823735864382E-05</v>
       </c>
       <c r="P4">
-        <v>1.883503909332792E-05</v>
+        <v>1.01695365822275E-05</v>
       </c>
       <c r="Q4">
-        <v>8.680132043010196E-06</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>3.117943815449462E-06</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>1.600583507930918E-05</v>
+        <v>7.336256713038709E-06</v>
       </c>
       <c r="T4">
-        <v>3.586834517772824E-07</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>2.117409010491796E-05</v>
+        <v>1.251195731657749E-05</v>
       </c>
       <c r="V4">
-        <v>1.257933906233083E-07</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>5.90788162927365E-06</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>9.580738047472713E-07</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>3.704815518357421E-06</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>1.910090809464531E-06</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>3.178610815750069E-08</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>5.518759727345545E-06</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>3.002675014878304E-05</v>
+        <v>2.137737082750596E-05</v>
       </c>
       <c r="AD4">
-        <v>3.153215015624232E-05</v>
+        <v>2.288493956948314E-05</v>
       </c>
       <c r="AE4">
-        <v>2.716600313460799E-05</v>
+        <v>1.851250251615682E-05</v>
       </c>
       <c r="AF4">
-        <v>1.793682508887726E-05</v>
+        <v>9.270028577706251E-06</v>
       </c>
       <c r="AG4">
-        <v>5.437462726942717E-06</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>8.657761042899348E-06</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>4.839795023981264E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>1.182348005858554E-06</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>4.729581323435153E-05</v>
+        <v>3.86713123593478E-05</v>
       </c>
       <c r="AL4">
-        <v>6.514426032279088E-05</v>
+        <v>5.654547257592573E-05</v>
       </c>
       <c r="AM4">
-        <v>1.048063405193171E-07</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>7.98527943956719E-07</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>3.842491419039608E-05</v>
+        <v>2.978763357255582E-05</v>
       </c>
       <c r="AP4">
-        <v>9.308315046122853E-06</v>
+        <v>6.290879866091747E-07</v>
       </c>
       <c r="AQ4">
-        <v>9.002876044609399E-06</v>
+        <v>3.232089584566797E-07</v>
       </c>
       <c r="AR4">
-        <v>3.871816719184915E-07</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>7.339320036366451E-07</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>2.604628212905975E-05</v>
+        <v>1.739116839942011E-05</v>
       </c>
       <c r="AU4">
-        <v>2.273984111267629E-06</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>2.398404411884133E-06</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>3.263351016169958E-06</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>4.297270421293046E-05</v>
+        <v>3.434197530835787E-05</v>
       </c>
       <c r="AY4">
-        <v>9.581854047478243E-06</v>
+        <v>9.030210582922464E-07</v>
       </c>
       <c r="AZ4">
-        <v>1.059430205249494E-06</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>1.140136605649395E-05</v>
+        <v>2.72515432310717E-06</v>
       </c>
       <c r="BB4">
-        <v>1.226753606078584E-05</v>
+        <v>3.592572163706597E-06</v>
       </c>
       <c r="BC4">
-        <v>5.776702028623653E-06</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>5.425282026882361E-05</v>
+        <v>4.563834191356359E-05</v>
       </c>
       <c r="BE4">
-        <v>2.064301810228649E-05</v>
+        <v>1.198012023212199E-05</v>
       </c>
       <c r="BF4">
-        <v>5.842108028947741E-06</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>2.780048013775184E-07</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>7.280170436073364E-06</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>7.353573436437077E-06</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>1.032833005117704E-05</v>
+        <v>1.650572462727054E-06</v>
       </c>
       <c r="BK4">
-        <v>3.919240019419898E-07</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>4.134454020486287E-06</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>2.884894114294698E-05</v>
+        <v>2.019786502677566E-05</v>
       </c>
       <c r="BN4">
-        <v>1.431591307093558E-05</v>
+        <v>5.643900140978416E-06</v>
       </c>
       <c r="BO4">
-        <v>4.151239820569461E-05</v>
+        <v>3.287956553067637E-05</v>
       </c>
       <c r="BP4">
-        <v>3.75884521862514E-05</v>
+        <v>2.894996653053927E-05</v>
       </c>
       <c r="BQ4">
-        <v>2.101455410412746E-05</v>
+        <v>1.235219148236727E-05</v>
       </c>
       <c r="BR4">
-        <v>6.190032630671713E-05</v>
+        <v>5.329686522941516E-05</v>
       </c>
       <c r="BS4">
-        <v>4.4537894220686E-05</v>
+        <v>3.59094201863008E-05</v>
       </c>
       <c r="BT4">
-        <v>6.636111032882039E-06</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>2.77886671376933E-06</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>8.898956044094474E-06</v>
+        <v>2.191392469738387E-07</v>
       </c>
       <c r="BW4">
-        <v>3.412071716906871E-06</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>1.203688605964297E-06</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>1.303968306461184E-05</v>
+        <v>4.365831550853837E-06</v>
       </c>
       <c r="BZ4">
-        <v>3.343114816565189E-05</v>
+        <v>2.478667334514223E-05</v>
       </c>
       <c r="CA4">
-        <v>2.073981210276611E-06</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>5.90788162927365E-06</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>8.391399041579519E-05</v>
+        <v>7.534224303118769E-05</v>
       </c>
       <c r="CD4">
-        <v>4.261766321117123E-05</v>
+        <v>3.398642282149703E-05</v>
       </c>
       <c r="CE4">
-        <v>1.09548380542814E-06</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>5.531331427407838E-05</v>
+        <v>4.670036370541582E-05</v>
       </c>
       <c r="CG4">
-        <v>1.29418750641272E-05</v>
+        <v>4.267882644572913E-06</v>
       </c>
       <c r="CH4">
-        <v>6.222955430834846E-07</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>7.543912037380208E-05</v>
+        <v>6.685516378027754E-05</v>
       </c>
       <c r="CJ4">
-        <v>3.172750015721028E-05</v>
+        <v>2.30805709988343E-05</v>
       </c>
       <c r="CK4">
-        <v>3.608269317879033E-12</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>7.67190003801439E-06</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>1.539086607626199E-05</v>
+        <v>6.720401763068623E-06</v>
       </c>
       <c r="CN4">
-        <v>0.1346558206672218</v>
+        <v>0.134841118149081</v>
       </c>
       <c r="CO4">
-        <v>0.03817891318917714</v>
+        <v>0.0382252224962049</v>
       </c>
       <c r="CP4">
-        <v>0.1411523706994123</v>
+        <v>0.1413470273497531</v>
       </c>
       <c r="CQ4">
-        <v>0.002218149810990968</v>
+        <v>0.002212652722082837</v>
       </c>
       <c r="CR4">
-        <v>0.006616759032786149</v>
+        <v>0.006617598741807336</v>
       </c>
       <c r="CS4">
-        <v>1.085822105380266E-05</v>
+        <v>2.181226845784735E-06</v>
       </c>
       <c r="CT4">
-        <v>0.0004087905020255636</v>
+        <v>0.0004006867836706439</v>
       </c>
       <c r="CU4">
-        <v>0.001066469405284373</v>
+        <v>0.001059313163302594</v>
       </c>
       <c r="CV4">
-        <v>0.03522659517454835</v>
+        <v>0.03526865126385696</v>
       </c>
       <c r="CW4">
-        <v>0.01684690308347668</v>
+        <v>0.01686248071359252</v>
       </c>
       <c r="CX4">
-        <v>0.06216634030803524</v>
+        <v>0.06224720678321134</v>
       </c>
       <c r="CY4">
-        <v>0.001828024609057892</v>
+        <v>0.001821965491461343</v>
       </c>
       <c r="CZ4">
-        <v>0.009459314046871056</v>
+        <v>0.00946424884500313</v>
       </c>
       <c r="DA4">
-        <v>0.001527122307566916</v>
+        <v>0.001520629699067932</v>
       </c>
       <c r="DB4">
-        <v>0.04294251021278084</v>
+        <v>0.04299568213256486</v>
       </c>
       <c r="DC4">
-        <v>0.02638137313072014</v>
+        <v>0.02641068646842126</v>
       </c>
       <c r="DD4">
-        <v>0.01854300109188087</v>
+        <v>0.0185610221830558</v>
       </c>
       <c r="DE4">
-        <v>0.002290298211348465</v>
+        <v>0.002284905062074644</v>
       </c>
       <c r="DF4">
-        <v>0.04023670019937351</v>
+        <v>0.04028597402991488</v>
       </c>
       <c r="DG4">
-        <v>0.0110292070546499</v>
+        <v>0.01103640349828384</v>
       </c>
       <c r="DH4">
-        <v>0.01228267706086087</v>
+        <v>0.0122916792994039</v>
       </c>
       <c r="DI4">
-        <v>0.06811925033753201</v>
+        <v>0.06820869279344344</v>
       </c>
       <c r="DJ4">
-        <v>0.01931852509572361</v>
+        <v>0.01933766343524998</v>
       </c>
       <c r="DK4">
-        <v>0.01075168805327479</v>
+        <v>0.01075848469284691</v>
       </c>
       <c r="DL4">
-        <v>0.002662755313193996</v>
+        <v>0.002657898739294963</v>
       </c>
       <c r="DM4">
-        <v>0.001357880206728319</v>
+        <v>0.001351143781845548</v>
       </c>
       <c r="DN4">
-        <v>0.006707571433236127</v>
+        <v>0.00670854196993536</v>
       </c>
       <c r="DO4">
-        <v>0.002847904614111414</v>
+        <v>0.002843314773092596</v>
       </c>
       <c r="DP4">
-        <v>3.152539215620884E-06</v>
+        <v>0</v>
       </c>
       <c r="DQ4">
-        <v>0.002167322410739118</v>
+        <v>0.002161752098012177</v>
       </c>
       <c r="DR4">
-        <v>0.00455310902256073</v>
+        <v>0.004550975761615219</v>
       </c>
       <c r="DS4">
-        <v>0.0007342833636383862</v>
+        <v>0.0007266485622495966</v>
       </c>
       <c r="DT4">
-        <v>0.0002297533511384316</v>
+        <v>0.0002213917052910239</v>
       </c>
       <c r="DU4">
-        <v>0.002114587510477816</v>
+        <v>0.002108941225917523</v>
       </c>
       <c r="DV4">
-        <v>0.001282246406353552</v>
+        <v>0.001275401020641248</v>
       </c>
       <c r="DW4">
-        <v>0.0003609022517882766</v>
+        <v>0.0003527295438619627</v>
       </c>
       <c r="DX4">
-        <v>0.03243703816072606</v>
+        <v>0.03247507551178865</v>
       </c>
       <c r="DY4">
-        <v>4.753499523553668E-05</v>
+        <v>3.891083893490485E-05</v>
       </c>
       <c r="DZ4">
-        <v>0.0007008475034727108</v>
+        <v>0.000693164533156249</v>
       </c>
       <c r="EA4">
-        <v>0.03905344019351044</v>
+        <v>0.0391010093762468</v>
       </c>
       <c r="EB4">
-        <v>0.006838708733885914</v>
+        <v>0.006839868191794856</v>
       </c>
       <c r="EC4">
-        <v>0.004593482022760779</v>
+        <v>0.004591406924641554</v>
       </c>
       <c r="ED4">
-        <v>0.003036285315044844</v>
+        <v>0.003031966862179737</v>
       </c>
       <c r="EE4">
-        <v>0.0005998856529724432</v>
+        <v>0.0005920572333075783</v>
       </c>
       <c r="EF4">
-        <v>0.004941404024484738</v>
+        <v>0.00493983015557432</v>
       </c>
       <c r="EG4">
-        <v>0.007573308037525865</v>
+        <v>0.007575525786160685</v>
       </c>
       <c r="EH4">
-        <v>0.001408623506979753</v>
+        <v>0.001401960184758243</v>
       </c>
       <c r="EI4">
-        <v>0.00621683503080452</v>
+        <v>0.0062170985946262</v>
       </c>
       <c r="EJ4">
-        <v>0.001717214208508824</v>
+        <v>0.001710995453381106</v>
       </c>
       <c r="EK4">
-        <v>0.003289576416299905</v>
+        <v>0.003285622863894242</v>
       </c>
       <c r="EL4">
-        <v>0.007852802038910764</v>
+        <v>0.00785542243686493</v>
       </c>
       <c r="EM4">
-        <v>0.004176701020695622</v>
+        <v>0.004174025492563706</v>
       </c>
       <c r="EN4">
-        <v>0.0004647484223028361</v>
+        <v>0.0004567253189822288</v>
       </c>
       <c r="EO4">
-        <v>6.58029903260549E-05</v>
+        <v>5.720515156981615E-05</v>
       </c>
       <c r="EP4">
-        <v>0.001352885006703567</v>
+        <v>0.001346141385552255</v>
       </c>
       <c r="EQ4">
-        <v>0.009988346049492419</v>
+        <v>0.009994042990549611</v>
       </c>
       <c r="ER4">
-        <v>5.802183428749914E-07</v>
+        <v>0</v>
       </c>
       <c r="ES4">
-        <v>0.0005240213025965341</v>
+        <v>0.0005160835899633399</v>
       </c>
       <c r="ET4">
-        <v>0.007946189039373497</v>
+        <v>0.007948943974069009</v>
       </c>
       <c r="EU4">
-        <v>0.01786104408850176</v>
+        <v>0.0178780827273812</v>
       </c>
       <c r="EV4">
-        <v>0.001177585205834954</v>
+        <v>0.001170589041354798</v>
       </c>
       <c r="EW4">
-        <v>0.004964857024600948</v>
+        <v>0.004963316942943517</v>
       </c>
       <c r="EX4">
-        <v>0.00137795310682778</v>
+        <v>0.001371245599701822</v>
       </c>
       <c r="EY4">
-        <v>0.0007525733037290131</v>
+        <v>0.0007449648514993894</v>
       </c>
       <c r="EZ4">
-        <v>0.01468125457274586</v>
+        <v>0.01469371229011054</v>
       </c>
       <c r="FA4">
-        <v>0.006825879033822342</v>
+        <v>0.006827020008794362</v>
       </c>
       <c r="FB4">
-        <v>0.0004490873822252353</v>
+        <v>0.0004410417170353347</v>
       </c>
       <c r="FC4">
-        <v>0.00664991143295042</v>
+        <v>0.006650798902536394</v>
       </c>
       <c r="FD4">
-        <v>0.001785348008846429</v>
+        <v>0.001779227409772846</v>
       </c>
       <c r="FE4">
-        <v>0.009953120049317872</v>
+        <v>0.009958766242505974</v>
       </c>
       <c r="FF4">
-        <v>0.002168232310743627</v>
+        <v>0.002162663308852037</v>
       </c>
       <c r="FG4">
-        <v>2.557287412671401E-06</v>
+        <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.003694668918307145</v>
+        <v>0.003691298957031874</v>
       </c>
       <c r="FI4">
-        <v>0.0004747467823523781</v>
+        <v>0.000466738083036324</v>
       </c>
       <c r="FJ4">
-        <v>0.001456898607218957</v>
+        <v>0.001450304831879157</v>
       </c>
       <c r="FK4">
-        <v>1.149317805694889E-05</v>
+        <v>2.817098591300616E-06</v>
       </c>
       <c r="FL4">
-        <v>0.008131094040289704</v>
+        <v>0.008134115355917881</v>
       </c>
       <c r="FM4">
-        <v>7.211092035731079E-05</v>
+        <v>6.35221690366556E-05</v>
       </c>
       <c r="FN4">
-        <v>0.005334798726434015</v>
+        <v>0.005333791596373769</v>
       </c>
       <c r="FO4">
-        <v>0.003672073618195185</v>
+        <v>0.003668671105301041</v>
       </c>
       <c r="FP4">
-        <v>0.0009765338648387412</v>
+        <v>0.0009692480584156276</v>
       </c>
       <c r="FQ4">
-        <v>1.828326509059388E-05</v>
+        <v>9.616967673608051E-06</v>
       </c>
       <c r="FR4">
-        <v>0.0001760353908722582</v>
+        <v>0.0001675963569591648</v>
       </c>
       <c r="FS4">
-        <v>8.441940041829952E-06</v>
+        <v>0</v>
       </c>
       <c r="FT4">
-        <v>9.017144044680097E-05</v>
+        <v>8.160870777443542E-05</v>
       </c>
       <c r="FU4">
-        <v>0.002929168014514075</v>
+        <v>0.002924695244533269</v>
       </c>
       <c r="FV4">
-        <v>0.001428779707079627</v>
+        <v>0.001422145422619968</v>
       </c>
       <c r="FW4">
-        <v>1.809441208965811E-06</v>
+        <v>0</v>
       </c>
       <c r="FX4">
-        <v>0.0001830454609069933</v>
+        <v>0.0001746165259581499</v>
       </c>
       <c r="FY4">
-        <v>0.0003561340617646501</v>
+        <v>0.0003479544846087355</v>
       </c>
       <c r="FZ4">
-        <v>0.000314416101557937</v>
+        <v>0.0003061764239769736</v>
       </c>
       <c r="GA4">
-        <v>0.0001237445406131562</v>
+        <v>0.0001152301745814463</v>
       </c>
       <c r="GB4">
-        <v>2.549525712632942E-05</v>
+        <v>1.683934956984128E-05</v>
       </c>
       <c r="GC4">
-        <v>0.002037927710097965</v>
+        <v>0.002032170986614864</v>
       </c>
       <c r="GD4">
-        <v>0.002689427213326156</v>
+        <v>0.002684609063945649</v>
       </c>
       <c r="GE4">
-        <v>0.0003887421319262236</v>
+        <v>0.000380609531153311</v>
       </c>
       <c r="GF4">
-        <v>5.16855202561026E-05</v>
+        <v>4.306734335419198E-05</v>
       </c>
       <c r="GG4">
-        <v>4.678956623184307E-05</v>
+        <v>3.816433603882187E-05</v>
       </c>
       <c r="GH4">
-        <v>2.063053210222462E-06</v>
+        <v>0</v>
       </c>
       <c r="GI4">
-        <v>0.006840953033897035</v>
+        <v>0.006842115725026967</v>
       </c>
       <c r="GJ4">
-        <v>0.004857828024070618</v>
+        <v>0.00485613375250571</v>
       </c>
       <c r="GK4">
-        <v>0.0008503076042132881</v>
+        <v>0.0008428399516050228</v>
       </c>
       <c r="GL4">
-        <v>0.000837693904150787</v>
+        <v>0.0008302080797831299</v>
       </c>
       <c r="GM4">
-        <v>0.00124340460616109</v>
+        <v>0.001236503263525446</v>
       </c>
       <c r="GN4">
-        <v>3.152539215620884E-06</v>
+        <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.0009017048044679621</v>
+        <v>0.0008943111965533087</v>
       </c>
       <c r="GP4">
-        <v>0.0008726083043237885</v>
+        <v>0.0008651727789228191</v>
       </c>
       <c r="GQ4">
-        <v>0.002221985711009975</v>
+        <v>0.002216494148240237</v>
       </c>
       <c r="GR4">
-        <v>0.001900666509417834</v>
+        <v>0.001894712042409817</v>
       </c>
       <c r="GS4">
-        <v>0.001545203307656508</v>
+        <v>0.001538736747310054</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,604 +4313,604 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>2.626481310361048E-05</v>
+        <v>2.236123173722628E-05</v>
       </c>
       <c r="C5">
-        <v>7.771099438905904E-05</v>
+        <v>7.384285269133741E-05</v>
       </c>
       <c r="D5">
-        <v>0.000107475852239957</v>
+        <v>0.0001036282146238536</v>
       </c>
       <c r="E5">
-        <v>1.730866175026848E-05</v>
+        <v>1.339891077073665E-05</v>
       </c>
       <c r="F5">
-        <v>3.918974717039578E-06</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>3.793782726078774E-05</v>
+        <v>3.4042287069544E-05</v>
       </c>
       <c r="H5">
-        <v>2.048455452096055E-06</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>3.373226056444086E-06</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1.462964144370089E-05</v>
+        <v>1.071804497069155E-05</v>
       </c>
       <c r="K5">
-        <v>3.634855137553769E-06</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>4.123894702243809E-05</v>
+        <v>3.734568086957087E-05</v>
       </c>
       <c r="M5">
-        <v>1.804148769735649E-07</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>7.232873977767216E-05</v>
+        <v>6.845689041272783E-05</v>
       </c>
       <c r="O5">
-        <v>5.76991258339693E-05</v>
+        <v>5.381719858456647E-05</v>
       </c>
       <c r="P5">
-        <v>2.619823410841766E-07</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.458245094710817E-06</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>7.765432439315075E-05</v>
+        <v>7.37861436572376E-05</v>
       </c>
       <c r="S5">
-        <v>7.846649433450994E-06</v>
+        <v>3.930380368941613E-06</v>
       </c>
       <c r="T5">
-        <v>1.514417340655031E-05</v>
+        <v>1.123293137855174E-05</v>
       </c>
       <c r="U5">
-        <v>0.0001112090169704125</v>
+        <v>0.0001073639510149806</v>
       </c>
       <c r="V5">
-        <v>3.179753270413337E-05</v>
+        <v>2.789776265560691E-05</v>
       </c>
       <c r="W5">
-        <v>1.740843874306432E-06</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>2.358175029733476E-05</v>
+        <v>1.967632065272118E-05</v>
       </c>
       <c r="Y5">
-        <v>5.150391628127995E-05</v>
+        <v>4.761772134536751E-05</v>
       </c>
       <c r="Z5">
-        <v>4.964194041571956E-06</v>
+        <v>1.045939343503963E-06</v>
       </c>
       <c r="AA5">
-        <v>9.85896728815628E-06</v>
+        <v>5.94408444661297E-06</v>
       </c>
       <c r="AB5">
-        <v>9.491130314715088E-06</v>
+        <v>5.575994081760893E-06</v>
       </c>
       <c r="AC5">
-        <v>3.742242129800142E-06</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>1.306956905634227E-05</v>
+        <v>9.15689789815483E-06</v>
       </c>
       <c r="AE5">
-        <v>1.347699102692532E-05</v>
+        <v>9.564600529017854E-06</v>
       </c>
       <c r="AF5">
-        <v>6.713847515242311E-07</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>2.443516323571607E-05</v>
+        <v>2.053032148064089E-05</v>
       </c>
       <c r="AH5">
-        <v>2.764878500368402E-07</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>1.574459986319792E-07</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>1.112626519665399E-05</v>
+        <v>7.212255357087732E-06</v>
       </c>
       <c r="AK5">
-        <v>3.506683146808129E-05</v>
+        <v>3.116931353743915E-05</v>
       </c>
       <c r="AL5">
-        <v>6.095496559888899E-06</v>
+        <v>2.17802118081805E-06</v>
       </c>
       <c r="AM5">
-        <v>3.275049063532726E-05</v>
+        <v>2.885137704977798E-05</v>
       </c>
       <c r="AN5">
-        <v>5.006248638535502E-07</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>5.860093576885622E-05</v>
+        <v>5.471962974817222E-05</v>
       </c>
       <c r="AP5">
-        <v>1.676164378976463E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>2.879279892108316E-06</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>9.407733320736574E-07</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>4.432924679931021E-06</v>
+        <v>5.143040069806038E-07</v>
       </c>
       <c r="AT5">
-        <v>6.148761556043024E-06</v>
+        <v>2.231322869565636E-06</v>
       </c>
       <c r="AU5">
-        <v>0.0001399876898925156</v>
+        <v>0.0001361624486666832</v>
       </c>
       <c r="AV5">
-        <v>3.148300472684313E-05</v>
+        <v>2.758301800980947E-05</v>
       </c>
       <c r="AW5">
-        <v>3.796522125880982E-06</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>4.379080283818729E-05</v>
+        <v>3.989929457914864E-05</v>
       </c>
       <c r="AY5">
-        <v>8.834662362113826E-05</v>
+        <v>8.448580847645876E-05</v>
       </c>
       <c r="AZ5">
-        <v>1.602708184280197E-05</v>
+        <v>1.211644802286974E-05</v>
       </c>
       <c r="BA5">
-        <v>1.667849179576843E-06</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>3.519443345886808E-05</v>
+        <v>3.129700342925498E-05</v>
       </c>
       <c r="BC5">
-        <v>1.891523063426992E-06</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>1.269947208306426E-06</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>2.587012813210778E-07</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>3.220938667439642E-06</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>4.793145653922106E-06</v>
+        <v>8.747731259582467E-07</v>
       </c>
       <c r="BH5">
-        <v>2.429715424568069E-05</v>
+        <v>2.039221742051951E-05</v>
       </c>
       <c r="BI5">
-        <v>6.713847515242311E-07</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>1.561288387270816E-06</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>1.574459986319792E-07</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>6.362682540597358E-05</v>
+        <v>5.97489815638036E-05</v>
       </c>
       <c r="BM5">
-        <v>1.333741803700286E-06</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>3.291068162376105E-05</v>
+        <v>2.901167838878417E-05</v>
       </c>
       <c r="BO5">
-        <v>1.824076568296809E-06</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>1.616504483284067E-05</v>
+        <v>1.225450605130648E-05</v>
       </c>
       <c r="BQ5">
-        <v>2.84286719473741E-06</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>3.541121444321591E-06</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>3.223493967255142E-07</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>1.604553284146975E-06</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>1.159743516263426E-05</v>
+        <v>7.683749897352449E-06</v>
       </c>
       <c r="BV5">
-        <v>1.140171017676613E-06</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>4.244831093511879E-06</v>
+        <v>3.260808487601401E-07</v>
       </c>
       <c r="BX5">
-        <v>1.561288387270816E-06</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>1.558250287490175E-05</v>
+        <v>1.167156279839376E-05</v>
       </c>
       <c r="BZ5">
-        <v>1.705025276892629E-05</v>
+        <v>1.314032377951211E-05</v>
       </c>
       <c r="CA5">
-        <v>1.882588364072102E-05</v>
+        <v>1.491717782799733E-05</v>
       </c>
       <c r="CB5">
-        <v>7.593930451697977E-05</v>
+        <v>7.206994235739935E-05</v>
       </c>
       <c r="CC5">
-        <v>4.912432245309296E-05</v>
+        <v>4.523648828925893E-05</v>
       </c>
       <c r="CD5">
-        <v>1.304633505801983E-05</v>
+        <v>9.133647894656071E-06</v>
       </c>
       <c r="CE5">
-        <v>2.481948420796707E-05</v>
+        <v>2.09149071996151E-05</v>
       </c>
       <c r="CF5">
-        <v>9.149728339365222E-06</v>
+        <v>5.234356925245295E-06</v>
       </c>
       <c r="CG5">
-        <v>1.391503599529731E-06</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>1.26455260869593E-05</v>
+        <v>8.73256281880455E-06</v>
       </c>
       <c r="CI5">
-        <v>2.749369801488171E-06</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>1.86203166555635E-06</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>2.608887511631367E-05</v>
+        <v>2.218517255174102E-05</v>
       </c>
       <c r="CL5">
-        <v>2.795923198126892E-06</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>5.089559632520227E-06</v>
+        <v>1.171391294895203E-06</v>
       </c>
       <c r="CN5">
-        <v>0.07850656833161647</v>
+        <v>0.0785567273819895</v>
       </c>
       <c r="CO5">
-        <v>0.002494171519914167</v>
+        <v>0.002491968002455232</v>
       </c>
       <c r="CP5">
-        <v>0.2104947448017183</v>
+        <v>0.2106358263875371</v>
       </c>
       <c r="CQ5">
-        <v>0.003931455016138467</v>
+        <v>0.003930241598422752</v>
       </c>
       <c r="CR5">
-        <v>0.01354198152223283</v>
+        <v>0.01354738849628457</v>
       </c>
       <c r="CS5">
-        <v>0.002282444235201441</v>
+        <v>0.002280094865424034</v>
       </c>
       <c r="CT5">
-        <v>3.748456029351481E-10</v>
+        <v>0</v>
       </c>
       <c r="CU5">
-        <v>1.7425173741856E-05</v>
+        <v>1.351550302379886E-05</v>
       </c>
       <c r="CV5">
-        <v>0.02757666800889106</v>
+        <v>0.02759174304044371</v>
       </c>
       <c r="CW5">
-        <v>0.001895669663127597</v>
+        <v>0.001893053856418645</v>
       </c>
       <c r="CX5">
-        <v>0.083148023996491</v>
+        <v>0.08320138040081267</v>
       </c>
       <c r="CY5">
-        <v>0.004797044653640587</v>
+        <v>0.00479642751361127</v>
       </c>
       <c r="CZ5">
-        <v>0.006114192558538998</v>
+        <v>0.006114482760593443</v>
       </c>
       <c r="DA5">
-        <v>0.01069393122786966</v>
+        <v>0.01069737626896068</v>
       </c>
       <c r="DB5">
-        <v>0.02215336840046774</v>
+        <v>0.02216470749018024</v>
       </c>
       <c r="DC5">
-        <v>0.05807609780675092</v>
+        <v>0.05811218294361024</v>
       </c>
       <c r="DD5">
-        <v>0.004471635077136027</v>
+        <v>0.004470793772605422</v>
       </c>
       <c r="DE5">
-        <v>0.01763461172673402</v>
+        <v>0.01764283798600347</v>
       </c>
       <c r="DF5">
-        <v>0.03726512330935876</v>
+        <v>0.03728687241539316</v>
       </c>
       <c r="DG5">
-        <v>1.676164378976463E-06</v>
+        <v>0</v>
       </c>
       <c r="DH5">
-        <v>0.02808613297210633</v>
+        <v>0.02810155895817184</v>
       </c>
       <c r="DI5">
-        <v>0.03710338732103653</v>
+        <v>0.03712502501219631</v>
       </c>
       <c r="DJ5">
-        <v>0.04629836965713428</v>
+        <v>0.04632634148465186</v>
       </c>
       <c r="DK5">
-        <v>0.003495872947588654</v>
+        <v>0.003494359470980344</v>
       </c>
       <c r="DL5">
-        <v>0.004569380670078534</v>
+        <v>0.004568606699436288</v>
       </c>
       <c r="DM5">
-        <v>0.0009154253339038505</v>
+        <v>0.0009121342674697244</v>
       </c>
       <c r="DN5">
-        <v>0.001428379496867193</v>
+        <v>0.001425441788546736</v>
       </c>
       <c r="DO5">
-        <v>0.005691107889086839</v>
+        <v>0.005691106641316886</v>
       </c>
       <c r="DP5">
-        <v>5.27148181938496E-05</v>
+        <v>4.882945741047273E-05</v>
       </c>
       <c r="DQ5">
-        <v>0.00158236318574916</v>
+        <v>0.001579531551986173</v>
       </c>
       <c r="DR5">
-        <v>0.004462292677810573</v>
+        <v>0.004461444937592648</v>
       </c>
       <c r="DS5">
-        <v>0.001873821964705059</v>
+        <v>0.001871191107798525</v>
       </c>
       <c r="DT5">
-        <v>0.0002520090318042761</v>
+        <v>0.0002482609585847231</v>
       </c>
       <c r="DU5">
-        <v>0.001823336668350232</v>
+        <v>0.001820671033698676</v>
       </c>
       <c r="DV5">
-        <v>0.001351257902435577</v>
+        <v>0.001348267067455666</v>
       </c>
       <c r="DW5">
-        <v>0.004855312649433483</v>
+        <v>0.004854735648407935</v>
       </c>
       <c r="DX5">
-        <v>0.01871154664897645</v>
+        <v>0.01872051477510291</v>
       </c>
       <c r="DY5">
-        <v>0.003548586443782599</v>
+        <v>0.00354710927985664</v>
       </c>
       <c r="DZ5">
-        <v>0.003318012760430633</v>
+        <v>0.003316376761490371</v>
       </c>
       <c r="EA5">
-        <v>0.02207853140587118</v>
+        <v>0.02208981894271374</v>
       </c>
       <c r="EB5">
-        <v>0.01681918878560973</v>
+        <v>0.01682685332546423</v>
       </c>
       <c r="EC5">
-        <v>0.002030674253379905</v>
+        <v>0.002028151447119712</v>
       </c>
       <c r="ED5">
-        <v>0.002249173837603653</v>
+        <v>0.002246801548887703</v>
       </c>
       <c r="EE5">
-        <v>0.003319623160314358</v>
+        <v>0.003317988270728315</v>
       </c>
       <c r="EF5">
-        <v>0.001406035098480518</v>
+        <v>0.001403081997801376</v>
       </c>
       <c r="EG5">
-        <v>0.0137142110097974</v>
+        <v>0.01371973662736787</v>
       </c>
       <c r="EH5">
-        <v>4.995670339299284E-05</v>
+        <v>4.606944263040987E-05</v>
       </c>
       <c r="EI5">
-        <v>0.009364708323843094</v>
+        <v>0.009367237704760313</v>
       </c>
       <c r="EJ5">
-        <v>0.002753298801204486</v>
+        <v>0.002751273788442322</v>
       </c>
       <c r="EK5">
-        <v>0.001867775565141625</v>
+        <v>0.001865140543059139</v>
       </c>
       <c r="EL5">
-        <v>0.007349288969361744</v>
+        <v>0.007350429990786495</v>
       </c>
       <c r="EM5">
-        <v>0.008503470386026769</v>
+        <v>0.008505406487007689</v>
       </c>
       <c r="EN5">
-        <v>0.0005878207575577743</v>
+        <v>0.0005843040145554764</v>
       </c>
       <c r="EO5">
-        <v>0.001034981225271596</v>
+        <v>0.001031772517159718</v>
       </c>
       <c r="EP5">
-        <v>0.0003558161543091251</v>
+        <v>0.0003521395905764663</v>
       </c>
       <c r="EQ5">
-        <v>0.009766009294868094</v>
+        <v>0.00976881511949973</v>
       </c>
       <c r="ER5">
-        <v>0.002574067814145442</v>
+        <v>0.002571919334750056</v>
       </c>
       <c r="ES5">
-        <v>0.0004044297407990946</v>
+        <v>0.0004007866654489485</v>
       </c>
       <c r="ET5">
-        <v>0.003116278474996387</v>
+        <v>0.003114503507602975</v>
       </c>
       <c r="EU5">
-        <v>0.02498493719602093</v>
+        <v>0.02499822686510399</v>
       </c>
       <c r="EV5">
-        <v>0.0001283325207340499</v>
+        <v>0.0001244992506259396</v>
       </c>
       <c r="EW5">
-        <v>0.006629616521324014</v>
+        <v>0.006630261782860144</v>
       </c>
       <c r="EX5">
-        <v>0.0003558161543091251</v>
+        <v>0.0003521395905764663</v>
       </c>
       <c r="EY5">
-        <v>0.00242315332504187</v>
+        <v>0.002420900885364952</v>
       </c>
       <c r="EZ5">
-        <v>0.008329061398619563</v>
+        <v>0.008330877354692328</v>
       </c>
       <c r="FA5">
-        <v>0.01516244390523113</v>
+        <v>0.0151689671652442</v>
       </c>
       <c r="FB5">
-        <v>9.664176302220708E-06</v>
+        <v>5.749159275246574E-06</v>
       </c>
       <c r="FC5">
-        <v>0.002242549138081974</v>
+        <v>0.002240172285817279</v>
       </c>
       <c r="FD5">
-        <v>0.006863843104412229</v>
+        <v>0.006864649717331284</v>
       </c>
       <c r="FE5">
-        <v>0.006363206540559525</v>
+        <v>0.006363668280574508</v>
       </c>
       <c r="FF5">
-        <v>0.004633424665454387</v>
+        <v>0.004632694812721755</v>
       </c>
       <c r="FG5">
-        <v>1.301649206017457E-06</v>
+        <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.00200151265548545</v>
+        <v>0.001998969760710595</v>
       </c>
       <c r="FI5">
-        <v>0.0007191598480747419</v>
+        <v>0.0007157335804728345</v>
       </c>
       <c r="FJ5">
-        <v>0.001125218918756194</v>
+        <v>0.001122072372575058</v>
       </c>
       <c r="FK5">
-        <v>0.000359109274071353</v>
+        <v>0.0003554349788661208</v>
       </c>
       <c r="FL5">
-        <v>0.005614948994585714</v>
+        <v>0.005614895283330243</v>
       </c>
       <c r="FM5">
-        <v>0.001530272689510232</v>
+        <v>0.001527405172230121</v>
       </c>
       <c r="FN5">
-        <v>0.004193787197197384</v>
+        <v>0.004192754491933867</v>
       </c>
       <c r="FO5">
-        <v>0.004319645188110102</v>
+        <v>0.004318699182488521</v>
       </c>
       <c r="FP5">
-        <v>0.001921318461275685</v>
+        <v>0.001918720323223283</v>
       </c>
       <c r="FQ5">
-        <v>4.551510271368824E-05</v>
+        <v>4.162478227101876E-05</v>
       </c>
       <c r="FR5">
-        <v>0.000239202912728912</v>
+        <v>0.0002354460177736044</v>
       </c>
       <c r="FS5">
-        <v>0.0001426465097005417</v>
+        <v>0.0001388231000526938</v>
       </c>
       <c r="FT5">
-        <v>8.750780868170293E-06</v>
+        <v>4.83513463158853E-06</v>
       </c>
       <c r="FU5">
-        <v>0.00228748243483767</v>
+        <v>0.002285136535718751</v>
       </c>
       <c r="FV5">
-        <v>0.003237612566235741</v>
+        <v>0.003235921182110972</v>
       </c>
       <c r="FW5">
-        <v>0.0001662564079958441</v>
+        <v>0.0001624492624700717</v>
       </c>
       <c r="FX5">
-        <v>0.0003325972359855929</v>
+        <v>0.0003289046774647588</v>
       </c>
       <c r="FY5">
-        <v>0.000138667649987826</v>
+        <v>0.0001348414994277014</v>
       </c>
       <c r="FZ5">
-        <v>0.0004800707953376088</v>
+        <v>0.0004764798267491921</v>
       </c>
       <c r="GA5">
-        <v>1.148062017106862E-05</v>
+        <v>7.566854435584886E-06</v>
       </c>
       <c r="GB5">
-        <v>2.619823410841766E-07</v>
+        <v>0</v>
       </c>
       <c r="GC5">
-        <v>0.001271287308209667</v>
+        <v>0.00126824138398326</v>
       </c>
       <c r="GD5">
-        <v>0.002825651595980422</v>
+        <v>0.002823676424800463</v>
       </c>
       <c r="GE5">
-        <v>0.000595457557006377</v>
+        <v>0.0005919460747568762</v>
       </c>
       <c r="GF5">
-        <v>1.525316989868047E-05</v>
+        <v>1.134200295496357E-05</v>
       </c>
       <c r="GG5">
-        <v>2.786456898810384E-05</v>
+        <v>2.396208964362041E-05</v>
       </c>
       <c r="GH5">
-        <v>0.000116045631621196</v>
+        <v>0.0001122038974586473</v>
       </c>
       <c r="GI5">
-        <v>0.004282551690788352</v>
+        <v>0.004281580132614147</v>
       </c>
       <c r="GJ5">
-        <v>0.007747050740642285</v>
+        <v>0.007748465767737206</v>
       </c>
       <c r="GK5">
-        <v>1.030401825602241E-06</v>
+        <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.002433114024322681</v>
+        <v>0.002430868446260626</v>
       </c>
       <c r="GM5">
-        <v>0.000384864252211775</v>
+        <v>0.0003812076988071761</v>
       </c>
       <c r="GN5">
-        <v>0.0001196175613632932</v>
+        <v>0.0001157782877916646</v>
       </c>
       <c r="GO5">
-        <v>0.0006293561545588079</v>
+        <v>0.0006258680239951926</v>
       </c>
       <c r="GP5">
-        <v>0.0007704491743715158</v>
+        <v>0.0007670582383857647</v>
       </c>
       <c r="GQ5">
-        <v>0.002773875399718801</v>
+        <v>0.002771864561533162</v>
       </c>
       <c r="GR5">
-        <v>0.001936052460211851</v>
+        <v>0.001933464471951471</v>
       </c>
       <c r="GS5">
-        <v>0.001360523201766598</v>
+        <v>0.001357538749362228</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5086,604 +5086,604 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>4.606110219191063E-06</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>8.477696403428316E-06</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>2.111646000486943E-05</v>
+        <v>7.575505185750226E-06</v>
       </c>
       <c r="E6">
-        <v>2.476527817850581E-06</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>7.221920843669699E-05</v>
+        <v>5.879158285172646E-05</v>
       </c>
       <c r="G6">
-        <v>3.193608151974298E-05</v>
+        <v>1.841912109344386E-05</v>
       </c>
       <c r="H6">
-        <v>8.540148806400241E-07</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>2.377368313131876E-06</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>3.285326756338913E-05</v>
+        <v>1.93383411566895E-05</v>
       </c>
       <c r="K6">
-        <v>1.73102788237446E-05</v>
+        <v>3.760883135757782E-06</v>
       </c>
       <c r="L6">
-        <v>2.717544629319853E-05</v>
+        <v>1.364792833015547E-05</v>
       </c>
       <c r="M6">
-        <v>2.249591607051363E-05</v>
+        <v>8.958020435181181E-06</v>
       </c>
       <c r="N6">
-        <v>5.078796041684774E-06</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>2.826205534490702E-06</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>3.558172169322814E-05</v>
+        <v>2.207284610818553E-05</v>
       </c>
       <c r="Q6">
-        <v>1.425881667853461E-05</v>
+        <v>7.026538424283165E-07</v>
       </c>
       <c r="R6">
-        <v>1.328084363199579E-06</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>1.355771764517139E-05</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>2.579335322742884E-05</v>
+        <v>1.226277023259253E-05</v>
       </c>
       <c r="U6">
-        <v>9.300998042606789E-07</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>7.592598061309123E-06</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>3.802546980951883E-05</v>
+        <v>2.452201366102259E-05</v>
       </c>
       <c r="X6">
-        <v>3.108726147935016E-05</v>
+        <v>1.756841864695627E-05</v>
       </c>
       <c r="Y6">
-        <v>1.40134176668568E-08</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>1.791555485254788E-05</v>
+        <v>4.367501469444808E-06</v>
       </c>
       <c r="AA6">
-        <v>7.345009349527115E-05</v>
+        <v>6.002519761203475E-05</v>
       </c>
       <c r="AB6">
-        <v>9.827195467646956E-05</v>
+        <v>8.490210558825169E-05</v>
       </c>
       <c r="AC6">
-        <v>3.295764756835627E-06</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>1.802941785796629E-05</v>
+        <v>4.481616985884593E-06</v>
       </c>
       <c r="AE6">
-        <v>0.0001567124174574771</v>
+        <v>0.0001434721702613982</v>
       </c>
       <c r="AF6">
-        <v>5.14615194489004E-05</v>
+        <v>3.798786007772713E-05</v>
       </c>
       <c r="AG6">
-        <v>8.140363387375644E-07</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>6.591842313686139E-06</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>1.668452679396693E-06</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>1.390710066179749E-06</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>5.511332262267884E-06</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>4.151899497576529E-05</v>
+        <v>2.802328632703607E-05</v>
       </c>
       <c r="AM6">
-        <v>2.466426917369909E-05</v>
+        <v>1.113118223856554E-05</v>
       </c>
       <c r="AN6">
-        <v>4.839567530300602E-06</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>1.742220682907092E-05</v>
+        <v>3.87305936090618E-06</v>
       </c>
       <c r="AP6">
-        <v>5.574566265277003E-06</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>3.887228184981609E-06</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>3.475137765371454E-06</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.995293494950073E-06</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>8.043134382748806E-06</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>1.40134176668568E-08</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>4.848376230719781E-09</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>2.351350111893747E-06</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>2.946204340201088E-06</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>8.902841423659701E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>4.510635214647692E-08</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>3.039127844623041E-06</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>3.214436152965441E-05</v>
+        <v>1.86278630005083E-05</v>
       </c>
       <c r="BC6">
-        <v>1.220853908096801E-05</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>1.01138754812892E-05</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>1.345900264047384E-05</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>3.138748949363712E-05</v>
+        <v>1.786931246909062E-05</v>
       </c>
       <c r="BG6">
-        <v>8.293746394674684E-07</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>2.703561328654429E-05</v>
+        <v>1.350778521948454E-05</v>
       </c>
       <c r="BI6">
-        <v>1.746370883104588E-05</v>
+        <v>3.914653400789931E-06</v>
       </c>
       <c r="BJ6">
-        <v>2.144230602037547E-05</v>
+        <v>7.902073821477697E-06</v>
       </c>
       <c r="BK6">
-        <v>4.663933221942688E-06</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>8.273271393700339E-06</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>7.272630346082813E-06</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>3.043629644837268E-05</v>
+        <v>1.691600998778496E-05</v>
       </c>
       <c r="BO6">
-        <v>4.475272612964892E-07</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>9.310059443037993E-09</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>1.587244275532227E-06</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>3.393972461509038E-05</v>
+        <v>2.042720761589589E-05</v>
       </c>
       <c r="BS6">
-        <v>2.493645318665152E-07</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>1.571403574778415E-05</v>
+        <v>2.161100113104344E-06</v>
       </c>
       <c r="BU6">
-        <v>2.648481426033341E-06</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>1.97364739392E-05</v>
+        <v>6.192458760926791E-06</v>
       </c>
       <c r="BW6">
-        <v>6.800338623607857E-06</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>1.703325481056185E-06</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>7.863621374206315E-06</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>1.183604356324205E-05</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>4.176792198761098E-06</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>2.156685602630243E-05</v>
+        <v>8.02690003870871E-06</v>
       </c>
       <c r="CC6">
-        <v>6.730478920283441E-06</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>2.802201733348433E-05</v>
+        <v>1.449637678898708E-05</v>
       </c>
       <c r="CE6">
-        <v>1.006013547873188E-05</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>3.056476445448609E-06</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>4.993167237609954E-05</v>
+        <v>3.64546203029201E-05</v>
       </c>
       <c r="CH6">
-        <v>3.969971888919136E-05</v>
+        <v>2.619997567927076E-05</v>
       </c>
       <c r="CI6">
-        <v>2.236870906446023E-05</v>
+        <v>8.830531325463753E-06</v>
       </c>
       <c r="CJ6">
-        <v>2.87374093675277E-05</v>
+        <v>1.521335532931088E-05</v>
       </c>
       <c r="CK6">
-        <v>2.444732616337542E-05</v>
+        <v>1.091375811937848E-05</v>
       </c>
       <c r="CL6">
-        <v>2.300835809489922E-05</v>
+        <v>9.471598888896923E-06</v>
       </c>
       <c r="CM6">
-        <v>0.004049848192720211</v>
+        <v>0.004045241651330306</v>
       </c>
       <c r="CN6">
-        <v>0.1311567662413598</v>
+        <v>0.1314340414014339</v>
       </c>
       <c r="CO6">
-        <v>0.1214451397792124</v>
+        <v>0.1217008777182354</v>
       </c>
       <c r="CP6">
-        <v>0.08988544027738034</v>
+        <v>0.0900711890928384</v>
       </c>
       <c r="CQ6">
-        <v>0.01406373966925148</v>
+        <v>0.01408134067416208</v>
       </c>
       <c r="CR6">
-        <v>0.01368097765103697</v>
+        <v>0.0136977298145894</v>
       </c>
       <c r="CS6">
-        <v>0.0003728251177416367</v>
+        <v>0.0003600641380519949</v>
       </c>
       <c r="CT6">
-        <v>0.001502268471488481</v>
+        <v>0.001492012228906379</v>
       </c>
       <c r="CU6">
-        <v>0.006367831303026122</v>
+        <v>0.006368365292404556</v>
       </c>
       <c r="CV6">
-        <v>0.00827342039370743</v>
+        <v>0.008278180358378309</v>
       </c>
       <c r="CW6">
-        <v>0.06913086328973185</v>
+        <v>0.06927058522038883</v>
       </c>
       <c r="CX6">
-        <v>0.01903172490566309</v>
+        <v>0.01906034328203378</v>
       </c>
       <c r="CY6">
-        <v>0.0006111100990809092</v>
+        <v>0.0005988775577878897</v>
       </c>
       <c r="CZ6">
-        <v>0.02364265112508334</v>
+        <v>0.02368149503243227</v>
       </c>
       <c r="DA6">
-        <v>0.001503309671538029</v>
+        <v>0.001493055737998157</v>
       </c>
       <c r="DB6">
-        <v>0.07239845744522691</v>
+        <v>0.07254542583433309</v>
       </c>
       <c r="DC6">
-        <v>0.002715214129208952</v>
+        <v>0.002707647804618966</v>
       </c>
       <c r="DD6">
-        <v>0.03531094768034281</v>
+        <v>0.03537566806504386</v>
       </c>
       <c r="DE6">
-        <v>0.006551311711757408</v>
+        <v>0.006552252600859261</v>
       </c>
       <c r="DF6">
-        <v>0.01324893363047728</v>
+        <v>0.01326472766125856</v>
       </c>
       <c r="DG6">
-        <v>0.02283202408650801</v>
+        <v>0.0228690702873875</v>
       </c>
       <c r="DH6">
-        <v>0.003361247659951763</v>
+        <v>0.003355114027095983</v>
       </c>
       <c r="DI6">
-        <v>0.05780425975073252</v>
+        <v>0.05791886296773964</v>
       </c>
       <c r="DJ6">
-        <v>0.0004640963420849624</v>
+        <v>0.0004515377722122493</v>
       </c>
       <c r="DK6">
-        <v>0.002463313117221733</v>
+        <v>0.002455188158318607</v>
       </c>
       <c r="DL6">
-        <v>1.668452679396693E-06</v>
+        <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.0002431655715715252</v>
+        <v>0.0002301170492835214</v>
       </c>
       <c r="DN6">
-        <v>0.008693013413674611</v>
+        <v>0.008698703898856937</v>
       </c>
       <c r="DO6">
-        <v>5.26240465042216E-05</v>
+        <v>3.915296523901913E-05</v>
       </c>
       <c r="DP6">
-        <v>0.0001991368594763299</v>
+        <v>0.0001859906958603073</v>
       </c>
       <c r="DQ6">
-        <v>0.004646337821105375</v>
+        <v>0.004643054099227863</v>
       </c>
       <c r="DR6">
-        <v>0.0019175711912515</v>
+        <v>0.001908235954693827</v>
       </c>
       <c r="DS6">
-        <v>0.0004778694227403823</v>
+        <v>0.0004653413970698979</v>
       </c>
       <c r="DT6">
-        <v>0.0004679403422678869</v>
+        <v>0.0004553902971342567</v>
       </c>
       <c r="DU6">
-        <v>0.002280224008509068</v>
+        <v>0.002271693017658383</v>
       </c>
       <c r="DV6">
-        <v>0.002635516625416385</v>
+        <v>0.002627773557748081</v>
       </c>
       <c r="DW6">
-        <v>0.00139394816633384</v>
+        <v>0.001383451704632363</v>
       </c>
       <c r="DX6">
-        <v>0.0135880496466148</v>
+        <v>0.01360459572615228</v>
       </c>
       <c r="DY6">
-        <v>0.001514399472065759</v>
+        <v>0.001504170132087667</v>
       </c>
       <c r="DZ6">
-        <v>0.005664011769533447</v>
+        <v>0.005662984916664501</v>
       </c>
       <c r="EA6">
-        <v>0.0342360116291898</v>
+        <v>0.03429834815620855</v>
       </c>
       <c r="EB6">
-        <v>2.592993923392856E-05</v>
+        <v>1.239965914232128E-05</v>
       </c>
       <c r="EC6">
-        <v>0.003366902360220853</v>
+        <v>0.003360781267646574</v>
       </c>
       <c r="ED6">
-        <v>0.002605269323977006</v>
+        <v>0.002597459177656137</v>
       </c>
       <c r="EE6">
-        <v>3.730514577524075E-05</v>
+        <v>2.380009218289563E-05</v>
       </c>
       <c r="EF6">
-        <v>0.01269225160398644</v>
+        <v>0.0127068110955372</v>
       </c>
       <c r="EG6">
-        <v>0.001188539256559043</v>
+        <v>0.001177587264868544</v>
       </c>
       <c r="EH6">
-        <v>0.006796233323412498</v>
+        <v>0.006797717368793163</v>
       </c>
       <c r="EI6">
-        <v>0.007080343336932447</v>
+        <v>0.007082457445690019</v>
       </c>
       <c r="EJ6">
-        <v>0.002588844723195408</v>
+        <v>0.002580998152465189</v>
       </c>
       <c r="EK6">
-        <v>0.006483292308520567</v>
+        <v>0.00648408235276353</v>
       </c>
       <c r="EL6">
-        <v>0.01169194555638486</v>
+        <v>0.01170428669526834</v>
       </c>
       <c r="EM6">
-        <v>3.27774855597829E-06</v>
+        <v>0</v>
       </c>
       <c r="EN6">
-        <v>0.001584564175404688</v>
+        <v>0.001574490437861645</v>
       </c>
       <c r="EO6">
-        <v>7.955680378587129E-05</v>
+        <v>6.614545059498782E-05</v>
       </c>
       <c r="EP6">
-        <v>0.003225615353497426</v>
+        <v>0.00321918093240837</v>
       </c>
       <c r="EQ6">
-        <v>0.007491520956499165</v>
+        <v>0.007494546923153905</v>
       </c>
       <c r="ER6">
-        <v>2.754492731078103E-05</v>
+        <v>1.401822873616697E-05</v>
       </c>
       <c r="ES6">
-        <v>8.565857407623636E-05</v>
+        <v>7.226075262239598E-05</v>
       </c>
       <c r="ET6">
-        <v>0.01896645390255704</v>
+        <v>0.01899492752912422</v>
       </c>
       <c r="EU6">
-        <v>0.007587135661049183</v>
+        <v>0.007590373669943774</v>
       </c>
       <c r="EV6">
-        <v>0.005435188558644432</v>
+        <v>0.005433654250500746</v>
       </c>
       <c r="EW6">
-        <v>9.111971433611576E-05</v>
+        <v>7.773400391078604E-05</v>
       </c>
       <c r="EX6">
-        <v>0.004415613810125907</v>
+        <v>0.004411818417618802</v>
       </c>
       <c r="EY6">
-        <v>0.0008165201388557609</v>
+        <v>0.0008047431300577341</v>
       </c>
       <c r="EZ6">
-        <v>0.01849094887992917</v>
+        <v>0.01851836799139292</v>
       </c>
       <c r="FA6">
-        <v>0.001785836084982619</v>
+        <v>0.001776208702911014</v>
       </c>
       <c r="FB6">
-        <v>0.000630766130016281</v>
+        <v>0.0006185771793910959</v>
       </c>
       <c r="FC6">
-        <v>0.008020408381667342</v>
+        <v>0.008024607248189201</v>
       </c>
       <c r="FD6">
-        <v>5.74040157316861E-05</v>
+        <v>4.394353487973783E-05</v>
       </c>
       <c r="FE6">
-        <v>0.00908132243215308</v>
+        <v>0.009087874060131586</v>
       </c>
       <c r="FF6">
-        <v>0.0002667463726936653</v>
+        <v>0.0002537501449341124</v>
       </c>
       <c r="FG6">
-        <v>0.0002796192133062454</v>
+        <v>0.0002666515333100264</v>
       </c>
       <c r="FH6">
-        <v>0.0008392164999358132</v>
+        <v>0.0008274898242665925</v>
       </c>
       <c r="FI6">
-        <v>0.0001555813874036548</v>
+        <v>0.0001423386319516849</v>
       </c>
       <c r="FJ6">
-        <v>0.001263415960122202</v>
+        <v>0.001252630020546918</v>
       </c>
       <c r="FK6">
-        <v>0.0009058465831065403</v>
+        <v>0.0008942676712372858</v>
       </c>
       <c r="FL6">
-        <v>0.005710597871750341</v>
+        <v>0.005709674331666877</v>
       </c>
       <c r="FM6">
-        <v>0.001700616780927286</v>
+        <v>0.001690800410224744</v>
       </c>
       <c r="FN6">
-        <v>0.005252599249955551</v>
+        <v>0.005250660018257801</v>
       </c>
       <c r="FO6">
-        <v>0.003010624443266649</v>
+        <v>0.003003713242435739</v>
       </c>
       <c r="FP6">
-        <v>0.0005235329249133723</v>
+        <v>0.0005111061660022819</v>
       </c>
       <c r="FQ6">
-        <v>2.565712522094616E-05</v>
+        <v>1.212624011680814E-05</v>
       </c>
       <c r="FR6">
-        <v>0.000627397879855996</v>
+        <v>0.0006152014595501616</v>
       </c>
       <c r="FS6">
-        <v>8.756573416699244E-05</v>
+        <v>7.417214217241045E-05</v>
       </c>
       <c r="FT6">
-        <v>0.0004934775234831253</v>
+        <v>0.0004809841114911215</v>
       </c>
       <c r="FU6">
-        <v>0.004240691901801895</v>
+        <v>0.004236508589534806</v>
       </c>
       <c r="FV6">
-        <v>0.001682247480053146</v>
+        <v>0.001672390372230511</v>
       </c>
       <c r="FW6">
-        <v>0.0002463716517240929</v>
+        <v>0.0002333302394765363</v>
       </c>
       <c r="FX6">
-        <v>1.664629679214767E-05</v>
+        <v>3.095428608503801E-06</v>
       </c>
       <c r="FY6">
-        <v>0.0006566594012484648</v>
+        <v>0.0006445278734564617</v>
       </c>
       <c r="FZ6">
-        <v>6.518017310173027E-05</v>
+        <v>5.173693723143973E-05</v>
       </c>
       <c r="GA6">
-        <v>0.0002218744105583422</v>
+        <v>0.0002087786714171201</v>
       </c>
       <c r="GB6">
-        <v>0.0004849409730768962</v>
+        <v>0.0004724286297994039</v>
       </c>
       <c r="GC6">
-        <v>0.001978022794128212</v>
+        <v>0.001968821619515685</v>
       </c>
       <c r="GD6">
-        <v>0.0009234157439426045</v>
+        <v>0.0009118757947437206</v>
       </c>
       <c r="GE6">
-        <v>6.251562297493226E-06</v>
+        <v>0</v>
       </c>
       <c r="GF6">
-        <v>7.200379342644603E-06</v>
+        <v>0</v>
       </c>
       <c r="GG6">
-        <v>0.0004040502992275501</v>
+        <v>0.0003913585668095824</v>
       </c>
       <c r="GH6">
-        <v>0.001149057054680202</v>
+        <v>0.001138017504338971</v>
       </c>
       <c r="GI6">
-        <v>0.007896702375780542</v>
+        <v>0.007900626902715258</v>
       </c>
       <c r="GJ6">
-        <v>0.002518769219860724</v>
+        <v>0.002510767244511982</v>
       </c>
       <c r="GK6">
-        <v>0.001655508478780717</v>
+        <v>0.001645592072571418</v>
       </c>
       <c r="GL6">
-        <v>0.0002201295104753076</v>
+        <v>0.0002070299017146199</v>
       </c>
       <c r="GM6">
-        <v>0.0004554578216738809</v>
+        <v>0.0004428800943794555</v>
       </c>
       <c r="GN6">
-        <v>2.262348707658435E-05</v>
+        <v>9.085874352149289E-06</v>
       </c>
       <c r="GO6">
-        <v>0.0008311672395527729</v>
+        <v>0.0008194227132484559</v>
       </c>
       <c r="GP6">
-        <v>0.003736529477810307</v>
+        <v>0.003731228097667207</v>
       </c>
       <c r="GQ6">
-        <v>0.001969670093730732</v>
+        <v>0.001960450395552092</v>
       </c>
       <c r="GR6">
-        <v>0.001963714693447332</v>
+        <v>0.001954481788132601</v>
       </c>
       <c r="GS6">
-        <v>0.001627217277434423</v>
+        <v>0.001617238130564786</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,772 +6645,772 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>4.237815496765271E-06</v>
+        <v>3.501797420626913E-06</v>
       </c>
       <c r="C2">
-        <v>7.958174206135978E-06</v>
+        <v>6.486065517836984E-06</v>
       </c>
       <c r="D2">
-        <v>8.694683088194353E-06</v>
+        <v>6.486065517836984E-06</v>
       </c>
       <c r="E2">
-        <v>8.832735864831337E-06</v>
+        <v>6.486065517836984E-06</v>
       </c>
       <c r="F2">
-        <v>8.859552072178084E-06</v>
+        <v>6.486065517836984E-06</v>
       </c>
       <c r="G2">
-        <v>1.011580714157525E-05</v>
+        <v>7.005884562121405E-06</v>
       </c>
       <c r="H2">
-        <v>1.36624023551789E-05</v>
+        <v>9.816364805756952E-06</v>
       </c>
       <c r="I2">
-        <v>2.473105508554249E-05</v>
+        <v>2.014995699261838E-05</v>
       </c>
       <c r="J2">
-        <v>4.145401167816518E-05</v>
+        <v>3.613864565036037E-05</v>
       </c>
       <c r="K2">
-        <v>6.578743308539417E-05</v>
+        <v>5.973886594192678E-05</v>
       </c>
       <c r="L2">
-        <v>8.839227253473205E-05</v>
+        <v>8.161026196655819E-05</v>
       </c>
       <c r="M2">
-        <v>0.0001156916378697096</v>
+        <v>0.0001081768419457589</v>
       </c>
       <c r="N2">
-        <v>0.0001423171692211019</v>
+        <v>0.0001340694934847202</v>
       </c>
       <c r="O2">
-        <v>0.0001747536644309371</v>
+        <v>0.0001657739234510201</v>
       </c>
       <c r="P2">
-        <v>0.0001995695668264127</v>
+        <v>0.0001898566923640201</v>
       </c>
       <c r="Q2">
-        <v>0.0002252001342020427</v>
+        <v>0.0002147542404552267</v>
       </c>
       <c r="R2">
-        <v>0.00024425455873787</v>
+        <v>0.0002330747238765278</v>
       </c>
       <c r="S2">
-        <v>0.0002526007445345539</v>
+        <v>0.0002406854674999252</v>
       </c>
       <c r="T2">
-        <v>0.000255790223956857</v>
+        <v>0.0002431387818925071</v>
       </c>
       <c r="U2">
-        <v>0.0002559186853637276</v>
+        <v>0.0002431387818925071</v>
       </c>
       <c r="V2">
-        <v>0.0002569933037375496</v>
+        <v>0.00024347693877976</v>
       </c>
       <c r="W2">
-        <v>0.0002592645422822213</v>
+        <v>0.0002450118835776034</v>
       </c>
       <c r="X2">
-        <v>0.0002656604867264138</v>
+        <v>0.0002506721124677101</v>
       </c>
       <c r="Y2">
-        <v>0.0002738026715280672</v>
+        <v>0.0002580788264996395</v>
       </c>
       <c r="Z2">
-        <v>0.0002855073187429378</v>
+        <v>0.0002690485023233993</v>
       </c>
       <c r="AA2">
-        <v>0.0003034195383065895</v>
+        <v>0.0002862266206605941</v>
       </c>
       <c r="AB2">
-        <v>0.0003318854796131489</v>
+        <v>0.0003139599401395837</v>
       </c>
       <c r="AC2">
-        <v>0.0003557110550327492</v>
+        <v>0.0003370522432547212</v>
       </c>
       <c r="AD2">
-        <v>0.0003724088136259857</v>
+        <v>0.0003530157303808735</v>
       </c>
       <c r="AE2">
-        <v>0.0003842247183381459</v>
+        <v>0.000364096679297769</v>
       </c>
       <c r="AF2">
-        <v>0.0003933189651166068</v>
+        <v>0.0003724555887645847</v>
       </c>
       <c r="AG2">
-        <v>0.0003993112412706328</v>
+        <v>0.0003777120927791388</v>
       </c>
       <c r="AH2">
-        <v>0.0004013911148199663</v>
+        <v>0.0003790556457564947</v>
       </c>
       <c r="AI2">
-        <v>0.000401422406999204</v>
+        <v>0.0003790556457564947</v>
       </c>
       <c r="AJ2">
-        <v>0.0004018245930894066</v>
+        <v>0.0003790556457564947</v>
       </c>
       <c r="AK2">
-        <v>0.0004051310060088611</v>
+        <v>0.0003816259100377239</v>
       </c>
       <c r="AL2">
-        <v>0.0004119598738425075</v>
+        <v>0.0003877191230035898</v>
       </c>
       <c r="AM2">
-        <v>0.0004199353606482217</v>
+        <v>0.0003949591156721996</v>
       </c>
       <c r="AN2">
-        <v>0.0004257847535057284</v>
+        <v>0.0004000727163611494</v>
       </c>
       <c r="AO2">
-        <v>0.0004336688813136682</v>
+        <v>0.0004072213372254695</v>
       </c>
       <c r="AP2">
-        <v>0.0004473592809801651</v>
+        <v>0.0004201770438595275</v>
       </c>
       <c r="AQ2">
-        <v>0.0004650238345498501</v>
+        <v>0.0004371074614854488</v>
       </c>
       <c r="AR2">
-        <v>0.0004800665261834046</v>
+        <v>0.0004514156496480557</v>
       </c>
       <c r="AS2">
-        <v>0.0004960029247951882</v>
+        <v>0.0004666176700668875</v>
       </c>
       <c r="AT2">
-        <v>0.000505115769573196</v>
+        <v>0.0004749951801402793</v>
       </c>
       <c r="AU2">
-        <v>0.0005124627943942198</v>
+        <v>0.0004816066227276975</v>
       </c>
       <c r="AV2">
-        <v>0.0005211881001816681</v>
+        <v>0.0004895965394861156</v>
       </c>
       <c r="AW2">
-        <v>0.0005277649945214525</v>
+        <v>0.0004954377436369964</v>
       </c>
       <c r="AX2">
-        <v>0.0005330780236920252</v>
+        <v>0.0005000149054526598</v>
       </c>
       <c r="AY2">
-        <v>0.000534522672956833</v>
+        <v>0.0005007231451010636</v>
       </c>
       <c r="AZ2">
-        <v>0.0005364731482093187</v>
+        <v>0.0005019372816427861</v>
       </c>
       <c r="BA2">
-        <v>0.0005365331067238581</v>
+        <v>0.0005019372816427861</v>
       </c>
       <c r="BB2">
-        <v>0.0005373263535445343</v>
+        <v>0.0005019940275348108</v>
       </c>
       <c r="BC2">
-        <v>0.0005394532788927217</v>
+        <v>0.0005033846389066443</v>
       </c>
       <c r="BD2">
-        <v>0.000543691094389487</v>
+        <v>0.0005068864363272712</v>
       </c>
       <c r="BE2">
-        <v>0.0005484800486728264</v>
+        <v>0.0005109394497919674</v>
       </c>
       <c r="BF2">
-        <v>0.0005571871554607181</v>
+        <v>0.0005189111649997308</v>
       </c>
       <c r="BG2">
-        <v>0.0005702616281422192</v>
+        <v>0.0005312508583094222</v>
       </c>
       <c r="BH2">
-        <v>0.0005840494338063432</v>
+        <v>0.0005443039845952787</v>
       </c>
       <c r="BI2">
-        <v>0.0005998320824218721</v>
+        <v>0.0005593522334654994</v>
       </c>
       <c r="BJ2">
-        <v>0.0006147254100590651</v>
+        <v>0.0005735110366942087</v>
       </c>
       <c r="BK2">
-        <v>0.0006248243458130514</v>
+        <v>0.0005828747759717726</v>
       </c>
       <c r="BL2">
-        <v>0.0006281787157313378</v>
+        <v>0.0005854930039743464</v>
       </c>
       <c r="BM2">
-        <v>0.000630120591684033</v>
+        <v>0.0005866985400108463</v>
       </c>
       <c r="BN2">
-        <v>0.0006303559189183004</v>
+        <v>0.0005866985400108463</v>
       </c>
       <c r="BO2">
-        <v>0.0006303944132173626</v>
+        <v>0.0005866985400108463</v>
       </c>
       <c r="BP2">
-        <v>0.0006322998418709457</v>
+        <v>0.000587867623639127</v>
       </c>
       <c r="BQ2">
-        <v>0.0006383072175246039</v>
+        <v>0.0005931392292699299</v>
       </c>
       <c r="BR2">
-        <v>0.0006477162437953965</v>
+        <v>0.0006018129623542157</v>
       </c>
       <c r="BS2">
-        <v>0.0006614066434618934</v>
+        <v>0.0006147686689882738</v>
       </c>
       <c r="BT2">
-        <v>0.0006796208300181892</v>
+        <v>0.000632248796647221</v>
       </c>
       <c r="BU2">
-        <v>0.000703003494448579</v>
+        <v>0.0006548981266868016</v>
       </c>
       <c r="BV2">
-        <v>0.0007276580438479852</v>
+        <v>0.000678819519985603</v>
       </c>
       <c r="BW2">
-        <v>0.0007524739462434608</v>
+        <v>0.000702902288898603</v>
       </c>
       <c r="BX2">
-        <v>0.0007777770686270675</v>
+        <v>0.0007274723460972245</v>
       </c>
       <c r="BY2">
-        <v>0.0008029172580146433</v>
+        <v>0.0007518794474602047</v>
       </c>
       <c r="BZ2">
-        <v>0.0008275718074140495</v>
+        <v>0.0007758008407590061</v>
       </c>
       <c r="CA2">
-        <v>0.000843508206025833</v>
+        <v>0.0007910028611778379</v>
       </c>
       <c r="CB2">
-        <v>0.0008544691847588195</v>
+        <v>0.000801228764273804</v>
       </c>
       <c r="CC2">
-        <v>0.0008601626992201235</v>
+        <v>0.0008061864647158399</v>
       </c>
       <c r="CD2">
-        <v>0.0008621131744726092</v>
+        <v>0.0008074006012575624</v>
       </c>
       <c r="CE2">
-        <v>0.0008630321122102235</v>
+        <v>0.0008075830556856181</v>
       </c>
       <c r="CF2">
-        <v>0.0008631724648468045</v>
+        <v>0.0008075830556856181</v>
       </c>
       <c r="CG2">
-        <v>0.0008634077920810719</v>
+        <v>0.0008075830556856181</v>
       </c>
       <c r="CH2">
-        <v>0.000866194282313192</v>
+        <v>0.0008096333243978258</v>
       </c>
       <c r="CI2">
-        <v>0.0008714186941859234</v>
+        <v>0.0008141218564934584</v>
       </c>
       <c r="CJ2">
-        <v>0.0008811094389498533</v>
+        <v>0.0008230773475615972</v>
       </c>
       <c r="CK2">
-        <v>0.0008913117387013216</v>
+        <v>0.0008325444653259945</v>
       </c>
       <c r="CL2">
-        <v>0.0009021452709374127</v>
+        <v>0.0008426429040598789</v>
       </c>
       <c r="CM2">
-        <v>0.0009213415784697837</v>
+        <v>0.0008611052903665887</v>
       </c>
       <c r="CN2">
-        <v>0.1012149991352798</v>
+        <v>0.1011680851925461</v>
       </c>
       <c r="CO2">
-        <v>0.101383869161166</v>
+        <v>0.101336242278159</v>
       </c>
       <c r="CP2">
-        <v>0.3228833637653576</v>
+        <v>0.3228660496112854</v>
       </c>
       <c r="CQ2">
-        <v>0.3253668050048601</v>
+        <v>0.3253491023623203</v>
       </c>
       <c r="CR2">
-        <v>0.3383266416891538</v>
+        <v>0.3383100191175932</v>
       </c>
       <c r="CS2">
-        <v>0.3401549276446161</v>
+        <v>0.3401378247462752</v>
       </c>
       <c r="CT2">
-        <v>0.3409533515751662</v>
+        <v>0.3409356239861163</v>
       </c>
       <c r="CU2">
-        <v>0.3429434749266861</v>
+        <v>0.3429252896968873</v>
       </c>
       <c r="CV2">
-        <v>0.3750564671444019</v>
+        <v>0.3750420468353134</v>
       </c>
       <c r="CW2">
-        <v>0.3862559968715772</v>
+        <v>0.3862424098772793</v>
       </c>
       <c r="CX2">
-        <v>0.4585822951096823</v>
+        <v>0.4585781100541652</v>
       </c>
       <c r="CY2">
-        <v>0.4598442247789412</v>
+        <v>0.459839480005991</v>
       </c>
       <c r="CZ2">
-        <v>0.4735001314462783</v>
+        <v>0.4734965643179579</v>
       </c>
       <c r="DA2">
-        <v>0.4795878916979783</v>
+        <v>0.4795844413271751</v>
       </c>
       <c r="DB2">
-        <v>0.5233027866330675</v>
+        <v>0.523304727513703</v>
       </c>
       <c r="DC2">
-        <v>0.5629390556675136</v>
+        <v>0.5629458160662442</v>
       </c>
       <c r="DD2">
-        <v>0.574310912890491</v>
+        <v>0.574318530760524</v>
       </c>
       <c r="DE2">
-        <v>0.580205319746901</v>
+        <v>0.5802130272705723</v>
       </c>
       <c r="DF2">
-        <v>0.6128319669521041</v>
+        <v>0.6128435113995794</v>
       </c>
       <c r="DG2">
-        <v>0.6165321663619658</v>
+        <v>0.6165434928836175</v>
       </c>
       <c r="DH2">
-        <v>0.6291143790554585</v>
+        <v>0.6291267327135394</v>
       </c>
       <c r="DI2">
-        <v>0.6801171478130125</v>
+        <v>0.680135914321612</v>
       </c>
       <c r="DJ2">
-        <v>0.7054513971958609</v>
+        <v>0.7054729783950195</v>
       </c>
       <c r="DK2">
-        <v>0.7091122321066816</v>
+        <v>0.7091335898619826</v>
       </c>
       <c r="DL2">
-        <v>0.7104860237732156</v>
+        <v>0.7105068374916668</v>
       </c>
       <c r="DM2">
-        <v>0.7110324981599032</v>
+        <v>0.7110526518698794</v>
       </c>
       <c r="DN2">
-        <v>0.7155794960491367</v>
+        <v>0.7155995505357488</v>
       </c>
       <c r="DO2">
-        <v>0.718875004368857</v>
+        <v>0.7188947842008853</v>
       </c>
       <c r="DP2">
-        <v>0.7188750428631561</v>
+        <v>0.7188947842008853</v>
       </c>
       <c r="DQ2">
-        <v>0.7227287610692781</v>
+        <v>0.722748306001131</v>
       </c>
       <c r="DR2">
-        <v>0.7273526504566384</v>
+        <v>0.7273721069436185</v>
       </c>
       <c r="DS2">
-        <v>0.7289892575167701</v>
+        <v>0.7290082068078187</v>
       </c>
       <c r="DT2">
-        <v>0.7297604164979844</v>
+        <v>0.7297787372763798</v>
       </c>
       <c r="DU2">
-        <v>0.7325670888296129</v>
+        <v>0.7325850664294067</v>
       </c>
       <c r="DV2">
-        <v>0.7337021463019624</v>
+        <v>0.7337195463996409</v>
       </c>
       <c r="DW2">
-        <v>0.7366041469312686</v>
+        <v>0.7366212172132691</v>
       </c>
       <c r="DX2">
-        <v>0.7548503114867854</v>
+        <v>0.7548692028662731</v>
       </c>
       <c r="DY2">
-        <v>0.7563036120513824</v>
+        <v>0.7563219705394133</v>
       </c>
       <c r="DZ2">
-        <v>0.7566619193126539</v>
+        <v>0.7566795914153313</v>
       </c>
       <c r="EA2">
-        <v>0.7904711224890494</v>
+        <v>0.7904927972837811</v>
       </c>
       <c r="EB2">
-        <v>0.8037849166647205</v>
+        <v>0.8038077211474605</v>
       </c>
       <c r="EC2">
-        <v>0.8050491523339233</v>
+        <v>0.8050713974224804</v>
       </c>
       <c r="ED2">
-        <v>0.8068497990900588</v>
+        <v>0.8068715599774299</v>
       </c>
       <c r="EE2">
-        <v>0.8092321268320245</v>
+        <v>0.809253485057047</v>
       </c>
       <c r="EF2">
-        <v>0.8136276852249471</v>
+        <v>0.8136489229981301</v>
       </c>
       <c r="EG2">
-        <v>0.8258206199279228</v>
+        <v>0.8258428302693512</v>
       </c>
       <c r="EH2">
-        <v>0.826507714111185</v>
+        <v>0.8265292841559306</v>
       </c>
       <c r="EI2">
-        <v>0.8353838418949593</v>
+        <v>0.8354059195648161</v>
       </c>
       <c r="EJ2">
-        <v>0.838434507420644</v>
+        <v>0.8384562761143606</v>
       </c>
       <c r="EK2">
-        <v>0.8424881261218964</v>
+        <v>0.8425097264313747</v>
       </c>
       <c r="EL2">
-        <v>0.8518788958931338</v>
+        <v>0.8519010759691727</v>
       </c>
       <c r="EM2">
-        <v>0.857148186764772</v>
+        <v>0.8571703688669833</v>
       </c>
       <c r="EN2">
-        <v>0.8577261984906914</v>
+        <v>0.8577477250052666</v>
       </c>
       <c r="EO2">
-        <v>0.8579543233351342</v>
+        <v>0.857975145215654</v>
       </c>
       <c r="EP2">
-        <v>0.8586204806589064</v>
+        <v>0.8586406593078577</v>
       </c>
       <c r="EQ2">
-        <v>0.8678490714340945</v>
+        <v>0.8678698071156903</v>
       </c>
       <c r="ER2">
-        <v>0.8685733857164499</v>
+        <v>0.8685934863187995</v>
       </c>
       <c r="ES2">
-        <v>0.8690744379442441</v>
+        <v>0.8690938721709344</v>
       </c>
       <c r="ET2">
-        <v>0.873617477833574</v>
+        <v>0.8736368122820759</v>
       </c>
       <c r="EU2">
-        <v>0.8937046453442433</v>
+        <v>0.8937260589582192</v>
       </c>
       <c r="EV2">
-        <v>0.893883268959892</v>
+        <v>0.8939039710008325</v>
       </c>
       <c r="EW2">
-        <v>0.8992092325301496</v>
+        <v>0.8992299445415242</v>
       </c>
       <c r="EX2">
-        <v>0.8997060743180464</v>
+        <v>0.8997261193635508</v>
       </c>
       <c r="EY2">
-        <v>0.8999798947313761</v>
+        <v>0.8999992415483353</v>
       </c>
       <c r="EZ2">
-        <v>0.9129766909147694</v>
+        <v>0.9129971229836139</v>
       </c>
       <c r="FA2">
-        <v>0.9242484396401855</v>
+        <v>0.9242697151473303</v>
       </c>
       <c r="FB2">
-        <v>0.9243949177766173</v>
+        <v>0.9244154772046399</v>
       </c>
       <c r="FC2">
-        <v>0.9270456902120435</v>
+        <v>0.9270658846077395</v>
       </c>
       <c r="FD2">
-        <v>0.9319312955930285</v>
+        <v>0.9319514382306582</v>
       </c>
       <c r="FE2">
-        <v>0.9384286902347495</v>
+        <v>0.9384490070515982</v>
       </c>
       <c r="FF2">
-        <v>0.9417900638528652</v>
+        <v>0.9418101152479915</v>
       </c>
       <c r="FG2">
-        <v>0.9418829383206028</v>
+        <v>0.9419022661225556</v>
       </c>
       <c r="FH2">
-        <v>0.9449393226461481</v>
+        <v>0.9449583422736103</v>
       </c>
       <c r="FI2">
-        <v>0.9458753999233449</v>
+        <v>0.9458938141560596</v>
       </c>
       <c r="FJ2">
-        <v>0.9463520650917332</v>
+        <v>0.946369809530261</v>
       </c>
       <c r="FK2">
-        <v>0.9463765283141372</v>
+        <v>0.9463935395697446</v>
       </c>
       <c r="FL2">
-        <v>0.9534647161414663</v>
+        <v>0.9534819843924596</v>
       </c>
       <c r="FM2">
-        <v>0.9540497691272142</v>
+        <v>0.9540663827776007</v>
       </c>
       <c r="FN2">
-        <v>0.9584535264199371</v>
+        <v>0.9584700207677889</v>
       </c>
       <c r="FO2">
-        <v>0.9619016191359403</v>
+        <v>0.9619178602181735</v>
       </c>
       <c r="FP2">
-        <v>0.9631890311045784</v>
+        <v>0.9632047160414345</v>
       </c>
       <c r="FQ2">
-        <v>0.9631905547953413</v>
+        <v>0.9632055033336608</v>
       </c>
       <c r="FR2">
-        <v>0.9638617456789909</v>
+        <v>0.9638760516913359</v>
       </c>
       <c r="FS2">
-        <v>0.964050120474402</v>
+        <v>0.9640637162806119</v>
       </c>
       <c r="FT2">
-        <v>0.9641721879414283</v>
+        <v>0.964185064246679</v>
       </c>
       <c r="FU2">
-        <v>0.9671130998697867</v>
+        <v>0.9671256518138649</v>
       </c>
       <c r="FV2">
-        <v>0.9698653641027405</v>
+        <v>0.9698775652414025</v>
       </c>
       <c r="FW2">
-        <v>0.969875074046504</v>
+        <v>0.9698865399341614</v>
       </c>
       <c r="FX2">
-        <v>0.9706882328966951</v>
+        <v>0.9706990761591541</v>
       </c>
       <c r="FY2">
-        <v>0.9707471282852604</v>
+        <v>0.9707572431914288</v>
       </c>
       <c r="FZ2">
-        <v>0.9709551367001933</v>
+        <v>0.9709645441524266</v>
       </c>
       <c r="GA2">
-        <v>0.970955356552238</v>
+        <v>0.9709645441524266</v>
       </c>
       <c r="GB2">
-        <v>0.9711558584973536</v>
+        <v>0.971164337591366</v>
       </c>
       <c r="GC2">
-        <v>0.9736909953355968</v>
+        <v>0.9736990931877237</v>
       </c>
       <c r="GD2">
-        <v>0.9771907168503423</v>
+        <v>0.9771985686740688</v>
       </c>
       <c r="GE2">
-        <v>0.9781515827569353</v>
+        <v>0.978158832660733</v>
       </c>
       <c r="GF2">
-        <v>0.9781543692471674</v>
+        <v>0.9781608829294453</v>
       </c>
       <c r="GG2">
-        <v>0.9782025506339936</v>
+        <v>0.9782083344581144</v>
       </c>
       <c r="GH2">
-        <v>0.97821214064676</v>
+        <v>0.9782171892030646</v>
       </c>
       <c r="GI2">
-        <v>0.9833624521212965</v>
+        <v>0.9833674860254876</v>
       </c>
       <c r="GJ2">
-        <v>0.9907264149419076</v>
+        <v>0.9907317444990529</v>
       </c>
       <c r="GK2">
-        <v>0.9907580818551361</v>
+        <v>0.9907626792391595</v>
       </c>
       <c r="GL2">
-        <v>0.9924104766148832</v>
+        <v>0.9924145690160623</v>
       </c>
       <c r="GM2">
-        <v>0.9928525132041151</v>
+        <v>0.9928559309569447</v>
       </c>
       <c r="GN2">
-        <v>0.9929814861109733</v>
+        <v>0.9929841853308339</v>
       </c>
       <c r="GO2">
-        <v>0.9933886404210548</v>
+        <v>0.9933906601028403</v>
       </c>
       <c r="GP2">
-        <v>0.9943225452383045</v>
+        <v>0.9943239592208115</v>
       </c>
       <c r="GQ2">
-        <v>0.9962222635920267</v>
+        <v>0.9962232072609992</v>
       </c>
       <c r="GR2">
-        <v>0.9983986382390094</v>
+        <v>0.9983991503755545</v>
       </c>
       <c r="GS2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GT2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GU2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GV2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GW2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GX2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GY2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="GZ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HA2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HB2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HC2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HD2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HE2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HF2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HG2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HH2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HI2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HJ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HK2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HL2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HM2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HN2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HO2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HP2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HQ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HR2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HS2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HT2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HU2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HV2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HW2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HX2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HY2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="HZ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IA2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IB2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IC2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="ID2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IE2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IF2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IG2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IH2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="II2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IJ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IK2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IL2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IM2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IN2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IO2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IP2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IQ2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IR2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IS2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IT2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IU2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IV2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
       <c r="IW2">
-        <v>0.9999999999999997</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:257">
@@ -7418,601 +7418,601 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>2.777890801354233E-05</v>
+        <v>2.682175186687399E-05</v>
       </c>
       <c r="C3">
-        <v>2.790045572360158E-05</v>
+        <v>2.682175186687399E-05</v>
       </c>
       <c r="D3">
-        <v>2.870325352399295E-05</v>
+        <v>2.682175186687399E-05</v>
       </c>
       <c r="E3">
-        <v>6.563013354199495E-05</v>
+        <v>6.279315137676036E-05</v>
       </c>
       <c r="F3">
-        <v>9.507321855634857E-05</v>
+        <v>9.127938507256927E-05</v>
       </c>
       <c r="G3">
-        <v>9.539890525650735E-05</v>
+        <v>9.127938507256927E-05</v>
       </c>
       <c r="H3">
-        <v>0.0001102693482637568</v>
+        <v>0.0001051903074832361</v>
       </c>
       <c r="I3">
-        <v>0.0001665979932912172</v>
+        <v>0.0001605670258334655</v>
       </c>
       <c r="J3">
-        <v>0.0001794681152974914</v>
+        <v>0.000172477260843371</v>
       </c>
       <c r="K3">
-        <v>0.00018069609419809</v>
+        <v>0.0001727432202504949</v>
       </c>
       <c r="L3">
-        <v>0.0001967906322059362</v>
+        <v>0.0001878784618798447</v>
       </c>
       <c r="M3">
-        <v>0.0002069761607109017</v>
+        <v>0.0001971036116501232</v>
       </c>
       <c r="N3">
-        <v>0.0002075890022112005</v>
+        <v>0.0001971036116501232</v>
       </c>
       <c r="O3">
-        <v>0.0002085510704116695</v>
+        <v>0.0001971036116501232</v>
       </c>
       <c r="P3">
-        <v>0.0002094665498121158</v>
+        <v>0.0001971036116501232</v>
       </c>
       <c r="Q3">
-        <v>0.0002221043278182767</v>
+        <v>0.00020878146010135</v>
       </c>
       <c r="R3">
-        <v>0.0002248590583196197</v>
+        <v>0.0002105744507650635</v>
       </c>
       <c r="S3">
-        <v>0.0002249528207196654</v>
+        <v>0.0002105744507650635</v>
       </c>
       <c r="T3">
-        <v>0.0002344028297242723</v>
+        <v>0.000219063946309513</v>
       </c>
       <c r="U3">
-        <v>0.0002641074267387534</v>
+        <v>0.0002478117399067317</v>
       </c>
       <c r="V3">
-        <v>0.000275187467744155</v>
+        <v>0.000257931566025743</v>
       </c>
       <c r="W3">
-        <v>0.000291739132752224</v>
+        <v>0.0002735240183874941</v>
       </c>
       <c r="X3">
-        <v>0.000292420207292556</v>
+        <v>0.0002735240183874941</v>
       </c>
       <c r="Y3">
-        <v>0.0003393481553154335</v>
+        <v>0.0003194983178028248</v>
       </c>
       <c r="Z3">
-        <v>0.0003480317588196668</v>
+        <v>0.0003272212674640264</v>
       </c>
       <c r="AA3">
-        <v>0.0003480503868756759</v>
+        <v>0.0003272212674640264</v>
       </c>
       <c r="AB3">
-        <v>0.0003480761562996885</v>
+        <v>0.0003272212674640264</v>
       </c>
       <c r="AC3">
-        <v>0.0003560257593035639</v>
+        <v>0.0003342100821776358</v>
       </c>
       <c r="AD3">
-        <v>0.0003562522670836743</v>
+        <v>0.0003342100821776358</v>
       </c>
       <c r="AE3">
-        <v>0.000408007114108905</v>
+        <v>0.0003850121647407952</v>
       </c>
       <c r="AF3">
-        <v>0.0004324628081208273</v>
+        <v>0.0004085100938912982</v>
       </c>
       <c r="AG3">
-        <v>0.0004337964073214775</v>
+        <v>0.0004088816929449962</v>
       </c>
       <c r="AH3">
-        <v>0.0004579731283332637</v>
+        <v>0.0004321005979957409</v>
       </c>
       <c r="AI3">
-        <v>0.0005450173783756981</v>
+        <v>0.0005181985475534936</v>
       </c>
       <c r="AJ3">
-        <v>0.0005910389883981338</v>
+        <v>0.000563266342954003</v>
       </c>
       <c r="AK3">
-        <v>0.0005940481675996009</v>
+        <v>0.0005653138289253346</v>
       </c>
       <c r="AL3">
-        <v>0.0006334207496187952</v>
+        <v>0.0006037313784168575</v>
       </c>
       <c r="AM3">
-        <v>0.0006790593696410442</v>
+        <v>0.0006484161136647125</v>
       </c>
       <c r="AN3">
-        <v>0.0006824218359426835</v>
+        <v>0.0006508169514479891</v>
       </c>
       <c r="AO3">
-        <v>0.0006937194969481911</v>
+        <v>0.0006611544374286694</v>
       </c>
       <c r="AP3">
-        <v>0.0007458821429736206</v>
+        <v>0.000712364393688772</v>
       </c>
       <c r="AQ3">
-        <v>0.0007591613819800943</v>
+        <v>0.0007246838206370399</v>
       </c>
       <c r="AR3">
-        <v>0.0007623548563816512</v>
+        <v>0.0007269156355659043</v>
       </c>
       <c r="AS3">
-        <v>0.0007703284033855383</v>
+        <v>0.0007339283986653597</v>
       </c>
       <c r="AT3">
-        <v>0.0007864229413933845</v>
+        <v>0.0007490636402947095</v>
       </c>
       <c r="AU3">
-        <v>0.0007954686728977944</v>
+        <v>0.0007571487842872525</v>
       </c>
       <c r="AV3">
-        <v>0.0008165132779080537</v>
+        <v>0.0007772349996252344</v>
       </c>
       <c r="AW3">
-        <v>0.0008180395738087978</v>
+        <v>0.0007777993306753761</v>
       </c>
       <c r="AX3">
-        <v>0.0008304072998148271</v>
+        <v>0.000789207077660913</v>
       </c>
       <c r="AY3">
-        <v>0.0008378084178184351</v>
+        <v>0.0007956473069079865</v>
       </c>
       <c r="AZ3">
-        <v>0.0008762459048371735</v>
+        <v>0.0008331295901172401</v>
       </c>
       <c r="BA3">
-        <v>0.0009091139078531968</v>
+        <v>0.0008650413691586415</v>
       </c>
       <c r="BB3">
-        <v>0.0009505905548734168</v>
+        <v>0.000905563369053816</v>
       </c>
       <c r="BC3">
-        <v>0.0009902654568927586</v>
+        <v>0.0009442832939215901</v>
       </c>
       <c r="BD3">
-        <v>0.00104175609691786</v>
+        <v>0.0009948211210896937</v>
       </c>
       <c r="BE3">
-        <v>0.001117748066954907</v>
+        <v>0.001069864766190468</v>
       </c>
       <c r="BF3">
-        <v>0.001152925669972056</v>
+        <v>0.001104086568283569</v>
       </c>
       <c r="BG3">
-        <v>0.001164005710977458</v>
+        <v>0.00111420639440258</v>
       </c>
       <c r="BH3">
-        <v>0.001174436447982543</v>
+        <v>0.00112367679758794</v>
       </c>
       <c r="BI3">
-        <v>0.001175997890683304</v>
+        <v>0.001124276281875956</v>
       </c>
       <c r="BJ3">
-        <v>0.001176060207083334</v>
+        <v>0.001124276281875956</v>
       </c>
       <c r="BK3">
-        <v>0.001177890341184227</v>
+        <v>0.001125144506780439</v>
       </c>
       <c r="BL3">
-        <v>0.001198973891194505</v>
+        <v>0.001145269674252015</v>
       </c>
       <c r="BM3">
-        <v>0.00121705542820332</v>
+        <v>0.001162392278841922</v>
       </c>
       <c r="BN3">
-        <v>0.00122487002520713</v>
+        <v>0.00116924606282635</v>
       </c>
       <c r="BO3">
-        <v>0.001242473631215711</v>
+        <v>0.001185890648873167</v>
       </c>
       <c r="BP3">
-        <v>0.001257783599223175</v>
+        <v>0.00120024117679206</v>
       </c>
       <c r="BQ3">
-        <v>0.001273204447230693</v>
+        <v>0.001214702605020951</v>
       </c>
       <c r="BR3">
-        <v>0.001308097415247703</v>
+        <v>0.001248639719977179</v>
       </c>
       <c r="BS3">
-        <v>0.001311205533249218</v>
+        <v>0.001250786162871228</v>
       </c>
       <c r="BT3">
-        <v>0.00131510670255112</v>
+        <v>0.001253725802329262</v>
       </c>
       <c r="BU3">
-        <v>0.001367678755576749</v>
+        <v>0.001305345240580847</v>
       </c>
       <c r="BV3">
-        <v>0.001376895440581243</v>
+        <v>0.00131360136938711</v>
       </c>
       <c r="BW3">
-        <v>0.001379375678782452</v>
+        <v>0.001315119817471799</v>
       </c>
       <c r="BX3">
-        <v>0.001398929416791984</v>
+        <v>0.001333714892726209</v>
       </c>
       <c r="BY3">
-        <v>0.00141251969679861</v>
+        <v>0.001346345417648163</v>
       </c>
       <c r="BZ3">
-        <v>0.001412566830302633</v>
+        <v>0.001346345417648163</v>
       </c>
       <c r="CA3">
-        <v>0.001431011017311624</v>
+        <v>0.001363830738665027</v>
       </c>
       <c r="CB3">
-        <v>0.001431033706143635</v>
+        <v>0.001363830738665027</v>
       </c>
       <c r="CC3">
-        <v>0.00147196562816359</v>
+        <v>0.001403807913782388</v>
       </c>
       <c r="CD3">
-        <v>0.001479995187167504</v>
+        <v>0.001410876699141616</v>
       </c>
       <c r="CE3">
-        <v>0.001481042291568015</v>
+        <v>0.001410961750917781</v>
       </c>
       <c r="CF3">
-        <v>0.001523067265588502</v>
+        <v>0.00145203217825055</v>
       </c>
       <c r="CG3">
-        <v>0.001568839755610816</v>
+        <v>0.001496850808019504</v>
       </c>
       <c r="CH3">
-        <v>0.001588859043620576</v>
+        <v>0.001515911518549165</v>
       </c>
       <c r="CI3">
-        <v>0.001608878331630335</v>
+        <v>0.001534972229078825</v>
       </c>
       <c r="CJ3">
-        <v>0.00163528802164321</v>
+        <v>0.001560424512144694</v>
       </c>
       <c r="CK3">
-        <v>0.001689243205669514</v>
+        <v>0.001613427334745742</v>
       </c>
       <c r="CL3">
-        <v>0.001690534676770143</v>
+        <v>0.001613756797982795</v>
       </c>
       <c r="CM3">
-        <v>0.001728326018788567</v>
+        <v>0.001650592817837034</v>
       </c>
       <c r="CN3">
-        <v>0.06140653404788193</v>
+        <v>0.06133876988936337</v>
       </c>
       <c r="CO3">
-        <v>0.0682648684512254</v>
+        <v>0.0681973982927857</v>
       </c>
       <c r="CP3">
-        <v>0.2708906985500063</v>
+        <v>0.2708593812205747</v>
       </c>
       <c r="CQ3">
-        <v>0.2757204121523608</v>
+        <v>0.2756890172395334</v>
       </c>
       <c r="CR3">
-        <v>0.2799226341544094</v>
+        <v>0.2798910467202398</v>
       </c>
       <c r="CS3">
-        <v>0.2807383447848071</v>
+        <v>0.2807059445203338</v>
       </c>
       <c r="CT3">
-        <v>0.2813160131550887</v>
+        <v>0.2812827564579933</v>
       </c>
       <c r="CU3">
-        <v>0.282188420955514</v>
+        <v>0.2821543618133635</v>
       </c>
       <c r="CV3">
-        <v>0.3135677849708116</v>
+        <v>0.3135385113578515</v>
       </c>
       <c r="CW3">
-        <v>0.3139283956709873</v>
+        <v>0.3138982258668445</v>
       </c>
       <c r="CX3">
-        <v>0.384429585705357</v>
+        <v>0.3844113673946094</v>
       </c>
       <c r="CY3">
-        <v>0.4023061627140719</v>
+        <v>0.4022902566203461</v>
       </c>
       <c r="CZ3">
-        <v>0.4066600927161944</v>
+        <v>0.4066440218895558</v>
       </c>
       <c r="DA3">
-        <v>0.4123950007189902</v>
+        <v>0.4123790181138615</v>
       </c>
       <c r="DB3">
-        <v>0.4283279207267576</v>
+        <v>0.4283138943180373</v>
       </c>
       <c r="DC3">
-        <v>0.4819574507529022</v>
+        <v>0.481952285447276</v>
       </c>
       <c r="DD3">
-        <v>0.4822130378030268</v>
+        <v>0.4822069570689839</v>
       </c>
       <c r="DE3">
-        <v>0.5045341708139084</v>
+        <v>0.5045312164084066</v>
       </c>
       <c r="DF3">
-        <v>0.5308222478267239</v>
+        <v>0.5308231463768565</v>
       </c>
       <c r="DG3">
-        <v>0.5337806175281662</v>
+        <v>0.5337810957199158</v>
       </c>
       <c r="DH3">
-        <v>0.5770089275492402</v>
+        <v>0.5770163616474756</v>
       </c>
       <c r="DI3">
-        <v>0.5965934875587877</v>
+        <v>0.5966035467261352</v>
       </c>
       <c r="DJ3">
-        <v>0.6741368875965904</v>
+        <v>0.6741601881824196</v>
       </c>
       <c r="DK3">
-        <v>0.6759762682974871</v>
+        <v>0.6759989435591653</v>
       </c>
       <c r="DL3">
-        <v>0.689493678804077</v>
+        <v>0.6895178678120946</v>
       </c>
       <c r="DM3">
-        <v>0.6899934651443206</v>
+        <v>0.6900167834540262</v>
       </c>
       <c r="DN3">
-        <v>0.6904773802645565</v>
+        <v>0.6904998249688108</v>
       </c>
       <c r="DO3">
-        <v>0.6992422132688294</v>
+        <v>0.6992653011874534</v>
       </c>
       <c r="DP3">
-        <v>0.6995830660689956</v>
+        <v>0.6996052541773725</v>
       </c>
       <c r="DQ3">
-        <v>0.7001338597292641</v>
+        <v>0.700155186482365</v>
       </c>
       <c r="DR3">
-        <v>0.7041260652312104</v>
+        <v>0.7041471609941429</v>
       </c>
       <c r="DS3">
-        <v>0.7073738178327936</v>
+        <v>0.7073945462437522</v>
       </c>
       <c r="DT3">
-        <v>0.7075970355129024</v>
+        <v>0.7076168425663308</v>
       </c>
       <c r="DU3">
-        <v>0.7087467126134629</v>
+        <v>0.708765768009391</v>
       </c>
       <c r="DV3">
-        <v>0.7096605402139083</v>
+        <v>0.7096788007516667</v>
       </c>
       <c r="DW3">
-        <v>0.7151874392166028</v>
+        <v>0.7152057498747596</v>
       </c>
       <c r="DX3">
-        <v>0.7367722182271255</v>
+        <v>0.7367935203354972</v>
       </c>
       <c r="DY3">
-        <v>0.7465871167319102</v>
+        <v>0.7466092543956684</v>
       </c>
       <c r="DZ3">
-        <v>0.7547611057358951</v>
+        <v>0.7547837783888355</v>
       </c>
       <c r="EA3">
-        <v>0.7704273597435324</v>
+        <v>0.7704519397475382</v>
       </c>
       <c r="EB3">
-        <v>0.7965825997562832</v>
+        <v>0.7966110083841044</v>
       </c>
       <c r="EC3">
-        <v>0.7970352999765039</v>
+        <v>0.7970628292812252</v>
       </c>
       <c r="ED3">
-        <v>0.8014266399786447</v>
+        <v>0.8014540114028613</v>
       </c>
       <c r="EE3">
-        <v>0.804859108280318</v>
+        <v>0.8048861461870267</v>
       </c>
       <c r="EF3">
-        <v>0.8056541881807057</v>
+        <v>0.8056804094781695</v>
       </c>
       <c r="EG3">
-        <v>0.8169623671862184</v>
+        <v>0.816989697563996</v>
       </c>
       <c r="EH3">
-        <v>0.8172883965063773</v>
+        <v>0.8173148243586836</v>
       </c>
       <c r="EI3">
-        <v>0.8247546545100172</v>
+        <v>0.8247814877160686</v>
       </c>
       <c r="EJ3">
-        <v>0.8265136507108747</v>
+        <v>0.8265398438687065</v>
       </c>
       <c r="EK3">
-        <v>0.8279939943115964</v>
+        <v>0.8280194963802741</v>
       </c>
       <c r="EL3">
-        <v>0.8323947113137418</v>
+        <v>0.8324200572195044</v>
       </c>
       <c r="EM3">
-        <v>0.8413646453181146</v>
+        <v>0.8413906720066986</v>
       </c>
       <c r="EN3">
-        <v>0.8414215486221424</v>
+        <v>0.8414466234893097</v>
       </c>
       <c r="EO3">
-        <v>0.8422270313225351</v>
+        <v>0.8422512914859436</v>
       </c>
       <c r="EP3">
-        <v>0.8424863856226615</v>
+        <v>0.8425097310477023</v>
       </c>
       <c r="EQ3">
-        <v>0.8528553576277165</v>
+        <v>0.8528796400980605</v>
       </c>
       <c r="ER3">
-        <v>0.8557494609291274</v>
+        <v>0.8557733112693803</v>
       </c>
       <c r="ES3">
-        <v>0.8572571383298624</v>
+        <v>0.8572803025877068</v>
       </c>
       <c r="ET3">
-        <v>0.8588781310306526</v>
+        <v>0.8589006299621081</v>
       </c>
       <c r="EU3">
-        <v>0.8830944180424581</v>
+        <v>0.8831203904387497</v>
       </c>
       <c r="EV3">
-        <v>0.8838831298428427</v>
+        <v>0.8839082844634414</v>
       </c>
       <c r="EW3">
-        <v>0.8909087963462677</v>
+        <v>0.8909342756172488</v>
       </c>
       <c r="EX3">
-        <v>0.89105686503634</v>
+        <v>0.8910814091847131</v>
       </c>
       <c r="EY3">
-        <v>0.8941411697378435</v>
+        <v>0.8941653165954101</v>
       </c>
       <c r="EZ3">
-        <v>0.8986362121400349</v>
+        <v>0.8986602201123166</v>
       </c>
       <c r="FA3">
-        <v>0.9171268881490492</v>
+        <v>0.91715332082317</v>
       </c>
       <c r="FB3">
-        <v>0.9171271241785993</v>
+        <v>0.91715332082317</v>
       </c>
       <c r="FC3">
-        <v>0.9183272165791844</v>
+        <v>0.9183526708008501</v>
       </c>
       <c r="FD3">
-        <v>0.9275779355836942</v>
+        <v>0.9276041220197084</v>
       </c>
       <c r="FE3">
-        <v>0.931245141185482</v>
+        <v>0.9312710371009355</v>
       </c>
       <c r="FF3">
-        <v>0.9384097167889747</v>
+        <v>0.9384359627988591</v>
       </c>
       <c r="FG3">
-        <v>0.9384223847519808</v>
+        <v>0.9384476708378393</v>
       </c>
       <c r="FH3">
-        <v>0.9399947756527474</v>
+        <v>0.9400193875098012</v>
       </c>
       <c r="FI3">
-        <v>0.9425781329540067</v>
+        <v>0.9426022557614711</v>
       </c>
       <c r="FJ3">
-        <v>0.9435794713544948</v>
+        <v>0.9436028153331859</v>
       </c>
       <c r="FK3">
-        <v>0.9447464774550638</v>
+        <v>0.944769072950416</v>
       </c>
       <c r="FL3">
-        <v>0.9489510831571135</v>
+        <v>0.948973486567747</v>
       </c>
       <c r="FM3">
-        <v>0.9527217879589518</v>
+        <v>0.9527439198070242</v>
       </c>
       <c r="FN3">
-        <v>0.9559986224605492</v>
+        <v>0.9560203922835937</v>
       </c>
       <c r="FO3">
-        <v>0.9614042234631844</v>
+        <v>0.9614260211884129</v>
       </c>
       <c r="FP3">
-        <v>0.9635528386642319</v>
+        <v>0.9635740677079455</v>
       </c>
       <c r="FQ3">
-        <v>0.9636160982482628</v>
+        <v>0.9636363766348427</v>
       </c>
       <c r="FR3">
-        <v>0.96365149429428</v>
+        <v>0.9636708169199483</v>
       </c>
       <c r="FS3">
-        <v>0.963721281110314</v>
+        <v>0.9637396542744449</v>
       </c>
       <c r="FT3">
-        <v>0.9638101025303573</v>
+        <v>0.9638275297195286</v>
       </c>
       <c r="FU3">
-        <v>0.965936876331394</v>
+        <v>0.9659537308383506</v>
       </c>
       <c r="FV3">
-        <v>0.9688829504328302</v>
+        <v>0.9688993823292128</v>
       </c>
       <c r="FW3">
-        <v>0.9688962296718368</v>
+        <v>0.968911701756161</v>
       </c>
       <c r="FX3">
-        <v>0.9693245901220455</v>
+        <v>0.9693391784249422</v>
       </c>
       <c r="FY3">
-        <v>0.9693741306880697</v>
+        <v>0.9693877658209133</v>
       </c>
       <c r="FZ3">
-        <v>0.9703694804885549</v>
+        <v>0.9703823356956904</v>
       </c>
       <c r="GA3">
-        <v>0.9704448081425916</v>
+        <v>0.9704567149031078</v>
       </c>
       <c r="GB3">
-        <v>0.9704973801956173</v>
+        <v>0.9705083343413594</v>
       </c>
       <c r="GC3">
-        <v>0.9713179453960173</v>
+        <v>0.9713280876006697</v>
       </c>
       <c r="GD3">
-        <v>0.9745015360975694</v>
+        <v>0.9745112991976808</v>
       </c>
       <c r="GE3">
-        <v>0.9753180548279674</v>
+        <v>0.9753270052457952</v>
       </c>
       <c r="GF3">
-        <v>0.9753285129889725</v>
+        <v>0.9753365030780038</v>
       </c>
       <c r="GG3">
-        <v>0.9754896988790511</v>
+        <v>0.9754967562481586</v>
       </c>
       <c r="GH3">
-        <v>0.9756906783591491</v>
+        <v>0.9756968102973442</v>
       </c>
       <c r="GI3">
-        <v>0.9784986915605181</v>
+        <v>0.9785043755994559</v>
       </c>
       <c r="GJ3">
-        <v>0.9878019935650535</v>
+        <v>0.9878084194499939</v>
       </c>
       <c r="GK3">
-        <v>0.9878129141140588</v>
+        <v>0.9878183797548986</v>
       </c>
       <c r="GL3">
-        <v>0.9911238411156729</v>
+        <v>0.9911289509762248</v>
       </c>
       <c r="GM3">
-        <v>0.9915707221958907</v>
+        <v>0.9915749516674479</v>
       </c>
       <c r="GN3">
-        <v>0.9918722046960377</v>
+        <v>0.9918755271458705</v>
       </c>
       <c r="GO3">
-        <v>0.9931489374966601</v>
+        <v>0.9931515315618479</v>
       </c>
       <c r="GP3">
-        <v>0.9937184762969378</v>
+        <v>0.9937202124404061</v>
       </c>
       <c r="GQ3">
-        <v>0.9961345492981156</v>
+        <v>0.9961357657504465</v>
       </c>
       <c r="GR3">
-        <v>0.9986773790993553</v>
+        <v>0.9986780990786545</v>
       </c>
       <c r="GS3">
         <v>1</v>
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>2.958231014658083E-05</v>
+        <v>2.093229054872003E-05</v>
       </c>
       <c r="C4">
-        <v>2.962296237178226E-05</v>
+        <v>2.093229054872003E-05</v>
       </c>
       <c r="D4">
-        <v>3.364779739172539E-05</v>
+        <v>2.093229054872003E-05</v>
       </c>
       <c r="E4">
-        <v>7.224111058295589E-05</v>
+        <v>5.088856572389324E-05</v>
       </c>
       <c r="F4">
-        <v>7.224134983512708E-05</v>
+        <v>5.088856572389324E-05</v>
       </c>
       <c r="G4">
-        <v>8.479567889733398E-05</v>
+        <v>5.476834405354766E-05</v>
       </c>
       <c r="H4">
-        <v>0.0001053155879990105</v>
+        <v>6.662517792971372E-05</v>
       </c>
       <c r="I4">
-        <v>0.0001120922460325889</v>
+        <v>6.662517792971372E-05</v>
       </c>
       <c r="J4">
-        <v>0.0001153555970487589</v>
+        <v>6.662517792971372E-05</v>
       </c>
       <c r="K4">
-        <v>0.000141919614180384</v>
+        <v>8.453482719975132E-05</v>
       </c>
       <c r="L4">
-        <v>0.0001805129273716145</v>
+        <v>0.0001144911023749245</v>
       </c>
       <c r="M4">
-        <v>0.0001807239944926604</v>
+        <v>0.0001144911023749245</v>
       </c>
       <c r="N4">
-        <v>0.0001833248615055477</v>
+        <v>0.0001144911023749245</v>
       </c>
       <c r="O4">
-        <v>0.0002074310076249941</v>
+        <v>0.0001299393397335683</v>
       </c>
       <c r="P4">
-        <v>0.000226266046718322</v>
+        <v>0.0001401088763157958</v>
       </c>
       <c r="Q4">
-        <v>0.0002349461787613322</v>
+        <v>0.0001401088763157958</v>
       </c>
       <c r="R4">
-        <v>0.0002380641225767816</v>
+        <v>0.0001401088763157958</v>
       </c>
       <c r="S4">
-        <v>0.0002540699576560908</v>
+        <v>0.0001474451330288345</v>
       </c>
       <c r="T4">
-        <v>0.0002544286411078681</v>
+        <v>0.0001474451330288345</v>
       </c>
       <c r="U4">
-        <v>0.0002756027312127861</v>
+        <v>0.000159957090345412</v>
       </c>
       <c r="V4">
-        <v>0.0002757285246034094</v>
+        <v>0.000159957090345412</v>
       </c>
       <c r="W4">
-        <v>0.000281636406232683</v>
+        <v>0.000159957090345412</v>
       </c>
       <c r="X4">
-        <v>0.0002825944800374303</v>
+        <v>0.000159957090345412</v>
       </c>
       <c r="Y4">
-        <v>0.0002862992955557877</v>
+        <v>0.000159957090345412</v>
       </c>
       <c r="Z4">
-        <v>0.0002882093863652522</v>
+        <v>0.000159957090345412</v>
       </c>
       <c r="AA4">
-        <v>0.0002882411724734097</v>
+        <v>0.000159957090345412</v>
       </c>
       <c r="AB4">
-        <v>0.0002937599322007553</v>
+        <v>0.000159957090345412</v>
       </c>
       <c r="AC4">
-        <v>0.0003237866823495383</v>
+        <v>0.000181334461172918</v>
       </c>
       <c r="AD4">
-        <v>0.0003553188325057807</v>
+        <v>0.0002042194007424011</v>
       </c>
       <c r="AE4">
-        <v>0.0003824848356403886</v>
+        <v>0.0002227319032585579</v>
       </c>
       <c r="AF4">
-        <v>0.0004004216607292659</v>
+        <v>0.0002320019318362642</v>
       </c>
       <c r="AG4">
-        <v>0.0004058591234562086</v>
+        <v>0.0002320019318362642</v>
       </c>
       <c r="AH4">
-        <v>0.0004145168844991079</v>
+        <v>0.0002320019318362642</v>
       </c>
       <c r="AI4">
-        <v>0.0004193566795230892</v>
+        <v>0.0002320019318362642</v>
       </c>
       <c r="AJ4">
-        <v>0.0004205390275289478</v>
+        <v>0.0002320019318362642</v>
       </c>
       <c r="AK4">
-        <v>0.0004678348407632993</v>
+        <v>0.000270673244195612</v>
       </c>
       <c r="AL4">
-        <v>0.0005329791010860902</v>
+        <v>0.0003272187167715377</v>
       </c>
       <c r="AM4">
-        <v>0.0005330839074266095</v>
+        <v>0.0003272187167715377</v>
       </c>
       <c r="AN4">
-        <v>0.0005338824353705663</v>
+        <v>0.0003272187167715377</v>
       </c>
       <c r="AO4">
-        <v>0.0005723073495609623</v>
+        <v>0.0003570063503440936</v>
       </c>
       <c r="AP4">
-        <v>0.0005816156646070851</v>
+        <v>0.0003576354383307028</v>
       </c>
       <c r="AQ4">
-        <v>0.0005906185406516945</v>
+        <v>0.0003579586472891595</v>
       </c>
       <c r="AR4">
-        <v>0.0005910057223236131</v>
+        <v>0.0003579586472891595</v>
       </c>
       <c r="AS4">
-        <v>0.0005917396543272497</v>
+        <v>0.0003579586472891595</v>
       </c>
       <c r="AT4">
-        <v>0.0006177859364563095</v>
+        <v>0.0003753498156885796</v>
       </c>
       <c r="AU4">
-        <v>0.0006200599205675771</v>
+        <v>0.0003753498156885796</v>
       </c>
       <c r="AV4">
-        <v>0.0006224583249794612</v>
+        <v>0.0003753498156885796</v>
       </c>
       <c r="AW4">
-        <v>0.0006257216759956312</v>
+        <v>0.0003753498156885796</v>
       </c>
       <c r="AX4">
-        <v>0.0006686943802085616</v>
+        <v>0.0004096917909969374</v>
       </c>
       <c r="AY4">
-        <v>0.0006782762342560399</v>
+        <v>0.0004105948120552297</v>
       </c>
       <c r="AZ4">
-        <v>0.0006793356644612895</v>
+        <v>0.0004105948120552297</v>
       </c>
       <c r="BA4">
-        <v>0.0006907370305177835</v>
+        <v>0.0004133199663783368</v>
       </c>
       <c r="BB4">
-        <v>0.0007030045665785693</v>
+        <v>0.0004169125385420434</v>
       </c>
       <c r="BC4">
-        <v>0.000708781268607193</v>
+        <v>0.0004169125385420434</v>
       </c>
       <c r="BD4">
-        <v>0.0007630340888760167</v>
+        <v>0.000462550880455607</v>
       </c>
       <c r="BE4">
-        <v>0.0007836771069783032</v>
+        <v>0.000474531000687729</v>
       </c>
       <c r="BF4">
-        <v>0.0007895192150072509</v>
+        <v>0.000474531000687729</v>
       </c>
       <c r="BG4">
-        <v>0.0007897972198086284</v>
+        <v>0.000474531000687729</v>
       </c>
       <c r="BH4">
-        <v>0.0007970773902447018</v>
+        <v>0.000474531000687729</v>
       </c>
       <c r="BI4">
-        <v>0.0008044309636811389</v>
+        <v>0.000474531000687729</v>
       </c>
       <c r="BJ4">
-        <v>0.0008147592937323159</v>
+        <v>0.000476181573150456</v>
       </c>
       <c r="BK4">
-        <v>0.0008151512177342579</v>
+        <v>0.000476181573150456</v>
       </c>
       <c r="BL4">
-        <v>0.0008192856717547442</v>
+        <v>0.000476181573150456</v>
       </c>
       <c r="BM4">
-        <v>0.0008481346128976911</v>
+        <v>0.0004963794381772317</v>
       </c>
       <c r="BN4">
-        <v>0.0008624505259686267</v>
+        <v>0.0005020233383182101</v>
       </c>
       <c r="BO4">
-        <v>0.0009039629241743213</v>
+        <v>0.0005349029038488865</v>
       </c>
       <c r="BP4">
-        <v>0.0009415513763605727</v>
+        <v>0.0005638528703794259</v>
       </c>
       <c r="BQ4">
-        <v>0.0009625659304647002</v>
+        <v>0.0005762050618617931</v>
       </c>
       <c r="BR4">
-        <v>0.001024466256771417</v>
+        <v>0.0006295019270912082</v>
       </c>
       <c r="BS4">
-        <v>0.001069004150992103</v>
+        <v>0.000665411347277509</v>
       </c>
       <c r="BT4">
-        <v>0.001075640262024985</v>
+        <v>0.000665411347277509</v>
       </c>
       <c r="BU4">
-        <v>0.001078419128738755</v>
+        <v>0.000665411347277509</v>
       </c>
       <c r="BV4">
-        <v>0.001087318084782849</v>
+        <v>0.0006656304865244829</v>
       </c>
       <c r="BW4">
-        <v>0.001090730156499756</v>
+        <v>0.0006656304865244829</v>
       </c>
       <c r="BX4">
-        <v>0.00109193384510572</v>
+        <v>0.0006656304865244829</v>
       </c>
       <c r="BY4">
-        <v>0.001104973528170332</v>
+        <v>0.0006699963180753368</v>
       </c>
       <c r="BZ4">
-        <v>0.001138404676335984</v>
+        <v>0.0006947829914204789</v>
       </c>
       <c r="CA4">
-        <v>0.001140478657546261</v>
+        <v>0.0006947829914204789</v>
       </c>
       <c r="CB4">
-        <v>0.001146386539175534</v>
+        <v>0.0006947829914204789</v>
       </c>
       <c r="CC4">
-        <v>0.001230300529591329</v>
+        <v>0.0007701252344516666</v>
       </c>
       <c r="CD4">
-        <v>0.001272918192802501</v>
+        <v>0.0008041116572731637</v>
       </c>
       <c r="CE4">
-        <v>0.001274013676607929</v>
+        <v>0.0008041116572731637</v>
       </c>
       <c r="CF4">
-        <v>0.001329326990882007</v>
+        <v>0.0008508120209785795</v>
       </c>
       <c r="CG4">
-        <v>0.001342268865946134</v>
+        <v>0.0008550799036231524</v>
       </c>
       <c r="CH4">
-        <v>0.001342891161489218</v>
+        <v>0.0008550799036231524</v>
       </c>
       <c r="CI4">
-        <v>0.00141833028186302</v>
+        <v>0.00092193506740343</v>
       </c>
       <c r="CJ4">
-        <v>0.00145005778202023</v>
+        <v>0.0009450156384022643</v>
       </c>
       <c r="CK4">
-        <v>0.001450057785628499</v>
+        <v>0.0009450156384022643</v>
       </c>
       <c r="CL4">
-        <v>0.001457729685666514</v>
+        <v>0.0009450156384022643</v>
       </c>
       <c r="CM4">
-        <v>0.001473120551742776</v>
+        <v>0.000951736040165333</v>
       </c>
       <c r="CN4">
-        <v>0.1361289412189646</v>
+        <v>0.1357928541892463</v>
       </c>
       <c r="CO4">
-        <v>0.1743078544081417</v>
+        <v>0.1740180766854512</v>
       </c>
       <c r="CP4">
-        <v>0.315460225107554</v>
+        <v>0.3153651040352043</v>
       </c>
       <c r="CQ4">
-        <v>0.3176783749185449</v>
+        <v>0.3175777567572872</v>
       </c>
       <c r="CR4">
-        <v>0.3242951339513311</v>
+        <v>0.3241953554990945</v>
       </c>
       <c r="CS4">
-        <v>0.3243059921723849</v>
+        <v>0.3241975367259403</v>
       </c>
       <c r="CT4">
-        <v>0.3247147826744105</v>
+        <v>0.324598223509611</v>
       </c>
       <c r="CU4">
-        <v>0.3257812520796948</v>
+        <v>0.3256575366729136</v>
       </c>
       <c r="CV4">
-        <v>0.3610078472542432</v>
+        <v>0.3609261879367706</v>
       </c>
       <c r="CW4">
-        <v>0.3778547503377199</v>
+        <v>0.3777886686503631</v>
       </c>
       <c r="CX4">
-        <v>0.4400210906457551</v>
+        <v>0.4400358754335744</v>
       </c>
       <c r="CY4">
-        <v>0.441849115254813</v>
+        <v>0.4418578409250358</v>
       </c>
       <c r="CZ4">
-        <v>0.4513084293016841</v>
+        <v>0.4513220897700389</v>
       </c>
       <c r="DA4">
-        <v>0.452835551609251</v>
+        <v>0.4528427194691068</v>
       </c>
       <c r="DB4">
-        <v>0.4957780618220318</v>
+        <v>0.4958384016016717</v>
       </c>
       <c r="DC4">
-        <v>0.522159434952752</v>
+        <v>0.522249088070093</v>
       </c>
       <c r="DD4">
-        <v>0.5407024360446329</v>
+        <v>0.5408101102531487</v>
       </c>
       <c r="DE4">
-        <v>0.5429927342559814</v>
+        <v>0.5430950153152234</v>
       </c>
       <c r="DF4">
-        <v>0.5832294344553549</v>
+        <v>0.5833809893451383</v>
       </c>
       <c r="DG4">
-        <v>0.5942586415100048</v>
+        <v>0.5944173928434221</v>
       </c>
       <c r="DH4">
-        <v>0.6065413185708657</v>
+        <v>0.606709072142826</v>
       </c>
       <c r="DI4">
-        <v>0.6746605689083977</v>
+        <v>0.6749177649362694</v>
       </c>
       <c r="DJ4">
-        <v>0.6939790940041213</v>
+        <v>0.6942554283715194</v>
       </c>
       <c r="DK4">
-        <v>0.704730782057396</v>
+        <v>0.7050139130643663</v>
       </c>
       <c r="DL4">
-        <v>0.7073935373705901</v>
+        <v>0.7076718118036613</v>
       </c>
       <c r="DM4">
-        <v>0.7087514175773184</v>
+        <v>0.7090229555855069</v>
       </c>
       <c r="DN4">
-        <v>0.7154589890105545</v>
+        <v>0.7157314975554422</v>
       </c>
       <c r="DO4">
-        <v>0.7183068936246659</v>
+        <v>0.7185748123285348</v>
       </c>
       <c r="DP4">
-        <v>0.7183100461638815</v>
+        <v>0.7185748123285348</v>
       </c>
       <c r="DQ4">
-        <v>0.7204773685746206</v>
+        <v>0.720736564426547</v>
       </c>
       <c r="DR4">
-        <v>0.7250304775971813</v>
+        <v>0.7252875401881622</v>
       </c>
       <c r="DS4">
-        <v>0.7257647609608197</v>
+        <v>0.7260141887504118</v>
       </c>
       <c r="DT4">
-        <v>0.7259945143119581</v>
+        <v>0.7262355804557028</v>
       </c>
       <c r="DU4">
-        <v>0.7281091018224358</v>
+        <v>0.7283445216816203</v>
       </c>
       <c r="DV4">
-        <v>0.7293913482287894</v>
+        <v>0.7296199227022616</v>
       </c>
       <c r="DW4">
-        <v>0.7297522504805777</v>
+        <v>0.7299726522461236</v>
       </c>
       <c r="DX4">
-        <v>0.7621892886413038</v>
+        <v>0.7624477277579123</v>
       </c>
       <c r="DY4">
-        <v>0.7622368236365393</v>
+        <v>0.7624866385968472</v>
       </c>
       <c r="DZ4">
-        <v>0.762937671140012</v>
+        <v>0.7631798031300034</v>
       </c>
       <c r="EA4">
-        <v>0.8019911113335224</v>
+        <v>0.8022808125062503</v>
       </c>
       <c r="EB4">
-        <v>0.8088298200674083</v>
+        <v>0.8091206806980451</v>
       </c>
       <c r="EC4">
-        <v>0.8134233020901691</v>
+        <v>0.8137120876226867</v>
       </c>
       <c r="ED4">
-        <v>0.816459587405214</v>
+        <v>0.8167440544848664</v>
       </c>
       <c r="EE4">
-        <v>0.8170594730581864</v>
+        <v>0.817336111718174</v>
       </c>
       <c r="EF4">
-        <v>0.8220008770826711</v>
+        <v>0.8222759418737483</v>
       </c>
       <c r="EG4">
-        <v>0.829574185120197</v>
+        <v>0.829851467659909</v>
       </c>
       <c r="EH4">
-        <v>0.8309828086271768</v>
+        <v>0.8312534278446673</v>
       </c>
       <c r="EI4">
-        <v>0.8371996436579813</v>
+        <v>0.8374705264392934</v>
       </c>
       <c r="EJ4">
-        <v>0.8389168578664901</v>
+        <v>0.8391815218926746</v>
       </c>
       <c r="EK4">
-        <v>0.84220643428279</v>
+        <v>0.8424671447565688</v>
       </c>
       <c r="EL4">
-        <v>0.8500592363217008</v>
+        <v>0.8503225671934337</v>
       </c>
       <c r="EM4">
-        <v>0.8542359373423964</v>
+        <v>0.8544965926859974</v>
       </c>
       <c r="EN4">
-        <v>0.8547006857646993</v>
+        <v>0.8549533180049796</v>
       </c>
       <c r="EO4">
-        <v>0.8547664887550254</v>
+        <v>0.8550105231565495</v>
       </c>
       <c r="EP4">
-        <v>0.856119373761729</v>
+        <v>0.8563566645421017</v>
       </c>
       <c r="EQ4">
-        <v>0.8661077198112214</v>
+        <v>0.8663507075326513</v>
       </c>
       <c r="ER4">
-        <v>0.8661083000295643</v>
+        <v>0.8663507075326513</v>
       </c>
       <c r="ES4">
-        <v>0.8666323213321608</v>
+        <v>0.8668667911226147</v>
       </c>
       <c r="ET4">
-        <v>0.8745785103715343</v>
+        <v>0.8748157350966836</v>
       </c>
       <c r="EU4">
-        <v>0.8924395544600361</v>
+        <v>0.8926938178240649</v>
       </c>
       <c r="EV4">
-        <v>0.8936171396658711</v>
+        <v>0.8938644068654197</v>
       </c>
       <c r="EW4">
-        <v>0.898581996690472</v>
+        <v>0.8988277238083632</v>
       </c>
       <c r="EX4">
-        <v>0.8999599497972998</v>
+        <v>0.900198969408065</v>
       </c>
       <c r="EY4">
-        <v>0.9007125231010288</v>
+        <v>0.9009439342595644</v>
       </c>
       <c r="EZ4">
-        <v>0.9153937776737746</v>
+        <v>0.9156376465496749</v>
       </c>
       <c r="FA4">
-        <v>0.922219656707597</v>
+        <v>0.9224646665584693</v>
       </c>
       <c r="FB4">
-        <v>0.9226687440898222</v>
+        <v>0.9229057082755046</v>
       </c>
       <c r="FC4">
-        <v>0.9293186555227727</v>
+        <v>0.9295565071780409</v>
       </c>
       <c r="FD4">
-        <v>0.9311040035316192</v>
+        <v>0.9313357345878138</v>
       </c>
       <c r="FE4">
-        <v>0.9410571235809371</v>
+        <v>0.9412945008303198</v>
       </c>
       <c r="FF4">
-        <v>0.9432253558916807</v>
+        <v>0.9434571641391719</v>
       </c>
       <c r="FG4">
-        <v>0.9432279131790934</v>
+        <v>0.9434571641391719</v>
       </c>
       <c r="FH4">
-        <v>0.9469225820974005</v>
+        <v>0.9471484630962038</v>
       </c>
       <c r="FI4">
-        <v>0.9473973288797529</v>
+        <v>0.9476152011792401</v>
       </c>
       <c r="FJ4">
-        <v>0.9488542274869719</v>
+        <v>0.9490655060111193</v>
       </c>
       <c r="FK4">
-        <v>0.9488657206650288</v>
+        <v>0.9490683231097106</v>
       </c>
       <c r="FL4">
-        <v>0.9569968147053185</v>
+        <v>0.9572024384656285</v>
       </c>
       <c r="FM4">
-        <v>0.9570689256256758</v>
+        <v>0.9572659606346651</v>
       </c>
       <c r="FN4">
-        <v>0.9624037243521099</v>
+        <v>0.9625997522310389</v>
       </c>
       <c r="FO4">
-        <v>0.9660757979703051</v>
+        <v>0.9662684233363399</v>
       </c>
       <c r="FP4">
-        <v>0.9670523318351438</v>
+        <v>0.9672376713947555</v>
       </c>
       <c r="FQ4">
-        <v>0.9670706151002344</v>
+        <v>0.9672472883624291</v>
       </c>
       <c r="FR4">
-        <v>0.9672466504911067</v>
+        <v>0.9674148847193883</v>
       </c>
       <c r="FS4">
-        <v>0.9672550924311485</v>
+        <v>0.9674148847193883</v>
       </c>
       <c r="FT4">
-        <v>0.9673452638715953</v>
+        <v>0.9674964934271627</v>
       </c>
       <c r="FU4">
-        <v>0.9702744318861093</v>
+        <v>0.970421188671696</v>
       </c>
       <c r="FV4">
-        <v>0.971703211593189</v>
+        <v>0.971843334094316</v>
       </c>
       <c r="FW4">
-        <v>0.9717050210343979</v>
+        <v>0.971843334094316</v>
       </c>
       <c r="FX4">
-        <v>0.9718880664953049</v>
+        <v>0.9720179506202742</v>
       </c>
       <c r="FY4">
-        <v>0.9722442005570695</v>
+        <v>0.972365905104883</v>
       </c>
       <c r="FZ4">
-        <v>0.9725586166586274</v>
+        <v>0.97267208152886</v>
       </c>
       <c r="GA4">
-        <v>0.9726823611992406</v>
+        <v>0.9727873117034415</v>
       </c>
       <c r="GB4">
-        <v>0.9727078564563669</v>
+        <v>0.9728041510530113</v>
       </c>
       <c r="GC4">
-        <v>0.9747457841664648</v>
+        <v>0.9748363220396262</v>
       </c>
       <c r="GD4">
-        <v>0.9774352113797909</v>
+        <v>0.9775209311035719</v>
       </c>
       <c r="GE4">
-        <v>0.9778239535117171</v>
+        <v>0.9779015406347251</v>
       </c>
       <c r="GF4">
-        <v>0.9778756390319733</v>
+        <v>0.9779446079780794</v>
       </c>
       <c r="GG4">
-        <v>0.9779224285982051</v>
+        <v>0.9779827723141182</v>
       </c>
       <c r="GH4">
-        <v>0.9779244916514154</v>
+        <v>0.9779827723141182</v>
       </c>
       <c r="GI4">
-        <v>0.9847654446853125</v>
+        <v>0.9848248880391453</v>
       </c>
       <c r="GJ4">
-        <v>0.9896232727093831</v>
+        <v>0.989681021791651</v>
       </c>
       <c r="GK4">
-        <v>0.9904735803135964</v>
+        <v>0.990523861743256</v>
       </c>
       <c r="GL4">
-        <v>0.9913112742177472</v>
+        <v>0.9913540698230392</v>
       </c>
       <c r="GM4">
-        <v>0.9925546788239084</v>
+        <v>0.9925905730865646</v>
       </c>
       <c r="GN4">
-        <v>0.9925578313631239</v>
+        <v>0.9925905730865646</v>
       </c>
       <c r="GO4">
-        <v>0.9934595361675919</v>
+        <v>0.9934848842831179</v>
       </c>
       <c r="GP4">
-        <v>0.9943321444719156</v>
+        <v>0.9943500570620407</v>
       </c>
       <c r="GQ4">
-        <v>0.9965541301829256</v>
+        <v>0.9965665512102809</v>
       </c>
       <c r="GR4">
-        <v>0.9984547966923434</v>
+        <v>0.9984612632526907</v>
       </c>
       <c r="GS4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GT4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GU4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GV4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GW4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GX4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GY4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="GZ4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HA4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HB4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HC4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HD4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HE4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HF4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HG4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HH4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HI4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HJ4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HK4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HL4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HM4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HN4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HO4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HP4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HQ4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HR4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HS4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HT4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HU4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HV4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HW4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HX4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HY4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="HZ4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IA4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IB4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IC4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="ID4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IE4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IF4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IG4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IH4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="II4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IJ4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IK4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IL4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IM4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IN4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IO4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IP4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IQ4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IR4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IS4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IT4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IU4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IV4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="IW4">
-        <v>0.9999999999999999</v>
+        <v>1.000000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>2.626481310361048E-05</v>
+        <v>2.236123173722628E-05</v>
       </c>
       <c r="C5">
-        <v>0.0001039758074926695</v>
+        <v>9.620408442856368E-05</v>
       </c>
       <c r="D5">
-        <v>0.0002114516597326265</v>
+        <v>0.0001998322990524173</v>
       </c>
       <c r="E5">
-        <v>0.000228760321482895</v>
+        <v>0.0002132312098231539</v>
       </c>
       <c r="F5">
-        <v>0.0002326792961999345</v>
+        <v>0.0002132312098231539</v>
       </c>
       <c r="G5">
-        <v>0.0002706171234607223</v>
+        <v>0.0002472734968926979</v>
       </c>
       <c r="H5">
-        <v>0.0002726655789128184</v>
+        <v>0.0002472734968926979</v>
       </c>
       <c r="I5">
-        <v>0.0002760388049692625</v>
+        <v>0.0002472734968926979</v>
       </c>
       <c r="J5">
-        <v>0.0002906684464129633</v>
+        <v>0.0002579915418633895</v>
       </c>
       <c r="K5">
-        <v>0.0002943033015505171</v>
+        <v>0.0002579915418633895</v>
       </c>
       <c r="L5">
-        <v>0.0003355422485729552</v>
+        <v>0.0002953372227329604</v>
       </c>
       <c r="M5">
-        <v>0.0003357226634499288</v>
+        <v>0.0002953372227329604</v>
       </c>
       <c r="N5">
-        <v>0.0004080514032276009</v>
+        <v>0.0003637941131456882</v>
       </c>
       <c r="O5">
-        <v>0.0004657505290615702</v>
+        <v>0.0004176113117302547</v>
       </c>
       <c r="P5">
-        <v>0.0004660125114026544</v>
+        <v>0.0004176113117302547</v>
       </c>
       <c r="Q5">
-        <v>0.0004674707564973652</v>
+        <v>0.0004176113117302547</v>
       </c>
       <c r="R5">
-        <v>0.000545125080890516</v>
+        <v>0.0004913974553874923</v>
       </c>
       <c r="S5">
-        <v>0.000552971730323967</v>
+        <v>0.0004953278357564339</v>
       </c>
       <c r="T5">
-        <v>0.0005681159037305173</v>
+        <v>0.0005065607671349857</v>
       </c>
       <c r="U5">
-        <v>0.0006793249207009298</v>
+        <v>0.0006139247181499663</v>
       </c>
       <c r="V5">
-        <v>0.0007111224534050632</v>
+        <v>0.0006418224808055732</v>
       </c>
       <c r="W5">
-        <v>0.0007128632972793696</v>
+        <v>0.0006418224808055732</v>
       </c>
       <c r="X5">
-        <v>0.0007364450475767044</v>
+        <v>0.0006614988014582944</v>
       </c>
       <c r="Y5">
-        <v>0.0007879489638579843</v>
+        <v>0.000709116522803662</v>
       </c>
       <c r="Z5">
-        <v>0.0007929131578995563</v>
+        <v>0.000710162462147166</v>
       </c>
       <c r="AA5">
-        <v>0.0008027721251877126</v>
+        <v>0.0007161065465937789</v>
       </c>
       <c r="AB5">
-        <v>0.0008122632555024277</v>
+        <v>0.0007216825406755398</v>
       </c>
       <c r="AC5">
-        <v>0.0008160054976322278</v>
+        <v>0.0007216825406755398</v>
       </c>
       <c r="AD5">
-        <v>0.0008290750666885701</v>
+        <v>0.0007308394385736947</v>
       </c>
       <c r="AE5">
-        <v>0.0008425520577154955</v>
+        <v>0.0007404040391027126</v>
       </c>
       <c r="AF5">
-        <v>0.0008432234424670197</v>
+        <v>0.0007404040391027126</v>
       </c>
       <c r="AG5">
-        <v>0.0008676586057027357</v>
+        <v>0.0007609343605833534</v>
       </c>
       <c r="AH5">
-        <v>0.0008679350935527725</v>
+        <v>0.0007609343605833534</v>
       </c>
       <c r="AI5">
-        <v>0.0008680925395514045</v>
+        <v>0.0007609343605833534</v>
       </c>
       <c r="AJ5">
-        <v>0.0008792188047480585</v>
+        <v>0.0007681466159404412</v>
       </c>
       <c r="AK5">
-        <v>0.0009142856362161398</v>
+        <v>0.0007993159294778803</v>
       </c>
       <c r="AL5">
-        <v>0.0009203811327760287</v>
+        <v>0.0008014939506586984</v>
       </c>
       <c r="AM5">
-        <v>0.000953131623411356</v>
+        <v>0.0008303453277084764</v>
       </c>
       <c r="AN5">
-        <v>0.0009536322482752096</v>
+        <v>0.0008303453277084764</v>
       </c>
       <c r="AO5">
-        <v>0.001012233184044066</v>
+        <v>0.0008850649574566485</v>
       </c>
       <c r="AP5">
-        <v>0.001013909348423042</v>
+        <v>0.0008850649574566485</v>
       </c>
       <c r="AQ5">
-        <v>0.001016788628315151</v>
+        <v>0.0008850649574566485</v>
       </c>
       <c r="AR5">
-        <v>0.001017729401647224</v>
+        <v>0.0008850649574566485</v>
       </c>
       <c r="AS5">
-        <v>0.001022162326327155</v>
+        <v>0.0008855792614636291</v>
       </c>
       <c r="AT5">
-        <v>0.001028311087883198</v>
+        <v>0.0008878105843331947</v>
       </c>
       <c r="AU5">
-        <v>0.001168298777775714</v>
+        <v>0.001023973032999878</v>
       </c>
       <c r="AV5">
-        <v>0.001199781782502557</v>
+        <v>0.001051556051009687</v>
       </c>
       <c r="AW5">
-        <v>0.001203578304628438</v>
+        <v>0.001051556051009687</v>
       </c>
       <c r="AX5">
-        <v>0.001247369107466625</v>
+        <v>0.001091455345588836</v>
       </c>
       <c r="AY5">
-        <v>0.001335715731087764</v>
+        <v>0.001175941154065295</v>
       </c>
       <c r="AZ5">
-        <v>0.001351742812930565</v>
+        <v>0.001188057602088164</v>
       </c>
       <c r="BA5">
-        <v>0.001353410662110142</v>
+        <v>0.001188057602088164</v>
       </c>
       <c r="BB5">
-        <v>0.00138860509556901</v>
+        <v>0.001219354605517419</v>
       </c>
       <c r="BC5">
-        <v>0.001390496618632437</v>
+        <v>0.001219354605517419</v>
       </c>
       <c r="BD5">
-        <v>0.001391766565840744</v>
+        <v>0.001219354605517419</v>
       </c>
       <c r="BE5">
-        <v>0.001392025267122065</v>
+        <v>0.001219354605517419</v>
       </c>
       <c r="BF5">
-        <v>0.001395246205789505</v>
+        <v>0.001219354605517419</v>
       </c>
       <c r="BG5">
-        <v>0.001400039351443427</v>
+        <v>0.001220229378643378</v>
       </c>
       <c r="BH5">
-        <v>0.001424336505689108</v>
+        <v>0.001240621596063897</v>
       </c>
       <c r="BI5">
-        <v>0.001425007890440632</v>
+        <v>0.001240621596063897</v>
       </c>
       <c r="BJ5">
-        <v>0.001426569178827903</v>
+        <v>0.001240621596063897</v>
       </c>
       <c r="BK5">
-        <v>0.001426726624826535</v>
+        <v>0.001240621596063897</v>
       </c>
       <c r="BL5">
-        <v>0.001490353450232508</v>
+        <v>0.001300370577627701</v>
       </c>
       <c r="BM5">
-        <v>0.001491687192036209</v>
+        <v>0.001300370577627701</v>
       </c>
       <c r="BN5">
-        <v>0.00152459787365997</v>
+        <v>0.001329382256016485</v>
       </c>
       <c r="BO5">
-        <v>0.001526421950228266</v>
+        <v>0.001329382256016485</v>
       </c>
       <c r="BP5">
-        <v>0.001542586995061107</v>
+        <v>0.001341636762067791</v>
       </c>
       <c r="BQ5">
-        <v>0.001545429862255844</v>
+        <v>0.001341636762067791</v>
       </c>
       <c r="BR5">
-        <v>0.001548970983700166</v>
+        <v>0.001341636762067791</v>
       </c>
       <c r="BS5">
-        <v>0.001549293333096891</v>
+        <v>0.001341636762067791</v>
       </c>
       <c r="BT5">
-        <v>0.001550897886381038</v>
+        <v>0.001341636762067791</v>
       </c>
       <c r="BU5">
-        <v>0.001562495321543673</v>
+        <v>0.001349320511965144</v>
       </c>
       <c r="BV5">
-        <v>0.001563635492561349</v>
+        <v>0.001349320511965144</v>
       </c>
       <c r="BW5">
-        <v>0.001567880323654861</v>
+        <v>0.001349646592813904</v>
       </c>
       <c r="BX5">
-        <v>0.001569441612042132</v>
+        <v>0.001349646592813904</v>
       </c>
       <c r="BY5">
-        <v>0.001585024114917034</v>
+        <v>0.001361318155612298</v>
       </c>
       <c r="BZ5">
-        <v>0.00160207436768596</v>
+        <v>0.00137445847939181</v>
       </c>
       <c r="CA5">
-        <v>0.001620900251326681</v>
+        <v>0.001389375657219807</v>
       </c>
       <c r="CB5">
-        <v>0.001696839555843661</v>
+        <v>0.001461445599577206</v>
       </c>
       <c r="CC5">
-        <v>0.001745963878296754</v>
+        <v>0.001506682087866465</v>
       </c>
       <c r="CD5">
-        <v>0.001759010213354773</v>
+        <v>0.001515815735761122</v>
       </c>
       <c r="CE5">
-        <v>0.00178382969756274</v>
+        <v>0.001536730642960737</v>
       </c>
       <c r="CF5">
-        <v>0.001792979425902106</v>
+        <v>0.001541964999885982</v>
       </c>
       <c r="CG5">
-        <v>0.001794370929501635</v>
+        <v>0.001541964999885982</v>
       </c>
       <c r="CH5">
-        <v>0.001807016455588595</v>
+        <v>0.001550697562704786</v>
       </c>
       <c r="CI5">
-        <v>0.001809765825390083</v>
+        <v>0.001550697562704786</v>
       </c>
       <c r="CJ5">
-        <v>0.001811627857055639</v>
+        <v>0.001550697562704786</v>
       </c>
       <c r="CK5">
-        <v>0.001837716732171953</v>
+        <v>0.001572882735256527</v>
       </c>
       <c r="CL5">
-        <v>0.00184051265537008</v>
+        <v>0.001572882735256527</v>
       </c>
       <c r="CM5">
-        <v>0.0018456022150026</v>
+        <v>0.001574054126551423</v>
       </c>
       <c r="CN5">
-        <v>0.08035217054661907</v>
+        <v>0.08013078150854093</v>
       </c>
       <c r="CO5">
-        <v>0.08284634206653324</v>
+        <v>0.08262274951099616</v>
       </c>
       <c r="CP5">
-        <v>0.2933410868682516</v>
+        <v>0.2932585758985332</v>
       </c>
       <c r="CQ5">
-        <v>0.29727254188439</v>
+        <v>0.297188817496956</v>
       </c>
       <c r="CR5">
-        <v>0.3108145234066229</v>
+        <v>0.3107362059932405</v>
       </c>
       <c r="CS5">
-        <v>0.3130969676418243</v>
+        <v>0.3130163008586646</v>
       </c>
       <c r="CT5">
-        <v>0.3130969680166699</v>
+        <v>0.3130163008586646</v>
       </c>
       <c r="CU5">
-        <v>0.3131143931904118</v>
+        <v>0.3130298163616884</v>
       </c>
       <c r="CV5">
-        <v>0.3406910611993029</v>
+        <v>0.3406215594021321</v>
       </c>
       <c r="CW5">
-        <v>0.3425867308624305</v>
+        <v>0.3425146132585507</v>
       </c>
       <c r="CX5">
-        <v>0.4257347548589215</v>
+        <v>0.4257159936593634</v>
       </c>
       <c r="CY5">
-        <v>0.4305317995125621</v>
+        <v>0.4305124211729746</v>
       </c>
       <c r="CZ5">
-        <v>0.4366459920711011</v>
+        <v>0.4366269039335681</v>
       </c>
       <c r="DA5">
-        <v>0.4473399232989708</v>
+        <v>0.4473242802025287</v>
       </c>
       <c r="DB5">
-        <v>0.4694932916994385</v>
+        <v>0.469488987692709</v>
       </c>
       <c r="DC5">
-        <v>0.5275693895061894</v>
+        <v>0.5276011706363192</v>
       </c>
       <c r="DD5">
-        <v>0.5320410245833254</v>
+        <v>0.5320719644089246</v>
       </c>
       <c r="DE5">
-        <v>0.5496756363100593</v>
+        <v>0.5497148023949281</v>
       </c>
       <c r="DF5">
-        <v>0.5869407596194181</v>
+        <v>0.5870016748103213</v>
       </c>
       <c r="DG5">
-        <v>0.586942435783797</v>
+        <v>0.5870016748103213</v>
       </c>
       <c r="DH5">
-        <v>0.6150285687559034</v>
+        <v>0.6151032337684931</v>
       </c>
       <c r="DI5">
-        <v>0.65213195607694</v>
+        <v>0.6522282587806894</v>
       </c>
       <c r="DJ5">
-        <v>0.6984303257340743</v>
+        <v>0.6985546002653412</v>
       </c>
       <c r="DK5">
-        <v>0.7019261986816629</v>
+        <v>0.7020489597363215</v>
       </c>
       <c r="DL5">
-        <v>0.7064955793517415</v>
+        <v>0.7066175664357578</v>
       </c>
       <c r="DM5">
-        <v>0.7074110046856453</v>
+        <v>0.7075297007032275</v>
       </c>
       <c r="DN5">
-        <v>0.7088393841825125</v>
+        <v>0.7089551424917743</v>
       </c>
       <c r="DO5">
-        <v>0.7145304920715994</v>
+        <v>0.7146462491330912</v>
       </c>
       <c r="DP5">
-        <v>0.7145832068897932</v>
+        <v>0.7146950785905016</v>
       </c>
       <c r="DQ5">
-        <v>0.7161655700755423</v>
+        <v>0.7162746101424878</v>
       </c>
       <c r="DR5">
-        <v>0.7206278627533529</v>
+        <v>0.7207360550800804</v>
       </c>
       <c r="DS5">
-        <v>0.722501684718058</v>
+        <v>0.722607246187879</v>
       </c>
       <c r="DT5">
-        <v>0.7227536937498622</v>
+        <v>0.7228555071464637</v>
       </c>
       <c r="DU5">
-        <v>0.7245770304182124</v>
+        <v>0.7246761781801624</v>
       </c>
       <c r="DV5">
-        <v>0.725928288320648</v>
+        <v>0.726024445247618</v>
       </c>
       <c r="DW5">
-        <v>0.7307836009700815</v>
+        <v>0.7308791808960259</v>
       </c>
       <c r="DX5">
-        <v>0.749495147619058</v>
+        <v>0.7495996956711288</v>
       </c>
       <c r="DY5">
-        <v>0.7530437340628406</v>
+        <v>0.7531468049509855</v>
       </c>
       <c r="DZ5">
-        <v>0.7563617468232713</v>
+        <v>0.7564631817124758</v>
       </c>
       <c r="EA5">
-        <v>0.7784402782291424</v>
+        <v>0.7785530006551896</v>
       </c>
       <c r="EB5">
-        <v>0.7952594670147521</v>
+        <v>0.7953798539806538</v>
       </c>
       <c r="EC5">
-        <v>0.797290141268132</v>
+        <v>0.7974080054277736</v>
       </c>
       <c r="ED5">
-        <v>0.7995393151057357</v>
+        <v>0.7996548069766612</v>
       </c>
       <c r="EE5">
-        <v>0.80285893826605</v>
+        <v>0.8029727952473895</v>
       </c>
       <c r="EF5">
-        <v>0.8042649733645305</v>
+        <v>0.8043758772451909</v>
       </c>
       <c r="EG5">
-        <v>0.8179791843743279</v>
+        <v>0.8180956138725588</v>
       </c>
       <c r="EH5">
-        <v>0.818029141077721</v>
+        <v>0.8181416833151892</v>
       </c>
       <c r="EI5">
-        <v>0.827393849401564</v>
+        <v>0.8275089210199496</v>
       </c>
       <c r="EJ5">
-        <v>0.8301471482027685</v>
+        <v>0.8302601948083919</v>
       </c>
       <c r="EK5">
-        <v>0.8320149237679101</v>
+        <v>0.8321253353514509</v>
       </c>
       <c r="EL5">
-        <v>0.8393642127372718</v>
+        <v>0.8394757653422374</v>
       </c>
       <c r="EM5">
-        <v>0.8478676831232985</v>
+        <v>0.8479811718292452</v>
       </c>
       <c r="EN5">
-        <v>0.8484555038808563</v>
+        <v>0.8485654758438006</v>
       </c>
       <c r="EO5">
-        <v>0.8494904851061279</v>
+        <v>0.8495972483609603</v>
       </c>
       <c r="EP5">
-        <v>0.849846301260437</v>
+        <v>0.8499493879515367</v>
       </c>
       <c r="EQ5">
-        <v>0.8596123105553051</v>
+        <v>0.8597182030710364</v>
       </c>
       <c r="ER5">
-        <v>0.8621863783694506</v>
+        <v>0.8622901224057865</v>
       </c>
       <c r="ES5">
-        <v>0.8625908081102497</v>
+        <v>0.8626909090712355</v>
       </c>
       <c r="ET5">
-        <v>0.8657070865852461</v>
+        <v>0.8658054125788385</v>
       </c>
       <c r="EU5">
-        <v>0.890692023781267</v>
+        <v>0.8908036394439425</v>
       </c>
       <c r="EV5">
-        <v>0.8908203563020011</v>
+        <v>0.8909281386945684</v>
       </c>
       <c r="EW5">
-        <v>0.8974499728233251</v>
+        <v>0.8975584004774286</v>
       </c>
       <c r="EX5">
-        <v>0.8978057889776342</v>
+        <v>0.8979105400680051</v>
       </c>
       <c r="EY5">
-        <v>0.900228942302676</v>
+        <v>0.90033144095337</v>
       </c>
       <c r="EZ5">
-        <v>0.9085580037012956</v>
+        <v>0.9086623183080623</v>
       </c>
       <c r="FA5">
-        <v>0.9237204476065267</v>
+        <v>0.9238312854733065</v>
       </c>
       <c r="FB5">
-        <v>0.9237301117828289</v>
+        <v>0.9238370346325817</v>
       </c>
       <c r="FC5">
-        <v>0.9259726609209109</v>
+        <v>0.926077206918399</v>
       </c>
       <c r="FD5">
-        <v>0.9328365040253231</v>
+        <v>0.9329418566357303</v>
       </c>
       <c r="FE5">
-        <v>0.9391997105658827</v>
+        <v>0.9393055249163048</v>
       </c>
       <c r="FF5">
-        <v>0.9438331352313371</v>
+        <v>0.9439382197290266</v>
       </c>
       <c r="FG5">
-        <v>0.943834436880543</v>
+        <v>0.9439382197290266</v>
       </c>
       <c r="FH5">
-        <v>0.9458359495360285</v>
+        <v>0.9459371894897372</v>
       </c>
       <c r="FI5">
-        <v>0.9465551093841031</v>
+        <v>0.94665292307021</v>
       </c>
       <c r="FJ5">
-        <v>0.9476803283028593</v>
+        <v>0.9477749954427851</v>
       </c>
       <c r="FK5">
-        <v>0.9480394375769307</v>
+        <v>0.9481304304216512</v>
       </c>
       <c r="FL5">
-        <v>0.9536543865715164</v>
+        <v>0.9537453257049815</v>
       </c>
       <c r="FM5">
-        <v>0.9551846592610266</v>
+        <v>0.9552727308772117</v>
       </c>
       <c r="FN5">
-        <v>0.959378446458224</v>
+        <v>0.9594654853691456</v>
       </c>
       <c r="FO5">
-        <v>0.9636980916463341</v>
+        <v>0.9637841845516341</v>
       </c>
       <c r="FP5">
-        <v>0.9656194101076098</v>
+        <v>0.9657029048748573</v>
       </c>
       <c r="FQ5">
-        <v>0.9656649252103234</v>
+        <v>0.9657445296571283</v>
       </c>
       <c r="FR5">
-        <v>0.9659041281230524</v>
+        <v>0.9659799756749019</v>
       </c>
       <c r="FS5">
-        <v>0.9660467746327529</v>
+        <v>0.9661187987749545</v>
       </c>
       <c r="FT5">
-        <v>0.9660555254136211</v>
+        <v>0.9661236339095861</v>
       </c>
       <c r="FU5">
-        <v>0.9683430078484587</v>
+        <v>0.9684087704453048</v>
       </c>
       <c r="FV5">
-        <v>0.9715806204146945</v>
+        <v>0.9716446916274158</v>
       </c>
       <c r="FW5">
-        <v>0.9717468768226903</v>
+        <v>0.971807140889886</v>
       </c>
       <c r="FX5">
-        <v>0.9720794740586759</v>
+        <v>0.9721360455673507</v>
       </c>
       <c r="FY5">
-        <v>0.9722181417086637</v>
+        <v>0.9722708870667783</v>
       </c>
       <c r="FZ5">
-        <v>0.9726982125040013</v>
+        <v>0.9727473668935275</v>
       </c>
       <c r="GA5">
-        <v>0.9727096931241724</v>
+        <v>0.9727549337479631</v>
       </c>
       <c r="GB5">
-        <v>0.9727099551065135</v>
+        <v>0.9727549337479631</v>
       </c>
       <c r="GC5">
-        <v>0.9739812424147232</v>
+        <v>0.9740231751319464</v>
       </c>
       <c r="GD5">
-        <v>0.9768068940107036</v>
+        <v>0.9768468515567468</v>
       </c>
       <c r="GE5">
-        <v>0.97740235156771</v>
+        <v>0.9774387976315037</v>
       </c>
       <c r="GF5">
-        <v>0.9774176047376087</v>
+        <v>0.9774501396344586</v>
       </c>
       <c r="GG5">
-        <v>0.9774454693065968</v>
+        <v>0.9774741017241022</v>
       </c>
       <c r="GH5">
-        <v>0.977561514938218</v>
+        <v>0.9775863056215609</v>
       </c>
       <c r="GI5">
-        <v>0.9818440666290064</v>
+        <v>0.9818678857541751</v>
       </c>
       <c r="GJ5">
-        <v>0.9895911173696487</v>
+        <v>0.9896163515219123</v>
       </c>
       <c r="GK5">
-        <v>0.9895921477714743</v>
+        <v>0.9896163515219123</v>
       </c>
       <c r="GL5">
-        <v>0.992025261795797</v>
+        <v>0.9920472199681729</v>
       </c>
       <c r="GM5">
-        <v>0.9924101260480087</v>
+        <v>0.9924284276669801</v>
       </c>
       <c r="GN5">
-        <v>0.992529743609372</v>
+        <v>0.9925442059547718</v>
       </c>
       <c r="GO5">
-        <v>0.9931590997639308</v>
+        <v>0.993170073978767</v>
       </c>
       <c r="GP5">
-        <v>0.9939295489383023</v>
+        <v>0.9939371322171527</v>
       </c>
       <c r="GQ5">
-        <v>0.9967034243380212</v>
+        <v>0.9967089967786859</v>
       </c>
       <c r="GR5">
-        <v>0.9986394767982331</v>
+        <v>0.9986424612506373</v>
       </c>
       <c r="GS5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GT5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GU5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GV5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GW5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GX5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GY5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="GZ5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HA5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HB5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HC5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HD5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HE5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HF5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HG5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HH5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HI5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HJ5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HK5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HL5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HM5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HN5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HO5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HP5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HQ5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HR5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HS5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HT5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HU5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HV5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HW5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HX5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HY5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="HZ5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IA5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IB5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IC5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="ID5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IE5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IF5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IG5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IH5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="II5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IJ5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IK5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IL5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IM5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IN5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IO5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IP5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IQ5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IR5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IS5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IT5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IU5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IV5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="IW5">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999999994</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9737,772 +9737,772 @@
         <v>261</v>
       </c>
       <c r="B6">
-        <v>4.606110219191063E-06</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1.308380662261938E-05</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>3.420026662748881E-05</v>
+        <v>7.575505185750226E-06</v>
       </c>
       <c r="E6">
-        <v>3.667679444533939E-05</v>
+        <v>7.575505185750226E-06</v>
       </c>
       <c r="F6">
-        <v>0.0001088960028820364</v>
+        <v>6.636708803747668E-05</v>
       </c>
       <c r="G6">
-        <v>0.0001408320844017794</v>
+        <v>8.478620913092053E-05</v>
       </c>
       <c r="H6">
-        <v>0.0001416860992824194</v>
+        <v>8.478620913092053E-05</v>
       </c>
       <c r="I6">
-        <v>0.0001440634675955513</v>
+        <v>8.478620913092053E-05</v>
       </c>
       <c r="J6">
-        <v>0.0001769167351589404</v>
+        <v>0.00010412455028761</v>
       </c>
       <c r="K6">
-        <v>0.000194227013982685</v>
+        <v>0.0001078854334233678</v>
       </c>
       <c r="L6">
-        <v>0.0002214024602758835</v>
+        <v>0.0001215333617535233</v>
       </c>
       <c r="M6">
-        <v>0.0002438983763463972</v>
+        <v>0.0001304913821887045</v>
       </c>
       <c r="N6">
-        <v>0.0002489771723880819</v>
+        <v>0.0001304913821887045</v>
       </c>
       <c r="O6">
-        <v>0.0002518033779225726</v>
+        <v>0.0001304913821887045</v>
       </c>
       <c r="P6">
-        <v>0.0002873850996158008</v>
+        <v>0.00015256422829689</v>
       </c>
       <c r="Q6">
-        <v>0.0003016439162943354</v>
+        <v>0.0001532668821393183</v>
       </c>
       <c r="R6">
-        <v>0.0003029720006575349</v>
+        <v>0.0001532668821393183</v>
       </c>
       <c r="S6">
-        <v>0.0003165297183027063</v>
+        <v>0.0001532668821393183</v>
       </c>
       <c r="T6">
-        <v>0.0003423230715301352</v>
+        <v>0.0001655296523719108</v>
       </c>
       <c r="U6">
-        <v>0.0003432531713343959</v>
+        <v>0.0001655296523719108</v>
       </c>
       <c r="V6">
-        <v>0.000350845769395705</v>
+        <v>0.0001655296523719108</v>
       </c>
       <c r="W6">
-        <v>0.0003888712392052238</v>
+        <v>0.0001900516660329334</v>
       </c>
       <c r="X6">
-        <v>0.000419958500684574</v>
+        <v>0.0002076200846798897</v>
       </c>
       <c r="Y6">
-        <v>0.0004199725141022409</v>
+        <v>0.0002076200846798897</v>
       </c>
       <c r="Z6">
-        <v>0.0004378880689547888</v>
+        <v>0.0002119875861493345</v>
       </c>
       <c r="AA6">
-        <v>0.0005113381624500599</v>
+        <v>0.0002720127837613693</v>
       </c>
       <c r="AB6">
-        <v>0.0006096101171265294</v>
+        <v>0.0003569148893496209</v>
       </c>
       <c r="AC6">
-        <v>0.000612905881883365</v>
+        <v>0.0003569148893496209</v>
       </c>
       <c r="AD6">
-        <v>0.0006309352997413313</v>
+        <v>0.0003613965063355055</v>
       </c>
       <c r="AE6">
-        <v>0.0007876477171988084</v>
+        <v>0.0005048686765969037</v>
       </c>
       <c r="AF6">
-        <v>0.0008391092366477088</v>
+        <v>0.0005428565366746308</v>
       </c>
       <c r="AG6">
-        <v>0.0008399232729864464</v>
+        <v>0.0005428565366746308</v>
       </c>
       <c r="AH6">
-        <v>0.0008465151153001326</v>
+        <v>0.0005428565366746308</v>
       </c>
       <c r="AI6">
-        <v>0.0008481835679795293</v>
+        <v>0.0005428565366746308</v>
       </c>
       <c r="AJ6">
-        <v>0.000849574278045709</v>
+        <v>0.0005428565366746308</v>
       </c>
       <c r="AK6">
-        <v>0.0008550856103079769</v>
+        <v>0.0005428565366746308</v>
       </c>
       <c r="AL6">
-        <v>0.0008966046052837422</v>
+        <v>0.0005708798230016669</v>
       </c>
       <c r="AM6">
-        <v>0.0009212688744574413</v>
+        <v>0.0005820110052402324</v>
       </c>
       <c r="AN6">
-        <v>0.0009261084419877419</v>
+        <v>0.0005820110052402324</v>
       </c>
       <c r="AO6">
-        <v>0.0009435306488168128</v>
+        <v>0.0005858840646011386</v>
       </c>
       <c r="AP6">
-        <v>0.0009491052150820898</v>
+        <v>0.0005858840646011386</v>
       </c>
       <c r="AQ6">
-        <v>0.0009529924432670714</v>
+        <v>0.0005858840646011386</v>
       </c>
       <c r="AR6">
-        <v>0.0009564675810324429</v>
+        <v>0.0005858840646011386</v>
       </c>
       <c r="AS6">
-        <v>0.000958462874527393</v>
+        <v>0.0005858840646011386</v>
       </c>
       <c r="AT6">
-        <v>0.0009665060089101418</v>
+        <v>0.0005858840646011386</v>
       </c>
       <c r="AU6">
-        <v>0.0009665200223278087</v>
+        <v>0.0005858840646011386</v>
       </c>
       <c r="AV6">
-        <v>0.0009665248707040394</v>
+        <v>0.0005858840646011386</v>
       </c>
       <c r="AW6">
-        <v>0.0009688762208159332</v>
+        <v>0.0005858840646011386</v>
       </c>
       <c r="AX6">
-        <v>0.0009718224251561343</v>
+        <v>0.0005858840646011386</v>
       </c>
       <c r="AY6">
-        <v>0.000980725266579794</v>
+        <v>0.0005858840646011386</v>
       </c>
       <c r="AZ6">
-        <v>0.0009807703729319405</v>
+        <v>0.0005858840646011386</v>
       </c>
       <c r="BA6">
-        <v>0.0009838095007765634</v>
+        <v>0.0005858840646011386</v>
       </c>
       <c r="BB6">
-        <v>0.001015953862306218</v>
+        <v>0.0006045119276016469</v>
       </c>
       <c r="BC6">
-        <v>0.001028162401387186</v>
+        <v>0.0006045119276016469</v>
       </c>
       <c r="BD6">
-        <v>0.001038276276868475</v>
+        <v>0.0006045119276016469</v>
       </c>
       <c r="BE6">
-        <v>0.001051735279508949</v>
+        <v>0.0006045119276016469</v>
       </c>
       <c r="BF6">
-        <v>0.001083122769002586</v>
+        <v>0.0006223812400707376</v>
       </c>
       <c r="BG6">
-        <v>0.001083952143642054</v>
+        <v>0.0006223812400707376</v>
       </c>
       <c r="BH6">
-        <v>0.001110987756928598</v>
+        <v>0.0006358890252902221</v>
       </c>
       <c r="BI6">
-        <v>0.001128451465759644</v>
+        <v>0.000639803678691012</v>
       </c>
       <c r="BJ6">
-        <v>0.001149893771780019</v>
+        <v>0.0006477057525124898</v>
       </c>
       <c r="BK6">
-        <v>0.001154557705001962</v>
+        <v>0.0006477057525124898</v>
       </c>
       <c r="BL6">
-        <v>0.001162830976395662</v>
+        <v>0.0006477057525124898</v>
       </c>
       <c r="BM6">
-        <v>0.001170103606741745</v>
+        <v>0.0006477057525124898</v>
       </c>
       <c r="BN6">
-        <v>0.001200539903190118</v>
+        <v>0.0006646217625002747</v>
       </c>
       <c r="BO6">
-        <v>0.001200987430451414</v>
+        <v>0.0006646217625002747</v>
       </c>
       <c r="BP6">
-        <v>0.001200996740510857</v>
+        <v>0.0006646217625002747</v>
       </c>
       <c r="BQ6">
-        <v>0.001202583984786389</v>
+        <v>0.0006646217625002747</v>
       </c>
       <c r="BR6">
-        <v>0.00123652370940148</v>
+        <v>0.0006850489701161706</v>
       </c>
       <c r="BS6">
-        <v>0.001236773073933346</v>
+        <v>0.0006850489701161706</v>
       </c>
       <c r="BT6">
-        <v>0.00125248710968113</v>
+        <v>0.0006872100702292749</v>
       </c>
       <c r="BU6">
-        <v>0.001255135591107164</v>
+        <v>0.0006872100702292749</v>
       </c>
       <c r="BV6">
-        <v>0.001274872065046364</v>
+        <v>0.0006934025289902018</v>
       </c>
       <c r="BW6">
-        <v>0.001281672403669971</v>
+        <v>0.0006934025289902018</v>
       </c>
       <c r="BX6">
-        <v>0.001283375729151028</v>
+        <v>0.0006934025289902018</v>
       </c>
       <c r="BY6">
-        <v>0.001291239350525234</v>
+        <v>0.0006934025289902018</v>
       </c>
       <c r="BZ6">
-        <v>0.001303075394088476</v>
+        <v>0.0006934025289902018</v>
       </c>
       <c r="CA6">
-        <v>0.001307252186287237</v>
+        <v>0.0006934025289902018</v>
       </c>
       <c r="CB6">
-        <v>0.001328819042313539</v>
+        <v>0.0007014294290289104</v>
       </c>
       <c r="CC6">
-        <v>0.001335549521233823</v>
+        <v>0.0007014294290289104</v>
       </c>
       <c r="CD6">
-        <v>0.001363571538567307</v>
+        <v>0.0007159258058178975</v>
       </c>
       <c r="CE6">
-        <v>0.001373631674046039</v>
+        <v>0.0007159258058178975</v>
       </c>
       <c r="CF6">
-        <v>0.001376688150491488</v>
+        <v>0.0007159258058178975</v>
       </c>
       <c r="CG6">
-        <v>0.001426619822867587</v>
+        <v>0.0007523804261208176</v>
       </c>
       <c r="CH6">
-        <v>0.001466319541756778</v>
+        <v>0.0007785804018000884</v>
       </c>
       <c r="CI6">
-        <v>0.001488688250821239</v>
+        <v>0.0007874109331255522</v>
       </c>
       <c r="CJ6">
-        <v>0.001517425660188766</v>
+        <v>0.0008026242884548631</v>
       </c>
       <c r="CK6">
-        <v>0.001541872986352142</v>
+        <v>0.0008135380465742416</v>
       </c>
       <c r="CL6">
-        <v>0.001564881344447041</v>
+        <v>0.0008230096454631385</v>
       </c>
       <c r="CM6">
-        <v>0.005614729537167252</v>
+        <v>0.004868251296793445</v>
       </c>
       <c r="CN6">
-        <v>0.136771495778527</v>
+        <v>0.1363022926982274</v>
       </c>
       <c r="CO6">
-        <v>0.2582166355577394</v>
+        <v>0.2580031704164628</v>
       </c>
       <c r="CP6">
-        <v>0.3481020758351198</v>
+        <v>0.3480743595093012</v>
       </c>
       <c r="CQ6">
-        <v>0.3621658155043712</v>
+        <v>0.3621557001834633</v>
       </c>
       <c r="CR6">
-        <v>0.3758467931554082</v>
+        <v>0.3758534299980527</v>
       </c>
       <c r="CS6">
-        <v>0.3762196182731498</v>
+        <v>0.3762134941361047</v>
       </c>
       <c r="CT6">
-        <v>0.3777218867446383</v>
+        <v>0.377705506365011</v>
       </c>
       <c r="CU6">
-        <v>0.3840897180476644</v>
+        <v>0.3840738716574156</v>
       </c>
       <c r="CV6">
-        <v>0.3923631384413718</v>
+        <v>0.3923520520157939</v>
       </c>
       <c r="CW6">
-        <v>0.4614940017311037</v>
+        <v>0.4616226372361827</v>
       </c>
       <c r="CX6">
-        <v>0.4805257266367667</v>
+        <v>0.4806829805182165</v>
       </c>
       <c r="CY6">
-        <v>0.4811368367358477</v>
+        <v>0.4812818580760043</v>
       </c>
       <c r="CZ6">
-        <v>0.504779487860931</v>
+        <v>0.5049633531084365</v>
       </c>
       <c r="DA6">
-        <v>0.506282797532469</v>
+        <v>0.5064564088464347</v>
       </c>
       <c r="DB6">
-        <v>0.5786812549776958</v>
+        <v>0.5790018346807678</v>
       </c>
       <c r="DC6">
-        <v>0.5813964691069048</v>
+        <v>0.5817094824853868</v>
       </c>
       <c r="DD6">
-        <v>0.6167074167872476</v>
+        <v>0.6170851505504307</v>
       </c>
       <c r="DE6">
-        <v>0.623258728499005</v>
+        <v>0.6236374031512899</v>
       </c>
       <c r="DF6">
-        <v>0.6365076621294823</v>
+        <v>0.6369021308125484</v>
       </c>
       <c r="DG6">
-        <v>0.6593396862159903</v>
+        <v>0.6597712010999359</v>
       </c>
       <c r="DH6">
-        <v>0.662700933875942</v>
+        <v>0.6631263151270319</v>
       </c>
       <c r="DI6">
-        <v>0.7205051936266745</v>
+        <v>0.7210451780947715</v>
       </c>
       <c r="DJ6">
-        <v>0.7209692899687595</v>
+        <v>0.7214967158669838</v>
       </c>
       <c r="DK6">
-        <v>0.7234326030859812</v>
+        <v>0.7239519040253024</v>
       </c>
       <c r="DL6">
-        <v>0.7234342715386606</v>
+        <v>0.7239519040253024</v>
       </c>
       <c r="DM6">
-        <v>0.7236774371102321</v>
+        <v>0.724182021074586</v>
       </c>
       <c r="DN6">
-        <v>0.7323704505239067</v>
+        <v>0.7328807249734429</v>
       </c>
       <c r="DO6">
-        <v>0.7324230745704109</v>
+        <v>0.732919877938682</v>
       </c>
       <c r="DP6">
-        <v>0.7326222114298873</v>
+        <v>0.7331058686345423</v>
       </c>
       <c r="DQ6">
-        <v>0.7372685492509926</v>
+        <v>0.7377489227337701</v>
       </c>
       <c r="DR6">
-        <v>0.7391861204422441</v>
+        <v>0.7396571586884639</v>
       </c>
       <c r="DS6">
-        <v>0.7396639898649845</v>
+        <v>0.7401225000855338</v>
       </c>
       <c r="DT6">
-        <v>0.7401319302072524</v>
+        <v>0.7405778903826681</v>
       </c>
       <c r="DU6">
-        <v>0.7424121542157615</v>
+        <v>0.7428495834003265</v>
       </c>
       <c r="DV6">
-        <v>0.7450476708411778</v>
+        <v>0.7454773569580746</v>
       </c>
       <c r="DW6">
-        <v>0.7464416190075117</v>
+        <v>0.746860808662707</v>
       </c>
       <c r="DX6">
-        <v>0.7600296686541265</v>
+        <v>0.7604654043888592</v>
       </c>
       <c r="DY6">
-        <v>0.7615440681261922</v>
+        <v>0.7619695745209469</v>
       </c>
       <c r="DZ6">
-        <v>0.7672080798957257</v>
+        <v>0.7676325594376114</v>
       </c>
       <c r="EA6">
-        <v>0.8014440915249155</v>
+        <v>0.80193090759382</v>
       </c>
       <c r="EB6">
-        <v>0.8014700214641494</v>
+        <v>0.8019433072529624</v>
       </c>
       <c r="EC6">
-        <v>0.8048369238243702</v>
+        <v>0.805304088520609</v>
       </c>
       <c r="ED6">
-        <v>0.8074421931483472</v>
+        <v>0.8079015476982652</v>
       </c>
       <c r="EE6">
-        <v>0.8074794982941225</v>
+        <v>0.8079253477904481</v>
       </c>
       <c r="EF6">
-        <v>0.8201717498981089</v>
+        <v>0.8206321588859853</v>
       </c>
       <c r="EG6">
-        <v>0.821360289154668</v>
+        <v>0.8218097461508538</v>
       </c>
       <c r="EH6">
-        <v>0.8281565224780805</v>
+        <v>0.828607463519647</v>
       </c>
       <c r="EI6">
-        <v>0.8352368658150129</v>
+        <v>0.835689920965337</v>
       </c>
       <c r="EJ6">
-        <v>0.8378257105382083</v>
+        <v>0.8382709191178022</v>
       </c>
       <c r="EK6">
-        <v>0.8443090028467288</v>
+        <v>0.8447550014705657</v>
       </c>
       <c r="EL6">
-        <v>0.8560009484031137</v>
+        <v>0.8564592881658341</v>
       </c>
       <c r="EM6">
-        <v>0.8560042261516697</v>
+        <v>0.8564592881658341</v>
       </c>
       <c r="EN6">
-        <v>0.8575887903270744</v>
+        <v>0.8580337786036957</v>
       </c>
       <c r="EO6">
-        <v>0.8576683471308603</v>
+        <v>0.8580999240542907</v>
       </c>
       <c r="EP6">
-        <v>0.8608939624843577</v>
+        <v>0.8613191049866991</v>
       </c>
       <c r="EQ6">
-        <v>0.8683854834408569</v>
+        <v>0.8688136519098529</v>
       </c>
       <c r="ER6">
-        <v>0.8684130283681677</v>
+        <v>0.8688276701385891</v>
       </c>
       <c r="ES6">
-        <v>0.868498686942244</v>
+        <v>0.8688999308912114</v>
       </c>
       <c r="ET6">
-        <v>0.887465140844801</v>
+        <v>0.8878948584203357</v>
       </c>
       <c r="EU6">
-        <v>0.8950522765058502</v>
+        <v>0.8954852320902794</v>
       </c>
       <c r="EV6">
-        <v>0.9004874650644946</v>
+        <v>0.9009188863407802</v>
       </c>
       <c r="EW6">
-        <v>0.9005785847788307</v>
+        <v>0.900996620344691</v>
       </c>
       <c r="EX6">
-        <v>0.9049941985889566</v>
+        <v>0.9054084387623098</v>
       </c>
       <c r="EY6">
-        <v>0.9058107187278124</v>
+        <v>0.9062131818923675</v>
       </c>
       <c r="EZ6">
-        <v>0.9243016676077416</v>
+        <v>0.9247315498837605</v>
       </c>
       <c r="FA6">
-        <v>0.9260875036927242</v>
+        <v>0.9265077585866716</v>
       </c>
       <c r="FB6">
-        <v>0.9267182698227405</v>
+        <v>0.9271263357660626</v>
       </c>
       <c r="FC6">
-        <v>0.9347386782044078</v>
+        <v>0.9351509430142518</v>
       </c>
       <c r="FD6">
-        <v>0.9347960822201395</v>
+        <v>0.9351948865491315</v>
       </c>
       <c r="FE6">
-        <v>0.9438774046522926</v>
+        <v>0.9442827606092631</v>
       </c>
       <c r="FF6">
-        <v>0.9441441510249863</v>
+        <v>0.9445365107541972</v>
       </c>
       <c r="FG6">
-        <v>0.9444237702382925</v>
+        <v>0.9448031622875073</v>
       </c>
       <c r="FH6">
-        <v>0.9452629867382283</v>
+        <v>0.9456306521117739</v>
       </c>
       <c r="FI6">
-        <v>0.945418568125632</v>
+        <v>0.9457729907437256</v>
       </c>
       <c r="FJ6">
-        <v>0.9466819840857542</v>
+        <v>0.9470256207642724</v>
       </c>
       <c r="FK6">
-        <v>0.9475878306688608</v>
+        <v>0.9479198884355097</v>
       </c>
       <c r="FL6">
-        <v>0.9532984285406111</v>
+        <v>0.9536295627671766</v>
       </c>
       <c r="FM6">
-        <v>0.9549990453215383</v>
+        <v>0.9553203631774013</v>
       </c>
       <c r="FN6">
-        <v>0.9602516445714939</v>
+        <v>0.9605710231956591</v>
       </c>
       <c r="FO6">
-        <v>0.9632622690147605</v>
+        <v>0.9635747364380949</v>
       </c>
       <c r="FP6">
-        <v>0.9637858019396739</v>
+        <v>0.9640858426040971</v>
       </c>
       <c r="FQ6">
-        <v>0.9638114590648948</v>
+        <v>0.9640979688442139</v>
       </c>
       <c r="FR6">
-        <v>0.9644388569447508</v>
+        <v>0.9647131703037641</v>
       </c>
       <c r="FS6">
-        <v>0.9645264226789179</v>
+        <v>0.9647873424459366</v>
       </c>
       <c r="FT6">
-        <v>0.965019900202401</v>
+        <v>0.9652683265574277</v>
       </c>
       <c r="FU6">
-        <v>0.9692605921042029</v>
+        <v>0.9695048351469625</v>
       </c>
       <c r="FV6">
-        <v>0.9709428395842561</v>
+        <v>0.9711772255191931</v>
       </c>
       <c r="FW6">
-        <v>0.9711892112359802</v>
+        <v>0.9714105557586696</v>
       </c>
       <c r="FX6">
-        <v>0.9712058575327723</v>
+        <v>0.9714136511872782</v>
       </c>
       <c r="FY6">
-        <v>0.9718625169340208</v>
+        <v>0.9720581790607347</v>
       </c>
       <c r="FZ6">
-        <v>0.9719276971071226</v>
+        <v>0.9721099159979661</v>
       </c>
       <c r="GA6">
-        <v>0.9721495715176809</v>
+        <v>0.9723186946693833</v>
       </c>
       <c r="GB6">
-        <v>0.9726345124907578</v>
+        <v>0.9727911232991826</v>
       </c>
       <c r="GC6">
-        <v>0.974612535284886</v>
+        <v>0.9747599449186983</v>
       </c>
       <c r="GD6">
-        <v>0.9755359510288286</v>
+        <v>0.9756718207134421</v>
       </c>
       <c r="GE6">
-        <v>0.9755422025911261</v>
+        <v>0.9756718207134421</v>
       </c>
       <c r="GF6">
-        <v>0.9755494029704688</v>
+        <v>0.9756718207134421</v>
       </c>
       <c r="GG6">
-        <v>0.9759534532696963</v>
+        <v>0.9760631792802517</v>
       </c>
       <c r="GH6">
-        <v>0.9771025103243764</v>
+        <v>0.9772011967845906</v>
       </c>
       <c r="GI6">
-        <v>0.984999212700157</v>
+        <v>0.9851018236873059</v>
       </c>
       <c r="GJ6">
-        <v>0.9875179819200177</v>
+        <v>0.9876125909318179</v>
       </c>
       <c r="GK6">
-        <v>0.9891734903987984</v>
+        <v>0.9892581830043893</v>
       </c>
       <c r="GL6">
-        <v>0.9893936199092738</v>
+        <v>0.9894652129061039</v>
       </c>
       <c r="GM6">
-        <v>0.9898490777309477</v>
+        <v>0.9899080930004833</v>
       </c>
       <c r="GN6">
-        <v>0.9898717012180243</v>
+        <v>0.9899171788748354</v>
       </c>
       <c r="GO6">
-        <v>0.990702868457577</v>
+        <v>0.9907366015880839</v>
       </c>
       <c r="GP6">
-        <v>0.9944393979353874</v>
+        <v>0.9944678296857511</v>
       </c>
       <c r="GQ6">
-        <v>0.9964090680291181</v>
+        <v>0.9964282800813031</v>
       </c>
       <c r="GR6">
-        <v>0.9983727827225655</v>
+        <v>0.9983827618694358</v>
       </c>
       <c r="GS6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GT6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GU6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GV6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GW6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GX6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GY6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="GZ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HA6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HB6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HC6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HD6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HE6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HF6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HG6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HH6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HI6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HJ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HK6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HL6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HM6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HN6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HO6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HP6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HQ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HR6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HS6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HT6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HU6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HV6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HW6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HX6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HY6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="HZ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IA6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IB6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IC6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="ID6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IE6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IF6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IG6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IH6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="II6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IJ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IK6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IL6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IM6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IN6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IO6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IP6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IQ6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IR6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IS6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IT6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IU6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IV6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="IW6">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -10567,19 +10567,19 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>105</v>
       </c>
       <c r="E2">
-        <v>0.0008811094389498533</v>
+        <v>0.0008426429040598789</v>
       </c>
       <c r="F2">
-        <v>0.5233027866330675</v>
+        <v>0.523304727513703</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H2">
         <v>60</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>108</v>
       </c>
       <c r="E3">
-        <v>0.001690534676770143</v>
+        <v>0.06133876988936337</v>
       </c>
       <c r="F3">
-        <v>0.5045341708139084</v>
+        <v>0.5045312164084066</v>
       </c>
       <c r="G3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>60</v>
@@ -10649,19 +10649,19 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>106</v>
       </c>
       <c r="E4">
-        <v>0.00145005778202023</v>
+        <v>0.0009450156384022643</v>
       </c>
       <c r="F4">
-        <v>0.522159434952752</v>
+        <v>0.522249088070093</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>60</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D5">
         <v>106</v>
       </c>
       <c r="E5">
-        <v>0.001811627857055639</v>
+        <v>0.08013078150854093</v>
       </c>
       <c r="F5">
-        <v>0.5275693895061894</v>
+        <v>0.5276011706363192</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>60</v>
@@ -10731,19 +10731,19 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>103</v>
       </c>
       <c r="E6">
-        <v>0.001517425660188766</v>
+        <v>0.0008230096454631385</v>
       </c>
       <c r="F6">
-        <v>0.504779487860931</v>
+        <v>0.5049633531084365</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>60</v>
@@ -10826,19 +10826,19 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>113</v>
       </c>
       <c r="E2">
-        <v>0.0008811094389498533</v>
+        <v>0.0008426429040598789</v>
       </c>
       <c r="F2">
-        <v>0.7054513971958609</v>
+        <v>0.7054729783950195</v>
       </c>
       <c r="G2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H2">
         <v>60</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>120</v>
       </c>
       <c r="E3">
-        <v>0.001690534676770143</v>
+        <v>0.06133876988936337</v>
       </c>
       <c r="F3">
-        <v>0.7001338597292641</v>
+        <v>0.700155186482365</v>
       </c>
       <c r="G3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H3">
         <v>60</v>
@@ -10908,19 +10908,19 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>114</v>
       </c>
       <c r="E4">
-        <v>0.00145005778202023</v>
+        <v>0.0009450156384022643</v>
       </c>
       <c r="F4">
-        <v>0.704730782057396</v>
+        <v>0.7050139130643663</v>
       </c>
       <c r="G4">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H4">
         <v>60</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D5">
         <v>114</v>
       </c>
       <c r="E5">
-        <v>0.001811627857055639</v>
+        <v>0.08013078150854093</v>
       </c>
       <c r="F5">
-        <v>0.7019261986816629</v>
+        <v>0.7020489597363215</v>
       </c>
       <c r="G5">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H5">
         <v>60</v>
@@ -10990,19 +10990,19 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>112</v>
       </c>
       <c r="E6">
-        <v>0.001517425660188766</v>
+        <v>0.0008230096454631385</v>
       </c>
       <c r="F6">
-        <v>0.7205051936266745</v>
+        <v>0.7210451780947715</v>
       </c>
       <c r="G6">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H6">
         <v>60</v>
@@ -11085,19 +11085,19 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>131</v>
       </c>
       <c r="E2">
-        <v>0.0008811094389498533</v>
+        <v>0.0008426429040598789</v>
       </c>
       <c r="F2">
-        <v>0.8037849166647205</v>
+        <v>0.8038077211474605</v>
       </c>
       <c r="G2">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H2">
         <v>60</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>133</v>
       </c>
       <c r="E3">
-        <v>0.001690534676770143</v>
+        <v>0.06133876988936337</v>
       </c>
       <c r="F3">
-        <v>0.8014266399786447</v>
+        <v>0.8014540114028613</v>
       </c>
       <c r="G3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H3">
         <v>60</v>
@@ -11167,19 +11167,19 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
         <v>130</v>
       </c>
       <c r="E4">
-        <v>0.00145005778202023</v>
+        <v>0.0009450156384022643</v>
       </c>
       <c r="F4">
-        <v>0.8019911113335224</v>
+        <v>0.8022808125062503</v>
       </c>
       <c r="G4">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H4">
         <v>60</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D5">
         <v>134</v>
       </c>
       <c r="E5">
-        <v>0.001811627857055639</v>
+        <v>0.08013078150854093</v>
       </c>
       <c r="F5">
-        <v>0.80285893826605</v>
+        <v>0.8029727952473895</v>
       </c>
       <c r="G5">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H5">
         <v>60</v>
@@ -11249,19 +11249,19 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>130</v>
       </c>
       <c r="E6">
-        <v>0.001517425660188766</v>
+        <v>0.0008230096454631385</v>
       </c>
       <c r="F6">
-        <v>0.8014440915249155</v>
+        <v>0.80193090759382</v>
       </c>
       <c r="G6">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H6">
         <v>60</v>
@@ -11344,19 +11344,19 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>155</v>
       </c>
       <c r="E2">
-        <v>0.0008811094389498533</v>
+        <v>0.0008426429040598789</v>
       </c>
       <c r="F2">
-        <v>0.9129766909147694</v>
+        <v>0.9129971229836139</v>
       </c>
       <c r="G2">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H2">
         <v>60</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>156</v>
       </c>
       <c r="E3">
-        <v>0.001690534676770143</v>
+        <v>0.06133876988936337</v>
       </c>
       <c r="F3">
-        <v>0.9171268881490492</v>
+        <v>0.91715332082317</v>
       </c>
       <c r="G3">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H3">
         <v>60</v>
@@ -11426,19 +11426,19 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D4">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E4">
-        <v>0.00145005778202023</v>
+        <v>0.0009450156384022643</v>
       </c>
       <c r="F4">
-        <v>0.9007125231010288</v>
+        <v>0.900198969408065</v>
       </c>
       <c r="G4">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H4">
         <v>60</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D5">
         <v>154</v>
       </c>
       <c r="E5">
-        <v>0.001811627857055639</v>
+        <v>0.08013078150854093</v>
       </c>
       <c r="F5">
-        <v>0.900228942302676</v>
+        <v>0.90033144095337</v>
       </c>
       <c r="G5">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H5">
         <v>60</v>
@@ -11508,19 +11508,19 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>151</v>
       </c>
       <c r="E6">
-        <v>0.001517425660188766</v>
+        <v>0.0008230096454631385</v>
       </c>
       <c r="F6">
-        <v>0.9004874650644946</v>
+        <v>0.9009188863407802</v>
       </c>
       <c r="G6">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H6">
         <v>60</v>

--- a/on_trucks/Processed_Stand_Alone/60_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/60_11R22.xlsx
@@ -1994,10 +1994,10 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>3.501797420626913E-06</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>2.984268097210071E-06</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2009,88 +2009,88 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>5.19819044284421E-07</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>2.810480243635546E-06</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.033359218686143E-05</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1.598868865774199E-05</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>2.360022029156641E-05</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>2.187139602463141E-05</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>2.65665799792007E-05</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>2.589265153896131E-05</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>3.170442996629985E-05</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>2.408276891300008E-05</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>2.489754809120662E-05</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1.832048342130102E-05</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>7.610743623397427E-06</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>2.453314392581961E-06</v>
+        <v>0</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>3.381568872528236E-07</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>1.534944797843478E-06</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>5.660228890106619E-06</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>7.406714031929389E-06</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>1.096967582375988E-05</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>1.71781183371948E-05</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>2.773331947898953E-05</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>2.309230311513747E-05</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>1.596348712615238E-05</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>1.108094891689548E-05</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>8.358909466815712E-06</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>5.256504014554058E-06</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>1.343552977355925E-06</v>
+        <v>0</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -2099,91 +2099,91 @@
         <v>0</v>
       </c>
       <c r="AK2">
-        <v>2.570264281229213E-06</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>6.09321296586583E-06</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>7.239992668609897E-06</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>5.113600688949745E-06</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>7.148620864320072E-06</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.295570663405806E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>1.693041762592122E-05</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>1.430818816260693E-05</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.520202041883179E-05</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>8.377510073391771E-06</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>6.611442587418202E-06</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>7.989916758418154E-06</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>5.841204150880746E-06</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>4.577161815663406E-06</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>7.082396484037547E-07</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>1.214136541722478E-06</v>
+        <v>0</v>
       </c>
       <c r="BA2">
         <v>0</v>
       </c>
       <c r="BB2">
-        <v>5.6745892024736E-08</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>1.390611371833579E-06</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>3.501797420626913E-06</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>4.053013464696235E-06</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>7.971715207763368E-06</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>1.233969330969134E-05</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>1.305312628585651E-05</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>1.50482488702207E-05</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>1.415880322870939E-05</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>9.36373927756386E-06</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>2.618228002573877E-06</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>1.2055360364999E-06</v>
+        <v>0</v>
       </c>
       <c r="BN2">
         <v>0</v>
@@ -2192,52 +2192,52 @@
         <v>0</v>
       </c>
       <c r="BP2">
-        <v>1.169083628280758E-06</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>5.271605630802858E-06</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>8.673733084285792E-06</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>1.295570663405806E-05</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>1.74801276589473E-05</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>2.264933003958049E-05</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>2.392139329880141E-05</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>2.408276891300008E-05</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>2.457005719862152E-05</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>2.440710136298021E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>2.392139329880141E-05</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>1.520202041883179E-05</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>1.022590309596614E-05</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>4.9577004420358E-06</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>1.214136541722478E-06</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>1.82454428055648E-07</v>
+        <v>0</v>
       </c>
       <c r="CF2">
         <v>0</v>
@@ -2246,352 +2246,352 @@
         <v>0</v>
       </c>
       <c r="CH2">
-        <v>2.050268712207687E-06</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>4.488532095632619E-06</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>8.955491068138759E-06</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>9.467117764397273E-06</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>1.009843873388443E-05</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>1.846238630670973E-05</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.1003069799021795</v>
+        <v>0.1968887438701195</v>
       </c>
       <c r="CO2">
-        <v>0.0001681570856128943</v>
+        <v>0</v>
       </c>
       <c r="CP2">
-        <v>0.2215298073331264</v>
+        <v>0.5363797567925712</v>
       </c>
       <c r="CQ2">
-        <v>0.002483052751034938</v>
+        <v>0</v>
       </c>
       <c r="CR2">
-        <v>0.01296091675527281</v>
+        <v>0</v>
       </c>
       <c r="CS2">
-        <v>0.001827805628682003</v>
+        <v>0</v>
       </c>
       <c r="CT2">
-        <v>0.000797799239841075</v>
+        <v>0</v>
       </c>
       <c r="CU2">
-        <v>0.00198966571077106</v>
+        <v>0</v>
       </c>
       <c r="CV2">
-        <v>0.03211675713842602</v>
+        <v>0.005918377247864542</v>
       </c>
       <c r="CW2">
-        <v>0.01120036304196586</v>
+        <v>0</v>
       </c>
       <c r="CX2">
-        <v>0.07233570017688597</v>
+        <v>0.1185536787019159</v>
       </c>
       <c r="CY2">
-        <v>0.001261369951825758</v>
+        <v>0</v>
       </c>
       <c r="CZ2">
-        <v>0.01365708431196693</v>
+        <v>0</v>
       </c>
       <c r="DA2">
-        <v>0.006087877009217266</v>
+        <v>0</v>
       </c>
       <c r="DB2">
-        <v>0.04372028618652787</v>
+        <v>0.0384146810670372</v>
       </c>
       <c r="DC2">
-        <v>0.03964108855254115</v>
+        <v>0.02699066988018476</v>
       </c>
       <c r="DD2">
-        <v>0.01137271469427986</v>
+        <v>0</v>
       </c>
       <c r="DE2">
-        <v>0.005894496510048358</v>
+        <v>0</v>
       </c>
       <c r="DF2">
-        <v>0.03263048412900703</v>
+        <v>0.007357097166332844</v>
       </c>
       <c r="DG2">
-        <v>0.003699981484038147</v>
+        <v>0</v>
       </c>
       <c r="DH2">
-        <v>0.01258323982992182</v>
+        <v>0</v>
       </c>
       <c r="DI2">
-        <v>0.05100918160807262</v>
+        <v>0.05882762260773525</v>
       </c>
       <c r="DJ2">
-        <v>0.02533706407340753</v>
+        <v>0</v>
       </c>
       <c r="DK2">
-        <v>0.003660611466963016</v>
+        <v>0</v>
       </c>
       <c r="DL2">
-        <v>0.00137324762968419</v>
+        <v>0</v>
       </c>
       <c r="DM2">
-        <v>0.0005458143782126687</v>
+        <v>0</v>
       </c>
       <c r="DN2">
-        <v>0.004546898665869358</v>
+        <v>0</v>
       </c>
       <c r="DO2">
-        <v>0.003295233665136515</v>
+        <v>0</v>
       </c>
       <c r="DP2">
         <v>0</v>
       </c>
       <c r="DQ2">
-        <v>0.003853521800245732</v>
+        <v>0</v>
       </c>
       <c r="DR2">
-        <v>0.004623800942487437</v>
+        <v>0</v>
       </c>
       <c r="DS2">
-        <v>0.001636099864200244</v>
+        <v>0</v>
       </c>
       <c r="DT2">
-        <v>0.0007705304685610492</v>
+        <v>0</v>
       </c>
       <c r="DU2">
-        <v>0.002806329153026914</v>
+        <v>0</v>
       </c>
       <c r="DV2">
-        <v>0.00113447997023424</v>
+        <v>0</v>
       </c>
       <c r="DW2">
-        <v>0.002901670813628297</v>
+        <v>0</v>
       </c>
       <c r="DX2">
-        <v>0.018247985653004</v>
+        <v>0</v>
       </c>
       <c r="DY2">
-        <v>0.001452767673140218</v>
+        <v>0</v>
       </c>
       <c r="DZ2">
-        <v>0.0003576208759180057</v>
+        <v>0</v>
       </c>
       <c r="EA2">
-        <v>0.03381320586844987</v>
+        <v>0.01066937266623881</v>
       </c>
       <c r="EB2">
-        <v>0.01331492386367938</v>
+        <v>0</v>
       </c>
       <c r="EC2">
-        <v>0.001263676275019887</v>
+        <v>0</v>
       </c>
       <c r="ED2">
-        <v>0.001800162554949504</v>
+        <v>0</v>
       </c>
       <c r="EE2">
-        <v>0.002381925079617132</v>
+        <v>0</v>
       </c>
       <c r="EF2">
-        <v>0.004395437941083086</v>
+        <v>0</v>
       </c>
       <c r="EG2">
-        <v>0.01219390727122115</v>
+        <v>0</v>
       </c>
       <c r="EH2">
-        <v>0.0006864538865793802</v>
+        <v>0</v>
       </c>
       <c r="EI2">
-        <v>0.008876635408885497</v>
+        <v>0</v>
       </c>
       <c r="EJ2">
-        <v>0.003050356549544479</v>
+        <v>0</v>
       </c>
       <c r="EK2">
-        <v>0.004053450317014066</v>
+        <v>0</v>
       </c>
       <c r="EL2">
-        <v>0.009391349537798075</v>
+        <v>0</v>
       </c>
       <c r="EM2">
-        <v>0.0052692928978105</v>
+        <v>0</v>
       </c>
       <c r="EN2">
-        <v>0.0005773561382833973</v>
+        <v>0</v>
       </c>
       <c r="EO2">
-        <v>0.0002274202103873427</v>
+        <v>0</v>
       </c>
       <c r="EP2">
-        <v>0.0006655140922037469</v>
+        <v>0</v>
       </c>
       <c r="EQ2">
-        <v>0.00922914780783256</v>
+        <v>0</v>
       </c>
       <c r="ER2">
-        <v>0.0007236792031091991</v>
+        <v>0</v>
       </c>
       <c r="ES2">
-        <v>0.0005003858521348755</v>
+        <v>0</v>
       </c>
       <c r="ET2">
-        <v>0.004542940111141536</v>
+        <v>0</v>
       </c>
       <c r="EU2">
-        <v>0.02008924667614327</v>
+        <v>0</v>
       </c>
       <c r="EV2">
-        <v>0.0001779120426133344</v>
+        <v>0</v>
       </c>
       <c r="EW2">
-        <v>0.005325973540691618</v>
+        <v>0</v>
       </c>
       <c r="EX2">
-        <v>0.0004961748220266862</v>
+        <v>0</v>
       </c>
       <c r="EY2">
-        <v>0.0002731221847845232</v>
+        <v>0</v>
       </c>
       <c r="EZ2">
-        <v>0.01299788143527861</v>
+        <v>0</v>
       </c>
       <c r="FA2">
-        <v>0.01127259216371639</v>
+        <v>0</v>
       </c>
       <c r="FB2">
-        <v>0.000145762057309615</v>
+        <v>0</v>
       </c>
       <c r="FC2">
-        <v>0.002650407403099668</v>
+        <v>0</v>
       </c>
       <c r="FD2">
-        <v>0.004885553622918658</v>
+        <v>0</v>
       </c>
       <c r="FE2">
-        <v>0.006497568820940032</v>
+        <v>0</v>
       </c>
       <c r="FF2">
-        <v>0.003361108196393322</v>
+        <v>0</v>
       </c>
       <c r="FG2">
-        <v>9.215087456400287E-05</v>
+        <v>0</v>
       </c>
       <c r="FH2">
-        <v>0.003056076151054704</v>
+        <v>0</v>
       </c>
       <c r="FI2">
-        <v>0.0009354718824492343</v>
+        <v>0</v>
       </c>
       <c r="FJ2">
-        <v>0.0004759953742014016</v>
+        <v>0</v>
       </c>
       <c r="FK2">
-        <v>2.373003948363969E-05</v>
+        <v>0</v>
       </c>
       <c r="FL2">
-        <v>0.007088444822715002</v>
+        <v>0</v>
       </c>
       <c r="FM2">
-        <v>0.0005843983851411099</v>
+        <v>0</v>
       </c>
       <c r="FN2">
-        <v>0.004403637990188175</v>
+        <v>0</v>
       </c>
       <c r="FO2">
-        <v>0.003447839450384607</v>
+        <v>0</v>
       </c>
       <c r="FP2">
-        <v>0.001286855823261026</v>
+        <v>0</v>
       </c>
       <c r="FQ2">
-        <v>7.872922263520054E-07</v>
+        <v>0</v>
       </c>
       <c r="FR2">
-        <v>0.0006705483576751411</v>
+        <v>0</v>
       </c>
       <c r="FS2">
-        <v>0.0001876645892760043</v>
+        <v>0</v>
       </c>
       <c r="FT2">
-        <v>0.0001213479660671156</v>
+        <v>0</v>
       </c>
       <c r="FU2">
-        <v>0.00294058756718583</v>
+        <v>0</v>
       </c>
       <c r="FV2">
-        <v>0.002751913427537567</v>
+        <v>0</v>
       </c>
       <c r="FW2">
-        <v>8.974692758947113E-06</v>
+        <v>0</v>
       </c>
       <c r="FX2">
-        <v>0.0008125362249926882</v>
+        <v>0</v>
       </c>
       <c r="FY2">
-        <v>5.816703227470113E-05</v>
+        <v>0</v>
       </c>
       <c r="FZ2">
-        <v>0.0002073009609979014</v>
+        <v>0</v>
       </c>
       <c r="GA2">
         <v>0</v>
       </c>
       <c r="GB2">
-        <v>0.0001997934389393473</v>
+        <v>0</v>
       </c>
       <c r="GC2">
-        <v>0.002534755596357732</v>
+        <v>0</v>
       </c>
       <c r="GD2">
-        <v>0.003499475486345142</v>
+        <v>0</v>
       </c>
       <c r="GE2">
-        <v>0.0009602639866641763</v>
+        <v>0</v>
       </c>
       <c r="GF2">
-        <v>2.050268712207687E-06</v>
+        <v>0</v>
       </c>
       <c r="GG2">
-        <v>4.745152866909253E-05</v>
+        <v>0</v>
       </c>
       <c r="GH2">
-        <v>8.85474495018954E-06</v>
+        <v>0</v>
       </c>
       <c r="GI2">
-        <v>0.005150296822423062</v>
+        <v>0</v>
       </c>
       <c r="GJ2">
-        <v>0.007364258473565237</v>
+        <v>0</v>
       </c>
       <c r="GK2">
-        <v>3.093474010663663E-05</v>
+        <v>0</v>
       </c>
       <c r="GL2">
-        <v>0.00165188977690273</v>
+        <v>0</v>
       </c>
       <c r="GM2">
-        <v>0.0004413619408823574</v>
+        <v>0</v>
       </c>
       <c r="GN2">
-        <v>0.0001282543738891707</v>
+        <v>0</v>
       </c>
       <c r="GO2">
-        <v>0.0004064747720063529</v>
+        <v>0</v>
       </c>
       <c r="GP2">
-        <v>0.0009332991179712139</v>
+        <v>0</v>
       </c>
       <c r="GQ2">
-        <v>0.001899248040187738</v>
+        <v>0</v>
       </c>
       <c r="GR2">
-        <v>0.002175943114555312</v>
+        <v>0</v>
       </c>
       <c r="GS2">
-        <v>0.001600849624445691</v>
+        <v>0</v>
       </c>
       <c r="GT2">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>2.682175186687399E-05</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2776,31 +2776,31 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>3.597139950988638E-05</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>2.84862336958089E-05</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.391092241066686E-05</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>5.537671835022939E-05</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1.191023500990545E-05</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>2.659594071239807E-07</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1.513524162934979E-05</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>9.225149770278418E-06</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -2812,34 +2812,34 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.167784845122686E-05</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>1.792990663713463E-06</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>8.489495544449497E-06</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>2.874779359721869E-05</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>1.011982611901124E-05</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>1.559245236175117E-05</v>
+        <v>0</v>
       </c>
       <c r="X3">
         <v>0</v>
       </c>
       <c r="Y3">
-        <v>4.597429941533063E-05</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>7.722949661201631E-06</v>
+        <v>0</v>
       </c>
       <c r="AA3">
         <v>0</v>
@@ -2848,523 +2848,523 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>6.98881471360943E-06</v>
+        <v>0</v>
       </c>
       <c r="AD3">
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>5.080208256315935E-05</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>2.349792915050299E-05</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>3.715990536980261E-07</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>2.32189050507447E-05</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>8.609794955775274E-05</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>4.506779540050937E-05</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>2.047485971331651E-06</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>3.841754949152283E-05</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>4.468473524785507E-05</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>2.400837783276602E-06</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>1.033748598068029E-05</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>5.120995626010254E-05</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>1.2319426948268E-05</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>2.231814928864369E-06</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>7.012763099455417E-06</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>1.513524162934979E-05</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>8.085143992542915E-06</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>2.008621533798197E-05</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>5.643310501417478E-07</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>1.140774698553689E-05</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>6.440229247073497E-06</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>3.748228320925363E-05</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>3.191177904140143E-05</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>4.052199989517457E-05</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>3.871992486777403E-05</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>5.053782716810377E-05</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>7.50436451007744E-05</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>3.422180209310092E-05</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>1.011982611901124E-05</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>9.470403185360097E-06</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>5.994842880156097E-07</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
         <v>0</v>
       </c>
       <c r="BK3">
-        <v>8.682249044831394E-07</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>2.012516747157586E-05</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>1.712260458990738E-05</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>6.853783984427865E-06</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>1.664458604681689E-05</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>1.435052791889262E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>1.446142822889108E-05</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>3.393711495622852E-05</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>2.146442894048781E-06</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>2.939639458033992E-06</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>5.161943825158467E-05</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>8.256128806263346E-06</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>1.518448084689386E-06</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>1.859507525440991E-05</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>1.263052492195334E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
         <v>0</v>
       </c>
       <c r="CA3">
-        <v>1.748532101686392E-05</v>
+        <v>0</v>
       </c>
       <c r="CB3">
         <v>0</v>
       </c>
       <c r="CC3">
-        <v>3.997717511736153E-05</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>7.068785359228446E-06</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>8.505177616423959E-08</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>4.107042733276949E-05</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>4.481862976895439E-05</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>1.906071052966047E-05</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>1.906071052966047E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>2.545228306586868E-05</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>5.300282260104784E-05</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>3.294632370525891E-07</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>3.683601985423962E-05</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.05968817707152634</v>
+        <v>0.09032102152651071</v>
       </c>
       <c r="CO3">
-        <v>0.006858628403422341</v>
+        <v>0</v>
       </c>
       <c r="CP3">
-        <v>0.202661982927789</v>
+        <v>0.5253599307983583</v>
       </c>
       <c r="CQ3">
-        <v>0.004829636018958776</v>
+        <v>0</v>
       </c>
       <c r="CR3">
-        <v>0.004202029480706356</v>
+        <v>0</v>
       </c>
       <c r="CS3">
-        <v>0.0008148978000939561</v>
+        <v>0</v>
       </c>
       <c r="CT3">
-        <v>0.0005768119376594904</v>
+        <v>0</v>
       </c>
       <c r="CU3">
-        <v>0.0008716053553702483</v>
+        <v>0</v>
       </c>
       <c r="CV3">
-        <v>0.03138414954448805</v>
+        <v>0.004197880370555222</v>
       </c>
       <c r="CW3">
-        <v>0.0003597145089929771</v>
+        <v>0</v>
       </c>
       <c r="CX3">
-        <v>0.07051314152776489</v>
+        <v>0.1232590880607608</v>
       </c>
       <c r="CY3">
-        <v>0.0178788892257367</v>
+        <v>0</v>
       </c>
       <c r="CZ3">
-        <v>0.004353765269209657</v>
+        <v>0</v>
       </c>
       <c r="DA3">
-        <v>0.005734996224305713</v>
+        <v>0</v>
       </c>
       <c r="DB3">
-        <v>0.01593487620417579</v>
+        <v>0</v>
       </c>
       <c r="DC3">
-        <v>0.0536383911292387</v>
+        <v>0.07191280848427752</v>
       </c>
       <c r="DD3">
-        <v>0.0002546716217078981</v>
+        <v>0</v>
       </c>
       <c r="DE3">
-        <v>0.02232425933942273</v>
+        <v>0</v>
       </c>
       <c r="DF3">
-        <v>0.02629192996844981</v>
+        <v>0</v>
       </c>
       <c r="DG3">
-        <v>0.002957949343059395</v>
+        <v>0</v>
       </c>
       <c r="DH3">
-        <v>0.04323526592755974</v>
+        <v>0.04025830916076636</v>
       </c>
       <c r="DI3">
-        <v>0.01958718507865965</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>0.07755664145628437</v>
+        <v>0.1446909615987711</v>
       </c>
       <c r="DK3">
-        <v>0.001838755376745681</v>
+        <v>0</v>
       </c>
       <c r="DL3">
-        <v>0.01351892425292922</v>
+        <v>0</v>
       </c>
       <c r="DM3">
-        <v>0.0004989156419315936</v>
+        <v>0</v>
       </c>
       <c r="DN3">
-        <v>0.0004830415147846444</v>
+        <v>0</v>
       </c>
       <c r="DO3">
-        <v>0.008765476218642635</v>
+        <v>0</v>
       </c>
       <c r="DP3">
-        <v>0.0003399529899190365</v>
+        <v>0</v>
       </c>
       <c r="DQ3">
-        <v>0.0005499323049924751</v>
+        <v>0</v>
       </c>
       <c r="DR3">
-        <v>0.003991974511777864</v>
+        <v>0</v>
       </c>
       <c r="DS3">
-        <v>0.003247385249609293</v>
+        <v>0</v>
       </c>
       <c r="DT3">
-        <v>0.0002222963225786161</v>
+        <v>0</v>
       </c>
       <c r="DU3">
-        <v>0.001148925443060142</v>
+        <v>0</v>
       </c>
       <c r="DV3">
-        <v>0.0009130327422756788</v>
+        <v>0</v>
       </c>
       <c r="DW3">
-        <v>0.005526949123092966</v>
+        <v>0</v>
       </c>
       <c r="DX3">
-        <v>0.02158777046073762</v>
+        <v>0</v>
       </c>
       <c r="DY3">
-        <v>0.009815734060171187</v>
+        <v>0</v>
       </c>
       <c r="DZ3">
-        <v>0.008174523993167085</v>
+        <v>0</v>
       </c>
       <c r="EA3">
-        <v>0.01566816135870278</v>
+        <v>0</v>
       </c>
       <c r="EB3">
-        <v>0.02615906863656611</v>
+        <v>0</v>
       </c>
       <c r="EC3">
-        <v>0.0004518208971207657</v>
+        <v>0</v>
       </c>
       <c r="ED3">
-        <v>0.004391182121636084</v>
+        <v>0</v>
       </c>
       <c r="EE3">
-        <v>0.00343213478416541</v>
+        <v>0</v>
       </c>
       <c r="EF3">
-        <v>0.0007942632911428874</v>
+        <v>0</v>
       </c>
       <c r="EG3">
-        <v>0.01130928808582642</v>
+        <v>0</v>
       </c>
       <c r="EH3">
-        <v>0.0003251267946876517</v>
+        <v>0</v>
       </c>
       <c r="EI3">
-        <v>0.00746666335738499</v>
+        <v>0</v>
       </c>
       <c r="EJ3">
-        <v>0.001758356152637897</v>
+        <v>0</v>
       </c>
       <c r="EK3">
-        <v>0.001479652511567584</v>
+        <v>0</v>
       </c>
       <c r="EL3">
-        <v>0.004400560839230382</v>
+        <v>0</v>
       </c>
       <c r="EM3">
-        <v>0.008970614787194166</v>
+        <v>0</v>
       </c>
       <c r="EN3">
-        <v>5.595148261108261E-05</v>
+        <v>0</v>
       </c>
       <c r="EO3">
-        <v>0.0008046679966339766</v>
+        <v>0</v>
       </c>
       <c r="EP3">
-        <v>0.0002584395617587791</v>
+        <v>0</v>
       </c>
       <c r="EQ3">
-        <v>0.01036990905035815</v>
+        <v>0</v>
       </c>
       <c r="ER3">
-        <v>0.002893671171319812</v>
+        <v>0</v>
       </c>
       <c r="ES3">
-        <v>0.001506991318326565</v>
+        <v>0</v>
       </c>
       <c r="ET3">
-        <v>0.001620327374401315</v>
+        <v>0</v>
       </c>
       <c r="EU3">
-        <v>0.0242197604766415</v>
+        <v>0</v>
       </c>
       <c r="EV3">
-        <v>0.0007878940246917585</v>
+        <v>0</v>
       </c>
       <c r="EW3">
-        <v>0.007025991153807378</v>
+        <v>0</v>
       </c>
       <c r="EX3">
-        <v>0.0001471335674643392</v>
+        <v>0</v>
       </c>
       <c r="EY3">
-        <v>0.003083907410696983</v>
+        <v>0</v>
       </c>
       <c r="EZ3">
-        <v>0.004494903516906503</v>
+        <v>0</v>
       </c>
       <c r="FA3">
-        <v>0.01849310071085343</v>
+        <v>0</v>
       </c>
       <c r="FB3">
         <v>0</v>
       </c>
       <c r="FC3">
-        <v>0.001199349977680139</v>
+        <v>0</v>
       </c>
       <c r="FD3">
-        <v>0.00925145121885828</v>
+        <v>0</v>
       </c>
       <c r="FE3">
-        <v>0.003666915081227107</v>
+        <v>0</v>
       </c>
       <c r="FF3">
-        <v>0.007164925697923601</v>
+        <v>0</v>
       </c>
       <c r="FG3">
-        <v>1.170803898024295E-05</v>
+        <v>0</v>
       </c>
       <c r="FH3">
-        <v>0.001571716671961894</v>
+        <v>0</v>
       </c>
       <c r="FI3">
-        <v>0.002582868251669913</v>
+        <v>0</v>
       </c>
       <c r="FJ3">
-        <v>0.00100055957171483</v>
+        <v>0</v>
       </c>
       <c r="FK3">
-        <v>0.001166257617230085</v>
+        <v>0</v>
       </c>
       <c r="FL3">
-        <v>0.004204413617331025</v>
+        <v>0</v>
       </c>
       <c r="FM3">
-        <v>0.003770433239277184</v>
+        <v>0</v>
       </c>
       <c r="FN3">
-        <v>0.003276472476569468</v>
+        <v>0</v>
       </c>
       <c r="FO3">
-        <v>0.00540562890481922</v>
+        <v>0</v>
       </c>
       <c r="FP3">
-        <v>0.002148046519532642</v>
+        <v>0</v>
       </c>
       <c r="FQ3">
-        <v>6.230892689713056E-05</v>
+        <v>0</v>
       </c>
       <c r="FR3">
-        <v>3.444028510551969E-05</v>
+        <v>0</v>
       </c>
       <c r="FS3">
-        <v>6.883735449662421E-05</v>
+        <v>0</v>
       </c>
       <c r="FT3">
-        <v>8.787544508372638E-05</v>
+        <v>0</v>
       </c>
       <c r="FU3">
-        <v>0.00212620111882196</v>
+        <v>0</v>
       </c>
       <c r="FV3">
-        <v>0.002945651490862271</v>
+        <v>0</v>
       </c>
       <c r="FW3">
-        <v>1.2319426948268E-05</v>
+        <v>0</v>
       </c>
       <c r="FX3">
-        <v>0.0004274766687811989</v>
+        <v>0</v>
       </c>
       <c r="FY3">
-        <v>4.858739597113467E-05</v>
+        <v>0</v>
       </c>
       <c r="FZ3">
-        <v>0.0009945698747770883</v>
+        <v>0</v>
       </c>
       <c r="GA3">
-        <v>7.437920741736047E-05</v>
+        <v>0</v>
       </c>
       <c r="GB3">
-        <v>5.161943825158467E-05</v>
+        <v>0</v>
       </c>
       <c r="GC3">
-        <v>0.000819753259310309</v>
+        <v>0</v>
       </c>
       <c r="GD3">
-        <v>0.003183211597011078</v>
+        <v>0</v>
       </c>
       <c r="GE3">
-        <v>0.0008157060481144264</v>
+        <v>0</v>
       </c>
       <c r="GF3">
-        <v>9.497832208641103E-06</v>
+        <v>0</v>
       </c>
       <c r="GG3">
-        <v>0.0001602531701547412</v>
+        <v>0</v>
       </c>
       <c r="GH3">
-        <v>0.0002000540491856894</v>
+        <v>0</v>
       </c>
       <c r="GI3">
-        <v>0.002807565302111675</v>
+        <v>0</v>
       </c>
       <c r="GJ3">
-        <v>0.009304043850538013</v>
+        <v>0</v>
       </c>
       <c r="GK3">
-        <v>9.96030490470502E-06</v>
+        <v>0</v>
       </c>
       <c r="GL3">
-        <v>0.003310571221326164</v>
+        <v>0</v>
       </c>
       <c r="GM3">
-        <v>0.0004460006912231788</v>
+        <v>0</v>
       </c>
       <c r="GN3">
-        <v>0.0003005754784225331</v>
+        <v>0</v>
       </c>
       <c r="GO3">
-        <v>0.00127600441597745</v>
+        <v>0</v>
       </c>
       <c r="GP3">
-        <v>0.0005686808785581722</v>
+        <v>0</v>
       </c>
       <c r="GQ3">
-        <v>0.002415553310040448</v>
+        <v>0</v>
       </c>
       <c r="GR3">
-        <v>0.002542333328207949</v>
+        <v>0</v>
       </c>
       <c r="GS3">
-        <v>0.001321900921345778</v>
+        <v>0</v>
       </c>
       <c r="GT3">
         <v>0</v>
@@ -3540,7 +3540,7 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>2.093229054872003E-05</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -3549,16 +3549,16 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>2.995627517517321E-05</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.879778329654427E-06</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1.185683387616606E-05</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -3567,10 +3567,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.79096492700376E-05</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>2.995627517517321E-05</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -3579,10 +3579,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.544823735864382E-05</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.01695365822275E-05</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -3591,13 +3591,13 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>7.336256713038709E-06</v>
+        <v>0</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1.251195731657749E-05</v>
+        <v>0</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -3621,16 +3621,16 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>2.137737082750596E-05</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>2.288493956948314E-05</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>1.851250251615682E-05</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>9.270028577706251E-06</v>
+        <v>0</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -3645,10 +3645,10 @@
         <v>0</v>
       </c>
       <c r="AK4">
-        <v>3.86713123593478E-05</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>5.654547257592573E-05</v>
+        <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
@@ -3657,13 +3657,13 @@
         <v>0</v>
       </c>
       <c r="AO4">
-        <v>2.978763357255582E-05</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>6.290879866091747E-07</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>3.232089584566797E-07</v>
+        <v>0</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="AT4">
-        <v>1.739116839942011E-05</v>
+        <v>0</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -3684,28 +3684,28 @@
         <v>0</v>
       </c>
       <c r="AX4">
-        <v>3.434197530835787E-05</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>9.030210582922464E-07</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
         <v>0</v>
       </c>
       <c r="BA4">
-        <v>2.72515432310717E-06</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>3.592572163706597E-06</v>
+        <v>0</v>
       </c>
       <c r="BC4">
         <v>0</v>
       </c>
       <c r="BD4">
-        <v>4.563834191356359E-05</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>1.198012023212199E-05</v>
+        <v>0</v>
       </c>
       <c r="BF4">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="BJ4">
-        <v>1.650572462727054E-06</v>
+        <v>0</v>
       </c>
       <c r="BK4">
         <v>0</v>
@@ -3729,25 +3729,25 @@
         <v>0</v>
       </c>
       <c r="BM4">
-        <v>2.019786502677566E-05</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>5.643900140978416E-06</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>3.287956553067637E-05</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>2.894996653053927E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>1.235219148236727E-05</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>5.329686522941516E-05</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>3.59094201863008E-05</v>
+        <v>0</v>
       </c>
       <c r="BT4">
         <v>0</v>
@@ -3756,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="BV4">
-        <v>2.191392469738387E-07</v>
+        <v>0</v>
       </c>
       <c r="BW4">
         <v>0</v>
@@ -3765,10 +3765,10 @@
         <v>0</v>
       </c>
       <c r="BY4">
-        <v>4.365831550853837E-06</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>2.478667334514223E-05</v>
+        <v>0</v>
       </c>
       <c r="CA4">
         <v>0</v>
@@ -3777,28 +3777,28 @@
         <v>0</v>
       </c>
       <c r="CC4">
-        <v>7.534224303118769E-05</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>3.398642282149703E-05</v>
+        <v>0</v>
       </c>
       <c r="CE4">
         <v>0</v>
       </c>
       <c r="CF4">
-        <v>4.670036370541582E-05</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>4.267882644572913E-06</v>
+        <v>0</v>
       </c>
       <c r="CH4">
         <v>0</v>
       </c>
       <c r="CI4">
-        <v>6.685516378027754E-05</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>2.30805709988343E-05</v>
+        <v>0</v>
       </c>
       <c r="CK4">
         <v>0</v>
@@ -3807,337 +3807,337 @@
         <v>0</v>
       </c>
       <c r="CM4">
-        <v>6.720401763068623E-06</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.134841118149081</v>
+        <v>0.3131823334883829</v>
       </c>
       <c r="CO4">
-        <v>0.0382252224962049</v>
+        <v>0.02447538131806621</v>
       </c>
       <c r="CP4">
-        <v>0.1413470273497531</v>
+        <v>0.3326232464326802</v>
       </c>
       <c r="CQ4">
-        <v>0.002212652722082837</v>
+        <v>0</v>
       </c>
       <c r="CR4">
-        <v>0.006617598741807336</v>
+        <v>0</v>
       </c>
       <c r="CS4">
-        <v>2.181226845784735E-06</v>
+        <v>0</v>
       </c>
       <c r="CT4">
-        <v>0.0004006867836706439</v>
+        <v>0</v>
       </c>
       <c r="CU4">
-        <v>0.001059313163302594</v>
+        <v>0</v>
       </c>
       <c r="CV4">
-        <v>0.03526865126385696</v>
+        <v>0.01564057557934611</v>
       </c>
       <c r="CW4">
-        <v>0.01686248071359252</v>
+        <v>0</v>
       </c>
       <c r="CX4">
-        <v>0.06224720678321134</v>
+        <v>0.09625770887110398</v>
       </c>
       <c r="CY4">
-        <v>0.001821965491461343</v>
+        <v>0</v>
       </c>
       <c r="CZ4">
-        <v>0.00946424884500313</v>
+        <v>0</v>
       </c>
       <c r="DA4">
-        <v>0.001520629699067932</v>
+        <v>0</v>
       </c>
       <c r="DB4">
-        <v>0.04299568213256486</v>
+        <v>0.03873043585912508</v>
       </c>
       <c r="DC4">
-        <v>0.02641068646842126</v>
+        <v>0</v>
       </c>
       <c r="DD4">
-        <v>0.0185610221830558</v>
+        <v>0</v>
       </c>
       <c r="DE4">
-        <v>0.002284905062074644</v>
+        <v>0</v>
       </c>
       <c r="DF4">
-        <v>0.04028597402991488</v>
+        <v>0.03063330481975662</v>
       </c>
       <c r="DG4">
-        <v>0.01103640349828384</v>
+        <v>0</v>
       </c>
       <c r="DH4">
-        <v>0.0122916792994039</v>
+        <v>0</v>
       </c>
       <c r="DI4">
-        <v>0.06820869279344344</v>
+        <v>0.1140717801974598</v>
       </c>
       <c r="DJ4">
-        <v>0.01933766343524998</v>
+        <v>0</v>
       </c>
       <c r="DK4">
-        <v>0.01075848469284691</v>
+        <v>0</v>
       </c>
       <c r="DL4">
-        <v>0.002657898739294963</v>
+        <v>0</v>
       </c>
       <c r="DM4">
-        <v>0.001351143781845548</v>
+        <v>0</v>
       </c>
       <c r="DN4">
-        <v>0.00670854196993536</v>
+        <v>0</v>
       </c>
       <c r="DO4">
-        <v>0.002843314773092596</v>
+        <v>0</v>
       </c>
       <c r="DP4">
         <v>0</v>
       </c>
       <c r="DQ4">
-        <v>0.002161752098012177</v>
+        <v>0</v>
       </c>
       <c r="DR4">
-        <v>0.004550975761615219</v>
+        <v>0</v>
       </c>
       <c r="DS4">
-        <v>0.0007266485622495966</v>
+        <v>0</v>
       </c>
       <c r="DT4">
-        <v>0.0002213917052910239</v>
+        <v>0</v>
       </c>
       <c r="DU4">
-        <v>0.002108941225917523</v>
+        <v>0</v>
       </c>
       <c r="DV4">
-        <v>0.001275401020641248</v>
+        <v>0</v>
       </c>
       <c r="DW4">
-        <v>0.0003527295438619627</v>
+        <v>0</v>
       </c>
       <c r="DX4">
-        <v>0.03247507551178865</v>
+        <v>0.007292831809167303</v>
       </c>
       <c r="DY4">
-        <v>3.891083893490485E-05</v>
+        <v>0</v>
       </c>
       <c r="DZ4">
-        <v>0.000693164533156249</v>
+        <v>0</v>
       </c>
       <c r="EA4">
-        <v>0.0391010093762468</v>
+        <v>0.02709240162491178</v>
       </c>
       <c r="EB4">
-        <v>0.006839868191794856</v>
+        <v>0</v>
       </c>
       <c r="EC4">
-        <v>0.004591406924641554</v>
+        <v>0</v>
       </c>
       <c r="ED4">
-        <v>0.003031966862179737</v>
+        <v>0</v>
       </c>
       <c r="EE4">
-        <v>0.0005920572333075783</v>
+        <v>0</v>
       </c>
       <c r="EF4">
-        <v>0.00493983015557432</v>
+        <v>0</v>
       </c>
       <c r="EG4">
-        <v>0.007575525786160685</v>
+        <v>0</v>
       </c>
       <c r="EH4">
-        <v>0.001401960184758243</v>
+        <v>0</v>
       </c>
       <c r="EI4">
-        <v>0.0062170985946262</v>
+        <v>0</v>
       </c>
       <c r="EJ4">
-        <v>0.001710995453381106</v>
+        <v>0</v>
       </c>
       <c r="EK4">
-        <v>0.003285622863894242</v>
+        <v>0</v>
       </c>
       <c r="EL4">
-        <v>0.00785542243686493</v>
+        <v>0</v>
       </c>
       <c r="EM4">
-        <v>0.004174025492563706</v>
+        <v>0</v>
       </c>
       <c r="EN4">
-        <v>0.0004567253189822288</v>
+        <v>0</v>
       </c>
       <c r="EO4">
-        <v>5.720515156981615E-05</v>
+        <v>0</v>
       </c>
       <c r="EP4">
-        <v>0.001346141385552255</v>
+        <v>0</v>
       </c>
       <c r="EQ4">
-        <v>0.009994042990549611</v>
+        <v>0</v>
       </c>
       <c r="ER4">
         <v>0</v>
       </c>
       <c r="ES4">
-        <v>0.0005160835899633399</v>
+        <v>0</v>
       </c>
       <c r="ET4">
-        <v>0.007948943974069009</v>
+        <v>0</v>
       </c>
       <c r="EU4">
-        <v>0.0178780827273812</v>
+        <v>0</v>
       </c>
       <c r="EV4">
-        <v>0.001170589041354798</v>
+        <v>0</v>
       </c>
       <c r="EW4">
-        <v>0.004963316942943517</v>
+        <v>0</v>
       </c>
       <c r="EX4">
-        <v>0.001371245599701822</v>
+        <v>0</v>
       </c>
       <c r="EY4">
-        <v>0.0007449648514993894</v>
+        <v>0</v>
       </c>
       <c r="EZ4">
-        <v>0.01469371229011054</v>
+        <v>0</v>
       </c>
       <c r="FA4">
-        <v>0.006827020008794362</v>
+        <v>0</v>
       </c>
       <c r="FB4">
-        <v>0.0004410417170353347</v>
+        <v>0</v>
       </c>
       <c r="FC4">
-        <v>0.006650798902536394</v>
+        <v>0</v>
       </c>
       <c r="FD4">
-        <v>0.001779227409772846</v>
+        <v>0</v>
       </c>
       <c r="FE4">
-        <v>0.009958766242505974</v>
+        <v>0</v>
       </c>
       <c r="FF4">
-        <v>0.002162663308852037</v>
+        <v>0</v>
       </c>
       <c r="FG4">
         <v>0</v>
       </c>
       <c r="FH4">
-        <v>0.003691298957031874</v>
+        <v>0</v>
       </c>
       <c r="FI4">
-        <v>0.000466738083036324</v>
+        <v>0</v>
       </c>
       <c r="FJ4">
-        <v>0.001450304831879157</v>
+        <v>0</v>
       </c>
       <c r="FK4">
-        <v>2.817098591300616E-06</v>
+        <v>0</v>
       </c>
       <c r="FL4">
-        <v>0.008134115355917881</v>
+        <v>0</v>
       </c>
       <c r="FM4">
-        <v>6.35221690366556E-05</v>
+        <v>0</v>
       </c>
       <c r="FN4">
-        <v>0.005333791596373769</v>
+        <v>0</v>
       </c>
       <c r="FO4">
-        <v>0.003668671105301041</v>
+        <v>0</v>
       </c>
       <c r="FP4">
-        <v>0.0009692480584156276</v>
+        <v>0</v>
       </c>
       <c r="FQ4">
-        <v>9.616967673608051E-06</v>
+        <v>0</v>
       </c>
       <c r="FR4">
-        <v>0.0001675963569591648</v>
+        <v>0</v>
       </c>
       <c r="FS4">
         <v>0</v>
       </c>
       <c r="FT4">
-        <v>8.160870777443542E-05</v>
+        <v>0</v>
       </c>
       <c r="FU4">
-        <v>0.002924695244533269</v>
+        <v>0</v>
       </c>
       <c r="FV4">
-        <v>0.001422145422619968</v>
+        <v>0</v>
       </c>
       <c r="FW4">
         <v>0</v>
       </c>
       <c r="FX4">
-        <v>0.0001746165259581499</v>
+        <v>0</v>
       </c>
       <c r="FY4">
-        <v>0.0003479544846087355</v>
+        <v>0</v>
       </c>
       <c r="FZ4">
-        <v>0.0003061764239769736</v>
+        <v>0</v>
       </c>
       <c r="GA4">
-        <v>0.0001152301745814463</v>
+        <v>0</v>
       </c>
       <c r="GB4">
-        <v>1.683934956984128E-05</v>
+        <v>0</v>
       </c>
       <c r="GC4">
-        <v>0.002032170986614864</v>
+        <v>0</v>
       </c>
       <c r="GD4">
-        <v>0.002684609063945649</v>
+        <v>0</v>
       </c>
       <c r="GE4">
-        <v>0.000380609531153311</v>
+        <v>0</v>
       </c>
       <c r="GF4">
-        <v>4.306734335419198E-05</v>
+        <v>0</v>
       </c>
       <c r="GG4">
-        <v>3.816433603882187E-05</v>
+        <v>0</v>
       </c>
       <c r="GH4">
         <v>0</v>
       </c>
       <c r="GI4">
-        <v>0.006842115725026967</v>
+        <v>0</v>
       </c>
       <c r="GJ4">
-        <v>0.00485613375250571</v>
+        <v>0</v>
       </c>
       <c r="GK4">
-        <v>0.0008428399516050228</v>
+        <v>0</v>
       </c>
       <c r="GL4">
-        <v>0.0008302080797831299</v>
+        <v>0</v>
       </c>
       <c r="GM4">
-        <v>0.001236503263525446</v>
+        <v>0</v>
       </c>
       <c r="GN4">
         <v>0</v>
       </c>
       <c r="GO4">
-        <v>0.0008943111965533087</v>
+        <v>0</v>
       </c>
       <c r="GP4">
-        <v>0.0008651727789228191</v>
+        <v>0</v>
       </c>
       <c r="GQ4">
-        <v>0.002216494148240237</v>
+        <v>0</v>
       </c>
       <c r="GR4">
-        <v>0.001894712042409817</v>
+        <v>0</v>
       </c>
       <c r="GS4">
-        <v>0.001538736747310054</v>
+        <v>0</v>
       </c>
       <c r="GT4">
         <v>0</v>
@@ -4313,22 +4313,22 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>2.236123173722628E-05</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>7.384285269133741E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0001036282146238536</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>1.339891077073665E-05</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.4042287069544E-05</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -4337,22 +4337,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1.071804497069155E-05</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>3.734568086957087E-05</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>6.845689041272783E-05</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>5.381719858456647E-05</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -4361,52 +4361,52 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>7.37861436572376E-05</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>3.930380368941613E-06</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>1.123293137855174E-05</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.0001073639510149806</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>2.789776265560691E-05</v>
+        <v>0</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>1.967632065272118E-05</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>4.761772134536751E-05</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>1.045939343503963E-06</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>5.94408444661297E-06</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>5.575994081760893E-06</v>
+        <v>0</v>
       </c>
       <c r="AC5">
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>9.15689789815483E-06</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>9.564600529017854E-06</v>
+        <v>0</v>
       </c>
       <c r="AF5">
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>2.053032148064089E-05</v>
+        <v>0</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -4415,22 +4415,22 @@
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>7.212255357087732E-06</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>3.116931353743915E-05</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>2.17802118081805E-06</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>2.885137704977798E-05</v>
+        <v>0</v>
       </c>
       <c r="AN5">
         <v>0</v>
       </c>
       <c r="AO5">
-        <v>5.471962974817222E-05</v>
+        <v>0</v>
       </c>
       <c r="AP5">
         <v>0</v>
@@ -4442,34 +4442,34 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>5.143040069806038E-07</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>2.231322869565636E-06</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.0001361624486666832</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>2.758301800980947E-05</v>
+        <v>0</v>
       </c>
       <c r="AW5">
         <v>0</v>
       </c>
       <c r="AX5">
-        <v>3.989929457914864E-05</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>8.448580847645876E-05</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>1.211644802286974E-05</v>
+        <v>0</v>
       </c>
       <c r="BA5">
         <v>0</v>
       </c>
       <c r="BB5">
-        <v>3.129700342925498E-05</v>
+        <v>0</v>
       </c>
       <c r="BC5">
         <v>0</v>
@@ -4484,10 +4484,10 @@
         <v>0</v>
       </c>
       <c r="BG5">
-        <v>8.747731259582467E-07</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>2.039221742051951E-05</v>
+        <v>0</v>
       </c>
       <c r="BI5">
         <v>0</v>
@@ -4499,19 +4499,19 @@
         <v>0</v>
       </c>
       <c r="BL5">
-        <v>5.97489815638036E-05</v>
+        <v>0</v>
       </c>
       <c r="BM5">
         <v>0</v>
       </c>
       <c r="BN5">
-        <v>2.901167838878417E-05</v>
+        <v>0</v>
       </c>
       <c r="BO5">
         <v>0</v>
       </c>
       <c r="BP5">
-        <v>1.225450605130648E-05</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
         <v>0</v>
@@ -4526,46 +4526,46 @@
         <v>0</v>
       </c>
       <c r="BU5">
-        <v>7.683749897352449E-06</v>
+        <v>0</v>
       </c>
       <c r="BV5">
         <v>0</v>
       </c>
       <c r="BW5">
-        <v>3.260808487601401E-07</v>
+        <v>0</v>
       </c>
       <c r="BX5">
         <v>0</v>
       </c>
       <c r="BY5">
-        <v>1.167156279839376E-05</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>1.314032377951211E-05</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>1.491717782799733E-05</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>7.206994235739935E-05</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>4.523648828925893E-05</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>9.133647894656071E-06</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>2.09149071996151E-05</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>5.234356925245295E-06</v>
+        <v>0</v>
       </c>
       <c r="CG5">
         <v>0</v>
       </c>
       <c r="CH5">
-        <v>8.73256281880455E-06</v>
+        <v>0</v>
       </c>
       <c r="CI5">
         <v>0</v>
@@ -4574,343 +4574,343 @@
         <v>0</v>
       </c>
       <c r="CK5">
-        <v>2.218517255174102E-05</v>
+        <v>0</v>
       </c>
       <c r="CL5">
         <v>0</v>
       </c>
       <c r="CM5">
-        <v>1.171391294895203E-06</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.0785567273819895</v>
+        <v>0.1422929358197111</v>
       </c>
       <c r="CO5">
-        <v>0.002491968002455232</v>
+        <v>0</v>
       </c>
       <c r="CP5">
-        <v>0.2106358263875371</v>
+        <v>0.5294773062955647</v>
       </c>
       <c r="CQ5">
-        <v>0.003930241598422752</v>
+        <v>0</v>
       </c>
       <c r="CR5">
-        <v>0.01354738849628457</v>
+        <v>0</v>
       </c>
       <c r="CS5">
-        <v>0.002280094865424034</v>
+        <v>0</v>
       </c>
       <c r="CT5">
         <v>0</v>
       </c>
       <c r="CU5">
-        <v>1.351550302379886E-05</v>
+        <v>0</v>
       </c>
       <c r="CV5">
-        <v>0.02759174304044371</v>
+        <v>0</v>
       </c>
       <c r="CW5">
-        <v>0.001893053856418645</v>
+        <v>0</v>
       </c>
       <c r="CX5">
-        <v>0.08320138040081267</v>
+        <v>0.1559085424426506</v>
       </c>
       <c r="CY5">
-        <v>0.00479642751361127</v>
+        <v>0</v>
       </c>
       <c r="CZ5">
-        <v>0.006114482760593443</v>
+        <v>0</v>
       </c>
       <c r="DA5">
-        <v>0.01069737626896068</v>
+        <v>0</v>
       </c>
       <c r="DB5">
-        <v>0.02216470749018024</v>
+        <v>0</v>
       </c>
       <c r="DC5">
-        <v>0.05811218294361024</v>
+        <v>0.08236060642286228</v>
       </c>
       <c r="DD5">
-        <v>0.004470793772605422</v>
+        <v>0</v>
       </c>
       <c r="DE5">
-        <v>0.01764283798600347</v>
+        <v>0</v>
       </c>
       <c r="DF5">
-        <v>0.03728687241539316</v>
+        <v>0.02131207711321562</v>
       </c>
       <c r="DG5">
         <v>0</v>
       </c>
       <c r="DH5">
-        <v>0.02810155895817184</v>
+        <v>0</v>
       </c>
       <c r="DI5">
-        <v>0.03712502501219631</v>
+        <v>0.0208376282004676</v>
       </c>
       <c r="DJ5">
-        <v>0.04632634148465186</v>
+        <v>0.04781090370552813</v>
       </c>
       <c r="DK5">
-        <v>0.003494359470980344</v>
+        <v>0</v>
       </c>
       <c r="DL5">
-        <v>0.004568606699436288</v>
+        <v>0</v>
       </c>
       <c r="DM5">
-        <v>0.0009121342674697244</v>
+        <v>0</v>
       </c>
       <c r="DN5">
-        <v>0.001425441788546736</v>
+        <v>0</v>
       </c>
       <c r="DO5">
-        <v>0.005691106641316886</v>
+        <v>0</v>
       </c>
       <c r="DP5">
-        <v>4.882945741047273E-05</v>
+        <v>0</v>
       </c>
       <c r="DQ5">
-        <v>0.001579531551986173</v>
+        <v>0</v>
       </c>
       <c r="DR5">
-        <v>0.004461444937592648</v>
+        <v>0</v>
       </c>
       <c r="DS5">
-        <v>0.001871191107798525</v>
+        <v>0</v>
       </c>
       <c r="DT5">
-        <v>0.0002482609585847231</v>
+        <v>0</v>
       </c>
       <c r="DU5">
-        <v>0.001820671033698676</v>
+        <v>0</v>
       </c>
       <c r="DV5">
-        <v>0.001348267067455666</v>
+        <v>0</v>
       </c>
       <c r="DW5">
-        <v>0.004854735648407935</v>
+        <v>0</v>
       </c>
       <c r="DX5">
-        <v>0.01872051477510291</v>
+        <v>0</v>
       </c>
       <c r="DY5">
-        <v>0.00354710927985664</v>
+        <v>0</v>
       </c>
       <c r="DZ5">
-        <v>0.003316376761490371</v>
+        <v>0</v>
       </c>
       <c r="EA5">
-        <v>0.02208981894271374</v>
+        <v>0</v>
       </c>
       <c r="EB5">
-        <v>0.01682685332546423</v>
+        <v>0</v>
       </c>
       <c r="EC5">
-        <v>0.002028151447119712</v>
+        <v>0</v>
       </c>
       <c r="ED5">
-        <v>0.002246801548887703</v>
+        <v>0</v>
       </c>
       <c r="EE5">
-        <v>0.003317988270728315</v>
+        <v>0</v>
       </c>
       <c r="EF5">
-        <v>0.001403081997801376</v>
+        <v>0</v>
       </c>
       <c r="EG5">
-        <v>0.01371973662736787</v>
+        <v>0</v>
       </c>
       <c r="EH5">
-        <v>4.606944263040987E-05</v>
+        <v>0</v>
       </c>
       <c r="EI5">
-        <v>0.009367237704760313</v>
+        <v>0</v>
       </c>
       <c r="EJ5">
-        <v>0.002751273788442322</v>
+        <v>0</v>
       </c>
       <c r="EK5">
-        <v>0.001865140543059139</v>
+        <v>0</v>
       </c>
       <c r="EL5">
-        <v>0.007350429990786495</v>
+        <v>0</v>
       </c>
       <c r="EM5">
-        <v>0.008505406487007689</v>
+        <v>0</v>
       </c>
       <c r="EN5">
-        <v>0.0005843040145554764</v>
+        <v>0</v>
       </c>
       <c r="EO5">
-        <v>0.001031772517159718</v>
+        <v>0</v>
       </c>
       <c r="EP5">
-        <v>0.0003521395905764663</v>
+        <v>0</v>
       </c>
       <c r="EQ5">
-        <v>0.00976881511949973</v>
+        <v>0</v>
       </c>
       <c r="ER5">
-        <v>0.002571919334750056</v>
+        <v>0</v>
       </c>
       <c r="ES5">
-        <v>0.0004007866654489485</v>
+        <v>0</v>
       </c>
       <c r="ET5">
-        <v>0.003114503507602975</v>
+        <v>0</v>
       </c>
       <c r="EU5">
-        <v>0.02499822686510399</v>
+        <v>0</v>
       </c>
       <c r="EV5">
-        <v>0.0001244992506259396</v>
+        <v>0</v>
       </c>
       <c r="EW5">
-        <v>0.006630261782860144</v>
+        <v>0</v>
       </c>
       <c r="EX5">
-        <v>0.0003521395905764663</v>
+        <v>0</v>
       </c>
       <c r="EY5">
-        <v>0.002420900885364952</v>
+        <v>0</v>
       </c>
       <c r="EZ5">
-        <v>0.008330877354692328</v>
+        <v>0</v>
       </c>
       <c r="FA5">
-        <v>0.0151689671652442</v>
+        <v>0</v>
       </c>
       <c r="FB5">
-        <v>5.749159275246574E-06</v>
+        <v>0</v>
       </c>
       <c r="FC5">
-        <v>0.002240172285817279</v>
+        <v>0</v>
       </c>
       <c r="FD5">
-        <v>0.006864649717331284</v>
+        <v>0</v>
       </c>
       <c r="FE5">
-        <v>0.006363668280574508</v>
+        <v>0</v>
       </c>
       <c r="FF5">
-        <v>0.004632694812721755</v>
+        <v>0</v>
       </c>
       <c r="FG5">
         <v>0</v>
       </c>
       <c r="FH5">
-        <v>0.001998969760710595</v>
+        <v>0</v>
       </c>
       <c r="FI5">
-        <v>0.0007157335804728345</v>
+        <v>0</v>
       </c>
       <c r="FJ5">
-        <v>0.001122072372575058</v>
+        <v>0</v>
       </c>
       <c r="FK5">
-        <v>0.0003554349788661208</v>
+        <v>0</v>
       </c>
       <c r="FL5">
-        <v>0.005614895283330243</v>
+        <v>0</v>
       </c>
       <c r="FM5">
-        <v>0.001527405172230121</v>
+        <v>0</v>
       </c>
       <c r="FN5">
-        <v>0.004192754491933867</v>
+        <v>0</v>
       </c>
       <c r="FO5">
-        <v>0.004318699182488521</v>
+        <v>0</v>
       </c>
       <c r="FP5">
-        <v>0.001918720323223283</v>
+        <v>0</v>
       </c>
       <c r="FQ5">
-        <v>4.162478227101876E-05</v>
+        <v>0</v>
       </c>
       <c r="FR5">
-        <v>0.0002354460177736044</v>
+        <v>0</v>
       </c>
       <c r="FS5">
-        <v>0.0001388231000526938</v>
+        <v>0</v>
       </c>
       <c r="FT5">
-        <v>4.83513463158853E-06</v>
+        <v>0</v>
       </c>
       <c r="FU5">
-        <v>0.002285136535718751</v>
+        <v>0</v>
       </c>
       <c r="FV5">
-        <v>0.003235921182110972</v>
+        <v>0</v>
       </c>
       <c r="FW5">
-        <v>0.0001624492624700717</v>
+        <v>0</v>
       </c>
       <c r="FX5">
-        <v>0.0003289046774647588</v>
+        <v>0</v>
       </c>
       <c r="FY5">
-        <v>0.0001348414994277014</v>
+        <v>0</v>
       </c>
       <c r="FZ5">
-        <v>0.0004764798267491921</v>
+        <v>0</v>
       </c>
       <c r="GA5">
-        <v>7.566854435584886E-06</v>
+        <v>0</v>
       </c>
       <c r="GB5">
         <v>0</v>
       </c>
       <c r="GC5">
-        <v>0.00126824138398326</v>
+        <v>0</v>
       </c>
       <c r="GD5">
-        <v>0.002823676424800463</v>
+        <v>0</v>
       </c>
       <c r="GE5">
-        <v>0.0005919460747568762</v>
+        <v>0</v>
       </c>
       <c r="GF5">
-        <v>1.134200295496357E-05</v>
+        <v>0</v>
       </c>
       <c r="GG5">
-        <v>2.396208964362041E-05</v>
+        <v>0</v>
       </c>
       <c r="GH5">
-        <v>0.0001122038974586473</v>
+        <v>0</v>
       </c>
       <c r="GI5">
-        <v>0.004281580132614147</v>
+        <v>0</v>
       </c>
       <c r="GJ5">
-        <v>0.007748465767737206</v>
+        <v>0</v>
       </c>
       <c r="GK5">
         <v>0</v>
       </c>
       <c r="GL5">
-        <v>0.002430868446260626</v>
+        <v>0</v>
       </c>
       <c r="GM5">
-        <v>0.0003812076988071761</v>
+        <v>0</v>
       </c>
       <c r="GN5">
-        <v>0.0001157782877916646</v>
+        <v>0</v>
       </c>
       <c r="GO5">
-        <v>0.0006258680239951926</v>
+        <v>0</v>
       </c>
       <c r="GP5">
-        <v>0.0007670582383857647</v>
+        <v>0</v>
       </c>
       <c r="GQ5">
-        <v>0.002771864561533162</v>
+        <v>0</v>
       </c>
       <c r="GR5">
-        <v>0.001933464471951471</v>
+        <v>0</v>
       </c>
       <c r="GS5">
-        <v>0.001357538749362228</v>
+        <v>0</v>
       </c>
       <c r="GT5">
         <v>0</v>
@@ -5092,16 +5092,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.575505185750226E-06</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5.879158285172646E-05</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>1.841912109344386E-05</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -5110,16 +5110,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1.93383411566895E-05</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>3.760883135757782E-06</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>1.364792833015547E-05</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>8.958020435181181E-06</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -5128,10 +5128,10 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>2.207284610818553E-05</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>7.026538424283165E-07</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -5140,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>1.226277023259253E-05</v>
+        <v>0</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -5149,34 +5149,34 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>2.452201366102259E-05</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>1.756841864695627E-05</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>4.367501469444808E-06</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>6.002519761203475E-05</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>8.490210558825169E-05</v>
+        <v>0</v>
       </c>
       <c r="AC6">
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>4.481616985884593E-06</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.0001434721702613982</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>3.798786007772713E-05</v>
+        <v>0</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -5194,16 +5194,16 @@
         <v>0</v>
       </c>
       <c r="AL6">
-        <v>2.802328632703607E-05</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>1.113118223856554E-05</v>
+        <v>0</v>
       </c>
       <c r="AN6">
         <v>0</v>
       </c>
       <c r="AO6">
-        <v>3.87305936090618E-06</v>
+        <v>0</v>
       </c>
       <c r="AP6">
         <v>0</v>
@@ -5242,7 +5242,7 @@
         <v>0</v>
       </c>
       <c r="BB6">
-        <v>1.86278630005083E-05</v>
+        <v>0</v>
       </c>
       <c r="BC6">
         <v>0</v>
@@ -5254,19 +5254,19 @@
         <v>0</v>
       </c>
       <c r="BF6">
-        <v>1.786931246909062E-05</v>
+        <v>0</v>
       </c>
       <c r="BG6">
         <v>0</v>
       </c>
       <c r="BH6">
-        <v>1.350778521948454E-05</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>3.914653400789931E-06</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>7.902073821477697E-06</v>
+        <v>0</v>
       </c>
       <c r="BK6">
         <v>0</v>
@@ -5278,7 +5278,7 @@
         <v>0</v>
       </c>
       <c r="BN6">
-        <v>1.691600998778496E-05</v>
+        <v>0</v>
       </c>
       <c r="BO6">
         <v>0</v>
@@ -5290,19 +5290,19 @@
         <v>0</v>
       </c>
       <c r="BR6">
-        <v>2.042720761589589E-05</v>
+        <v>0</v>
       </c>
       <c r="BS6">
         <v>0</v>
       </c>
       <c r="BT6">
-        <v>2.161100113104344E-06</v>
+        <v>0</v>
       </c>
       <c r="BU6">
         <v>0</v>
       </c>
       <c r="BV6">
-        <v>6.192458760926791E-06</v>
+        <v>0</v>
       </c>
       <c r="BW6">
         <v>0</v>
@@ -5320,13 +5320,13 @@
         <v>0</v>
       </c>
       <c r="CB6">
-        <v>8.02690003870871E-06</v>
+        <v>0</v>
       </c>
       <c r="CC6">
         <v>0</v>
       </c>
       <c r="CD6">
-        <v>1.449637678898708E-05</v>
+        <v>0</v>
       </c>
       <c r="CE6">
         <v>0</v>
@@ -5335,310 +5335,310 @@
         <v>0</v>
       </c>
       <c r="CG6">
-        <v>3.64546203029201E-05</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>2.619997567927076E-05</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>8.830531325463753E-06</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>1.521335532931088E-05</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>1.091375811937848E-05</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>9.471598888896923E-06</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.004045241651330306</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.1314340414014339</v>
+        <v>0.2723896438799221</v>
       </c>
       <c r="CO6">
-        <v>0.1217008777182354</v>
+        <v>0.2462386846133184</v>
       </c>
       <c r="CP6">
-        <v>0.0900711890928384</v>
+        <v>0.1612563781628523</v>
       </c>
       <c r="CQ6">
-        <v>0.01408134067416208</v>
+        <v>0</v>
       </c>
       <c r="CR6">
-        <v>0.0136977298145894</v>
+        <v>0</v>
       </c>
       <c r="CS6">
-        <v>0.0003600641380519949</v>
+        <v>0</v>
       </c>
       <c r="CT6">
-        <v>0.001492012228906379</v>
+        <v>0</v>
       </c>
       <c r="CU6">
-        <v>0.006368365292404556</v>
+        <v>0</v>
       </c>
       <c r="CV6">
-        <v>0.008278180358378309</v>
+        <v>0</v>
       </c>
       <c r="CW6">
-        <v>0.06927058522038883</v>
+        <v>0.1053695398958484</v>
       </c>
       <c r="CX6">
-        <v>0.01906034328203378</v>
+        <v>0</v>
       </c>
       <c r="CY6">
-        <v>0.0005988775577878897</v>
+        <v>0</v>
       </c>
       <c r="CZ6">
-        <v>0.02368149503243227</v>
+        <v>0</v>
       </c>
       <c r="DA6">
-        <v>0.001493055737998157</v>
+        <v>0</v>
       </c>
       <c r="DB6">
-        <v>0.07254542583433309</v>
+        <v>0.1141683463566613</v>
       </c>
       <c r="DC6">
-        <v>0.002707647804618966</v>
+        <v>0</v>
       </c>
       <c r="DD6">
-        <v>0.03537566806504386</v>
+        <v>0.01430104184886437</v>
       </c>
       <c r="DE6">
-        <v>0.006552252600859261</v>
+        <v>0</v>
       </c>
       <c r="DF6">
-        <v>0.01326472766125856</v>
+        <v>0</v>
       </c>
       <c r="DG6">
-        <v>0.0228690702873875</v>
+        <v>0</v>
       </c>
       <c r="DH6">
-        <v>0.003355114027095983</v>
+        <v>0</v>
       </c>
       <c r="DI6">
-        <v>0.05791886296773964</v>
+        <v>0.07486985491189299</v>
       </c>
       <c r="DJ6">
-        <v>0.0004515377722122493</v>
+        <v>0</v>
       </c>
       <c r="DK6">
-        <v>0.002455188158318607</v>
+        <v>0</v>
       </c>
       <c r="DL6">
         <v>0</v>
       </c>
       <c r="DM6">
-        <v>0.0002301170492835214</v>
+        <v>0</v>
       </c>
       <c r="DN6">
-        <v>0.008698703898856937</v>
+        <v>0</v>
       </c>
       <c r="DO6">
-        <v>3.915296523901913E-05</v>
+        <v>0</v>
       </c>
       <c r="DP6">
-        <v>0.0001859906958603073</v>
+        <v>0</v>
       </c>
       <c r="DQ6">
-        <v>0.004643054099227863</v>
+        <v>0</v>
       </c>
       <c r="DR6">
-        <v>0.001908235954693827</v>
+        <v>0</v>
       </c>
       <c r="DS6">
-        <v>0.0004653413970698979</v>
+        <v>0</v>
       </c>
       <c r="DT6">
-        <v>0.0004553902971342567</v>
+        <v>0</v>
       </c>
       <c r="DU6">
-        <v>0.002271693017658383</v>
+        <v>0</v>
       </c>
       <c r="DV6">
-        <v>0.002627773557748081</v>
+        <v>0</v>
       </c>
       <c r="DW6">
-        <v>0.001383451704632363</v>
+        <v>0</v>
       </c>
       <c r="DX6">
-        <v>0.01360459572615228</v>
+        <v>0</v>
       </c>
       <c r="DY6">
-        <v>0.001504170132087667</v>
+        <v>0</v>
       </c>
       <c r="DZ6">
-        <v>0.005662984916664501</v>
+        <v>0</v>
       </c>
       <c r="EA6">
-        <v>0.03429834815620855</v>
+        <v>0.01140651033064012</v>
       </c>
       <c r="EB6">
-        <v>1.239965914232128E-05</v>
+        <v>0</v>
       </c>
       <c r="EC6">
-        <v>0.003360781267646574</v>
+        <v>0</v>
       </c>
       <c r="ED6">
-        <v>0.002597459177656137</v>
+        <v>0</v>
       </c>
       <c r="EE6">
-        <v>2.380009218289563E-05</v>
+        <v>0</v>
       </c>
       <c r="EF6">
-        <v>0.0127068110955372</v>
+        <v>0</v>
       </c>
       <c r="EG6">
-        <v>0.001177587264868544</v>
+        <v>0</v>
       </c>
       <c r="EH6">
-        <v>0.006797717368793163</v>
+        <v>0</v>
       </c>
       <c r="EI6">
-        <v>0.007082457445690019</v>
+        <v>0</v>
       </c>
       <c r="EJ6">
-        <v>0.002580998152465189</v>
+        <v>0</v>
       </c>
       <c r="EK6">
-        <v>0.00648408235276353</v>
+        <v>0</v>
       </c>
       <c r="EL6">
-        <v>0.01170428669526834</v>
+        <v>0</v>
       </c>
       <c r="EM6">
         <v>0</v>
       </c>
       <c r="EN6">
-        <v>0.001574490437861645</v>
+        <v>0</v>
       </c>
       <c r="EO6">
-        <v>6.614545059498782E-05</v>
+        <v>0</v>
       </c>
       <c r="EP6">
-        <v>0.00321918093240837</v>
+        <v>0</v>
       </c>
       <c r="EQ6">
-        <v>0.007494546923153905</v>
+        <v>0</v>
       </c>
       <c r="ER6">
-        <v>1.401822873616697E-05</v>
+        <v>0</v>
       </c>
       <c r="ES6">
-        <v>7.226075262239598E-05</v>
+        <v>0</v>
       </c>
       <c r="ET6">
-        <v>0.01899492752912422</v>
+        <v>0</v>
       </c>
       <c r="EU6">
-        <v>0.007590373669943774</v>
+        <v>0</v>
       </c>
       <c r="EV6">
-        <v>0.005433654250500746</v>
+        <v>0</v>
       </c>
       <c r="EW6">
-        <v>7.773400391078604E-05</v>
+        <v>0</v>
       </c>
       <c r="EX6">
-        <v>0.004411818417618802</v>
+        <v>0</v>
       </c>
       <c r="EY6">
-        <v>0.0008047431300577341</v>
+        <v>0</v>
       </c>
       <c r="EZ6">
-        <v>0.01851836799139292</v>
+        <v>0</v>
       </c>
       <c r="FA6">
-        <v>0.001776208702911014</v>
+        <v>0</v>
       </c>
       <c r="FB6">
-        <v>0.0006185771793910959</v>
+        <v>0</v>
       </c>
       <c r="FC6">
-        <v>0.008024607248189201</v>
+        <v>0</v>
       </c>
       <c r="FD6">
-        <v>4.394353487973783E-05</v>
+        <v>0</v>
       </c>
       <c r="FE6">
-        <v>0.009087874060131586</v>
+        <v>0</v>
       </c>
       <c r="FF6">
-        <v>0.0002537501449341124</v>
+        <v>0</v>
       </c>
       <c r="FG6">
-        <v>0.0002666515333100264</v>
+        <v>0</v>
       </c>
       <c r="FH6">
-        <v>0.0008274898242665925</v>
+        <v>0</v>
       </c>
       <c r="FI6">
-        <v>0.0001423386319516849</v>
+        <v>0</v>
       </c>
       <c r="FJ6">
-        <v>0.001252630020546918</v>
+        <v>0</v>
       </c>
       <c r="FK6">
-        <v>0.0008942676712372858</v>
+        <v>0</v>
       </c>
       <c r="FL6">
-        <v>0.005709674331666877</v>
+        <v>0</v>
       </c>
       <c r="FM6">
-        <v>0.001690800410224744</v>
+        <v>0</v>
       </c>
       <c r="FN6">
-        <v>0.005250660018257801</v>
+        <v>0</v>
       </c>
       <c r="FO6">
-        <v>0.003003713242435739</v>
+        <v>0</v>
       </c>
       <c r="FP6">
-        <v>0.0005111061660022819</v>
+        <v>0</v>
       </c>
       <c r="FQ6">
-        <v>1.212624011680814E-05</v>
+        <v>0</v>
       </c>
       <c r="FR6">
-        <v>0.0006152014595501616</v>
+        <v>0</v>
       </c>
       <c r="FS6">
-        <v>7.417214217241045E-05</v>
+        <v>0</v>
       </c>
       <c r="FT6">
-        <v>0.0004809841114911215</v>
+        <v>0</v>
       </c>
       <c r="FU6">
-        <v>0.004236508589534806</v>
+        <v>0</v>
       </c>
       <c r="FV6">
-        <v>0.001672390372230511</v>
+        <v>0</v>
       </c>
       <c r="FW6">
-        <v>0.0002333302394765363</v>
+        <v>0</v>
       </c>
       <c r="FX6">
-        <v>3.095428608503801E-06</v>
+        <v>0</v>
       </c>
       <c r="FY6">
-        <v>0.0006445278734564617</v>
+        <v>0</v>
       </c>
       <c r="FZ6">
-        <v>5.173693723143973E-05</v>
+        <v>0</v>
       </c>
       <c r="GA6">
-        <v>0.0002087786714171201</v>
+        <v>0</v>
       </c>
       <c r="GB6">
-        <v>0.0004724286297994039</v>
+        <v>0</v>
       </c>
       <c r="GC6">
-        <v>0.001968821619515685</v>
+        <v>0</v>
       </c>
       <c r="GD6">
-        <v>0.0009118757947437206</v>
+        <v>0</v>
       </c>
       <c r="GE6">
         <v>0</v>
@@ -5647,43 +5647,43 @@
         <v>0</v>
       </c>
       <c r="GG6">
-        <v>0.0003913585668095824</v>
+        <v>0</v>
       </c>
       <c r="GH6">
-        <v>0.001138017504338971</v>
+        <v>0</v>
       </c>
       <c r="GI6">
-        <v>0.007900626902715258</v>
+        <v>0</v>
       </c>
       <c r="GJ6">
-        <v>0.002510767244511982</v>
+        <v>0</v>
       </c>
       <c r="GK6">
-        <v>0.001645592072571418</v>
+        <v>0</v>
       </c>
       <c r="GL6">
-        <v>0.0002070299017146199</v>
+        <v>0</v>
       </c>
       <c r="GM6">
-        <v>0.0004428800943794555</v>
+        <v>0</v>
       </c>
       <c r="GN6">
-        <v>9.085874352149289E-06</v>
+        <v>0</v>
       </c>
       <c r="GO6">
-        <v>0.0008194227132484559</v>
+        <v>0</v>
       </c>
       <c r="GP6">
-        <v>0.003731228097667207</v>
+        <v>0</v>
       </c>
       <c r="GQ6">
-        <v>0.001960450395552092</v>
+        <v>0</v>
       </c>
       <c r="GR6">
-        <v>0.001954481788132601</v>
+        <v>0</v>
       </c>
       <c r="GS6">
-        <v>0.001617238130564786</v>
+        <v>0</v>
       </c>
       <c r="GT6">
         <v>0</v>
@@ -6645,601 +6645,601 @@
         <v>257</v>
       </c>
       <c r="B2">
-        <v>3.501797420626913E-06</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>6.486065517836984E-06</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>6.486065517836984E-06</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>6.486065517836984E-06</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>6.486065517836984E-06</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>7.005884562121405E-06</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>9.816364805756952E-06</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>2.014995699261838E-05</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>3.613864565036037E-05</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>5.973886594192678E-05</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>8.161026196655819E-05</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.0001081768419457589</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.0001340694934847202</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0001657739234510201</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0001898566923640201</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.0002147542404552267</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>0.0002330747238765278</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0002406854674999252</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>0.0002431387818925071</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.0002431387818925071</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>0.00024347693877976</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>0.0002450118835776034</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>0.0002506721124677101</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>0.0002580788264996395</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.0002690485023233993</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.0002862266206605941</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.0003139599401395837</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>0.0003370522432547212</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.0003530157303808735</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.000364096679297769</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.0003724555887645847</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.0003777120927791388</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.0003790556457564947</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.0003790556457564947</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>0.0003790556457564947</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.0003816259100377239</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.0003877191230035898</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.0003949591156721996</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.0004000727163611494</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.0004072213372254695</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.0004201770438595275</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.0004371074614854488</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>0.0004514156496480557</v>
+        <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.0004666176700668875</v>
+        <v>0</v>
       </c>
       <c r="AT2">
-        <v>0.0004749951801402793</v>
+        <v>0</v>
       </c>
       <c r="AU2">
-        <v>0.0004816066227276975</v>
+        <v>0</v>
       </c>
       <c r="AV2">
-        <v>0.0004895965394861156</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>0.0004954377436369964</v>
+        <v>0</v>
       </c>
       <c r="AX2">
-        <v>0.0005000149054526598</v>
+        <v>0</v>
       </c>
       <c r="AY2">
-        <v>0.0005007231451010636</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
-        <v>0.0005019372816427861</v>
+        <v>0</v>
       </c>
       <c r="BA2">
-        <v>0.0005019372816427861</v>
+        <v>0</v>
       </c>
       <c r="BB2">
-        <v>0.0005019940275348108</v>
+        <v>0</v>
       </c>
       <c r="BC2">
-        <v>0.0005033846389066443</v>
+        <v>0</v>
       </c>
       <c r="BD2">
-        <v>0.0005068864363272712</v>
+        <v>0</v>
       </c>
       <c r="BE2">
-        <v>0.0005109394497919674</v>
+        <v>0</v>
       </c>
       <c r="BF2">
-        <v>0.0005189111649997308</v>
+        <v>0</v>
       </c>
       <c r="BG2">
-        <v>0.0005312508583094222</v>
+        <v>0</v>
       </c>
       <c r="BH2">
-        <v>0.0005443039845952787</v>
+        <v>0</v>
       </c>
       <c r="BI2">
-        <v>0.0005593522334654994</v>
+        <v>0</v>
       </c>
       <c r="BJ2">
-        <v>0.0005735110366942087</v>
+        <v>0</v>
       </c>
       <c r="BK2">
-        <v>0.0005828747759717726</v>
+        <v>0</v>
       </c>
       <c r="BL2">
-        <v>0.0005854930039743464</v>
+        <v>0</v>
       </c>
       <c r="BM2">
-        <v>0.0005866985400108463</v>
+        <v>0</v>
       </c>
       <c r="BN2">
-        <v>0.0005866985400108463</v>
+        <v>0</v>
       </c>
       <c r="BO2">
-        <v>0.0005866985400108463</v>
+        <v>0</v>
       </c>
       <c r="BP2">
-        <v>0.000587867623639127</v>
+        <v>0</v>
       </c>
       <c r="BQ2">
-        <v>0.0005931392292699299</v>
+        <v>0</v>
       </c>
       <c r="BR2">
-        <v>0.0006018129623542157</v>
+        <v>0</v>
       </c>
       <c r="BS2">
-        <v>0.0006147686689882738</v>
+        <v>0</v>
       </c>
       <c r="BT2">
-        <v>0.000632248796647221</v>
+        <v>0</v>
       </c>
       <c r="BU2">
-        <v>0.0006548981266868016</v>
+        <v>0</v>
       </c>
       <c r="BV2">
-        <v>0.000678819519985603</v>
+        <v>0</v>
       </c>
       <c r="BW2">
-        <v>0.000702902288898603</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>0.0007274723460972245</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>0.0007518794474602047</v>
+        <v>0</v>
       </c>
       <c r="BZ2">
-        <v>0.0007758008407590061</v>
+        <v>0</v>
       </c>
       <c r="CA2">
-        <v>0.0007910028611778379</v>
+        <v>0</v>
       </c>
       <c r="CB2">
-        <v>0.000801228764273804</v>
+        <v>0</v>
       </c>
       <c r="CC2">
-        <v>0.0008061864647158399</v>
+        <v>0</v>
       </c>
       <c r="CD2">
-        <v>0.0008074006012575624</v>
+        <v>0</v>
       </c>
       <c r="CE2">
-        <v>0.0008075830556856181</v>
+        <v>0</v>
       </c>
       <c r="CF2">
-        <v>0.0008075830556856181</v>
+        <v>0</v>
       </c>
       <c r="CG2">
-        <v>0.0008075830556856181</v>
+        <v>0</v>
       </c>
       <c r="CH2">
-        <v>0.0008096333243978258</v>
+        <v>0</v>
       </c>
       <c r="CI2">
-        <v>0.0008141218564934584</v>
+        <v>0</v>
       </c>
       <c r="CJ2">
-        <v>0.0008230773475615972</v>
+        <v>0</v>
       </c>
       <c r="CK2">
-        <v>0.0008325444653259945</v>
+        <v>0</v>
       </c>
       <c r="CL2">
-        <v>0.0008426429040598789</v>
+        <v>0</v>
       </c>
       <c r="CM2">
-        <v>0.0008611052903665887</v>
+        <v>0</v>
       </c>
       <c r="CN2">
-        <v>0.1011680851925461</v>
+        <v>0.1968887438701195</v>
       </c>
       <c r="CO2">
-        <v>0.101336242278159</v>
+        <v>0.1968887438701195</v>
       </c>
       <c r="CP2">
-        <v>0.3228660496112854</v>
+        <v>0.7332685006626908</v>
       </c>
       <c r="CQ2">
-        <v>0.3253491023623203</v>
+        <v>0.7332685006626908</v>
       </c>
       <c r="CR2">
-        <v>0.3383100191175932</v>
+        <v>0.7332685006626908</v>
       </c>
       <c r="CS2">
-        <v>0.3401378247462752</v>
+        <v>0.7332685006626908</v>
       </c>
       <c r="CT2">
-        <v>0.3409356239861163</v>
+        <v>0.7332685006626908</v>
       </c>
       <c r="CU2">
-        <v>0.3429252896968873</v>
+        <v>0.7332685006626908</v>
       </c>
       <c r="CV2">
-        <v>0.3750420468353134</v>
+        <v>0.7391868779105554</v>
       </c>
       <c r="CW2">
-        <v>0.3862424098772793</v>
+        <v>0.7391868779105554</v>
       </c>
       <c r="CX2">
-        <v>0.4585781100541652</v>
+        <v>0.8577405566124713</v>
       </c>
       <c r="CY2">
-        <v>0.459839480005991</v>
+        <v>0.8577405566124713</v>
       </c>
       <c r="CZ2">
-        <v>0.4734965643179579</v>
+        <v>0.8577405566124713</v>
       </c>
       <c r="DA2">
-        <v>0.4795844413271751</v>
+        <v>0.8577405566124713</v>
       </c>
       <c r="DB2">
-        <v>0.523304727513703</v>
+        <v>0.8961552376795084</v>
       </c>
       <c r="DC2">
-        <v>0.5629458160662442</v>
+        <v>0.9231459075596932</v>
       </c>
       <c r="DD2">
-        <v>0.574318530760524</v>
+        <v>0.9231459075596932</v>
       </c>
       <c r="DE2">
-        <v>0.5802130272705723</v>
+        <v>0.9231459075596932</v>
       </c>
       <c r="DF2">
-        <v>0.6128435113995794</v>
+        <v>0.930503004726026</v>
       </c>
       <c r="DG2">
-        <v>0.6165434928836175</v>
+        <v>0.930503004726026</v>
       </c>
       <c r="DH2">
-        <v>0.6291267327135394</v>
+        <v>0.930503004726026</v>
       </c>
       <c r="DI2">
-        <v>0.680135914321612</v>
+        <v>0.9893306273337612</v>
       </c>
       <c r="DJ2">
-        <v>0.7054729783950195</v>
+        <v>0.9893306273337612</v>
       </c>
       <c r="DK2">
-        <v>0.7091335898619826</v>
+        <v>0.9893306273337612</v>
       </c>
       <c r="DL2">
-        <v>0.7105068374916668</v>
+        <v>0.9893306273337612</v>
       </c>
       <c r="DM2">
-        <v>0.7110526518698794</v>
+        <v>0.9893306273337612</v>
       </c>
       <c r="DN2">
-        <v>0.7155995505357488</v>
+        <v>0.9893306273337612</v>
       </c>
       <c r="DO2">
-        <v>0.7188947842008853</v>
+        <v>0.9893306273337612</v>
       </c>
       <c r="DP2">
-        <v>0.7188947842008853</v>
+        <v>0.9893306273337612</v>
       </c>
       <c r="DQ2">
-        <v>0.722748306001131</v>
+        <v>0.9893306273337612</v>
       </c>
       <c r="DR2">
-        <v>0.7273721069436185</v>
+        <v>0.9893306273337612</v>
       </c>
       <c r="DS2">
-        <v>0.7290082068078187</v>
+        <v>0.9893306273337612</v>
       </c>
       <c r="DT2">
-        <v>0.7297787372763798</v>
+        <v>0.9893306273337612</v>
       </c>
       <c r="DU2">
-        <v>0.7325850664294067</v>
+        <v>0.9893306273337612</v>
       </c>
       <c r="DV2">
-        <v>0.7337195463996409</v>
+        <v>0.9893306273337612</v>
       </c>
       <c r="DW2">
-        <v>0.7366212172132691</v>
+        <v>0.9893306273337612</v>
       </c>
       <c r="DX2">
-        <v>0.7548692028662731</v>
+        <v>0.9893306273337612</v>
       </c>
       <c r="DY2">
-        <v>0.7563219705394133</v>
+        <v>0.9893306273337612</v>
       </c>
       <c r="DZ2">
-        <v>0.7566795914153313</v>
+        <v>0.9893306273337612</v>
       </c>
       <c r="EA2">
-        <v>0.7904927972837811</v>
+        <v>1</v>
       </c>
       <c r="EB2">
-        <v>0.8038077211474605</v>
+        <v>1</v>
       </c>
       <c r="EC2">
-        <v>0.8050713974224804</v>
+        <v>1</v>
       </c>
       <c r="ED2">
-        <v>0.8068715599774299</v>
+        <v>1</v>
       </c>
       <c r="EE2">
-        <v>0.809253485057047</v>
+        <v>1</v>
       </c>
       <c r="EF2">
-        <v>0.8136489229981301</v>
+        <v>1</v>
       </c>
       <c r="EG2">
-        <v>0.8258428302693512</v>
+        <v>1</v>
       </c>
       <c r="EH2">
-        <v>0.8265292841559306</v>
+        <v>1</v>
       </c>
       <c r="EI2">
-        <v>0.8354059195648161</v>
+        <v>1</v>
       </c>
       <c r="EJ2">
-        <v>0.8384562761143606</v>
+        <v>1</v>
       </c>
       <c r="EK2">
-        <v>0.8425097264313747</v>
+        <v>1</v>
       </c>
       <c r="EL2">
-        <v>0.8519010759691727</v>
+        <v>1</v>
       </c>
       <c r="EM2">
-        <v>0.8571703688669833</v>
+        <v>1</v>
       </c>
       <c r="EN2">
-        <v>0.8577477250052666</v>
+        <v>1</v>
       </c>
       <c r="EO2">
-        <v>0.857975145215654</v>
+        <v>1</v>
       </c>
       <c r="EP2">
-        <v>0.8586406593078577</v>
+        <v>1</v>
       </c>
       <c r="EQ2">
-        <v>0.8678698071156903</v>
+        <v>1</v>
       </c>
       <c r="ER2">
-        <v>0.8685934863187995</v>
+        <v>1</v>
       </c>
       <c r="ES2">
-        <v>0.8690938721709344</v>
+        <v>1</v>
       </c>
       <c r="ET2">
-        <v>0.8736368122820759</v>
+        <v>1</v>
       </c>
       <c r="EU2">
-        <v>0.8937260589582192</v>
+        <v>1</v>
       </c>
       <c r="EV2">
-        <v>0.8939039710008325</v>
+        <v>1</v>
       </c>
       <c r="EW2">
-        <v>0.8992299445415242</v>
+        <v>1</v>
       </c>
       <c r="EX2">
-        <v>0.8997261193635508</v>
+        <v>1</v>
       </c>
       <c r="EY2">
-        <v>0.8999992415483353</v>
+        <v>1</v>
       </c>
       <c r="EZ2">
-        <v>0.9129971229836139</v>
+        <v>1</v>
       </c>
       <c r="FA2">
-        <v>0.9242697151473303</v>
+        <v>1</v>
       </c>
       <c r="FB2">
-        <v>0.9244154772046399</v>
+        <v>1</v>
       </c>
       <c r="FC2">
-        <v>0.9270658846077395</v>
+        <v>1</v>
       </c>
       <c r="FD2">
-        <v>0.9319514382306582</v>
+        <v>1</v>
       </c>
       <c r="FE2">
-        <v>0.9384490070515982</v>
+        <v>1</v>
       </c>
       <c r="FF2">
-        <v>0.9418101152479915</v>
+        <v>1</v>
       </c>
       <c r="FG2">
-        <v>0.9419022661225556</v>
+        <v>1</v>
       </c>
       <c r="FH2">
-        <v>0.9449583422736103</v>
+        <v>1</v>
       </c>
       <c r="FI2">
-        <v>0.9458938141560596</v>
+        <v>1</v>
       </c>
       <c r="FJ2">
-        <v>0.946369809530261</v>
+        <v>1</v>
       </c>
       <c r="FK2">
-        <v>0.9463935395697446</v>
+        <v>1</v>
       </c>
       <c r="FL2">
-        <v>0.9534819843924596</v>
+        <v>1</v>
       </c>
       <c r="FM2">
-        <v>0.9540663827776007</v>
+        <v>1</v>
       </c>
       <c r="FN2">
-        <v>0.9584700207677889</v>
+        <v>1</v>
       </c>
       <c r="FO2">
-        <v>0.9619178602181735</v>
+        <v>1</v>
       </c>
       <c r="FP2">
-        <v>0.9632047160414345</v>
+        <v>1</v>
       </c>
       <c r="FQ2">
-        <v>0.9632055033336608</v>
+        <v>1</v>
       </c>
       <c r="FR2">
-        <v>0.9638760516913359</v>
+        <v>1</v>
       </c>
       <c r="FS2">
-        <v>0.9640637162806119</v>
+        <v>1</v>
       </c>
       <c r="FT2">
-        <v>0.964185064246679</v>
+        <v>1</v>
       </c>
       <c r="FU2">
-        <v>0.9671256518138649</v>
+        <v>1</v>
       </c>
       <c r="FV2">
-        <v>0.9698775652414025</v>
+        <v>1</v>
       </c>
       <c r="FW2">
-        <v>0.9698865399341614</v>
+        <v>1</v>
       </c>
       <c r="FX2">
-        <v>0.9706990761591541</v>
+        <v>1</v>
       </c>
       <c r="FY2">
-        <v>0.9707572431914288</v>
+        <v>1</v>
       </c>
       <c r="FZ2">
-        <v>0.9709645441524266</v>
+        <v>1</v>
       </c>
       <c r="GA2">
-        <v>0.9709645441524266</v>
+        <v>1</v>
       </c>
       <c r="GB2">
-        <v>0.971164337591366</v>
+        <v>1</v>
       </c>
       <c r="GC2">
-        <v>0.9736990931877237</v>
+        <v>1</v>
       </c>
       <c r="GD2">
-        <v>0.9771985686740688</v>
+        <v>1</v>
       </c>
       <c r="GE2">
-        <v>0.978158832660733</v>
+        <v>1</v>
       </c>
       <c r="GF2">
-        <v>0.9781608829294453</v>
+        <v>1</v>
       </c>
       <c r="GG2">
-        <v>0.9782083344581144</v>
+        <v>1</v>
       </c>
       <c r="GH2">
-        <v>0.9782171892030646</v>
+        <v>1</v>
       </c>
       <c r="GI2">
-        <v>0.9833674860254876</v>
+        <v>1</v>
       </c>
       <c r="GJ2">
-        <v>0.9907317444990529</v>
+        <v>1</v>
       </c>
       <c r="GK2">
-        <v>0.9907626792391595</v>
+        <v>1</v>
       </c>
       <c r="GL2">
-        <v>0.9924145690160623</v>
+        <v>1</v>
       </c>
       <c r="GM2">
-        <v>0.9928559309569447</v>
+        <v>1</v>
       </c>
       <c r="GN2">
-        <v>0.9929841853308339</v>
+        <v>1</v>
       </c>
       <c r="GO2">
-        <v>0.9933906601028403</v>
+        <v>1</v>
       </c>
       <c r="GP2">
-        <v>0.9943239592208115</v>
+        <v>1</v>
       </c>
       <c r="GQ2">
-        <v>0.9962232072609992</v>
+        <v>1</v>
       </c>
       <c r="GR2">
-        <v>0.9983991503755545</v>
+        <v>1</v>
       </c>
       <c r="GS2">
         <v>1</v>
@@ -7418,601 +7418,601 @@
         <v>258</v>
       </c>
       <c r="B3">
-        <v>2.682175186687399E-05</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>2.682175186687399E-05</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>2.682175186687399E-05</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>6.279315137676036E-05</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>9.127938507256927E-05</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>9.127938507256927E-05</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0001051903074832361</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0001605670258334655</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.000172477260843371</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0001727432202504949</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0001878784618798447</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.0001971036116501232</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.0001971036116501232</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.0001971036116501232</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.0001971036116501232</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.00020878146010135</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.0002105744507650635</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.0002105744507650635</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.000219063946309513</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.0002478117399067317</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.000257931566025743</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.0002735240183874941</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.0002735240183874941</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.0003194983178028248</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.0003272212674640264</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.0003272212674640264</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.0003272212674640264</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.0003342100821776358</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.0003342100821776358</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.0003850121647407952</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.0004085100938912982</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.0004088816929449962</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.0004321005979957409</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.0005181985475534936</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.000563266342954003</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.0005653138289253346</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.0006037313784168575</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.0006484161136647125</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.0006508169514479891</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.0006611544374286694</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.000712364393688772</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.0007246838206370399</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.0007269156355659043</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.0007339283986653597</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.0007490636402947095</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.0007571487842872525</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.0007772349996252344</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.0007777993306753761</v>
+        <v>0</v>
       </c>
       <c r="AX3">
-        <v>0.000789207077660913</v>
+        <v>0</v>
       </c>
       <c r="AY3">
-        <v>0.0007956473069079865</v>
+        <v>0</v>
       </c>
       <c r="AZ3">
-        <v>0.0008331295901172401</v>
+        <v>0</v>
       </c>
       <c r="BA3">
-        <v>0.0008650413691586415</v>
+        <v>0</v>
       </c>
       <c r="BB3">
-        <v>0.000905563369053816</v>
+        <v>0</v>
       </c>
       <c r="BC3">
-        <v>0.0009442832939215901</v>
+        <v>0</v>
       </c>
       <c r="BD3">
-        <v>0.0009948211210896937</v>
+        <v>0</v>
       </c>
       <c r="BE3">
-        <v>0.001069864766190468</v>
+        <v>0</v>
       </c>
       <c r="BF3">
-        <v>0.001104086568283569</v>
+        <v>0</v>
       </c>
       <c r="BG3">
-        <v>0.00111420639440258</v>
+        <v>0</v>
       </c>
       <c r="BH3">
-        <v>0.00112367679758794</v>
+        <v>0</v>
       </c>
       <c r="BI3">
-        <v>0.001124276281875956</v>
+        <v>0</v>
       </c>
       <c r="BJ3">
-        <v>0.001124276281875956</v>
+        <v>0</v>
       </c>
       <c r="BK3">
-        <v>0.001125144506780439</v>
+        <v>0</v>
       </c>
       <c r="BL3">
-        <v>0.001145269674252015</v>
+        <v>0</v>
       </c>
       <c r="BM3">
-        <v>0.001162392278841922</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>0.00116924606282635</v>
+        <v>0</v>
       </c>
       <c r="BO3">
-        <v>0.001185890648873167</v>
+        <v>0</v>
       </c>
       <c r="BP3">
-        <v>0.00120024117679206</v>
+        <v>0</v>
       </c>
       <c r="BQ3">
-        <v>0.001214702605020951</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>0.001248639719977179</v>
+        <v>0</v>
       </c>
       <c r="BS3">
-        <v>0.001250786162871228</v>
+        <v>0</v>
       </c>
       <c r="BT3">
-        <v>0.001253725802329262</v>
+        <v>0</v>
       </c>
       <c r="BU3">
-        <v>0.001305345240580847</v>
+        <v>0</v>
       </c>
       <c r="BV3">
-        <v>0.00131360136938711</v>
+        <v>0</v>
       </c>
       <c r="BW3">
-        <v>0.001315119817471799</v>
+        <v>0</v>
       </c>
       <c r="BX3">
-        <v>0.001333714892726209</v>
+        <v>0</v>
       </c>
       <c r="BY3">
-        <v>0.001346345417648163</v>
+        <v>0</v>
       </c>
       <c r="BZ3">
-        <v>0.001346345417648163</v>
+        <v>0</v>
       </c>
       <c r="CA3">
-        <v>0.001363830738665027</v>
+        <v>0</v>
       </c>
       <c r="CB3">
-        <v>0.001363830738665027</v>
+        <v>0</v>
       </c>
       <c r="CC3">
-        <v>0.001403807913782388</v>
+        <v>0</v>
       </c>
       <c r="CD3">
-        <v>0.001410876699141616</v>
+        <v>0</v>
       </c>
       <c r="CE3">
-        <v>0.001410961750917781</v>
+        <v>0</v>
       </c>
       <c r="CF3">
-        <v>0.00145203217825055</v>
+        <v>0</v>
       </c>
       <c r="CG3">
-        <v>0.001496850808019504</v>
+        <v>0</v>
       </c>
       <c r="CH3">
-        <v>0.001515911518549165</v>
+        <v>0</v>
       </c>
       <c r="CI3">
-        <v>0.001534972229078825</v>
+        <v>0</v>
       </c>
       <c r="CJ3">
-        <v>0.001560424512144694</v>
+        <v>0</v>
       </c>
       <c r="CK3">
-        <v>0.001613427334745742</v>
+        <v>0</v>
       </c>
       <c r="CL3">
-        <v>0.001613756797982795</v>
+        <v>0</v>
       </c>
       <c r="CM3">
-        <v>0.001650592817837034</v>
+        <v>0</v>
       </c>
       <c r="CN3">
-        <v>0.06133876988936337</v>
+        <v>0.09032102152651071</v>
       </c>
       <c r="CO3">
-        <v>0.0681973982927857</v>
+        <v>0.09032102152651071</v>
       </c>
       <c r="CP3">
-        <v>0.2708593812205747</v>
+        <v>0.615680952324869</v>
       </c>
       <c r="CQ3">
-        <v>0.2756890172395334</v>
+        <v>0.615680952324869</v>
       </c>
       <c r="CR3">
-        <v>0.2798910467202398</v>
+        <v>0.615680952324869</v>
       </c>
       <c r="CS3">
-        <v>0.2807059445203338</v>
+        <v>0.615680952324869</v>
       </c>
       <c r="CT3">
-        <v>0.2812827564579933</v>
+        <v>0.615680952324869</v>
       </c>
       <c r="CU3">
-        <v>0.2821543618133635</v>
+        <v>0.615680952324869</v>
       </c>
       <c r="CV3">
-        <v>0.3135385113578515</v>
+        <v>0.6198788326954242</v>
       </c>
       <c r="CW3">
-        <v>0.3138982258668445</v>
+        <v>0.6198788326954242</v>
       </c>
       <c r="CX3">
-        <v>0.3844113673946094</v>
+        <v>0.743137920756185</v>
       </c>
       <c r="CY3">
-        <v>0.4022902566203461</v>
+        <v>0.743137920756185</v>
       </c>
       <c r="CZ3">
-        <v>0.4066440218895558</v>
+        <v>0.743137920756185</v>
       </c>
       <c r="DA3">
-        <v>0.4123790181138615</v>
+        <v>0.743137920756185</v>
       </c>
       <c r="DB3">
-        <v>0.4283138943180373</v>
+        <v>0.743137920756185</v>
       </c>
       <c r="DC3">
-        <v>0.481952285447276</v>
+        <v>0.8150507292404625</v>
       </c>
       <c r="DD3">
-        <v>0.4822069570689839</v>
+        <v>0.8150507292404625</v>
       </c>
       <c r="DE3">
-        <v>0.5045312164084066</v>
+        <v>0.8150507292404625</v>
       </c>
       <c r="DF3">
-        <v>0.5308231463768565</v>
+        <v>0.8150507292404625</v>
       </c>
       <c r="DG3">
-        <v>0.5337810957199158</v>
+        <v>0.8150507292404625</v>
       </c>
       <c r="DH3">
-        <v>0.5770163616474756</v>
+        <v>0.8553090384012288</v>
       </c>
       <c r="DI3">
-        <v>0.5966035467261352</v>
+        <v>0.8553090384012288</v>
       </c>
       <c r="DJ3">
-        <v>0.6741601881824196</v>
+        <v>1</v>
       </c>
       <c r="DK3">
-        <v>0.6759989435591653</v>
+        <v>1</v>
       </c>
       <c r="DL3">
-        <v>0.6895178678120946</v>
+        <v>1</v>
       </c>
       <c r="DM3">
-        <v>0.6900167834540262</v>
+        <v>1</v>
       </c>
       <c r="DN3">
-        <v>0.6904998249688108</v>
+        <v>1</v>
       </c>
       <c r="DO3">
-        <v>0.6992653011874534</v>
+        <v>1</v>
       </c>
       <c r="DP3">
-        <v>0.6996052541773725</v>
+        <v>1</v>
       </c>
       <c r="DQ3">
-        <v>0.700155186482365</v>
+        <v>1</v>
       </c>
       <c r="DR3">
-        <v>0.7041471609941429</v>
+        <v>1</v>
       </c>
       <c r="DS3">
-        <v>0.7073945462437522</v>
+        <v>1</v>
       </c>
       <c r="DT3">
-        <v>0.7076168425663308</v>
+        <v>1</v>
       </c>
       <c r="DU3">
-        <v>0.708765768009391</v>
+        <v>1</v>
       </c>
       <c r="DV3">
-        <v>0.7096788007516667</v>
+        <v>1</v>
       </c>
       <c r="DW3">
-        <v>0.7152057498747596</v>
+        <v>1</v>
       </c>
       <c r="DX3">
-        <v>0.7367935203354972</v>
+        <v>1</v>
       </c>
       <c r="DY3">
-        <v>0.7466092543956684</v>
+        <v>1</v>
       </c>
       <c r="DZ3">
-        <v>0.7547837783888355</v>
+        <v>1</v>
       </c>
       <c r="EA3">
-        <v>0.7704519397475382</v>
+        <v>1</v>
       </c>
       <c r="EB3">
-        <v>0.7966110083841044</v>
+        <v>1</v>
       </c>
       <c r="EC3">
-        <v>0.7970628292812252</v>
+        <v>1</v>
       </c>
       <c r="ED3">
-        <v>0.8014540114028613</v>
+        <v>1</v>
       </c>
       <c r="EE3">
-        <v>0.8048861461870267</v>
+        <v>1</v>
       </c>
       <c r="EF3">
-        <v>0.8056804094781695</v>
+        <v>1</v>
       </c>
       <c r="EG3">
-        <v>0.816989697563996</v>
+        <v>1</v>
       </c>
       <c r="EH3">
-        <v>0.8173148243586836</v>
+        <v>1</v>
       </c>
       <c r="EI3">
-        <v>0.8247814877160686</v>
+        <v>1</v>
       </c>
       <c r="EJ3">
-        <v>0.8265398438687065</v>
+        <v>1</v>
       </c>
       <c r="EK3">
-        <v>0.8280194963802741</v>
+        <v>1</v>
       </c>
       <c r="EL3">
-        <v>0.8324200572195044</v>
+        <v>1</v>
       </c>
       <c r="EM3">
-        <v>0.8413906720066986</v>
+        <v>1</v>
       </c>
       <c r="EN3">
-        <v>0.8414466234893097</v>
+        <v>1</v>
       </c>
       <c r="EO3">
-        <v>0.8422512914859436</v>
+        <v>1</v>
       </c>
       <c r="EP3">
-        <v>0.8425097310477023</v>
+        <v>1</v>
       </c>
       <c r="EQ3">
-        <v>0.8528796400980605</v>
+        <v>1</v>
       </c>
       <c r="ER3">
-        <v>0.8557733112693803</v>
+        <v>1</v>
       </c>
       <c r="ES3">
-        <v>0.8572803025877068</v>
+        <v>1</v>
       </c>
       <c r="ET3">
-        <v>0.8589006299621081</v>
+        <v>1</v>
       </c>
       <c r="EU3">
-        <v>0.8831203904387497</v>
+        <v>1</v>
       </c>
       <c r="EV3">
-        <v>0.8839082844634414</v>
+        <v>1</v>
       </c>
       <c r="EW3">
-        <v>0.8909342756172488</v>
+        <v>1</v>
       </c>
       <c r="EX3">
-        <v>0.8910814091847131</v>
+        <v>1</v>
       </c>
       <c r="EY3">
-        <v>0.8941653165954101</v>
+        <v>1</v>
       </c>
       <c r="EZ3">
-        <v>0.8986602201123166</v>
+        <v>1</v>
       </c>
       <c r="FA3">
-        <v>0.91715332082317</v>
+        <v>1</v>
       </c>
       <c r="FB3">
-        <v>0.91715332082317</v>
+        <v>1</v>
       </c>
       <c r="FC3">
-        <v>0.9183526708008501</v>
+        <v>1</v>
       </c>
       <c r="FD3">
-        <v>0.9276041220197084</v>
+        <v>1</v>
       </c>
       <c r="FE3">
-        <v>0.9312710371009355</v>
+        <v>1</v>
       </c>
       <c r="FF3">
-        <v>0.9384359627988591</v>
+        <v>1</v>
       </c>
       <c r="FG3">
-        <v>0.9384476708378393</v>
+        <v>1</v>
       </c>
       <c r="FH3">
-        <v>0.9400193875098012</v>
+        <v>1</v>
       </c>
       <c r="FI3">
-        <v>0.9426022557614711</v>
+        <v>1</v>
       </c>
       <c r="FJ3">
-        <v>0.9436028153331859</v>
+        <v>1</v>
       </c>
       <c r="FK3">
-        <v>0.944769072950416</v>
+        <v>1</v>
       </c>
       <c r="FL3">
-        <v>0.948973486567747</v>
+        <v>1</v>
       </c>
       <c r="FM3">
-        <v>0.9527439198070242</v>
+        <v>1</v>
       </c>
       <c r="FN3">
-        <v>0.9560203922835937</v>
+        <v>1</v>
       </c>
       <c r="FO3">
-        <v>0.9614260211884129</v>
+        <v>1</v>
       </c>
       <c r="FP3">
-        <v>0.9635740677079455</v>
+        <v>1</v>
       </c>
       <c r="FQ3">
-        <v>0.9636363766348427</v>
+        <v>1</v>
       </c>
       <c r="FR3">
-        <v>0.9636708169199483</v>
+        <v>1</v>
       </c>
       <c r="FS3">
-        <v>0.9637396542744449</v>
+        <v>1</v>
       </c>
       <c r="FT3">
-        <v>0.9638275297195286</v>
+        <v>1</v>
       </c>
       <c r="FU3">
-        <v>0.9659537308383506</v>
+        <v>1</v>
       </c>
       <c r="FV3">
-        <v>0.9688993823292128</v>
+        <v>1</v>
       </c>
       <c r="FW3">
-        <v>0.968911701756161</v>
+        <v>1</v>
       </c>
       <c r="FX3">
-        <v>0.9693391784249422</v>
+        <v>1</v>
       </c>
       <c r="FY3">
-        <v>0.9693877658209133</v>
+        <v>1</v>
       </c>
       <c r="FZ3">
-        <v>0.9703823356956904</v>
+        <v>1</v>
       </c>
       <c r="GA3">
-        <v>0.9704567149031078</v>
+        <v>1</v>
       </c>
       <c r="GB3">
-        <v>0.9705083343413594</v>
+        <v>1</v>
       </c>
       <c r="GC3">
-        <v>0.9713280876006697</v>
+        <v>1</v>
       </c>
       <c r="GD3">
-        <v>0.9745112991976808</v>
+        <v>1</v>
       </c>
       <c r="GE3">
-        <v>0.9753270052457952</v>
+        <v>1</v>
       </c>
       <c r="GF3">
-        <v>0.9753365030780038</v>
+        <v>1</v>
       </c>
       <c r="GG3">
-        <v>0.9754967562481586</v>
+        <v>1</v>
       </c>
       <c r="GH3">
-        <v>0.9756968102973442</v>
+        <v>1</v>
       </c>
       <c r="GI3">
-        <v>0.9785043755994559</v>
+        <v>1</v>
       </c>
       <c r="GJ3">
-        <v>0.9878084194499939</v>
+        <v>1</v>
       </c>
       <c r="GK3">
-        <v>0.9878183797548986</v>
+        <v>1</v>
       </c>
       <c r="GL3">
-        <v>0.9911289509762248</v>
+        <v>1</v>
       </c>
       <c r="GM3">
-        <v>0.9915749516674479</v>
+        <v>1</v>
       </c>
       <c r="GN3">
-        <v>0.9918755271458705</v>
+        <v>1</v>
       </c>
       <c r="GO3">
-        <v>0.9931515315618479</v>
+        <v>1</v>
       </c>
       <c r="GP3">
-        <v>0.9937202124404061</v>
+        <v>1</v>
       </c>
       <c r="GQ3">
-        <v>0.9961357657504465</v>
+        <v>1</v>
       </c>
       <c r="GR3">
-        <v>0.9986780990786545</v>
+        <v>1</v>
       </c>
       <c r="GS3">
         <v>1</v>
@@ -8191,772 +8191,772 @@
         <v>259</v>
       </c>
       <c r="B4">
-        <v>2.093229054872003E-05</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>2.093229054872003E-05</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>2.093229054872003E-05</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>5.088856572389324E-05</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>5.088856572389324E-05</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>5.476834405354766E-05</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>6.662517792971372E-05</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>6.662517792971372E-05</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>6.662517792971372E-05</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>8.453482719975132E-05</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0001144911023749245</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.0001144911023749245</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.0001144911023749245</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0001299393397335683</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0001401088763157958</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.0001401088763157958</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.0001401088763157958</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0001474451330288345</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>0.0001474451330288345</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0.000159957090345412</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.000159957090345412</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.000159957090345412</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.000159957090345412</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.000159957090345412</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.000159957090345412</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.000159957090345412</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.000159957090345412</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.000181334461172918</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.0002042194007424011</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.0002227319032585579</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.0002320019318362642</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.0002320019318362642</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.0002320019318362642</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.0002320019318362642</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.0002320019318362642</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.000270673244195612</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.0003272187167715377</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.0003272187167715377</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.0003272187167715377</v>
+        <v>0</v>
       </c>
       <c r="AO4">
-        <v>0.0003570063503440936</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.0003576354383307028</v>
+        <v>0</v>
       </c>
       <c r="AQ4">
-        <v>0.0003579586472891595</v>
+        <v>0</v>
       </c>
       <c r="AR4">
-        <v>0.0003579586472891595</v>
+        <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.0003579586472891595</v>
+        <v>0</v>
       </c>
       <c r="AT4">
-        <v>0.0003753498156885796</v>
+        <v>0</v>
       </c>
       <c r="AU4">
-        <v>0.0003753498156885796</v>
+        <v>0</v>
       </c>
       <c r="AV4">
-        <v>0.0003753498156885796</v>
+        <v>0</v>
       </c>
       <c r="AW4">
-        <v>0.0003753498156885796</v>
+        <v>0</v>
       </c>
       <c r="AX4">
-        <v>0.0004096917909969374</v>
+        <v>0</v>
       </c>
       <c r="AY4">
-        <v>0.0004105948120552297</v>
+        <v>0</v>
       </c>
       <c r="AZ4">
-        <v>0.0004105948120552297</v>
+        <v>0</v>
       </c>
       <c r="BA4">
-        <v>0.0004133199663783368</v>
+        <v>0</v>
       </c>
       <c r="BB4">
-        <v>0.0004169125385420434</v>
+        <v>0</v>
       </c>
       <c r="BC4">
-        <v>0.0004169125385420434</v>
+        <v>0</v>
       </c>
       <c r="BD4">
-        <v>0.000462550880455607</v>
+        <v>0</v>
       </c>
       <c r="BE4">
-        <v>0.000474531000687729</v>
+        <v>0</v>
       </c>
       <c r="BF4">
-        <v>0.000474531000687729</v>
+        <v>0</v>
       </c>
       <c r="BG4">
-        <v>0.000474531000687729</v>
+        <v>0</v>
       </c>
       <c r="BH4">
-        <v>0.000474531000687729</v>
+        <v>0</v>
       </c>
       <c r="BI4">
-        <v>0.000474531000687729</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
-        <v>0.000476181573150456</v>
+        <v>0</v>
       </c>
       <c r="BK4">
-        <v>0.000476181573150456</v>
+        <v>0</v>
       </c>
       <c r="BL4">
-        <v>0.000476181573150456</v>
+        <v>0</v>
       </c>
       <c r="BM4">
-        <v>0.0004963794381772317</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>0.0005020233383182101</v>
+        <v>0</v>
       </c>
       <c r="BO4">
-        <v>0.0005349029038488865</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>0.0005638528703794259</v>
+        <v>0</v>
       </c>
       <c r="BQ4">
-        <v>0.0005762050618617931</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>0.0006295019270912082</v>
+        <v>0</v>
       </c>
       <c r="BS4">
-        <v>0.000665411347277509</v>
+        <v>0</v>
       </c>
       <c r="BT4">
-        <v>0.000665411347277509</v>
+        <v>0</v>
       </c>
       <c r="BU4">
-        <v>0.000665411347277509</v>
+        <v>0</v>
       </c>
       <c r="BV4">
-        <v>0.0006656304865244829</v>
+        <v>0</v>
       </c>
       <c r="BW4">
-        <v>0.0006656304865244829</v>
+        <v>0</v>
       </c>
       <c r="BX4">
-        <v>0.0006656304865244829</v>
+        <v>0</v>
       </c>
       <c r="BY4">
-        <v>0.0006699963180753368</v>
+        <v>0</v>
       </c>
       <c r="BZ4">
-        <v>0.0006947829914204789</v>
+        <v>0</v>
       </c>
       <c r="CA4">
-        <v>0.0006947829914204789</v>
+        <v>0</v>
       </c>
       <c r="CB4">
-        <v>0.0006947829914204789</v>
+        <v>0</v>
       </c>
       <c r="CC4">
-        <v>0.0007701252344516666</v>
+        <v>0</v>
       </c>
       <c r="CD4">
-        <v>0.0008041116572731637</v>
+        <v>0</v>
       </c>
       <c r="CE4">
-        <v>0.0008041116572731637</v>
+        <v>0</v>
       </c>
       <c r="CF4">
-        <v>0.0008508120209785795</v>
+        <v>0</v>
       </c>
       <c r="CG4">
-        <v>0.0008550799036231524</v>
+        <v>0</v>
       </c>
       <c r="CH4">
-        <v>0.0008550799036231524</v>
+        <v>0</v>
       </c>
       <c r="CI4">
-        <v>0.00092193506740343</v>
+        <v>0</v>
       </c>
       <c r="CJ4">
-        <v>0.0009450156384022643</v>
+        <v>0</v>
       </c>
       <c r="CK4">
-        <v>0.0009450156384022643</v>
+        <v>0</v>
       </c>
       <c r="CL4">
-        <v>0.0009450156384022643</v>
+        <v>0</v>
       </c>
       <c r="CM4">
-        <v>0.000951736040165333</v>
+        <v>0</v>
       </c>
       <c r="CN4">
-        <v>0.1357928541892463</v>
+        <v>0.3131823334883829</v>
       </c>
       <c r="CO4">
-        <v>0.1740180766854512</v>
+        <v>0.3376577148064491</v>
       </c>
       <c r="CP4">
-        <v>0.3153651040352043</v>
+        <v>0.6702809612391292</v>
       </c>
       <c r="CQ4">
-        <v>0.3175777567572872</v>
+        <v>0.6702809612391292</v>
       </c>
       <c r="CR4">
-        <v>0.3241953554990945</v>
+        <v>0.6702809612391292</v>
       </c>
       <c r="CS4">
-        <v>0.3241975367259403</v>
+        <v>0.6702809612391292</v>
       </c>
       <c r="CT4">
-        <v>0.324598223509611</v>
+        <v>0.6702809612391292</v>
       </c>
       <c r="CU4">
-        <v>0.3256575366729136</v>
+        <v>0.6702809612391292</v>
       </c>
       <c r="CV4">
-        <v>0.3609261879367706</v>
+        <v>0.6859215368184752</v>
       </c>
       <c r="CW4">
-        <v>0.3777886686503631</v>
+        <v>0.6859215368184752</v>
       </c>
       <c r="CX4">
-        <v>0.4400358754335744</v>
+        <v>0.7821792456895792</v>
       </c>
       <c r="CY4">
-        <v>0.4418578409250358</v>
+        <v>0.7821792456895792</v>
       </c>
       <c r="CZ4">
-        <v>0.4513220897700389</v>
+        <v>0.7821792456895792</v>
       </c>
       <c r="DA4">
-        <v>0.4528427194691068</v>
+        <v>0.7821792456895792</v>
       </c>
       <c r="DB4">
-        <v>0.4958384016016717</v>
+        <v>0.8209096815487043</v>
       </c>
       <c r="DC4">
-        <v>0.522249088070093</v>
+        <v>0.8209096815487043</v>
       </c>
       <c r="DD4">
-        <v>0.5408101102531487</v>
+        <v>0.8209096815487043</v>
       </c>
       <c r="DE4">
-        <v>0.5430950153152234</v>
+        <v>0.8209096815487043</v>
       </c>
       <c r="DF4">
-        <v>0.5833809893451383</v>
+        <v>0.8515429863684608</v>
       </c>
       <c r="DG4">
-        <v>0.5944173928434221</v>
+        <v>0.8515429863684608</v>
       </c>
       <c r="DH4">
-        <v>0.606709072142826</v>
+        <v>0.8515429863684608</v>
       </c>
       <c r="DI4">
-        <v>0.6749177649362694</v>
+        <v>0.9656147665659207</v>
       </c>
       <c r="DJ4">
-        <v>0.6942554283715194</v>
+        <v>0.9656147665659207</v>
       </c>
       <c r="DK4">
-        <v>0.7050139130643663</v>
+        <v>0.9656147665659207</v>
       </c>
       <c r="DL4">
-        <v>0.7076718118036613</v>
+        <v>0.9656147665659207</v>
       </c>
       <c r="DM4">
-        <v>0.7090229555855069</v>
+        <v>0.9656147665659207</v>
       </c>
       <c r="DN4">
-        <v>0.7157314975554422</v>
+        <v>0.9656147665659207</v>
       </c>
       <c r="DO4">
-        <v>0.7185748123285348</v>
+        <v>0.9656147665659207</v>
       </c>
       <c r="DP4">
-        <v>0.7185748123285348</v>
+        <v>0.9656147665659207</v>
       </c>
       <c r="DQ4">
-        <v>0.720736564426547</v>
+        <v>0.9656147665659207</v>
       </c>
       <c r="DR4">
-        <v>0.7252875401881622</v>
+        <v>0.9656147665659207</v>
       </c>
       <c r="DS4">
-        <v>0.7260141887504118</v>
+        <v>0.9656147665659207</v>
       </c>
       <c r="DT4">
-        <v>0.7262355804557028</v>
+        <v>0.9656147665659207</v>
       </c>
       <c r="DU4">
-        <v>0.7283445216816203</v>
+        <v>0.9656147665659207</v>
       </c>
       <c r="DV4">
-        <v>0.7296199227022616</v>
+        <v>0.9656147665659207</v>
       </c>
       <c r="DW4">
-        <v>0.7299726522461236</v>
+        <v>0.9656147665659207</v>
       </c>
       <c r="DX4">
-        <v>0.7624477277579123</v>
+        <v>0.972907598375088</v>
       </c>
       <c r="DY4">
-        <v>0.7624866385968472</v>
+        <v>0.972907598375088</v>
       </c>
       <c r="DZ4">
-        <v>0.7631798031300034</v>
+        <v>0.972907598375088</v>
       </c>
       <c r="EA4">
-        <v>0.8022808125062503</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EB4">
-        <v>0.8091206806980451</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EC4">
-        <v>0.8137120876226867</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ED4">
-        <v>0.8167440544848664</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EE4">
-        <v>0.817336111718174</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EF4">
-        <v>0.8222759418737483</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EG4">
-        <v>0.829851467659909</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EH4">
-        <v>0.8312534278446673</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EI4">
-        <v>0.8374705264392934</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EJ4">
-        <v>0.8391815218926746</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EK4">
-        <v>0.8424671447565688</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EL4">
-        <v>0.8503225671934337</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EM4">
-        <v>0.8544965926859974</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EN4">
-        <v>0.8549533180049796</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EO4">
-        <v>0.8550105231565495</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EP4">
-        <v>0.8563566645421017</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EQ4">
-        <v>0.8663507075326513</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ER4">
-        <v>0.8663507075326513</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ES4">
-        <v>0.8668667911226147</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ET4">
-        <v>0.8748157350966836</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EU4">
-        <v>0.8926938178240649</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EV4">
-        <v>0.8938644068654197</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EW4">
-        <v>0.8988277238083632</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EX4">
-        <v>0.900198969408065</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EY4">
-        <v>0.9009439342595644</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="EZ4">
-        <v>0.9156376465496749</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FA4">
-        <v>0.9224646665584693</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FB4">
-        <v>0.9229057082755046</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FC4">
-        <v>0.9295565071780409</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FD4">
-        <v>0.9313357345878138</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FE4">
-        <v>0.9412945008303198</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FF4">
-        <v>0.9434571641391719</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FG4">
-        <v>0.9434571641391719</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FH4">
-        <v>0.9471484630962038</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FI4">
-        <v>0.9476152011792401</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FJ4">
-        <v>0.9490655060111193</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FK4">
-        <v>0.9490683231097106</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FL4">
-        <v>0.9572024384656285</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FM4">
-        <v>0.9572659606346651</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FN4">
-        <v>0.9625997522310389</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FO4">
-        <v>0.9662684233363399</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FP4">
-        <v>0.9672376713947555</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FQ4">
-        <v>0.9672472883624291</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FR4">
-        <v>0.9674148847193883</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FS4">
-        <v>0.9674148847193883</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FT4">
-        <v>0.9674964934271627</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FU4">
-        <v>0.970421188671696</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FV4">
-        <v>0.971843334094316</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FW4">
-        <v>0.971843334094316</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FX4">
-        <v>0.9720179506202742</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FY4">
-        <v>0.972365905104883</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="FZ4">
-        <v>0.97267208152886</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GA4">
-        <v>0.9727873117034415</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GB4">
-        <v>0.9728041510530113</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GC4">
-        <v>0.9748363220396262</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GD4">
-        <v>0.9775209311035719</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GE4">
-        <v>0.9779015406347251</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GF4">
-        <v>0.9779446079780794</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GG4">
-        <v>0.9779827723141182</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GH4">
-        <v>0.9779827723141182</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GI4">
-        <v>0.9848248880391453</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GJ4">
-        <v>0.989681021791651</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GK4">
-        <v>0.990523861743256</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GL4">
-        <v>0.9913540698230392</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GM4">
-        <v>0.9925905730865646</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GN4">
-        <v>0.9925905730865646</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GO4">
-        <v>0.9934848842831179</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GP4">
-        <v>0.9943500570620407</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GQ4">
-        <v>0.9965665512102809</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GR4">
-        <v>0.9984612632526907</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GS4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GT4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GU4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GV4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GW4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GX4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GY4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="GZ4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HA4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HB4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HC4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HD4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HE4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HF4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HG4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HH4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HI4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HJ4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HK4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HL4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HM4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HN4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HO4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HP4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HQ4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HR4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HS4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HT4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HU4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HV4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HW4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HX4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HY4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="HZ4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IA4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IB4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IC4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="ID4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IE4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IF4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IG4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IH4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="II4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IJ4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IK4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IL4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IM4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IN4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IO4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IP4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IQ4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IR4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IS4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IT4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IU4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IV4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="IW4">
-        <v>1.000000000000001</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:257">
@@ -8964,772 +8964,772 @@
         <v>260</v>
       </c>
       <c r="B5">
-        <v>2.236123173722628E-05</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>9.620408442856368E-05</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0001998322990524173</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0002132312098231539</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0002132312098231539</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0002472734968926979</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0002472734968926979</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0002472734968926979</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0002579915418633895</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0002579915418633895</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0002953372227329604</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0002953372227329604</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.0003637941131456882</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0004176113117302547</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0004176113117302547</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.0004176113117302547</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.0004913974553874923</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.0004953278357564339</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>0.0005065607671349857</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.0006139247181499663</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>0.0006418224808055732</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.0006418224808055732</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.0006614988014582944</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.000709116522803662</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.000710162462147166</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.0007161065465937789</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.0007216825406755398</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.0007216825406755398</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.0007308394385736947</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.0007404040391027126</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.0007404040391027126</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.0007609343605833534</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.0007609343605833534</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.0007609343605833534</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.0007681466159404412</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.0007993159294778803</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.0008014939506586984</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.0008303453277084764</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.0008303453277084764</v>
+        <v>0</v>
       </c>
       <c r="AO5">
-        <v>0.0008850649574566485</v>
+        <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.0008850649574566485</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
-        <v>0.0008850649574566485</v>
+        <v>0</v>
       </c>
       <c r="AR5">
-        <v>0.0008850649574566485</v>
+        <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.0008855792614636291</v>
+        <v>0</v>
       </c>
       <c r="AT5">
-        <v>0.0008878105843331947</v>
+        <v>0</v>
       </c>
       <c r="AU5">
-        <v>0.001023973032999878</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0.001051556051009687</v>
+        <v>0</v>
       </c>
       <c r="AW5">
-        <v>0.001051556051009687</v>
+        <v>0</v>
       </c>
       <c r="AX5">
-        <v>0.001091455345588836</v>
+        <v>0</v>
       </c>
       <c r="AY5">
-        <v>0.001175941154065295</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
-        <v>0.001188057602088164</v>
+        <v>0</v>
       </c>
       <c r="BA5">
-        <v>0.001188057602088164</v>
+        <v>0</v>
       </c>
       <c r="BB5">
-        <v>0.001219354605517419</v>
+        <v>0</v>
       </c>
       <c r="BC5">
-        <v>0.001219354605517419</v>
+        <v>0</v>
       </c>
       <c r="BD5">
-        <v>0.001219354605517419</v>
+        <v>0</v>
       </c>
       <c r="BE5">
-        <v>0.001219354605517419</v>
+        <v>0</v>
       </c>
       <c r="BF5">
-        <v>0.001219354605517419</v>
+        <v>0</v>
       </c>
       <c r="BG5">
-        <v>0.001220229378643378</v>
+        <v>0</v>
       </c>
       <c r="BH5">
-        <v>0.001240621596063897</v>
+        <v>0</v>
       </c>
       <c r="BI5">
-        <v>0.001240621596063897</v>
+        <v>0</v>
       </c>
       <c r="BJ5">
-        <v>0.001240621596063897</v>
+        <v>0</v>
       </c>
       <c r="BK5">
-        <v>0.001240621596063897</v>
+        <v>0</v>
       </c>
       <c r="BL5">
-        <v>0.001300370577627701</v>
+        <v>0</v>
       </c>
       <c r="BM5">
-        <v>0.001300370577627701</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>0.001329382256016485</v>
+        <v>0</v>
       </c>
       <c r="BO5">
-        <v>0.001329382256016485</v>
+        <v>0</v>
       </c>
       <c r="BP5">
-        <v>0.001341636762067791</v>
+        <v>0</v>
       </c>
       <c r="BQ5">
-        <v>0.001341636762067791</v>
+        <v>0</v>
       </c>
       <c r="BR5">
-        <v>0.001341636762067791</v>
+        <v>0</v>
       </c>
       <c r="BS5">
-        <v>0.001341636762067791</v>
+        <v>0</v>
       </c>
       <c r="BT5">
-        <v>0.001341636762067791</v>
+        <v>0</v>
       </c>
       <c r="BU5">
-        <v>0.001349320511965144</v>
+        <v>0</v>
       </c>
       <c r="BV5">
-        <v>0.001349320511965144</v>
+        <v>0</v>
       </c>
       <c r="BW5">
-        <v>0.001349646592813904</v>
+        <v>0</v>
       </c>
       <c r="BX5">
-        <v>0.001349646592813904</v>
+        <v>0</v>
       </c>
       <c r="BY5">
-        <v>0.001361318155612298</v>
+        <v>0</v>
       </c>
       <c r="BZ5">
-        <v>0.00137445847939181</v>
+        <v>0</v>
       </c>
       <c r="CA5">
-        <v>0.001389375657219807</v>
+        <v>0</v>
       </c>
       <c r="CB5">
-        <v>0.001461445599577206</v>
+        <v>0</v>
       </c>
       <c r="CC5">
-        <v>0.001506682087866465</v>
+        <v>0</v>
       </c>
       <c r="CD5">
-        <v>0.001515815735761122</v>
+        <v>0</v>
       </c>
       <c r="CE5">
-        <v>0.001536730642960737</v>
+        <v>0</v>
       </c>
       <c r="CF5">
-        <v>0.001541964999885982</v>
+        <v>0</v>
       </c>
       <c r="CG5">
-        <v>0.001541964999885982</v>
+        <v>0</v>
       </c>
       <c r="CH5">
-        <v>0.001550697562704786</v>
+        <v>0</v>
       </c>
       <c r="CI5">
-        <v>0.001550697562704786</v>
+        <v>0</v>
       </c>
       <c r="CJ5">
-        <v>0.001550697562704786</v>
+        <v>0</v>
       </c>
       <c r="CK5">
-        <v>0.001572882735256527</v>
+        <v>0</v>
       </c>
       <c r="CL5">
-        <v>0.001572882735256527</v>
+        <v>0</v>
       </c>
       <c r="CM5">
-        <v>0.001574054126551423</v>
+        <v>0</v>
       </c>
       <c r="CN5">
-        <v>0.08013078150854093</v>
+        <v>0.1422929358197111</v>
       </c>
       <c r="CO5">
-        <v>0.08262274951099616</v>
+        <v>0.1422929358197111</v>
       </c>
       <c r="CP5">
-        <v>0.2932585758985332</v>
+        <v>0.6717702421152758</v>
       </c>
       <c r="CQ5">
-        <v>0.297188817496956</v>
+        <v>0.6717702421152758</v>
       </c>
       <c r="CR5">
-        <v>0.3107362059932405</v>
+        <v>0.6717702421152758</v>
       </c>
       <c r="CS5">
-        <v>0.3130163008586646</v>
+        <v>0.6717702421152758</v>
       </c>
       <c r="CT5">
-        <v>0.3130163008586646</v>
+        <v>0.6717702421152758</v>
       </c>
       <c r="CU5">
-        <v>0.3130298163616884</v>
+        <v>0.6717702421152758</v>
       </c>
       <c r="CV5">
-        <v>0.3406215594021321</v>
+        <v>0.6717702421152758</v>
       </c>
       <c r="CW5">
-        <v>0.3425146132585507</v>
+        <v>0.6717702421152758</v>
       </c>
       <c r="CX5">
-        <v>0.4257159936593634</v>
+        <v>0.8276787845579264</v>
       </c>
       <c r="CY5">
-        <v>0.4305124211729746</v>
+        <v>0.8276787845579264</v>
       </c>
       <c r="CZ5">
-        <v>0.4366269039335681</v>
+        <v>0.8276787845579264</v>
       </c>
       <c r="DA5">
-        <v>0.4473242802025287</v>
+        <v>0.8276787845579264</v>
       </c>
       <c r="DB5">
-        <v>0.469488987692709</v>
+        <v>0.8276787845579264</v>
       </c>
       <c r="DC5">
-        <v>0.5276011706363192</v>
+        <v>0.9100393909807887</v>
       </c>
       <c r="DD5">
-        <v>0.5320719644089246</v>
+        <v>0.9100393909807887</v>
       </c>
       <c r="DE5">
-        <v>0.5497148023949281</v>
+        <v>0.9100393909807887</v>
       </c>
       <c r="DF5">
-        <v>0.5870016748103213</v>
+        <v>0.9313514680940043</v>
       </c>
       <c r="DG5">
-        <v>0.5870016748103213</v>
+        <v>0.9313514680940043</v>
       </c>
       <c r="DH5">
-        <v>0.6151032337684931</v>
+        <v>0.9313514680940043</v>
       </c>
       <c r="DI5">
-        <v>0.6522282587806894</v>
+        <v>0.9521890962944719</v>
       </c>
       <c r="DJ5">
-        <v>0.6985546002653412</v>
+        <v>1</v>
       </c>
       <c r="DK5">
-        <v>0.7020489597363215</v>
+        <v>1</v>
       </c>
       <c r="DL5">
-        <v>0.7066175664357578</v>
+        <v>1</v>
       </c>
       <c r="DM5">
-        <v>0.7075297007032275</v>
+        <v>1</v>
       </c>
       <c r="DN5">
-        <v>0.7089551424917743</v>
+        <v>1</v>
       </c>
       <c r="DO5">
-        <v>0.7146462491330912</v>
+        <v>1</v>
       </c>
       <c r="DP5">
-        <v>0.7146950785905016</v>
+        <v>1</v>
       </c>
       <c r="DQ5">
-        <v>0.7162746101424878</v>
+        <v>1</v>
       </c>
       <c r="DR5">
-        <v>0.7207360550800804</v>
+        <v>1</v>
       </c>
       <c r="DS5">
-        <v>0.722607246187879</v>
+        <v>1</v>
       </c>
       <c r="DT5">
-        <v>0.7228555071464637</v>
+        <v>1</v>
       </c>
       <c r="DU5">
-        <v>0.7246761781801624</v>
+        <v>1</v>
       </c>
       <c r="DV5">
-        <v>0.726024445247618</v>
+        <v>1</v>
       </c>
       <c r="DW5">
-        <v>0.7308791808960259</v>
+        <v>1</v>
       </c>
       <c r="DX5">
-        <v>0.7495996956711288</v>
+        <v>1</v>
       </c>
       <c r="DY5">
-        <v>0.7531468049509855</v>
+        <v>1</v>
       </c>
       <c r="DZ5">
-        <v>0.7564631817124758</v>
+        <v>1</v>
       </c>
       <c r="EA5">
-        <v>0.7785530006551896</v>
+        <v>1</v>
       </c>
       <c r="EB5">
-        <v>0.7953798539806538</v>
+        <v>1</v>
       </c>
       <c r="EC5">
-        <v>0.7974080054277736</v>
+        <v>1</v>
       </c>
       <c r="ED5">
-        <v>0.7996548069766612</v>
+        <v>1</v>
       </c>
       <c r="EE5">
-        <v>0.8029727952473895</v>
+        <v>1</v>
       </c>
       <c r="EF5">
-        <v>0.8043758772451909</v>
+        <v>1</v>
       </c>
       <c r="EG5">
-        <v>0.8180956138725588</v>
+        <v>1</v>
       </c>
       <c r="EH5">
-        <v>0.8181416833151892</v>
+        <v>1</v>
       </c>
       <c r="EI5">
-        <v>0.8275089210199496</v>
+        <v>1</v>
       </c>
       <c r="EJ5">
-        <v>0.8302601948083919</v>
+        <v>1</v>
       </c>
       <c r="EK5">
-        <v>0.8321253353514509</v>
+        <v>1</v>
       </c>
       <c r="EL5">
-        <v>0.8394757653422374</v>
+        <v>1</v>
       </c>
       <c r="EM5">
-        <v>0.8479811718292452</v>
+        <v>1</v>
       </c>
       <c r="EN5">
-        <v>0.8485654758438006</v>
+        <v>1</v>
       </c>
       <c r="EO5">
-        <v>0.8495972483609603</v>
+        <v>1</v>
       </c>
       <c r="EP5">
-        <v>0.8499493879515367</v>
+        <v>1</v>
       </c>
       <c r="EQ5">
-        <v>0.8597182030710364</v>
+        <v>1</v>
       </c>
       <c r="ER5">
-        <v>0.8622901224057865</v>
+        <v>1</v>
       </c>
       <c r="ES5">
-        <v>0.8626909090712355</v>
+        <v>1</v>
       </c>
       <c r="ET5">
-        <v>0.8658054125788385</v>
+        <v>1</v>
       </c>
       <c r="EU5">
-        <v>0.8908036394439425</v>
+        <v>1</v>
       </c>
       <c r="EV5">
-        <v>0.8909281386945684</v>
+        <v>1</v>
       </c>
       <c r="EW5">
-        <v>0.8975584004774286</v>
+        <v>1</v>
       </c>
       <c r="EX5">
-        <v>0.8979105400680051</v>
+        <v>1</v>
       </c>
       <c r="EY5">
-        <v>0.90033144095337</v>
+        <v>1</v>
       </c>
       <c r="EZ5">
-        <v>0.9086623183080623</v>
+        <v>1</v>
       </c>
       <c r="FA5">
-        <v>0.9238312854733065</v>
+        <v>1</v>
       </c>
       <c r="FB5">
-        <v>0.9238370346325817</v>
+        <v>1</v>
       </c>
       <c r="FC5">
-        <v>0.926077206918399</v>
+        <v>1</v>
       </c>
       <c r="FD5">
-        <v>0.9329418566357303</v>
+        <v>1</v>
       </c>
       <c r="FE5">
-        <v>0.9393055249163048</v>
+        <v>1</v>
       </c>
       <c r="FF5">
-        <v>0.9439382197290266</v>
+        <v>1</v>
       </c>
       <c r="FG5">
-        <v>0.9439382197290266</v>
+        <v>1</v>
       </c>
       <c r="FH5">
-        <v>0.9459371894897372</v>
+        <v>1</v>
       </c>
       <c r="FI5">
-        <v>0.94665292307021</v>
+        <v>1</v>
       </c>
       <c r="FJ5">
-        <v>0.9477749954427851</v>
+        <v>1</v>
       </c>
       <c r="FK5">
-        <v>0.9481304304216512</v>
+        <v>1</v>
       </c>
       <c r="FL5">
-        <v>0.9537453257049815</v>
+        <v>1</v>
       </c>
       <c r="FM5">
-        <v>0.9552727308772117</v>
+        <v>1</v>
       </c>
       <c r="FN5">
-        <v>0.9594654853691456</v>
+        <v>1</v>
       </c>
       <c r="FO5">
-        <v>0.9637841845516341</v>
+        <v>1</v>
       </c>
       <c r="FP5">
-        <v>0.9657029048748573</v>
+        <v>1</v>
       </c>
       <c r="FQ5">
-        <v>0.9657445296571283</v>
+        <v>1</v>
       </c>
       <c r="FR5">
-        <v>0.9659799756749019</v>
+        <v>1</v>
       </c>
       <c r="FS5">
-        <v>0.9661187987749545</v>
+        <v>1</v>
       </c>
       <c r="FT5">
-        <v>0.9661236339095861</v>
+        <v>1</v>
       </c>
       <c r="FU5">
-        <v>0.9684087704453048</v>
+        <v>1</v>
       </c>
       <c r="FV5">
-        <v>0.9716446916274158</v>
+        <v>1</v>
       </c>
       <c r="FW5">
-        <v>0.971807140889886</v>
+        <v>1</v>
       </c>
       <c r="FX5">
-        <v>0.9721360455673507</v>
+        <v>1</v>
       </c>
       <c r="FY5">
-        <v>0.9722708870667783</v>
+        <v>1</v>
       </c>
       <c r="FZ5">
-        <v>0.9727473668935275</v>
+        <v>1</v>
       </c>
       <c r="GA5">
-        <v>0.9727549337479631</v>
+        <v>1</v>
       </c>
       <c r="GB5">
-        <v>0.9727549337479631</v>
+        <v>1</v>
       </c>
       <c r="GC5">
-        <v>0.9740231751319464</v>
+        <v>1</v>
       </c>
       <c r="GD5">
-        <v>0.9768468515567468</v>
+        <v>1</v>
       </c>
       <c r="GE5">
-        <v>0.9774387976315037</v>
+        <v>1</v>
       </c>
       <c r="GF5">
-        <v>0.9774501396344586</v>
+        <v>1</v>
       </c>
       <c r="GG5">
-        <v>0.9774741017241022</v>
+        <v>1</v>
       </c>
       <c r="GH5">
-        <v>0.9775863056215609</v>
+        <v>1</v>
       </c>
       <c r="GI5">
-        <v>0.9818678857541751</v>
+        <v>1</v>
       </c>
       <c r="GJ5">
-        <v>0.9896163515219123</v>
+        <v>1</v>
       </c>
       <c r="GK5">
-        <v>0.9896163515219123</v>
+        <v>1</v>
       </c>
       <c r="GL5">
-        <v>0.9920472199681729</v>
+        <v>1</v>
       </c>
       <c r="GM5">
-        <v>0.9924284276669801</v>
+        <v>1</v>
       </c>
       <c r="GN5">
-        <v>0.9925442059547718</v>
+        <v>1</v>
       </c>
       <c r="GO5">
-        <v>0.993170073978767</v>
+        <v>1</v>
       </c>
       <c r="GP5">
-        <v>0.9939371322171527</v>
+        <v>1</v>
       </c>
       <c r="GQ5">
-        <v>0.9967089967786859</v>
+        <v>1</v>
       </c>
       <c r="GR5">
-        <v>0.9986424612506373</v>
+        <v>1</v>
       </c>
       <c r="GS5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GT5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GU5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GV5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GW5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GX5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GY5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="GZ5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HA5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HB5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HC5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HD5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HE5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HF5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HG5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HH5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HI5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HJ5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HK5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HL5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HM5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HN5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HO5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HP5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HQ5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HR5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HS5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HT5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HU5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HV5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HW5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HX5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HY5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="HZ5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IA5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IB5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IC5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="ID5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IE5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IF5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IG5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IH5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="II5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IJ5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IK5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IL5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IM5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IN5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IO5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IP5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IQ5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IR5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IS5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IT5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IU5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IV5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
       <c r="IW5">
-        <v>0.9999999999999994</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:257">
@@ -9743,595 +9743,595 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.575505185750226E-06</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>7.575505185750226E-06</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>6.636708803747668E-05</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>8.478620913092053E-05</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>8.478620913092053E-05</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>8.478620913092053E-05</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.00010412455028761</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.0001078854334233678</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0001215333617535233</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0001304913821887045</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.0001304913821887045</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0001304913821887045</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.00015256422829689</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.0001532668821393183</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.0001532668821393183</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0001532668821393183</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.0001655296523719108</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.0001655296523719108</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.0001655296523719108</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.0001900516660329334</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.0002076200846798897</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.0002076200846798897</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.0002119875861493345</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0002720127837613693</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0003569148893496209</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.0003569148893496209</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.0003613965063355055</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>0.0005048686765969037</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.0005428565366746308</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.0005428565366746308</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.0005428565366746308</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.0005428565366746308</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0.0005428565366746308</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0.0005428565366746308</v>
+        <v>0</v>
       </c>
       <c r="AL6">
-        <v>0.0005708798230016669</v>
+        <v>0</v>
       </c>
       <c r="AM6">
-        <v>0.0005820110052402324</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>0.0005820110052402324</v>
+        <v>0</v>
       </c>
       <c r="AO6">
-        <v>0.0005858840646011386</v>
+        <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.0005858840646011386</v>
+        <v>0</v>
       </c>
       <c r="AQ6">
-        <v>0.0005858840646011386</v>
+        <v>0</v>
       </c>
       <c r="AR6">
-        <v>0.0005858840646011386</v>
+        <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.0005858840646011386</v>
+        <v>0</v>
       </c>
       <c r="AT6">
-        <v>0.0005858840646011386</v>
+        <v>0</v>
       </c>
       <c r="AU6">
-        <v>0.0005858840646011386</v>
+        <v>0</v>
       </c>
       <c r="AV6">
-        <v>0.0005858840646011386</v>
+        <v>0</v>
       </c>
       <c r="AW6">
-        <v>0.0005858840646011386</v>
+        <v>0</v>
       </c>
       <c r="AX6">
-        <v>0.0005858840646011386</v>
+        <v>0</v>
       </c>
       <c r="AY6">
-        <v>0.0005858840646011386</v>
+        <v>0</v>
       </c>
       <c r="AZ6">
-        <v>0.0005858840646011386</v>
+        <v>0</v>
       </c>
       <c r="BA6">
-        <v>0.0005858840646011386</v>
+        <v>0</v>
       </c>
       <c r="BB6">
-        <v>0.0006045119276016469</v>
+        <v>0</v>
       </c>
       <c r="BC6">
-        <v>0.0006045119276016469</v>
+        <v>0</v>
       </c>
       <c r="BD6">
-        <v>0.0006045119276016469</v>
+        <v>0</v>
       </c>
       <c r="BE6">
-        <v>0.0006045119276016469</v>
+        <v>0</v>
       </c>
       <c r="BF6">
-        <v>0.0006223812400707376</v>
+        <v>0</v>
       </c>
       <c r="BG6">
-        <v>0.0006223812400707376</v>
+        <v>0</v>
       </c>
       <c r="BH6">
-        <v>0.0006358890252902221</v>
+        <v>0</v>
       </c>
       <c r="BI6">
-        <v>0.000639803678691012</v>
+        <v>0</v>
       </c>
       <c r="BJ6">
-        <v>0.0006477057525124898</v>
+        <v>0</v>
       </c>
       <c r="BK6">
-        <v>0.0006477057525124898</v>
+        <v>0</v>
       </c>
       <c r="BL6">
-        <v>0.0006477057525124898</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>0.0006477057525124898</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>0.0006646217625002747</v>
+        <v>0</v>
       </c>
       <c r="BO6">
-        <v>0.0006646217625002747</v>
+        <v>0</v>
       </c>
       <c r="BP6">
-        <v>0.0006646217625002747</v>
+        <v>0</v>
       </c>
       <c r="BQ6">
-        <v>0.0006646217625002747</v>
+        <v>0</v>
       </c>
       <c r="BR6">
-        <v>0.0006850489701161706</v>
+        <v>0</v>
       </c>
       <c r="BS6">
-        <v>0.0006850489701161706</v>
+        <v>0</v>
       </c>
       <c r="BT6">
-        <v>0.0006872100702292749</v>
+        <v>0</v>
       </c>
       <c r="BU6">
-        <v>0.0006872100702292749</v>
+        <v>0</v>
       </c>
       <c r="BV6">
-        <v>0.0006934025289902018</v>
+        <v>0</v>
       </c>
       <c r="BW6">
-        <v>0.0006934025289902018</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>0.0006934025289902018</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>0.0006934025289902018</v>
+        <v>0</v>
       </c>
       <c r="BZ6">
-        <v>0.0006934025289902018</v>
+        <v>0</v>
       </c>
       <c r="CA6">
-        <v>0.0006934025289902018</v>
+        <v>0</v>
       </c>
       <c r="CB6">
-        <v>0.0007014294290289104</v>
+        <v>0</v>
       </c>
       <c r="CC6">
-        <v>0.0007014294290289104</v>
+        <v>0</v>
       </c>
       <c r="CD6">
-        <v>0.0007159258058178975</v>
+        <v>0</v>
       </c>
       <c r="CE6">
-        <v>0.0007159258058178975</v>
+        <v>0</v>
       </c>
       <c r="CF6">
-        <v>0.0007159258058178975</v>
+        <v>0</v>
       </c>
       <c r="CG6">
-        <v>0.0007523804261208176</v>
+        <v>0</v>
       </c>
       <c r="CH6">
-        <v>0.0007785804018000884</v>
+        <v>0</v>
       </c>
       <c r="CI6">
-        <v>0.0007874109331255522</v>
+        <v>0</v>
       </c>
       <c r="CJ6">
-        <v>0.0008026242884548631</v>
+        <v>0</v>
       </c>
       <c r="CK6">
-        <v>0.0008135380465742416</v>
+        <v>0</v>
       </c>
       <c r="CL6">
-        <v>0.0008230096454631385</v>
+        <v>0</v>
       </c>
       <c r="CM6">
-        <v>0.004868251296793445</v>
+        <v>0</v>
       </c>
       <c r="CN6">
-        <v>0.1363022926982274</v>
+        <v>0.2723896438799221</v>
       </c>
       <c r="CO6">
-        <v>0.2580031704164628</v>
+        <v>0.5186283284932405</v>
       </c>
       <c r="CP6">
-        <v>0.3480743595093012</v>
+        <v>0.6798847066560928</v>
       </c>
       <c r="CQ6">
-        <v>0.3621557001834633</v>
+        <v>0.6798847066560928</v>
       </c>
       <c r="CR6">
-        <v>0.3758534299980527</v>
+        <v>0.6798847066560928</v>
       </c>
       <c r="CS6">
-        <v>0.3762134941361047</v>
+        <v>0.6798847066560928</v>
       </c>
       <c r="CT6">
-        <v>0.377705506365011</v>
+        <v>0.6798847066560928</v>
       </c>
       <c r="CU6">
-        <v>0.3840738716574156</v>
+        <v>0.6798847066560928</v>
       </c>
       <c r="CV6">
-        <v>0.3923520520157939</v>
+        <v>0.6798847066560928</v>
       </c>
       <c r="CW6">
-        <v>0.4616226372361827</v>
+        <v>0.7852542465519412</v>
       </c>
       <c r="CX6">
-        <v>0.4806829805182165</v>
+        <v>0.7852542465519412</v>
       </c>
       <c r="CY6">
-        <v>0.4812818580760043</v>
+        <v>0.7852542465519412</v>
       </c>
       <c r="CZ6">
-        <v>0.5049633531084365</v>
+        <v>0.7852542465519412</v>
       </c>
       <c r="DA6">
-        <v>0.5064564088464347</v>
+        <v>0.7852542465519412</v>
       </c>
       <c r="DB6">
-        <v>0.5790018346807678</v>
+        <v>0.8994225929086025</v>
       </c>
       <c r="DC6">
-        <v>0.5817094824853868</v>
+        <v>0.8994225929086025</v>
       </c>
       <c r="DD6">
-        <v>0.6170851505504307</v>
+        <v>0.9137236347574669</v>
       </c>
       <c r="DE6">
-        <v>0.6236374031512899</v>
+        <v>0.9137236347574669</v>
       </c>
       <c r="DF6">
-        <v>0.6369021308125484</v>
+        <v>0.9137236347574669</v>
       </c>
       <c r="DG6">
-        <v>0.6597712010999359</v>
+        <v>0.9137236347574669</v>
       </c>
       <c r="DH6">
-        <v>0.6631263151270319</v>
+        <v>0.9137236347574669</v>
       </c>
       <c r="DI6">
-        <v>0.7210451780947715</v>
+        <v>0.9885934896693599</v>
       </c>
       <c r="DJ6">
-        <v>0.7214967158669838</v>
+        <v>0.9885934896693599</v>
       </c>
       <c r="DK6">
-        <v>0.7239519040253024</v>
+        <v>0.9885934896693599</v>
       </c>
       <c r="DL6">
-        <v>0.7239519040253024</v>
+        <v>0.9885934896693599</v>
       </c>
       <c r="DM6">
-        <v>0.724182021074586</v>
+        <v>0.9885934896693599</v>
       </c>
       <c r="DN6">
-        <v>0.7328807249734429</v>
+        <v>0.9885934896693599</v>
       </c>
       <c r="DO6">
-        <v>0.732919877938682</v>
+        <v>0.9885934896693599</v>
       </c>
       <c r="DP6">
-        <v>0.7331058686345423</v>
+        <v>0.9885934896693599</v>
       </c>
       <c r="DQ6">
-        <v>0.7377489227337701</v>
+        <v>0.9885934896693599</v>
       </c>
       <c r="DR6">
-        <v>0.7396571586884639</v>
+        <v>0.9885934896693599</v>
       </c>
       <c r="DS6">
-        <v>0.7401225000855338</v>
+        <v>0.9885934896693599</v>
       </c>
       <c r="DT6">
-        <v>0.7405778903826681</v>
+        <v>0.9885934896693599</v>
       </c>
       <c r="DU6">
-        <v>0.7428495834003265</v>
+        <v>0.9885934896693599</v>
       </c>
       <c r="DV6">
-        <v>0.7454773569580746</v>
+        <v>0.9885934896693599</v>
       </c>
       <c r="DW6">
-        <v>0.746860808662707</v>
+        <v>0.9885934896693599</v>
       </c>
       <c r="DX6">
-        <v>0.7604654043888592</v>
+        <v>0.9885934896693599</v>
       </c>
       <c r="DY6">
-        <v>0.7619695745209469</v>
+        <v>0.9885934896693599</v>
       </c>
       <c r="DZ6">
-        <v>0.7676325594376114</v>
+        <v>0.9885934896693599</v>
       </c>
       <c r="EA6">
-        <v>0.80193090759382</v>
+        <v>1</v>
       </c>
       <c r="EB6">
-        <v>0.8019433072529624</v>
+        <v>1</v>
       </c>
       <c r="EC6">
-        <v>0.805304088520609</v>
+        <v>1</v>
       </c>
       <c r="ED6">
-        <v>0.8079015476982652</v>
+        <v>1</v>
       </c>
       <c r="EE6">
-        <v>0.8079253477904481</v>
+        <v>1</v>
       </c>
       <c r="EF6">
-        <v>0.8206321588859853</v>
+        <v>1</v>
       </c>
       <c r="EG6">
-        <v>0.8218097461508538</v>
+        <v>1</v>
       </c>
       <c r="EH6">
-        <v>0.828607463519647</v>
+        <v>1</v>
       </c>
       <c r="EI6">
-        <v>0.835689920965337</v>
+        <v>1</v>
       </c>
       <c r="EJ6">
-        <v>0.8382709191178022</v>
+        <v>1</v>
       </c>
       <c r="EK6">
-        <v>0.8447550014705657</v>
+        <v>1</v>
       </c>
       <c r="EL6">
-        <v>0.8564592881658341</v>
+        <v>1</v>
       </c>
       <c r="EM6">
-        <v>0.8564592881658341</v>
+        <v>1</v>
       </c>
       <c r="EN6">
-        <v>0.8580337786036957</v>
+        <v>1</v>
       </c>
       <c r="EO6">
-        <v>0.8580999240542907</v>
+        <v>1</v>
       </c>
       <c r="EP6">
-        <v>0.8613191049866991</v>
+        <v>1</v>
       </c>
       <c r="EQ6">
-        <v>0.8688136519098529</v>
+        <v>1</v>
       </c>
       <c r="ER6">
-        <v>0.8688276701385891</v>
+        <v>1</v>
       </c>
       <c r="ES6">
-        <v>0.8688999308912114</v>
+        <v>1</v>
       </c>
       <c r="ET6">
-        <v>0.8878948584203357</v>
+        <v>1</v>
       </c>
       <c r="EU6">
-        <v>0.8954852320902794</v>
+        <v>1</v>
       </c>
       <c r="EV6">
-        <v>0.9009188863407802</v>
+        <v>1</v>
       </c>
       <c r="EW6">
-        <v>0.900996620344691</v>
+        <v>1</v>
       </c>
       <c r="EX6">
-        <v>0.9054084387623098</v>
+        <v>1</v>
       </c>
       <c r="EY6">
-        <v>0.9062131818923675</v>
+        <v>1</v>
       </c>
       <c r="EZ6">
-        <v>0.9247315498837605</v>
+        <v>1</v>
       </c>
       <c r="FA6">
-        <v>0.9265077585866716</v>
+        <v>1</v>
       </c>
       <c r="FB6">
-        <v>0.9271263357660626</v>
+        <v>1</v>
       </c>
       <c r="FC6">
-        <v>0.9351509430142518</v>
+        <v>1</v>
       </c>
       <c r="FD6">
-        <v>0.9351948865491315</v>
+        <v>1</v>
       </c>
       <c r="FE6">
-        <v>0.9442827606092631</v>
+        <v>1</v>
       </c>
       <c r="FF6">
-        <v>0.9445365107541972</v>
+        <v>1</v>
       </c>
       <c r="FG6">
-        <v>0.9448031622875073</v>
+        <v>1</v>
       </c>
       <c r="FH6">
-        <v>0.9456306521117739</v>
+        <v>1</v>
       </c>
       <c r="FI6">
-        <v>0.9457729907437256</v>
+        <v>1</v>
       </c>
       <c r="FJ6">
-        <v>0.9470256207642724</v>
+        <v>1</v>
       </c>
       <c r="FK6">
-        <v>0.9479198884355097</v>
+        <v>1</v>
       </c>
       <c r="FL6">
-        <v>0.9536295627671766</v>
+        <v>1</v>
       </c>
       <c r="FM6">
-        <v>0.9553203631774013</v>
+        <v>1</v>
       </c>
       <c r="FN6">
-        <v>0.9605710231956591</v>
+        <v>1</v>
       </c>
       <c r="FO6">
-        <v>0.9635747364380949</v>
+        <v>1</v>
       </c>
       <c r="FP6">
-        <v>0.9640858426040971</v>
+        <v>1</v>
       </c>
       <c r="FQ6">
-        <v>0.9640979688442139</v>
+        <v>1</v>
       </c>
       <c r="FR6">
-        <v>0.9647131703037641</v>
+        <v>1</v>
       </c>
       <c r="FS6">
-        <v>0.9647873424459366</v>
+        <v>1</v>
       </c>
       <c r="FT6">
-        <v>0.9652683265574277</v>
+        <v>1</v>
       </c>
       <c r="FU6">
-        <v>0.9695048351469625</v>
+        <v>1</v>
       </c>
       <c r="FV6">
-        <v>0.9711772255191931</v>
+        <v>1</v>
       </c>
       <c r="FW6">
-        <v>0.9714105557586696</v>
+        <v>1</v>
       </c>
       <c r="FX6">
-        <v>0.9714136511872782</v>
+        <v>1</v>
       </c>
       <c r="FY6">
-        <v>0.9720581790607347</v>
+        <v>1</v>
       </c>
       <c r="FZ6">
-        <v>0.9721099159979661</v>
+        <v>1</v>
       </c>
       <c r="GA6">
-        <v>0.9723186946693833</v>
+        <v>1</v>
       </c>
       <c r="GB6">
-        <v>0.9727911232991826</v>
+        <v>1</v>
       </c>
       <c r="GC6">
-        <v>0.9747599449186983</v>
+        <v>1</v>
       </c>
       <c r="GD6">
-        <v>0.9756718207134421</v>
+        <v>1</v>
       </c>
       <c r="GE6">
-        <v>0.9756718207134421</v>
+        <v>1</v>
       </c>
       <c r="GF6">
-        <v>0.9756718207134421</v>
+        <v>1</v>
       </c>
       <c r="GG6">
-        <v>0.9760631792802517</v>
+        <v>1</v>
       </c>
       <c r="GH6">
-        <v>0.9772011967845906</v>
+        <v>1</v>
       </c>
       <c r="GI6">
-        <v>0.9851018236873059</v>
+        <v>1</v>
       </c>
       <c r="GJ6">
-        <v>0.9876125909318179</v>
+        <v>1</v>
       </c>
       <c r="GK6">
-        <v>0.9892581830043893</v>
+        <v>1</v>
       </c>
       <c r="GL6">
-        <v>0.9894652129061039</v>
+        <v>1</v>
       </c>
       <c r="GM6">
-        <v>0.9899080930004833</v>
+        <v>1</v>
       </c>
       <c r="GN6">
-        <v>0.9899171788748354</v>
+        <v>1</v>
       </c>
       <c r="GO6">
-        <v>0.9907366015880839</v>
+        <v>1</v>
       </c>
       <c r="GP6">
-        <v>0.9944678296857511</v>
+        <v>1</v>
       </c>
       <c r="GQ6">
-        <v>0.9964282800813031</v>
+        <v>1</v>
       </c>
       <c r="GR6">
-        <v>0.9983827618694358</v>
+        <v>1</v>
       </c>
       <c r="GS6">
         <v>1</v>
@@ -10570,16 +10570,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="E2">
-        <v>0.0008426429040598789</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.523304727513703</v>
+        <v>0.7332685006626908</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>60</v>
@@ -10608,19 +10608,19 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="E3">
-        <v>0.06133876988936337</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5045312164084066</v>
+        <v>0.615680952324869</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>60</v>
@@ -10652,16 +10652,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>0.0009450156384022643</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.522249088070093</v>
+        <v>0.6702809612391292</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>60</v>
@@ -10690,19 +10690,19 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="E5">
-        <v>0.08013078150854093</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5276011706363192</v>
+        <v>0.6717702421152758</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>60</v>
@@ -10734,16 +10734,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="E6">
-        <v>0.0008230096454631385</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5049633531084365</v>
+        <v>0.5186283284932405</v>
       </c>
       <c r="G6">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <v>60</v>
@@ -10829,16 +10829,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="E2">
-        <v>0.0008426429040598789</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7054729783950195</v>
+        <v>0.7332685006626908</v>
       </c>
       <c r="G2">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <v>60</v>
@@ -10867,19 +10867,19 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="E3">
-        <v>0.06133876988936337</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.700155186482365</v>
+        <v>0.743137920756185</v>
       </c>
       <c r="G3">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>60</v>
@@ -10911,16 +10911,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="E4">
-        <v>0.0009450156384022643</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7050139130643663</v>
+        <v>0.7821792456895792</v>
       </c>
       <c r="G4">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H4">
         <v>60</v>
@@ -10949,19 +10949,19 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="E5">
-        <v>0.08013078150854093</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7020489597363215</v>
+        <v>0.8276787845579264</v>
       </c>
       <c r="G5">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <v>60</v>
@@ -10993,16 +10993,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="E6">
-        <v>0.0008230096454631385</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7210451780947715</v>
+        <v>0.7852542465519412</v>
       </c>
       <c r="G6">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="H6">
         <v>60</v>
@@ -11088,16 +11088,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="E2">
-        <v>0.0008426429040598789</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8038077211474605</v>
+        <v>0.8577405566124713</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="H2">
         <v>60</v>
@@ -11126,19 +11126,19 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="E3">
-        <v>0.06133876988936337</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8014540114028613</v>
+        <v>0.8150507292404625</v>
       </c>
       <c r="G3">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>60</v>
@@ -11170,16 +11170,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="E4">
-        <v>0.0009450156384022643</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8022808125062503</v>
+        <v>0.8209096815487043</v>
       </c>
       <c r="G4">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>60</v>
@@ -11208,19 +11208,19 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="E5">
-        <v>0.08013078150854093</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8029727952473895</v>
+        <v>0.8276787845579264</v>
       </c>
       <c r="G5">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="H5">
         <v>60</v>
@@ -11252,16 +11252,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="E6">
-        <v>0.0008230096454631385</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.80193090759382</v>
+        <v>0.8994225929086025</v>
       </c>
       <c r="G6">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>60</v>
@@ -11347,16 +11347,16 @@
         <v>89</v>
       </c>
       <c r="D2">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="E2">
-        <v>0.0008426429040598789</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9129971229836139</v>
+        <v>0.9231459075596932</v>
       </c>
       <c r="G2">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>60</v>
@@ -11385,19 +11385,19 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>156</v>
+        <v>113</v>
       </c>
       <c r="E3">
-        <v>0.06133876988936337</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.91715332082317</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="H3">
         <v>60</v>
@@ -11429,16 +11429,16 @@
         <v>89</v>
       </c>
       <c r="D4">
-        <v>153</v>
+        <v>112</v>
       </c>
       <c r="E4">
-        <v>0.0009450156384022643</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.900198969408065</v>
+        <v>0.9656147665659207</v>
       </c>
       <c r="G4">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="H4">
         <v>60</v>
@@ -11467,19 +11467,19 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="E5">
-        <v>0.08013078150854093</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.90033144095337</v>
+        <v>0.9100393909807887</v>
       </c>
       <c r="G5">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>60</v>
@@ -11511,16 +11511,16 @@
         <v>89</v>
       </c>
       <c r="D6">
-        <v>151</v>
+        <v>107</v>
       </c>
       <c r="E6">
-        <v>0.0008230096454631385</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9009188863407802</v>
+        <v>0.9137236347574669</v>
       </c>
       <c r="G6">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="H6">
         <v>60</v>

--- a/on_trucks/Processed_Stand_Alone/60_11R22.xlsx
+++ b/on_trucks/Processed_Stand_Alone/60_11R22.xlsx
@@ -180,7 +180,7 @@
     <t>11R22.5</t>
   </si>
   <si>
-    <t>710Rバフ100</t>
+    <t>710R</t>
   </si>
   <si>
     <t>100%</t>
@@ -668,19 +668,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1859179992662418</v>
+        <v>0.1608144049558392</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4731567675752307</v>
+        <v>0.3703727364680821</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.009818955953831142</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -692,49 +692,49 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.02434054712725794</v>
+        <v>0.04293372513123797</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.006775480508511659</v>
       </c>
       <c r="N2">
-        <v>0.1196397569038763</v>
+        <v>0.112460354537128</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.01102242327698758</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.05183523160583063</v>
+        <v>0.06299278693095725</v>
       </c>
       <c r="S2">
-        <v>0.04216952978293975</v>
+        <v>0.05594106352041486</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.007073425420849847</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>0.02555782865045644</v>
+        <v>0.0438218068010067</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.009166064514120159</v>
       </c>
       <c r="Y2">
-        <v>0.06910634619363516</v>
+        <v>0.07559312628516208</v>
       </c>
       <c r="Z2">
-        <v>0.008275992894531362</v>
+        <v>0.03121364569587169</v>
       </c>
       <c r="AA2">
         <v>0</v>
@@ -775,13 +775,13 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.09708011582087657</v>
+        <v>0.09328758731335501</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4574485539965081</v>
+        <v>0.3467044346567913</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -799,16 +799,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.02573922835612504</v>
+        <v>0.0431195346405815</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.124364662882058</v>
+        <v>0.112474517035731</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.01918185967953922</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -817,37 +817,37 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.01573615402619858</v>
       </c>
       <c r="S3">
-        <v>0.08183150508227119</v>
+        <v>0.08256452044515905</v>
       </c>
       <c r="T3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.002903587493879077</v>
+        <v>0.0270611468869987</v>
       </c>
       <c r="V3">
-        <v>0.0129041834716855</v>
+        <v>0.03409372586944558</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.05561021259710384</v>
+        <v>0.06412528834009124</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>0.02220976361470356</v>
       </c>
       <c r="Z3">
-        <v>0.1421179502994927</v>
+        <v>0.1249589125895823</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>0.011453950561365</v>
       </c>
       <c r="AC3">
         <v>0</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>0.003028604340457946</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -882,13 +882,13 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2869802970211871</v>
+        <v>0.2229819650632389</v>
       </c>
       <c r="E4">
-        <v>0.04180461676120504</v>
+        <v>0.054140272480428</v>
       </c>
       <c r="F4">
-        <v>0.3034899065756578</v>
+        <v>0.2343514060212586</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -906,52 +906,52 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.03430192418427791</v>
+        <v>0.04897349854806408</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.01680768392020967</v>
       </c>
       <c r="N4">
-        <v>0.1027635956017234</v>
+        <v>0.0961200363568406</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.003878859088935221</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0.05391029231897774</v>
+        <v>0.06247691805989709</v>
       </c>
       <c r="S4">
-        <v>0.01182366085333842</v>
+        <v>0.03349370861501081</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.01977598033446267</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0.04703404775400364</v>
+        <v>0.05774155128235835</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>0.006626287458440335</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.008819952274019221</v>
       </c>
       <c r="Y4">
-        <v>0.117891658929629</v>
+        <v>0.1065380672768528</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.0211332044502668</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>0.006140608769716525</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -989,19 +989,19 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.13790370404698</v>
+        <v>0.1235929690994866</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4578659967894611</v>
+        <v>0.3523841177464215</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0109819547268525</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -1013,13 +1013,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.01444076886432326</v>
+        <v>0.03530998264615263</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.1491553997360423</v>
+        <v>0.1316385683445145</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -1028,34 +1028,34 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.006045082988199479</v>
       </c>
       <c r="R5">
-        <v>0.001293747492044546</v>
+        <v>0.02590911826532901</v>
       </c>
       <c r="S5">
-        <v>0.08837669059949577</v>
+        <v>0.08817835133756781</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.01807620809497196</v>
       </c>
       <c r="V5">
-        <v>0.03792726935228849</v>
+        <v>0.05210415979209271</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0.01567580053202151</v>
+        <v>0.03619310018930463</v>
       </c>
       <c r="Y5">
-        <v>0.03753519319041899</v>
+        <v>0.05182380314549435</v>
       </c>
       <c r="Z5">
-        <v>0.05982542939692412</v>
+        <v>0.06776258362361258</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2565394674208354</v>
+        <v>0.2096836020663077</v>
       </c>
       <c r="E6">
-        <v>0.2337107791368202</v>
+        <v>0.1932369044015249</v>
       </c>
       <c r="F6">
-        <v>0.1595247975123572</v>
+        <v>0.139790363997493</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.01138585923281594</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.01073764945913154</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1120,46 +1120,46 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.001579918808869742</v>
       </c>
       <c r="M6">
-        <v>0.1107379366951364</v>
+        <v>0.1046423633812465</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.01979917202906401</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.003810819991113561</v>
+        <v>0.02760780323836777</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0.1184189249111898</v>
+        <v>0.1101760536828766</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.03123896561674014</v>
+        <v>0.04736813344210433</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>0.01000598031887805</v>
       </c>
       <c r="W6">
-        <v>0.001905315073851884</v>
+        <v>0.02623500148633265</v>
       </c>
       <c r="X6">
         <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.08411299364195546</v>
+        <v>0.08546069235004941</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>0.002290502104937686</v>
       </c>
       <c r="AE6">
         <v>0</v>
@@ -1323,70 +1323,70 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1859179992662418</v>
+        <v>0.1608144049558392</v>
       </c>
       <c r="E2">
-        <v>0.1859179992662418</v>
+        <v>0.1608144049558392</v>
       </c>
       <c r="F2">
-        <v>0.6590747668414725</v>
+        <v>0.5311871414239212</v>
       </c>
       <c r="G2">
-        <v>0.6590747668414725</v>
+        <v>0.5311871414239212</v>
       </c>
       <c r="H2">
-        <v>0.6590747668414725</v>
+        <v>0.5410060973777523</v>
       </c>
       <c r="I2">
-        <v>0.6590747668414725</v>
+        <v>0.5410060973777523</v>
       </c>
       <c r="J2">
-        <v>0.6590747668414725</v>
+        <v>0.5410060973777523</v>
       </c>
       <c r="K2">
-        <v>0.6590747668414725</v>
+        <v>0.5410060973777523</v>
       </c>
       <c r="L2">
-        <v>0.6834153139687305</v>
+        <v>0.5839398225089902</v>
       </c>
       <c r="M2">
-        <v>0.6834153139687305</v>
+        <v>0.5907153030175019</v>
       </c>
       <c r="N2">
-        <v>0.8030550708726067</v>
+        <v>0.7031756575546299</v>
       </c>
       <c r="O2">
-        <v>0.8030550708726067</v>
+        <v>0.7031756575546299</v>
       </c>
       <c r="P2">
-        <v>0.8030550708726067</v>
+        <v>0.7141980808316174</v>
       </c>
       <c r="Q2">
-        <v>0.8030550708726067</v>
+        <v>0.7141980808316174</v>
       </c>
       <c r="R2">
-        <v>0.8548903024784373</v>
+        <v>0.7771908677625746</v>
       </c>
       <c r="S2">
-        <v>0.8970598322613771</v>
+        <v>0.8331319312829895</v>
       </c>
       <c r="T2">
-        <v>0.8970598322613771</v>
+        <v>0.8402053567038393</v>
       </c>
       <c r="U2">
-        <v>0.8970598322613771</v>
+        <v>0.8402053567038393</v>
       </c>
       <c r="V2">
-        <v>0.9226176609118335</v>
+        <v>0.884027163504846</v>
       </c>
       <c r="W2">
-        <v>0.9226176609118335</v>
+        <v>0.884027163504846</v>
       </c>
       <c r="X2">
-        <v>0.9226176609118335</v>
+        <v>0.8931932280189662</v>
       </c>
       <c r="Y2">
-        <v>0.9917240071054687</v>
+        <v>0.9687863543041283</v>
       </c>
       <c r="Z2">
         <v>1</v>
@@ -1430,100 +1430,100 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.09708011582087657</v>
+        <v>0.09328758731335501</v>
       </c>
       <c r="E3">
-        <v>0.09708011582087657</v>
+        <v>0.09328758731335501</v>
       </c>
       <c r="F3">
-        <v>0.5545286698173847</v>
+        <v>0.4399920219701463</v>
       </c>
       <c r="G3">
-        <v>0.5545286698173847</v>
+        <v>0.4399920219701463</v>
       </c>
       <c r="H3">
-        <v>0.5545286698173847</v>
+        <v>0.4399920219701463</v>
       </c>
       <c r="I3">
-        <v>0.5545286698173847</v>
+        <v>0.4399920219701463</v>
       </c>
       <c r="J3">
-        <v>0.5545286698173847</v>
+        <v>0.4399920219701463</v>
       </c>
       <c r="K3">
-        <v>0.5545286698173847</v>
+        <v>0.4399920219701463</v>
       </c>
       <c r="L3">
-        <v>0.5802678981735098</v>
+        <v>0.4831115566107278</v>
       </c>
       <c r="M3">
-        <v>0.5802678981735098</v>
+        <v>0.4831115566107278</v>
       </c>
       <c r="N3">
-        <v>0.7046325610555677</v>
+        <v>0.5955860736464588</v>
       </c>
       <c r="O3">
-        <v>0.7046325610555677</v>
+        <v>0.614767933325998</v>
       </c>
       <c r="P3">
-        <v>0.7046325610555677</v>
+        <v>0.614767933325998</v>
       </c>
       <c r="Q3">
-        <v>0.7046325610555677</v>
+        <v>0.614767933325998</v>
       </c>
       <c r="R3">
-        <v>0.7046325610555677</v>
+        <v>0.6305040873521965</v>
       </c>
       <c r="S3">
-        <v>0.7864640661378389</v>
+        <v>0.7130686077973556</v>
       </c>
       <c r="T3">
-        <v>0.7864640661378389</v>
+        <v>0.7130686077973556</v>
       </c>
       <c r="U3">
-        <v>0.789367653631718</v>
+        <v>0.7401297546843543</v>
       </c>
       <c r="V3">
-        <v>0.8022718371034036</v>
+        <v>0.7742234805537999</v>
       </c>
       <c r="W3">
-        <v>0.8022718371034036</v>
+        <v>0.7742234805537999</v>
       </c>
       <c r="X3">
-        <v>0.8578820497005074</v>
+        <v>0.8383487688938911</v>
       </c>
       <c r="Y3">
-        <v>0.8578820497005074</v>
+        <v>0.8605585325085947</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>0.985517445098177</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>0.985517445098177</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>0.996971395659542</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>0.996971395659542</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>0.996971395659542</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -1537,100 +1537,100 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2869802970211871</v>
+        <v>0.2229819650632389</v>
       </c>
       <c r="E4">
-        <v>0.3287849137823922</v>
+        <v>0.2771222375436669</v>
       </c>
       <c r="F4">
-        <v>0.6322748203580499</v>
+        <v>0.5114736435649256</v>
       </c>
       <c r="G4">
-        <v>0.6322748203580499</v>
+        <v>0.5114736435649256</v>
       </c>
       <c r="H4">
-        <v>0.6322748203580499</v>
+        <v>0.5114736435649256</v>
       </c>
       <c r="I4">
-        <v>0.6322748203580499</v>
+        <v>0.5114736435649256</v>
       </c>
       <c r="J4">
-        <v>0.6322748203580499</v>
+        <v>0.5114736435649256</v>
       </c>
       <c r="K4">
-        <v>0.6322748203580499</v>
+        <v>0.5114736435649256</v>
       </c>
       <c r="L4">
-        <v>0.6665767445423278</v>
+        <v>0.5604471421129897</v>
       </c>
       <c r="M4">
-        <v>0.6665767445423278</v>
+        <v>0.5772548260331994</v>
       </c>
       <c r="N4">
-        <v>0.7693403401440513</v>
+        <v>0.6733748623900401</v>
       </c>
       <c r="O4">
-        <v>0.7693403401440513</v>
+        <v>0.6733748623900401</v>
       </c>
       <c r="P4">
-        <v>0.7693403401440513</v>
+        <v>0.6772537214789753</v>
       </c>
       <c r="Q4">
-        <v>0.7693403401440513</v>
+        <v>0.6772537214789753</v>
       </c>
       <c r="R4">
-        <v>0.823250632463029</v>
+        <v>0.7397306395388724</v>
       </c>
       <c r="S4">
-        <v>0.8350742933163674</v>
+        <v>0.7732243481538832</v>
       </c>
       <c r="T4">
-        <v>0.8350742933163674</v>
+        <v>0.7930003284883459</v>
       </c>
       <c r="U4">
-        <v>0.8350742933163674</v>
+        <v>0.7930003284883459</v>
       </c>
       <c r="V4">
-        <v>0.8821083410703711</v>
+        <v>0.8507418797707043</v>
       </c>
       <c r="W4">
-        <v>0.8821083410703711</v>
+        <v>0.8573681672291446</v>
       </c>
       <c r="X4">
-        <v>0.8821083410703711</v>
+        <v>0.8661881195031638</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0.9727261867800165</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>0.9938593912302833</v>
       </c>
       <c r="AA4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AC4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AD4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AE4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -1644,70 +1644,70 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.13790370404698</v>
+        <v>0.1235929690994866</v>
       </c>
       <c r="E5">
-        <v>0.13790370404698</v>
+        <v>0.1235929690994866</v>
       </c>
       <c r="F5">
-        <v>0.5957697008364411</v>
+        <v>0.4759770868459081</v>
       </c>
       <c r="G5">
-        <v>0.5957697008364411</v>
+        <v>0.4759770868459081</v>
       </c>
       <c r="H5">
-        <v>0.5957697008364411</v>
+        <v>0.4869590415727605</v>
       </c>
       <c r="I5">
-        <v>0.5957697008364411</v>
+        <v>0.4869590415727605</v>
       </c>
       <c r="J5">
-        <v>0.5957697008364411</v>
+        <v>0.4869590415727605</v>
       </c>
       <c r="K5">
-        <v>0.5957697008364411</v>
+        <v>0.4869590415727605</v>
       </c>
       <c r="L5">
-        <v>0.6102104697007643</v>
+        <v>0.5222690242189132</v>
       </c>
       <c r="M5">
-        <v>0.6102104697007643</v>
+        <v>0.5222690242189132</v>
       </c>
       <c r="N5">
-        <v>0.7593658694368066</v>
+        <v>0.6539075925634277</v>
       </c>
       <c r="O5">
-        <v>0.7593658694368066</v>
+        <v>0.6539075925634277</v>
       </c>
       <c r="P5">
-        <v>0.7593658694368066</v>
+        <v>0.6539075925634277</v>
       </c>
       <c r="Q5">
-        <v>0.7593658694368066</v>
+        <v>0.6599526755516272</v>
       </c>
       <c r="R5">
-        <v>0.7606596169288512</v>
+        <v>0.6858617938169562</v>
       </c>
       <c r="S5">
-        <v>0.8490363075283469</v>
+        <v>0.774040145154524</v>
       </c>
       <c r="T5">
-        <v>0.8490363075283469</v>
+        <v>0.774040145154524</v>
       </c>
       <c r="U5">
-        <v>0.8490363075283469</v>
+        <v>0.792116353249496</v>
       </c>
       <c r="V5">
-        <v>0.8869635768806354</v>
+        <v>0.8442205130415887</v>
       </c>
       <c r="W5">
-        <v>0.8869635768806354</v>
+        <v>0.8442205130415887</v>
       </c>
       <c r="X5">
-        <v>0.902639377412657</v>
+        <v>0.8804136132308934</v>
       </c>
       <c r="Y5">
-        <v>0.940174570603076</v>
+        <v>0.9322374163763878</v>
       </c>
       <c r="Z5">
         <v>1</v>
@@ -1751,100 +1751,100 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2565394674208354</v>
+        <v>0.2096836020663077</v>
       </c>
       <c r="E6">
-        <v>0.4902502465576556</v>
+        <v>0.4029205064678326</v>
       </c>
       <c r="F6">
-        <v>0.6497750440700129</v>
+        <v>0.5427108704653255</v>
       </c>
       <c r="G6">
-        <v>0.6497750440700129</v>
+        <v>0.5540967296981415</v>
       </c>
       <c r="H6">
-        <v>0.6497750440700129</v>
+        <v>0.5648343791572731</v>
       </c>
       <c r="I6">
-        <v>0.6497750440700129</v>
+        <v>0.5648343791572731</v>
       </c>
       <c r="J6">
-        <v>0.6497750440700129</v>
+        <v>0.5648343791572731</v>
       </c>
       <c r="K6">
-        <v>0.6497750440700129</v>
+        <v>0.5648343791572731</v>
       </c>
       <c r="L6">
-        <v>0.6497750440700129</v>
+        <v>0.5664142979661428</v>
       </c>
       <c r="M6">
-        <v>0.7605129807651493</v>
+        <v>0.6710566613473894</v>
       </c>
       <c r="N6">
-        <v>0.7605129807651493</v>
+        <v>0.6908558333764534</v>
       </c>
       <c r="O6">
-        <v>0.7605129807651493</v>
+        <v>0.6908558333764534</v>
       </c>
       <c r="P6">
-        <v>0.7643238007562628</v>
+        <v>0.7184636366148212</v>
       </c>
       <c r="Q6">
-        <v>0.7643238007562628</v>
+        <v>0.7184636366148212</v>
       </c>
       <c r="R6">
-        <v>0.8827427256674527</v>
+        <v>0.8286396902976977</v>
       </c>
       <c r="S6">
-        <v>0.8827427256674527</v>
+        <v>0.8286396902976977</v>
       </c>
       <c r="T6">
-        <v>0.9139816912841928</v>
+        <v>0.876007823739802</v>
       </c>
       <c r="U6">
-        <v>0.9139816912841928</v>
+        <v>0.876007823739802</v>
       </c>
       <c r="V6">
-        <v>0.9139816912841928</v>
+        <v>0.88601380405868</v>
       </c>
       <c r="W6">
-        <v>0.9158870063580447</v>
+        <v>0.9122488055450126</v>
       </c>
       <c r="X6">
-        <v>0.9158870063580447</v>
+        <v>0.9122488055450126</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>0.997709497895062</v>
       </c>
       <c r="Z6">
-        <v>1</v>
+        <v>0.997709497895062</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0.997709497895062</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0.997709497895062</v>
       </c>
       <c r="AC6">
-        <v>1</v>
+        <v>0.997709497895062</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0.9999999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6590747668414725</v>
+        <v>0.5311871414239212</v>
       </c>
       <c r="G2">
         <v>4</v>
@@ -1953,16 +1953,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5545286698173847</v>
+        <v>0.5955860736464588</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H3">
         <v>60</v>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6322748203580499</v>
+        <v>0.5114736435649256</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -2035,16 +2035,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5957697008364411</v>
+        <v>0.5222690242189132</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>60</v>
@@ -2082,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6497750440700129</v>
+        <v>0.5427108704653255</v>
       </c>
       <c r="G6">
         <v>4</v>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8030550708726067</v>
+        <v>0.7031756575546299</v>
       </c>
       <c r="G2">
         <v>12</v>
@@ -2212,16 +2212,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7046325610555677</v>
+        <v>0.7130686077973556</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>60</v>
@@ -2253,16 +2253,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7693403401440513</v>
+        <v>0.7397306395388724</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H4">
         <v>60</v>
@@ -2294,16 +2294,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7593658694368066</v>
+        <v>0.774040145154524</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>60</v>
@@ -2335,16 +2335,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7605129807651493</v>
+        <v>0.7184636366148212</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H6">
         <v>60</v>
@@ -2430,16 +2430,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8030550708726067</v>
+        <v>0.8331319312829895</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H2">
         <v>60</v>
@@ -2471,16 +2471,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8022718371034036</v>
+        <v>0.8383487688938911</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H3">
         <v>60</v>
@@ -2512,16 +2512,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.823250632463029</v>
+        <v>0.8507418797707043</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H4">
         <v>60</v>
@@ -2553,16 +2553,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8490363075283469</v>
+        <v>0.8442205130415887</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H5">
         <v>60</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8827427256674527</v>
+        <v>0.8286396902976977</v>
       </c>
       <c r="G6">
         <v>16</v>
@@ -2689,16 +2689,16 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9226176609118335</v>
+        <v>0.9687863543041283</v>
       </c>
       <c r="G2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H2">
         <v>60</v>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.985517445098177</v>
       </c>
       <c r="G3">
         <v>24</v>
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.9727261867800165</v>
       </c>
       <c r="G4">
         <v>23</v>
@@ -2812,16 +2812,16 @@
         <v>1</v>
       </c>
       <c r="D5">
+        <v>24</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.9322374163763878</v>
+      </c>
+      <c r="G5">
         <v>23</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.902639377412657</v>
-      </c>
-      <c r="G5">
-        <v>22</v>
       </c>
       <c r="H5">
         <v>60</v>
@@ -2853,16 +2853,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9139816912841928</v>
+        <v>0.9122488055450126</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H6">
         <v>60</v>
